--- a/Produccion Propia/Cronogramas/Cronograma_Actividades_Grupales.xlsx
+++ b/Produccion Propia/Cronogramas/Cronograma_Actividades_Grupales.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Facu\4º año\Ingenieria de Software (ISW)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F301638B-15CB-4892-A236-9CC0B4532F45}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D5AC7C-CDFF-44B3-8840-54D6BA00C025}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9510" tabRatio="741" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -111,7 +111,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="65">
   <si>
     <t>Día de la semana</t>
   </si>
@@ -297,13 +297,16 @@
     <t xml:space="preserve">Clase Teorica: Meles: Final de temas de SCM con repaso de clase pasada </t>
   </si>
   <si>
-    <t>1er Teorico Grupal - Pecha Cucha</t>
+    <t>Clase Teorica: Testing de Software</t>
   </si>
   <si>
-    <t>Llevar dudas de temas del 1er tp teorico</t>
+    <t>1er Teorico Grupal - Pecha Kucha</t>
   </si>
   <si>
-    <t>Clase Teorica: Testing de Software</t>
+    <t>Llevar dudas de temas del 1er tp teorico. Clase teorica: Revisiones tecnicas</t>
+  </si>
+  <si>
+    <t>Revision final de Pecha Kucha antes de presentar</t>
   </si>
 </sst>
 </file>
@@ -837,16 +840,25 @@
     <xf numFmtId="169" fontId="19" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="15">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="12" applyBorder="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="12" applyBorder="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="20" fontId="13" fillId="2" borderId="10" xfId="21" applyNumberFormat="1" applyBorder="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="19" applyFont="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="20" fontId="13" fillId="2" borderId="10" xfId="21" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="20" fontId="13" fillId="2" borderId="3" xfId="21" applyNumberFormat="1" applyBorder="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="19" applyFont="1" applyBorder="1">
@@ -855,29 +867,20 @@
     <xf numFmtId="20" fontId="13" fillId="2" borderId="0" xfId="21" applyNumberFormat="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="20" fontId="13" fillId="2" borderId="3" xfId="21" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="19" applyBorder="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="13" fillId="2" borderId="0" xfId="21">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="20" fontId="13" fillId="2" borderId="10" xfId="21" applyBorder="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="20" fontId="13" fillId="2" borderId="0" xfId="21">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="19" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="19" applyFont="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
     <xf numFmtId="20" fontId="1" fillId="2" borderId="0" xfId="19" applyNumberFormat="1" applyFont="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="19" applyFont="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="15">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="22">
@@ -905,6 +908,9 @@
     <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="106">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <border>
         <left style="thin">
@@ -972,6 +978,9 @@
       </font>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border>
         <left style="thin">
           <color theme="0"/>
@@ -1036,6 +1045,9 @@
       <font>
         <color theme="0" tint="-0.24994659260841701"/>
       </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border>
@@ -1125,6 +1137,9 @@
       </font>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border>
         <left style="thin">
           <color theme="0"/>
@@ -1191,6 +1206,9 @@
       </font>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border>
         <left style="thin">
           <color theme="0"/>
@@ -1254,6 +1272,21 @@
     <dxf>
       <font>
         <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
       </font>
     </dxf>
     <dxf>
@@ -1323,69 +1356,18 @@
       </font>
     </dxf>
     <dxf>
-      <border>
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
         <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
+        <name val="Arial"/>
+        <family val="2"/>
       </font>
     </dxf>
     <dxf>
@@ -1455,69 +1437,18 @@
       </font>
     </dxf>
     <dxf>
-      <border>
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
         <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
+        <name val="Arial"/>
+        <family val="2"/>
       </font>
     </dxf>
     <dxf>
@@ -1587,6 +1518,21 @@
       </font>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
       <border>
         <left style="thin">
           <color theme="0"/>
@@ -1651,6 +1597,159 @@
       <font>
         <color theme="0" tint="-0.24994659260841701"/>
       </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border>
@@ -1725,102 +1824,6 @@
       <font>
         <color theme="0" tint="-0.24994659260841701"/>
       </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1906,7 +1909,7 @@
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Día de la semana" dataCellStyle="Encabezado 4"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="día de calendario" dataCellStyle="Fecha"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="TAREAS" dataDxfId="102"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="TAREAS" dataDxfId="95"/>
   </tableColumns>
   <tableStyleInfo name="Tareas" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1927,7 +1930,7 @@
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="Día de la semana" dataCellStyle="Encabezado 4"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="día de calendario" dataCellStyle="Fecha"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="TAREAS" dataDxfId="88"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="TAREAS" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="Tareas" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1948,7 +1951,7 @@
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0A00-000001000000}" name="Día de la semana" dataCellStyle="Encabezado 4"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0A00-000002000000}" name="día de calendario" dataCellStyle="Fecha"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0A00-000003000000}" name="TAREAS" dataDxfId="87"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0A00-000003000000}" name="TAREAS" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="Tareas" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1969,7 +1972,7 @@
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0B00-000001000000}" name="Día de la semana" dataCellStyle="Encabezado 4"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0B00-000002000000}" name="día de calendario" dataCellStyle="Fecha"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0B00-000003000000}" name="TAREAS" dataDxfId="86" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0B00-000003000000}" name="TAREAS" dataDxfId="0" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="Tareas" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1990,7 +1993,7 @@
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Día de la semana" dataCellStyle="Encabezado 4"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="día de calendario" dataCellStyle="Fecha"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="TAREAS" dataDxfId="101" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="TAREAS" dataDxfId="87" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="Tareas" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2002,7 +2005,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="MarzoTareas" displayName="MarzoTareas" ref="J1:L31" totalsRowShown="0" headerRowDxfId="100">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="MarzoTareas" displayName="MarzoTareas" ref="J1:L31" totalsRowShown="0" headerRowDxfId="79">
   <autoFilter ref="J1:L31" xr:uid="{00000000-0009-0000-0100-000003000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -2011,7 +2014,7 @@
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Día de la semana" dataCellStyle="Encabezado 4"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="día de calendario" dataCellStyle="Fecha"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="TAREAS - Comentarios" dataDxfId="99"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="TAREAS - Comentarios" dataDxfId="78"/>
   </tableColumns>
   <tableStyleInfo name="Tareas" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2023,7 +2026,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="AbrilTareas" displayName="AbrilTareas" ref="J1:L31" totalsRowShown="0" headerRowDxfId="98">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="AbrilTareas" displayName="AbrilTareas" ref="J1:L31" totalsRowShown="0" headerRowDxfId="70">
   <autoFilter ref="J1:L31" xr:uid="{00000000-0009-0000-0100-000004000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -2032,7 +2035,7 @@
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Día de la semana" dataCellStyle="Encabezado 4"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="día de calendario" dataCellStyle="Fecha"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="TAREAS - Comentarios" dataDxfId="97"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="TAREAS - Comentarios" dataDxfId="69"/>
   </tableColumns>
   <tableStyleInfo name="Tareas" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2044,7 +2047,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="MayoTareas" displayName="MayoTareas" ref="J1:L31" totalsRowShown="0" headerRowDxfId="96">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="MayoTareas" displayName="MayoTareas" ref="J1:L31" totalsRowShown="0" headerRowDxfId="61">
   <autoFilter ref="J1:L31" xr:uid="{00000000-0009-0000-0100-000005000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -2053,7 +2056,7 @@
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Día de la semana" dataCellStyle="Encabezado 4"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="día de calendario" dataCellStyle="Fecha"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="TAREAS - Comentarios" dataDxfId="95"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="TAREAS - Comentarios" dataDxfId="60"/>
   </tableColumns>
   <tableStyleInfo name="Tareas" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2065,7 +2068,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="JunioTareas" displayName="JunioTareas" ref="J1:L31" totalsRowShown="0" headerRowDxfId="94">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="JunioTareas" displayName="JunioTareas" ref="J1:L31" totalsRowShown="0" headerRowDxfId="52">
   <autoFilter ref="J1:L31" xr:uid="{00000000-0009-0000-0100-000006000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -2074,7 +2077,7 @@
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Día de la semana" dataCellStyle="Encabezado 4"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="día de calendario" dataCellStyle="Fecha"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="TAREAS - Comentarios" dataDxfId="93"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="TAREAS - Comentarios" dataDxfId="51"/>
   </tableColumns>
   <tableStyleInfo name="Tareas" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2086,7 +2089,7 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="JulioTareas" displayName="JulioTareas" ref="J1:L31" totalsRowShown="0" headerRowDxfId="92">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="JulioTareas" displayName="JulioTareas" ref="J1:L31" totalsRowShown="0" headerRowDxfId="43">
   <autoFilter ref="J1:L31" xr:uid="{00000000-0009-0000-0100-000007000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -2095,7 +2098,7 @@
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="Día de la semana" dataCellStyle="Encabezado 4"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="día de calendario" dataCellStyle="Fecha"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="TAREAS - Comentarios" dataDxfId="91"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="TAREAS - Comentarios" dataDxfId="42"/>
   </tableColumns>
   <tableStyleInfo name="Tareas" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2116,7 +2119,7 @@
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="Día de la semana" dataCellStyle="Encabezado 4"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="día de calendario" dataCellStyle="Fecha"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="TAREAS" dataDxfId="90"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="TAREAS" dataDxfId="34"/>
   </tableColumns>
   <tableStyleInfo name="Tareas" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2137,7 +2140,7 @@
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="Día de la semana" dataCellStyle="Encabezado 4"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="día de calendario" dataCellStyle="Fecha"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="TAREAS" dataDxfId="89"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="TAREAS" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="Tareas" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2771,18 +2774,18 @@
       <c r="B11" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="65" t="s">
+      <c r="C11" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="66"/>
-      <c r="E11" s="65" t="s">
+      <c r="D11" s="68"/>
+      <c r="E11" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="66"/>
-      <c r="G11" s="65" t="s">
+      <c r="F11" s="68"/>
+      <c r="G11" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="H11" s="66"/>
+      <c r="H11" s="68"/>
       <c r="I11" s="3" t="s">
         <v>33</v>
       </c>
@@ -2797,14 +2800,14 @@
       <c r="B12" s="41">
         <v>0.33333333333333331</v>
       </c>
-      <c r="C12" s="68"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="68">
+      <c r="C12" s="69"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="69">
         <v>0.33333333333333331</v>
       </c>
-      <c r="F12" s="68"/>
-      <c r="G12" s="68"/>
-      <c r="H12" s="68"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="69"/>
+      <c r="H12" s="69"/>
       <c r="I12" s="44">
         <v>0.33333333333333331</v>
       </c>
@@ -2819,14 +2822,14 @@
       <c r="B13" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="67"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="67" t="s">
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="F13" s="67"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="67"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
       <c r="I13" s="43" t="s">
         <v>5</v>
       </c>
@@ -2839,13 +2842,13 @@
         <v>1</v>
       </c>
       <c r="B14" s="34"/>
-      <c r="C14" s="68">
+      <c r="C14" s="69">
         <v>0.375</v>
       </c>
-      <c r="D14" s="68"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="68"/>
-      <c r="G14" s="68">
+      <c r="D14" s="69"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="69">
         <v>0.375</v>
       </c>
       <c r="H14" s="71"/>
@@ -2861,16 +2864,16 @@
         <v>2</v>
       </c>
       <c r="B15" s="27"/>
-      <c r="C15" s="67" t="s">
+      <c r="C15" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="67"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="67"/>
-      <c r="G15" s="67" t="s">
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="67"/>
+      <c r="H15" s="70"/>
       <c r="I15" s="43"/>
       <c r="J15" s="10"/>
       <c r="K15" s="36"/>
@@ -2883,13 +2886,13 @@
       <c r="B16" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="68"/>
-      <c r="D16" s="68"/>
-      <c r="E16" s="68" t="s">
+      <c r="C16" s="69"/>
+      <c r="D16" s="69"/>
+      <c r="E16" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="F16" s="68"/>
-      <c r="G16" s="68"/>
+      <c r="F16" s="69"/>
+      <c r="G16" s="69"/>
       <c r="H16" s="71"/>
       <c r="I16" s="44" t="s">
         <v>6</v>
@@ -2905,14 +2908,14 @@
       <c r="B17" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="67"/>
-      <c r="D17" s="67"/>
-      <c r="E17" s="67" t="s">
+      <c r="C17" s="70"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="F17" s="67"/>
-      <c r="G17" s="67"/>
-      <c r="H17" s="67"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="70"/>
       <c r="I17" s="43" t="s">
         <v>7</v>
       </c>
@@ -2925,11 +2928,11 @@
         <v>1</v>
       </c>
       <c r="B18" s="34"/>
-      <c r="C18" s="68"/>
-      <c r="D18" s="68"/>
-      <c r="E18" s="68"/>
-      <c r="F18" s="68"/>
-      <c r="G18" s="68"/>
+      <c r="C18" s="69"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="69"/>
       <c r="H18" s="71"/>
       <c r="I18" s="44"/>
       <c r="J18" s="10"/>
@@ -2941,12 +2944,12 @@
         <v>2</v>
       </c>
       <c r="B19" s="27"/>
-      <c r="C19" s="67"/>
-      <c r="D19" s="67"/>
-      <c r="E19" s="67"/>
-      <c r="F19" s="67"/>
-      <c r="G19" s="67"/>
-      <c r="H19" s="67"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="70"/>
       <c r="I19" s="46"/>
       <c r="J19" s="20"/>
       <c r="K19" s="35"/>
@@ -2957,11 +2960,11 @@
         <v>1</v>
       </c>
       <c r="B20" s="34"/>
-      <c r="C20" s="68"/>
-      <c r="D20" s="68"/>
-      <c r="E20" s="68"/>
-      <c r="F20" s="68"/>
-      <c r="G20" s="68"/>
+      <c r="C20" s="69"/>
+      <c r="D20" s="69"/>
+      <c r="E20" s="69"/>
+      <c r="F20" s="69"/>
+      <c r="G20" s="69"/>
       <c r="H20" s="71"/>
       <c r="I20" s="44"/>
       <c r="J20" s="10" t="s">
@@ -2975,12 +2978,12 @@
         <v>2</v>
       </c>
       <c r="B21" s="27"/>
-      <c r="C21" s="67"/>
-      <c r="D21" s="67"/>
-      <c r="E21" s="67"/>
-      <c r="F21" s="67"/>
-      <c r="G21" s="67"/>
-      <c r="H21" s="67"/>
+      <c r="C21" s="70"/>
+      <c r="D21" s="70"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="70"/>
+      <c r="G21" s="70"/>
+      <c r="H21" s="70"/>
       <c r="I21" s="43"/>
       <c r="J21" s="10"/>
       <c r="K21" s="36"/>
@@ -2991,11 +2994,11 @@
         <v>1</v>
       </c>
       <c r="B22" s="34"/>
-      <c r="C22" s="68"/>
-      <c r="D22" s="68"/>
-      <c r="E22" s="68"/>
-      <c r="F22" s="68"/>
-      <c r="G22" s="68"/>
+      <c r="C22" s="69"/>
+      <c r="D22" s="69"/>
+      <c r="E22" s="69"/>
+      <c r="F22" s="69"/>
+      <c r="G22" s="69"/>
       <c r="H22" s="71"/>
       <c r="I22" s="44"/>
       <c r="J22" s="10"/>
@@ -3007,12 +3010,12 @@
         <v>2</v>
       </c>
       <c r="B23" s="27"/>
-      <c r="C23" s="67"/>
-      <c r="D23" s="67"/>
-      <c r="E23" s="67"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="67"/>
-      <c r="H23" s="67"/>
+      <c r="C23" s="70"/>
+      <c r="D23" s="70"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="70"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="70"/>
       <c r="I23" s="43"/>
       <c r="J23" s="10"/>
       <c r="K23" s="36"/>
@@ -3025,13 +3028,13 @@
       <c r="B24" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="68"/>
-      <c r="D24" s="68"/>
-      <c r="E24" s="68" t="s">
+      <c r="C24" s="69"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="68"/>
-      <c r="G24" s="68"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="69"/>
       <c r="H24" s="71"/>
       <c r="I24" s="44" t="s">
         <v>8</v>
@@ -3047,14 +3050,14 @@
       <c r="B25" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="67"/>
-      <c r="D25" s="67"/>
-      <c r="E25" s="67" t="s">
+      <c r="C25" s="70"/>
+      <c r="D25" s="70"/>
+      <c r="E25" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="F25" s="67"/>
-      <c r="G25" s="67"/>
-      <c r="H25" s="67"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="70"/>
       <c r="I25" s="43" t="s">
         <v>9</v>
       </c>
@@ -3067,11 +3070,11 @@
         <v>1</v>
       </c>
       <c r="B26" s="34"/>
-      <c r="C26" s="68"/>
-      <c r="D26" s="68"/>
-      <c r="E26" s="68"/>
-      <c r="F26" s="68"/>
-      <c r="G26" s="68"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="69"/>
+      <c r="G26" s="69"/>
       <c r="H26" s="71"/>
       <c r="I26" s="44"/>
       <c r="J26" s="10" t="s">
@@ -3085,12 +3088,12 @@
         <v>2</v>
       </c>
       <c r="B27" s="27"/>
-      <c r="C27" s="67"/>
-      <c r="D27" s="67"/>
-      <c r="E27" s="67"/>
-      <c r="F27" s="67"/>
-      <c r="G27" s="67"/>
-      <c r="H27" s="67"/>
+      <c r="C27" s="70"/>
+      <c r="D27" s="70"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="70"/>
       <c r="I27" s="43"/>
       <c r="J27" s="10"/>
       <c r="K27" s="36"/>
@@ -3101,13 +3104,13 @@
         <v>1</v>
       </c>
       <c r="B28" s="34"/>
-      <c r="C28" s="68" t="s">
+      <c r="C28" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="D28" s="68"/>
-      <c r="E28" s="68"/>
-      <c r="F28" s="68"/>
-      <c r="G28" s="68" t="s">
+      <c r="D28" s="69"/>
+      <c r="E28" s="69"/>
+      <c r="F28" s="69"/>
+      <c r="G28" s="69" t="s">
         <v>12</v>
       </c>
       <c r="H28" s="71"/>
@@ -3121,16 +3124,16 @@
         <v>2</v>
       </c>
       <c r="B29" s="27"/>
-      <c r="C29" s="67" t="s">
+      <c r="C29" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="67"/>
-      <c r="E29" s="67"/>
-      <c r="F29" s="67"/>
-      <c r="G29" s="67" t="s">
+      <c r="D29" s="70"/>
+      <c r="E29" s="70"/>
+      <c r="F29" s="70"/>
+      <c r="G29" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="H29" s="67"/>
+      <c r="H29" s="70"/>
       <c r="I29" s="43"/>
       <c r="J29" s="10"/>
       <c r="K29" s="36"/>
@@ -3141,12 +3144,12 @@
         <v>1</v>
       </c>
       <c r="B30" s="34"/>
-      <c r="C30" s="70"/>
-      <c r="D30" s="70"/>
-      <c r="E30" s="70"/>
-      <c r="F30" s="70"/>
-      <c r="G30" s="70"/>
-      <c r="H30" s="70"/>
+      <c r="C30" s="73"/>
+      <c r="D30" s="73"/>
+      <c r="E30" s="73"/>
+      <c r="F30" s="73"/>
+      <c r="G30" s="73"/>
+      <c r="H30" s="73"/>
       <c r="I30" s="44"/>
       <c r="J30" s="10"/>
       <c r="K30" s="36"/>
@@ -3157,12 +3160,12 @@
         <v>2</v>
       </c>
       <c r="B31" s="28"/>
-      <c r="C31" s="69"/>
-      <c r="D31" s="69"/>
-      <c r="E31" s="69"/>
-      <c r="F31" s="69"/>
-      <c r="G31" s="69"/>
-      <c r="H31" s="69"/>
+      <c r="C31" s="72"/>
+      <c r="D31" s="72"/>
+      <c r="E31" s="72"/>
+      <c r="F31" s="72"/>
+      <c r="G31" s="72"/>
+      <c r="H31" s="72"/>
       <c r="I31" s="29"/>
       <c r="J31" s="15"/>
       <c r="K31" s="42"/>
@@ -3171,32 +3174,27 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="63">
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C20:D20"/>
@@ -3213,61 +3211,66 @@
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="E20:F20"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C3:H3">
-    <cfRule type="expression" dxfId="85" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="102" priority="9" stopIfTrue="1">
       <formula>DAY(C3)&gt;8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:I8">
-    <cfRule type="expression" dxfId="84" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="101" priority="8" stopIfTrue="1">
       <formula>AND(DAY(C7)&gt;=1,DAY(C7)&lt;=15)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:I8">
-    <cfRule type="expression" dxfId="83" priority="20">
+    <cfRule type="expression" dxfId="100" priority="20">
       <formula>VLOOKUP(DAY(C3),AssignmentDays,1,FALSE)=DAY(C3)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:I12 B14:I14 B16:I16 B18:I18 B20:I20 B22:I22 B24:I24 B26:I26 B28:I28 B30:I30">
-    <cfRule type="expression" dxfId="82" priority="6">
+    <cfRule type="expression" dxfId="99" priority="6">
       <formula>B12&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:I13 B15:I15 B17:I17 B19:I19 B21:I21 B23:I23 B25:I25 B27:I27 B29:I29 B31:I31">
-    <cfRule type="expression" dxfId="81" priority="4">
+    <cfRule type="expression" dxfId="98" priority="4">
       <formula>B13&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:I13 B15:I15 B17:I17 B19:I19 B21:I21 B23:I23 B25:I25 B27:I27 B29:I29">
-    <cfRule type="expression" dxfId="80" priority="3">
+    <cfRule type="expression" dxfId="97" priority="3">
       <formula>COLUMN(B12)&gt;=2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:I31">
-    <cfRule type="expression" dxfId="79" priority="1">
+    <cfRule type="expression" dxfId="96" priority="1">
       <formula>COLUMN(B11)&gt;2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3616,18 +3619,18 @@
       <c r="B11" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="65" t="s">
+      <c r="C11" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="66"/>
-      <c r="E11" s="65" t="s">
+      <c r="D11" s="68"/>
+      <c r="E11" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="66"/>
-      <c r="G11" s="65" t="s">
+      <c r="F11" s="68"/>
+      <c r="G11" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="H11" s="66"/>
+      <c r="H11" s="68"/>
       <c r="I11" s="3" t="s">
         <v>33</v>
       </c>
@@ -3642,14 +3645,14 @@
       <c r="B12" s="21">
         <v>0.33333333333333331</v>
       </c>
-      <c r="C12" s="73"/>
-      <c r="D12" s="73"/>
-      <c r="E12" s="73">
+      <c r="C12" s="75"/>
+      <c r="D12" s="75"/>
+      <c r="E12" s="75">
         <v>0.33333333333333331</v>
       </c>
-      <c r="F12" s="73"/>
-      <c r="G12" s="73"/>
-      <c r="H12" s="73"/>
+      <c r="F12" s="75"/>
+      <c r="G12" s="75"/>
+      <c r="H12" s="75"/>
       <c r="I12" s="22">
         <v>0.33333333333333331</v>
       </c>
@@ -3664,14 +3667,14 @@
       <c r="B13" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="67"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="67" t="s">
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="F13" s="67"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="67"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
       <c r="I13" s="30" t="s">
         <v>5</v>
       </c>
@@ -3684,16 +3687,16 @@
         <v>1</v>
       </c>
       <c r="B14" s="21"/>
-      <c r="C14" s="73">
+      <c r="C14" s="75">
         <v>0.375</v>
       </c>
-      <c r="D14" s="73"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73"/>
-      <c r="G14" s="73">
+      <c r="D14" s="75"/>
+      <c r="E14" s="75"/>
+      <c r="F14" s="75"/>
+      <c r="G14" s="75">
         <v>0.375</v>
       </c>
-      <c r="H14" s="73"/>
+      <c r="H14" s="75"/>
       <c r="I14" s="22"/>
       <c r="J14" s="10" t="s">
         <v>31</v>
@@ -3706,16 +3709,16 @@
         <v>2</v>
       </c>
       <c r="B15" s="27"/>
-      <c r="C15" s="67" t="s">
+      <c r="C15" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="67"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="67"/>
-      <c r="G15" s="67" t="s">
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="67"/>
+      <c r="H15" s="70"/>
       <c r="I15" s="30"/>
       <c r="J15" s="10"/>
       <c r="K15" s="36"/>
@@ -3728,14 +3731,14 @@
       <c r="B16" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="73"/>
-      <c r="D16" s="73"/>
-      <c r="E16" s="73" t="s">
+      <c r="C16" s="75"/>
+      <c r="D16" s="75"/>
+      <c r="E16" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="F16" s="73"/>
-      <c r="G16" s="73"/>
-      <c r="H16" s="73"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="75"/>
+      <c r="H16" s="75"/>
       <c r="I16" s="24" t="s">
         <v>6</v>
       </c>
@@ -3750,14 +3753,14 @@
       <c r="B17" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="67"/>
-      <c r="D17" s="67"/>
-      <c r="E17" s="67" t="s">
+      <c r="C17" s="70"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="F17" s="67"/>
-      <c r="G17" s="67"/>
-      <c r="H17" s="67"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="70"/>
       <c r="I17" s="30" t="s">
         <v>7</v>
       </c>
@@ -3770,12 +3773,12 @@
         <v>1</v>
       </c>
       <c r="B18" s="21"/>
-      <c r="C18" s="73"/>
-      <c r="D18" s="73"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="73"/>
-      <c r="G18" s="73"/>
-      <c r="H18" s="73"/>
+      <c r="C18" s="75"/>
+      <c r="D18" s="75"/>
+      <c r="E18" s="75"/>
+      <c r="F18" s="75"/>
+      <c r="G18" s="75"/>
+      <c r="H18" s="75"/>
       <c r="I18" s="22"/>
       <c r="J18" s="10"/>
       <c r="K18" s="36"/>
@@ -3786,12 +3789,12 @@
         <v>2</v>
       </c>
       <c r="B19" s="27"/>
-      <c r="C19" s="67"/>
-      <c r="D19" s="67"/>
-      <c r="E19" s="67"/>
-      <c r="F19" s="67"/>
-      <c r="G19" s="67"/>
-      <c r="H19" s="67"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="70"/>
       <c r="I19" s="47"/>
       <c r="J19" s="20"/>
       <c r="K19" s="35"/>
@@ -3802,12 +3805,12 @@
         <v>1</v>
       </c>
       <c r="B20" s="21"/>
-      <c r="C20" s="73"/>
-      <c r="D20" s="73"/>
-      <c r="E20" s="73"/>
-      <c r="F20" s="73"/>
-      <c r="G20" s="73"/>
-      <c r="H20" s="73"/>
+      <c r="C20" s="75"/>
+      <c r="D20" s="75"/>
+      <c r="E20" s="75"/>
+      <c r="F20" s="75"/>
+      <c r="G20" s="75"/>
+      <c r="H20" s="75"/>
       <c r="I20" s="22"/>
       <c r="J20" s="10" t="s">
         <v>32</v>
@@ -3820,12 +3823,12 @@
         <v>2</v>
       </c>
       <c r="B21" s="27"/>
-      <c r="C21" s="67"/>
-      <c r="D21" s="67"/>
-      <c r="E21" s="67"/>
-      <c r="F21" s="67"/>
-      <c r="G21" s="67"/>
-      <c r="H21" s="67"/>
+      <c r="C21" s="70"/>
+      <c r="D21" s="70"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="70"/>
+      <c r="G21" s="70"/>
+      <c r="H21" s="70"/>
       <c r="I21" s="30"/>
       <c r="J21" s="10"/>
       <c r="K21" s="36"/>
@@ -3836,12 +3839,12 @@
         <v>1</v>
       </c>
       <c r="B22" s="21"/>
-      <c r="C22" s="73"/>
-      <c r="D22" s="73"/>
-      <c r="E22" s="73"/>
-      <c r="F22" s="73"/>
-      <c r="G22" s="73"/>
-      <c r="H22" s="73"/>
+      <c r="C22" s="75"/>
+      <c r="D22" s="75"/>
+      <c r="E22" s="75"/>
+      <c r="F22" s="75"/>
+      <c r="G22" s="75"/>
+      <c r="H22" s="75"/>
       <c r="I22" s="22"/>
       <c r="J22" s="10"/>
       <c r="K22" s="36"/>
@@ -3852,12 +3855,12 @@
         <v>2</v>
       </c>
       <c r="B23" s="27"/>
-      <c r="C23" s="67"/>
-      <c r="D23" s="67"/>
-      <c r="E23" s="67"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="67"/>
-      <c r="H23" s="67"/>
+      <c r="C23" s="70"/>
+      <c r="D23" s="70"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="70"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="70"/>
       <c r="I23" s="30"/>
       <c r="J23" s="10"/>
       <c r="K23" s="36"/>
@@ -3870,14 +3873,14 @@
       <c r="B24" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="73"/>
-      <c r="D24" s="73"/>
-      <c r="E24" s="73" t="s">
+      <c r="C24" s="75"/>
+      <c r="D24" s="75"/>
+      <c r="E24" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="73"/>
-      <c r="G24" s="73"/>
-      <c r="H24" s="73"/>
+      <c r="F24" s="75"/>
+      <c r="G24" s="75"/>
+      <c r="H24" s="75"/>
       <c r="I24" s="22" t="s">
         <v>8</v>
       </c>
@@ -3892,14 +3895,14 @@
       <c r="B25" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="67"/>
-      <c r="D25" s="67"/>
-      <c r="E25" s="67" t="s">
+      <c r="C25" s="70"/>
+      <c r="D25" s="70"/>
+      <c r="E25" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="F25" s="67"/>
-      <c r="G25" s="67"/>
-      <c r="H25" s="67"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="70"/>
       <c r="I25" s="30" t="s">
         <v>9</v>
       </c>
@@ -3912,12 +3915,12 @@
         <v>1</v>
       </c>
       <c r="B26" s="21"/>
-      <c r="C26" s="73"/>
-      <c r="D26" s="73"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="73"/>
-      <c r="H26" s="73"/>
+      <c r="C26" s="75"/>
+      <c r="D26" s="75"/>
+      <c r="E26" s="75"/>
+      <c r="F26" s="75"/>
+      <c r="G26" s="75"/>
+      <c r="H26" s="75"/>
       <c r="I26" s="22"/>
       <c r="J26" s="10" t="s">
         <v>33</v>
@@ -3930,12 +3933,12 @@
         <v>2</v>
       </c>
       <c r="B27" s="27"/>
-      <c r="C27" s="67"/>
-      <c r="D27" s="67"/>
-      <c r="E27" s="67"/>
-      <c r="F27" s="67"/>
-      <c r="G27" s="67"/>
-      <c r="H27" s="67"/>
+      <c r="C27" s="70"/>
+      <c r="D27" s="70"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="70"/>
       <c r="I27" s="30"/>
       <c r="J27" s="10"/>
       <c r="K27" s="36"/>
@@ -3946,16 +3949,16 @@
         <v>1</v>
       </c>
       <c r="B28" s="21"/>
-      <c r="C28" s="73" t="s">
+      <c r="C28" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="D28" s="73"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
-      <c r="G28" s="73" t="s">
+      <c r="D28" s="75"/>
+      <c r="E28" s="75"/>
+      <c r="F28" s="75"/>
+      <c r="G28" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="H28" s="73"/>
+      <c r="H28" s="75"/>
       <c r="I28" s="22"/>
       <c r="J28" s="10"/>
       <c r="K28" s="36"/>
@@ -3966,16 +3969,16 @@
         <v>2</v>
       </c>
       <c r="B29" s="27"/>
-      <c r="C29" s="67" t="s">
+      <c r="C29" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="67"/>
-      <c r="E29" s="67"/>
-      <c r="F29" s="67"/>
-      <c r="G29" s="67" t="s">
+      <c r="D29" s="70"/>
+      <c r="E29" s="70"/>
+      <c r="F29" s="70"/>
+      <c r="G29" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="H29" s="67"/>
+      <c r="H29" s="70"/>
       <c r="I29" s="30"/>
       <c r="J29" s="10"/>
       <c r="K29" s="36"/>
@@ -3986,12 +3989,12 @@
         <v>1</v>
       </c>
       <c r="B30" s="21"/>
-      <c r="C30" s="73"/>
-      <c r="D30" s="73"/>
-      <c r="E30" s="73"/>
-      <c r="F30" s="73"/>
-      <c r="G30" s="73"/>
-      <c r="H30" s="73"/>
+      <c r="C30" s="75"/>
+      <c r="D30" s="75"/>
+      <c r="E30" s="75"/>
+      <c r="F30" s="75"/>
+      <c r="G30" s="75"/>
+      <c r="H30" s="75"/>
       <c r="I30" s="22"/>
       <c r="J30" s="10"/>
       <c r="K30" s="36"/>
@@ -4002,12 +4005,12 @@
         <v>2</v>
       </c>
       <c r="B31" s="28"/>
-      <c r="C31" s="69"/>
-      <c r="D31" s="69"/>
-      <c r="E31" s="69"/>
-      <c r="F31" s="69"/>
-      <c r="G31" s="69"/>
-      <c r="H31" s="69"/>
+      <c r="C31" s="72"/>
+      <c r="D31" s="72"/>
+      <c r="E31" s="72"/>
+      <c r="F31" s="72"/>
+      <c r="G31" s="72"/>
+      <c r="H31" s="72"/>
       <c r="I31" s="40"/>
       <c r="J31" s="10"/>
       <c r="K31" s="42"/>
@@ -4015,60 +4018,6 @@
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="G31:H31"/>
@@ -4078,47 +4027,101 @@
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="G30:H30"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:H3">
-    <cfRule type="expression" dxfId="22" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="8" stopIfTrue="1">
       <formula>DAY(C3)&gt;8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:I8">
-    <cfRule type="expression" dxfId="21" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="7" stopIfTrue="1">
       <formula>AND(DAY(C7)&gt;=1,DAY(C7)&lt;=15)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:I8">
-    <cfRule type="expression" dxfId="20" priority="9">
+    <cfRule type="expression" dxfId="23" priority="9">
       <formula>VLOOKUP(DAY(C3),AssignmentDays,1,FALSE)=DAY(C3)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:I13 B15:I15 B17:I17 B19:I19 B21:I21 B23:I23 B25:I25 B27:I27 B29:I29 B31:I31">
-    <cfRule type="expression" dxfId="19" priority="6">
+    <cfRule type="expression" dxfId="22" priority="6">
       <formula>B13&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:I12 B14:I14 B16:I16 B18:I18 B20:I20 B22:I22 B24:I24 B26:I26 B28:I28 B30:I30">
-    <cfRule type="expression" dxfId="18" priority="5">
+    <cfRule type="expression" dxfId="21" priority="5">
       <formula>B12&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:I13 B15:I15 B17:I17 B19:I19 B21:I21 B23:I23 B25:I25 B27:I27 B29:I29">
-    <cfRule type="expression" dxfId="17" priority="2">
+    <cfRule type="expression" dxfId="20" priority="2">
       <formula>COLUMN(B13)&gt;=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="4">
+    <cfRule type="expression" dxfId="19" priority="4">
       <formula>COLUMN(B11)&gt;2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31:I31">
-    <cfRule type="expression" dxfId="15" priority="3">
+    <cfRule type="expression" dxfId="18" priority="3">
       <formula>COLUMN(B12)&gt;2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:I31">
-    <cfRule type="expression" dxfId="14" priority="1">
+    <cfRule type="expression" dxfId="17" priority="1">
       <formula>COLUMN(B12)&gt;2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4462,18 +4465,18 @@
       <c r="B11" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="65" t="s">
+      <c r="C11" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="66"/>
-      <c r="E11" s="65" t="s">
+      <c r="D11" s="68"/>
+      <c r="E11" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="66"/>
-      <c r="G11" s="65" t="s">
+      <c r="F11" s="68"/>
+      <c r="G11" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="H11" s="66"/>
+      <c r="H11" s="68"/>
       <c r="I11" s="3" t="s">
         <v>33</v>
       </c>
@@ -4488,14 +4491,14 @@
       <c r="B12" s="21">
         <v>0.33333333333333331</v>
       </c>
-      <c r="C12" s="72"/>
-      <c r="D12" s="72"/>
-      <c r="E12" s="72">
+      <c r="C12" s="76"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="76">
         <v>0.33333333333333331</v>
       </c>
-      <c r="F12" s="72"/>
-      <c r="G12" s="72"/>
-      <c r="H12" s="72"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="76"/>
       <c r="I12" s="22">
         <v>0.33333333333333331</v>
       </c>
@@ -4510,14 +4513,14 @@
       <c r="B13" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="67"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="67" t="s">
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="F13" s="67"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="67"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
       <c r="I13" s="30" t="s">
         <v>5</v>
       </c>
@@ -4530,16 +4533,16 @@
         <v>1</v>
       </c>
       <c r="B14" s="21"/>
-      <c r="C14" s="72">
+      <c r="C14" s="76">
         <v>0.375</v>
       </c>
-      <c r="D14" s="72"/>
-      <c r="E14" s="72"/>
-      <c r="F14" s="72"/>
-      <c r="G14" s="72">
+      <c r="D14" s="76"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="76">
         <v>0.375</v>
       </c>
-      <c r="H14" s="72"/>
+      <c r="H14" s="76"/>
       <c r="I14" s="22"/>
       <c r="J14" s="10" t="s">
         <v>31</v>
@@ -4552,16 +4555,16 @@
         <v>2</v>
       </c>
       <c r="B15" s="27"/>
-      <c r="C15" s="67" t="s">
+      <c r="C15" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="67"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="67"/>
-      <c r="G15" s="67" t="s">
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="67"/>
+      <c r="H15" s="70"/>
       <c r="I15" s="30"/>
       <c r="J15" s="10"/>
       <c r="K15" s="36"/>
@@ -4574,14 +4577,14 @@
       <c r="B16" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="72"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="72" t="s">
+      <c r="C16" s="76"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="F16" s="72"/>
-      <c r="G16" s="72"/>
-      <c r="H16" s="72"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="76"/>
       <c r="I16" s="24" t="s">
         <v>6</v>
       </c>
@@ -4596,14 +4599,14 @@
       <c r="B17" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="67"/>
-      <c r="D17" s="67"/>
-      <c r="E17" s="67" t="s">
+      <c r="C17" s="70"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="F17" s="67"/>
-      <c r="G17" s="67"/>
-      <c r="H17" s="67"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="70"/>
       <c r="I17" s="30" t="s">
         <v>7</v>
       </c>
@@ -4616,12 +4619,12 @@
         <v>1</v>
       </c>
       <c r="B18" s="21"/>
-      <c r="C18" s="72"/>
-      <c r="D18" s="72"/>
-      <c r="E18" s="72"/>
-      <c r="F18" s="72"/>
-      <c r="G18" s="72"/>
-      <c r="H18" s="72"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="76"/>
+      <c r="H18" s="76"/>
       <c r="I18" s="22"/>
       <c r="J18" s="10"/>
       <c r="K18" s="36"/>
@@ -4632,12 +4635,12 @@
         <v>2</v>
       </c>
       <c r="B19" s="27"/>
-      <c r="C19" s="67"/>
-      <c r="D19" s="67"/>
-      <c r="E19" s="67"/>
-      <c r="F19" s="67"/>
-      <c r="G19" s="67"/>
-      <c r="H19" s="67"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="70"/>
       <c r="I19" s="47"/>
       <c r="J19" s="20"/>
       <c r="K19" s="35"/>
@@ -4648,12 +4651,12 @@
         <v>1</v>
       </c>
       <c r="B20" s="21"/>
-      <c r="C20" s="72"/>
-      <c r="D20" s="72"/>
-      <c r="E20" s="72"/>
-      <c r="F20" s="72"/>
-      <c r="G20" s="72"/>
-      <c r="H20" s="72"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="76"/>
       <c r="I20" s="22"/>
       <c r="J20" s="10" t="s">
         <v>32</v>
@@ -4666,12 +4669,12 @@
         <v>2</v>
       </c>
       <c r="B21" s="27"/>
-      <c r="C21" s="67"/>
-      <c r="D21" s="67"/>
-      <c r="E21" s="67"/>
-      <c r="F21" s="67"/>
-      <c r="G21" s="67"/>
-      <c r="H21" s="67"/>
+      <c r="C21" s="70"/>
+      <c r="D21" s="70"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="70"/>
+      <c r="G21" s="70"/>
+      <c r="H21" s="70"/>
       <c r="I21" s="30"/>
       <c r="J21" s="10"/>
       <c r="K21" s="36"/>
@@ -4682,12 +4685,12 @@
         <v>1</v>
       </c>
       <c r="B22" s="21"/>
-      <c r="C22" s="72"/>
-      <c r="D22" s="72"/>
-      <c r="E22" s="72"/>
-      <c r="F22" s="72"/>
-      <c r="G22" s="72"/>
-      <c r="H22" s="72"/>
+      <c r="C22" s="76"/>
+      <c r="D22" s="76"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="76"/>
+      <c r="G22" s="76"/>
+      <c r="H22" s="76"/>
       <c r="I22" s="22"/>
       <c r="J22" s="10"/>
       <c r="K22" s="36"/>
@@ -4698,12 +4701,12 @@
         <v>2</v>
       </c>
       <c r="B23" s="27"/>
-      <c r="C23" s="67"/>
-      <c r="D23" s="67"/>
-      <c r="E23" s="67"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="67"/>
-      <c r="H23" s="67"/>
+      <c r="C23" s="70"/>
+      <c r="D23" s="70"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="70"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="70"/>
       <c r="I23" s="30"/>
       <c r="J23" s="10"/>
       <c r="K23" s="36"/>
@@ -4716,14 +4719,14 @@
       <c r="B24" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="72"/>
-      <c r="D24" s="72"/>
-      <c r="E24" s="72" t="s">
+      <c r="C24" s="76"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="72"/>
-      <c r="G24" s="72"/>
-      <c r="H24" s="72"/>
+      <c r="F24" s="76"/>
+      <c r="G24" s="76"/>
+      <c r="H24" s="76"/>
       <c r="I24" s="22" t="s">
         <v>8</v>
       </c>
@@ -4738,14 +4741,14 @@
       <c r="B25" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="67"/>
-      <c r="D25" s="67"/>
-      <c r="E25" s="67" t="s">
+      <c r="C25" s="70"/>
+      <c r="D25" s="70"/>
+      <c r="E25" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="F25" s="67"/>
-      <c r="G25" s="67"/>
-      <c r="H25" s="67"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="70"/>
       <c r="I25" s="30" t="s">
         <v>9</v>
       </c>
@@ -4758,12 +4761,12 @@
         <v>1</v>
       </c>
       <c r="B26" s="21"/>
-      <c r="C26" s="72"/>
-      <c r="D26" s="72"/>
-      <c r="E26" s="72"/>
-      <c r="F26" s="72"/>
-      <c r="G26" s="72"/>
-      <c r="H26" s="72"/>
+      <c r="C26" s="76"/>
+      <c r="D26" s="76"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="76"/>
+      <c r="H26" s="76"/>
       <c r="I26" s="22"/>
       <c r="J26" s="10" t="s">
         <v>33</v>
@@ -4776,12 +4779,12 @@
         <v>2</v>
       </c>
       <c r="B27" s="27"/>
-      <c r="C27" s="67"/>
-      <c r="D27" s="67"/>
-      <c r="E27" s="67"/>
-      <c r="F27" s="67"/>
-      <c r="G27" s="67"/>
-      <c r="H27" s="67"/>
+      <c r="C27" s="70"/>
+      <c r="D27" s="70"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="70"/>
       <c r="I27" s="30"/>
       <c r="J27" s="10"/>
       <c r="K27" s="36"/>
@@ -4792,16 +4795,16 @@
         <v>1</v>
       </c>
       <c r="B28" s="21"/>
-      <c r="C28" s="72" t="s">
+      <c r="C28" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="D28" s="72"/>
-      <c r="E28" s="72"/>
-      <c r="F28" s="72"/>
-      <c r="G28" s="72" t="s">
+      <c r="D28" s="76"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="76"/>
+      <c r="G28" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="H28" s="72"/>
+      <c r="H28" s="76"/>
       <c r="I28" s="22"/>
       <c r="J28" s="10"/>
       <c r="K28" s="36"/>
@@ -4812,16 +4815,16 @@
         <v>2</v>
       </c>
       <c r="B29" s="27"/>
-      <c r="C29" s="67" t="s">
+      <c r="C29" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="67"/>
-      <c r="E29" s="67"/>
-      <c r="F29" s="67"/>
-      <c r="G29" s="67" t="s">
+      <c r="D29" s="70"/>
+      <c r="E29" s="70"/>
+      <c r="F29" s="70"/>
+      <c r="G29" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="H29" s="67"/>
+      <c r="H29" s="70"/>
       <c r="I29" s="30"/>
       <c r="J29" s="10"/>
       <c r="K29" s="36"/>
@@ -4832,12 +4835,12 @@
         <v>1</v>
       </c>
       <c r="B30" s="21"/>
-      <c r="C30" s="72"/>
-      <c r="D30" s="72"/>
-      <c r="E30" s="72"/>
-      <c r="F30" s="72"/>
-      <c r="G30" s="72"/>
-      <c r="H30" s="72"/>
+      <c r="C30" s="76"/>
+      <c r="D30" s="76"/>
+      <c r="E30" s="76"/>
+      <c r="F30" s="76"/>
+      <c r="G30" s="76"/>
+      <c r="H30" s="76"/>
       <c r="I30" s="22"/>
       <c r="J30" s="10"/>
       <c r="K30" s="36"/>
@@ -4848,12 +4851,12 @@
         <v>2</v>
       </c>
       <c r="B31" s="28"/>
-      <c r="C31" s="69"/>
-      <c r="D31" s="69"/>
-      <c r="E31" s="69"/>
-      <c r="F31" s="69"/>
-      <c r="G31" s="69"/>
-      <c r="H31" s="69"/>
+      <c r="C31" s="72"/>
+      <c r="D31" s="72"/>
+      <c r="E31" s="72"/>
+      <c r="F31" s="72"/>
+      <c r="G31" s="72"/>
+      <c r="H31" s="72"/>
       <c r="I31" s="40"/>
       <c r="J31" s="10"/>
       <c r="K31" s="42"/>
@@ -4861,60 +4864,6 @@
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="G31:H31"/>
@@ -4924,39 +4873,93 @@
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="G30:H30"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:H3">
-    <cfRule type="expression" dxfId="13" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="6" stopIfTrue="1">
       <formula>DAY(C3)&gt;8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:I8">
-    <cfRule type="expression" dxfId="12" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="5" stopIfTrue="1">
       <formula>AND(DAY(C7)&gt;=1,DAY(C7)&lt;=15)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:I8">
-    <cfRule type="expression" dxfId="11" priority="7">
+    <cfRule type="expression" dxfId="13" priority="7">
       <formula>VLOOKUP(DAY(C3),AssignmentDays,1,FALSE)=DAY(C3)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:I13 B15:I15 B17:I17 B19:I19 B21:I21 B23:I23 B25:I25 B27:I27 B29:I29 B31:I31">
-    <cfRule type="expression" dxfId="10" priority="4">
+    <cfRule type="expression" dxfId="12" priority="4">
       <formula>B13&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:I12 B14:I14 B16:I16 B18:I18 B20:I20 B22:I22 B24:I24 B26:I26 B28:I28 B30:I30">
-    <cfRule type="expression" dxfId="9" priority="3">
+    <cfRule type="expression" dxfId="11" priority="3">
       <formula>B12&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:I13 B15:I15 B17:I17 B19:I19 B21:I21 B23:I23 B25:I25 B27:I27 B29:I29">
-    <cfRule type="expression" dxfId="8" priority="2">
+    <cfRule type="expression" dxfId="10" priority="2">
       <formula>COLUMN(B13)&gt;=2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:I31">
-    <cfRule type="expression" dxfId="7" priority="1">
+    <cfRule type="expression" dxfId="9" priority="1">
       <formula>COLUMN(B12)&gt;2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5300,18 +5303,18 @@
       <c r="B11" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="65" t="s">
+      <c r="C11" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="66"/>
-      <c r="E11" s="65" t="s">
+      <c r="D11" s="68"/>
+      <c r="E11" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="66"/>
-      <c r="G11" s="65" t="s">
+      <c r="F11" s="68"/>
+      <c r="G11" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="H11" s="66"/>
+      <c r="H11" s="68"/>
       <c r="I11" s="3" t="s">
         <v>33</v>
       </c>
@@ -5326,14 +5329,14 @@
       <c r="B12" s="21">
         <v>0.33333333333333331</v>
       </c>
-      <c r="C12" s="72"/>
-      <c r="D12" s="72"/>
-      <c r="E12" s="72">
+      <c r="C12" s="76"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="76">
         <v>0.33333333333333331</v>
       </c>
-      <c r="F12" s="72"/>
-      <c r="G12" s="72"/>
-      <c r="H12" s="72"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="76"/>
       <c r="I12" s="22">
         <v>0.33333333333333331</v>
       </c>
@@ -5348,14 +5351,14 @@
       <c r="B13" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="67"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="67" t="s">
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="F13" s="67"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="67"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
       <c r="I13" s="30" t="s">
         <v>5</v>
       </c>
@@ -5368,16 +5371,16 @@
         <v>1</v>
       </c>
       <c r="B14" s="21"/>
-      <c r="C14" s="72">
+      <c r="C14" s="76">
         <v>0.375</v>
       </c>
-      <c r="D14" s="72"/>
-      <c r="E14" s="72"/>
-      <c r="F14" s="72"/>
-      <c r="G14" s="72">
+      <c r="D14" s="76"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="76">
         <v>0.375</v>
       </c>
-      <c r="H14" s="72"/>
+      <c r="H14" s="76"/>
       <c r="I14" s="22"/>
       <c r="J14" s="10" t="s">
         <v>31</v>
@@ -5390,16 +5393,16 @@
         <v>2</v>
       </c>
       <c r="B15" s="27"/>
-      <c r="C15" s="67" t="s">
+      <c r="C15" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="67"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="67"/>
-      <c r="G15" s="67" t="s">
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="67"/>
+      <c r="H15" s="70"/>
       <c r="I15" s="30"/>
       <c r="J15" s="10"/>
       <c r="K15" s="36"/>
@@ -5412,14 +5415,14 @@
       <c r="B16" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="72"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="72" t="s">
+      <c r="C16" s="76"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="F16" s="72"/>
-      <c r="G16" s="72"/>
-      <c r="H16" s="72"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="76"/>
       <c r="I16" s="24" t="s">
         <v>6</v>
       </c>
@@ -5434,14 +5437,14 @@
       <c r="B17" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="67"/>
-      <c r="D17" s="67"/>
-      <c r="E17" s="67" t="s">
+      <c r="C17" s="70"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="F17" s="67"/>
-      <c r="G17" s="67"/>
-      <c r="H17" s="67"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="70"/>
       <c r="I17" s="30" t="s">
         <v>7</v>
       </c>
@@ -5454,12 +5457,12 @@
         <v>1</v>
       </c>
       <c r="B18" s="21"/>
-      <c r="C18" s="72"/>
-      <c r="D18" s="72"/>
-      <c r="E18" s="72"/>
-      <c r="F18" s="72"/>
-      <c r="G18" s="72"/>
-      <c r="H18" s="72"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="76"/>
+      <c r="H18" s="76"/>
       <c r="I18" s="22"/>
       <c r="J18" s="10"/>
       <c r="K18" s="36"/>
@@ -5470,12 +5473,12 @@
         <v>2</v>
       </c>
       <c r="B19" s="27"/>
-      <c r="C19" s="67"/>
-      <c r="D19" s="67"/>
-      <c r="E19" s="67"/>
-      <c r="F19" s="67"/>
-      <c r="G19" s="67"/>
-      <c r="H19" s="67"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="70"/>
       <c r="I19" s="47"/>
       <c r="J19" s="20"/>
       <c r="K19" s="35"/>
@@ -5486,12 +5489,12 @@
         <v>1</v>
       </c>
       <c r="B20" s="21"/>
-      <c r="C20" s="72"/>
-      <c r="D20" s="72"/>
-      <c r="E20" s="72"/>
-      <c r="F20" s="72"/>
-      <c r="G20" s="72"/>
-      <c r="H20" s="72"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="76"/>
       <c r="I20" s="22"/>
       <c r="J20" s="10" t="s">
         <v>32</v>
@@ -5504,12 +5507,12 @@
         <v>2</v>
       </c>
       <c r="B21" s="27"/>
-      <c r="C21" s="67"/>
-      <c r="D21" s="67"/>
-      <c r="E21" s="67"/>
-      <c r="F21" s="67"/>
-      <c r="G21" s="67"/>
-      <c r="H21" s="67"/>
+      <c r="C21" s="70"/>
+      <c r="D21" s="70"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="70"/>
+      <c r="G21" s="70"/>
+      <c r="H21" s="70"/>
       <c r="I21" s="30"/>
       <c r="J21" s="10"/>
       <c r="K21" s="36"/>
@@ -5520,12 +5523,12 @@
         <v>1</v>
       </c>
       <c r="B22" s="21"/>
-      <c r="C22" s="72"/>
-      <c r="D22" s="72"/>
-      <c r="E22" s="72"/>
-      <c r="F22" s="72"/>
-      <c r="G22" s="72"/>
-      <c r="H22" s="72"/>
+      <c r="C22" s="76"/>
+      <c r="D22" s="76"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="76"/>
+      <c r="G22" s="76"/>
+      <c r="H22" s="76"/>
       <c r="I22" s="22"/>
       <c r="J22" s="10"/>
       <c r="K22" s="36"/>
@@ -5536,12 +5539,12 @@
         <v>2</v>
       </c>
       <c r="B23" s="27"/>
-      <c r="C23" s="67"/>
-      <c r="D23" s="67"/>
-      <c r="E23" s="67"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="67"/>
-      <c r="H23" s="67"/>
+      <c r="C23" s="70"/>
+      <c r="D23" s="70"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="70"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="70"/>
       <c r="I23" s="30"/>
       <c r="J23" s="10"/>
       <c r="K23" s="36"/>
@@ -5554,14 +5557,14 @@
       <c r="B24" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="72"/>
-      <c r="D24" s="72"/>
-      <c r="E24" s="72" t="s">
+      <c r="C24" s="76"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="72"/>
-      <c r="G24" s="72"/>
-      <c r="H24" s="72"/>
+      <c r="F24" s="76"/>
+      <c r="G24" s="76"/>
+      <c r="H24" s="76"/>
       <c r="I24" s="22" t="s">
         <v>8</v>
       </c>
@@ -5576,14 +5579,14 @@
       <c r="B25" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="67"/>
-      <c r="D25" s="67"/>
-      <c r="E25" s="67" t="s">
+      <c r="C25" s="70"/>
+      <c r="D25" s="70"/>
+      <c r="E25" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="F25" s="67"/>
-      <c r="G25" s="67"/>
-      <c r="H25" s="67"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="70"/>
       <c r="I25" s="30" t="s">
         <v>9</v>
       </c>
@@ -5596,12 +5599,12 @@
         <v>1</v>
       </c>
       <c r="B26" s="21"/>
-      <c r="C26" s="72"/>
-      <c r="D26" s="72"/>
-      <c r="E26" s="72"/>
-      <c r="F26" s="72"/>
-      <c r="G26" s="72"/>
-      <c r="H26" s="72"/>
+      <c r="C26" s="76"/>
+      <c r="D26" s="76"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="76"/>
+      <c r="H26" s="76"/>
       <c r="I26" s="22"/>
       <c r="J26" s="32" t="s">
         <v>33</v>
@@ -5614,12 +5617,12 @@
         <v>2</v>
       </c>
       <c r="B27" s="27"/>
-      <c r="C27" s="67"/>
-      <c r="D27" s="67"/>
-      <c r="E27" s="67"/>
-      <c r="F27" s="67"/>
-      <c r="G27" s="67"/>
-      <c r="H27" s="67"/>
+      <c r="C27" s="70"/>
+      <c r="D27" s="70"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="70"/>
       <c r="I27" s="30"/>
       <c r="J27" s="45"/>
       <c r="K27" s="42"/>
@@ -5630,16 +5633,16 @@
         <v>1</v>
       </c>
       <c r="B28" s="21"/>
-      <c r="C28" s="72" t="s">
+      <c r="C28" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="D28" s="72"/>
-      <c r="E28" s="72"/>
-      <c r="F28" s="72"/>
-      <c r="G28" s="72" t="s">
+      <c r="D28" s="76"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="76"/>
+      <c r="G28" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="H28" s="72"/>
+      <c r="H28" s="76"/>
       <c r="I28" s="22"/>
       <c r="J28" s="45"/>
       <c r="K28" s="42"/>
@@ -5650,16 +5653,16 @@
         <v>2</v>
       </c>
       <c r="B29" s="27"/>
-      <c r="C29" s="67" t="s">
+      <c r="C29" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="67"/>
-      <c r="E29" s="67"/>
-      <c r="F29" s="67"/>
-      <c r="G29" s="67" t="s">
+      <c r="D29" s="70"/>
+      <c r="E29" s="70"/>
+      <c r="F29" s="70"/>
+      <c r="G29" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="H29" s="67"/>
+      <c r="H29" s="70"/>
       <c r="I29" s="30"/>
       <c r="J29" s="45"/>
       <c r="K29" s="42"/>
@@ -5670,12 +5673,12 @@
         <v>1</v>
       </c>
       <c r="B30" s="21"/>
-      <c r="C30" s="72"/>
-      <c r="D30" s="72"/>
-      <c r="E30" s="72"/>
-      <c r="F30" s="72"/>
-      <c r="G30" s="72"/>
-      <c r="H30" s="72"/>
+      <c r="C30" s="76"/>
+      <c r="D30" s="76"/>
+      <c r="E30" s="76"/>
+      <c r="F30" s="76"/>
+      <c r="G30" s="76"/>
+      <c r="H30" s="76"/>
       <c r="I30" s="22"/>
       <c r="J30" s="45"/>
       <c r="K30" s="42"/>
@@ -5686,12 +5689,12 @@
         <v>2</v>
       </c>
       <c r="B31" s="28"/>
-      <c r="C31" s="69"/>
-      <c r="D31" s="69"/>
-      <c r="E31" s="69"/>
-      <c r="F31" s="69"/>
-      <c r="G31" s="69"/>
-      <c r="H31" s="69"/>
+      <c r="C31" s="72"/>
+      <c r="D31" s="72"/>
+      <c r="E31" s="72"/>
+      <c r="F31" s="72"/>
+      <c r="G31" s="72"/>
+      <c r="H31" s="72"/>
       <c r="I31" s="29"/>
       <c r="J31" s="45"/>
       <c r="K31" s="42"/>
@@ -5699,60 +5702,6 @@
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="G31:H31"/>
@@ -5762,39 +5711,93 @@
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="G30:H30"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:H3">
-    <cfRule type="expression" dxfId="6" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="6" stopIfTrue="1">
       <formula>DAY(C3)&gt;8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:I8">
-    <cfRule type="expression" dxfId="5" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="5" stopIfTrue="1">
       <formula>AND(DAY(C7)&gt;=1,DAY(C7)&lt;=15)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:I8">
-    <cfRule type="expression" dxfId="4" priority="7">
+    <cfRule type="expression" dxfId="5" priority="7">
       <formula>VLOOKUP(DAY(C3),AssignmentDays,1,FALSE)=DAY(C3)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:I13 B15:I15 B17:I17 B19:I19 B21:I21 B23:I23 B25:I25 B27:I27 B29:I29 B31:I31">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="4" priority="4">
       <formula>B13&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:I12 B14:I14 B16:I16 B18:I18 B20:I20 B22:I22 B24:I24 B26:I26 B28:I28 B30:I30">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>B12&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:I13 B15:I15 B17:I17 B19:I19 B21:I21 B23:I23 B25:I25 B27:I27 B29:I29">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>COLUMN(B13)&gt;=2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:I31">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>COLUMN(B12)&gt;2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6138,18 +6141,18 @@
       <c r="B11" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="65" t="s">
+      <c r="C11" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="66"/>
-      <c r="E11" s="65" t="s">
+      <c r="D11" s="68"/>
+      <c r="E11" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="66"/>
-      <c r="G11" s="65" t="s">
+      <c r="F11" s="68"/>
+      <c r="G11" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="H11" s="66"/>
+      <c r="H11" s="68"/>
       <c r="I11" s="3" t="s">
         <v>33</v>
       </c>
@@ -6164,14 +6167,14 @@
       <c r="B12" s="21">
         <v>0.33333333333333331</v>
       </c>
-      <c r="C12" s="72"/>
-      <c r="D12" s="72"/>
-      <c r="E12" s="72">
+      <c r="C12" s="76"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="76">
         <v>0.33333333333333331</v>
       </c>
-      <c r="F12" s="72"/>
-      <c r="G12" s="72"/>
-      <c r="H12" s="72"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="76"/>
       <c r="I12" s="22">
         <v>0.33333333333333331</v>
       </c>
@@ -6186,14 +6189,14 @@
       <c r="B13" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="67"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="67" t="s">
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="F13" s="67"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="67"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
       <c r="I13" s="30" t="s">
         <v>5</v>
       </c>
@@ -6206,16 +6209,16 @@
         <v>1</v>
       </c>
       <c r="B14" s="21"/>
-      <c r="C14" s="73">
+      <c r="C14" s="75">
         <v>0.375</v>
       </c>
-      <c r="D14" s="73"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73"/>
-      <c r="G14" s="73">
+      <c r="D14" s="75"/>
+      <c r="E14" s="75"/>
+      <c r="F14" s="75"/>
+      <c r="G14" s="75">
         <v>0.375</v>
       </c>
-      <c r="H14" s="73"/>
+      <c r="H14" s="75"/>
       <c r="I14" s="22"/>
       <c r="J14" s="10" t="s">
         <v>31</v>
@@ -6228,16 +6231,16 @@
         <v>2</v>
       </c>
       <c r="B15" s="27"/>
-      <c r="C15" s="67" t="s">
+      <c r="C15" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="67"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="67"/>
-      <c r="G15" s="67" t="s">
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="67"/>
+      <c r="H15" s="70"/>
       <c r="I15" s="30"/>
       <c r="J15" s="10"/>
       <c r="K15" s="36"/>
@@ -6250,14 +6253,14 @@
       <c r="B16" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="73"/>
-      <c r="D16" s="73"/>
-      <c r="E16" s="73" t="s">
+      <c r="C16" s="75"/>
+      <c r="D16" s="75"/>
+      <c r="E16" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="F16" s="73"/>
-      <c r="G16" s="73"/>
-      <c r="H16" s="73"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="75"/>
+      <c r="H16" s="75"/>
       <c r="I16" s="24" t="s">
         <v>6</v>
       </c>
@@ -6272,14 +6275,14 @@
       <c r="B17" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="67"/>
-      <c r="D17" s="67"/>
-      <c r="E17" s="67" t="s">
+      <c r="C17" s="70"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="F17" s="67"/>
-      <c r="G17" s="67"/>
-      <c r="H17" s="67"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="70"/>
       <c r="I17" s="30" t="s">
         <v>7</v>
       </c>
@@ -6292,12 +6295,12 @@
         <v>1</v>
       </c>
       <c r="B18" s="21"/>
-      <c r="C18" s="73"/>
-      <c r="D18" s="73"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="73"/>
-      <c r="G18" s="73"/>
-      <c r="H18" s="73"/>
+      <c r="C18" s="75"/>
+      <c r="D18" s="75"/>
+      <c r="E18" s="75"/>
+      <c r="F18" s="75"/>
+      <c r="G18" s="75"/>
+      <c r="H18" s="75"/>
       <c r="I18" s="22"/>
       <c r="J18" s="10"/>
       <c r="K18" s="36"/>
@@ -6308,12 +6311,12 @@
         <v>2</v>
       </c>
       <c r="B19" s="27"/>
-      <c r="C19" s="67"/>
-      <c r="D19" s="67"/>
-      <c r="E19" s="67"/>
-      <c r="F19" s="67"/>
-      <c r="G19" s="67"/>
-      <c r="H19" s="67"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="70"/>
       <c r="I19" s="47"/>
       <c r="J19" s="20"/>
       <c r="K19" s="35"/>
@@ -6324,12 +6327,12 @@
         <v>1</v>
       </c>
       <c r="B20" s="21"/>
-      <c r="C20" s="73"/>
-      <c r="D20" s="73"/>
-      <c r="E20" s="73"/>
-      <c r="F20" s="73"/>
-      <c r="G20" s="73"/>
-      <c r="H20" s="73"/>
+      <c r="C20" s="75"/>
+      <c r="D20" s="75"/>
+      <c r="E20" s="75"/>
+      <c r="F20" s="75"/>
+      <c r="G20" s="75"/>
+      <c r="H20" s="75"/>
       <c r="I20" s="22"/>
       <c r="J20" s="10" t="s">
         <v>32</v>
@@ -6342,12 +6345,12 @@
         <v>2</v>
       </c>
       <c r="B21" s="27"/>
-      <c r="C21" s="67"/>
-      <c r="D21" s="67"/>
-      <c r="E21" s="67"/>
-      <c r="F21" s="67"/>
-      <c r="G21" s="67"/>
-      <c r="H21" s="67"/>
+      <c r="C21" s="70"/>
+      <c r="D21" s="70"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="70"/>
+      <c r="G21" s="70"/>
+      <c r="H21" s="70"/>
       <c r="I21" s="30"/>
       <c r="J21" s="10"/>
       <c r="K21" s="36"/>
@@ -6358,12 +6361,12 @@
         <v>1</v>
       </c>
       <c r="B22" s="21"/>
-      <c r="C22" s="73"/>
-      <c r="D22" s="73"/>
-      <c r="E22" s="73"/>
-      <c r="F22" s="73"/>
-      <c r="G22" s="73"/>
-      <c r="H22" s="73"/>
+      <c r="C22" s="75"/>
+      <c r="D22" s="75"/>
+      <c r="E22" s="75"/>
+      <c r="F22" s="75"/>
+      <c r="G22" s="75"/>
+      <c r="H22" s="75"/>
       <c r="I22" s="22"/>
       <c r="J22" s="10"/>
       <c r="K22" s="36"/>
@@ -6374,12 +6377,12 @@
         <v>2</v>
       </c>
       <c r="B23" s="27"/>
-      <c r="C23" s="67"/>
-      <c r="D23" s="67"/>
-      <c r="E23" s="67"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="67"/>
-      <c r="H23" s="67"/>
+      <c r="C23" s="70"/>
+      <c r="D23" s="70"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="70"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="70"/>
       <c r="I23" s="30"/>
       <c r="J23" s="10"/>
       <c r="K23" s="36"/>
@@ -6392,14 +6395,14 @@
       <c r="B24" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="73"/>
-      <c r="D24" s="73"/>
-      <c r="E24" s="73" t="s">
+      <c r="C24" s="75"/>
+      <c r="D24" s="75"/>
+      <c r="E24" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="73"/>
-      <c r="G24" s="73"/>
-      <c r="H24" s="73"/>
+      <c r="F24" s="75"/>
+      <c r="G24" s="75"/>
+      <c r="H24" s="75"/>
       <c r="I24" s="22" t="s">
         <v>8</v>
       </c>
@@ -6414,14 +6417,14 @@
       <c r="B25" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="67"/>
-      <c r="D25" s="67"/>
-      <c r="E25" s="67" t="s">
+      <c r="C25" s="70"/>
+      <c r="D25" s="70"/>
+      <c r="E25" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="F25" s="67"/>
-      <c r="G25" s="67"/>
-      <c r="H25" s="67"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="70"/>
       <c r="I25" s="30" t="s">
         <v>9</v>
       </c>
@@ -6434,12 +6437,12 @@
         <v>1</v>
       </c>
       <c r="B26" s="21"/>
-      <c r="C26" s="73"/>
-      <c r="D26" s="73"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="73"/>
-      <c r="H26" s="73"/>
+      <c r="C26" s="75"/>
+      <c r="D26" s="75"/>
+      <c r="E26" s="75"/>
+      <c r="F26" s="75"/>
+      <c r="G26" s="75"/>
+      <c r="H26" s="75"/>
       <c r="I26" s="22"/>
       <c r="J26" s="10" t="s">
         <v>33</v>
@@ -6452,12 +6455,12 @@
         <v>2</v>
       </c>
       <c r="B27" s="27"/>
-      <c r="C27" s="67"/>
-      <c r="D27" s="67"/>
-      <c r="E27" s="67"/>
-      <c r="F27" s="67"/>
-      <c r="G27" s="67"/>
-      <c r="H27" s="67"/>
+      <c r="C27" s="70"/>
+      <c r="D27" s="70"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="70"/>
       <c r="I27" s="30"/>
       <c r="J27" s="10"/>
       <c r="K27" s="36"/>
@@ -6468,16 +6471,16 @@
         <v>1</v>
       </c>
       <c r="B28" s="21"/>
-      <c r="C28" s="73" t="s">
+      <c r="C28" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="D28" s="73"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
-      <c r="G28" s="73" t="s">
+      <c r="D28" s="75"/>
+      <c r="E28" s="75"/>
+      <c r="F28" s="75"/>
+      <c r="G28" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="H28" s="73"/>
+      <c r="H28" s="75"/>
       <c r="I28" s="22"/>
       <c r="J28" s="10"/>
       <c r="K28" s="36"/>
@@ -6488,16 +6491,16 @@
         <v>2</v>
       </c>
       <c r="B29" s="27"/>
-      <c r="C29" s="67" t="s">
+      <c r="C29" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="67"/>
-      <c r="E29" s="67"/>
-      <c r="F29" s="67"/>
-      <c r="G29" s="67" t="s">
+      <c r="D29" s="70"/>
+      <c r="E29" s="70"/>
+      <c r="F29" s="70"/>
+      <c r="G29" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="H29" s="67"/>
+      <c r="H29" s="70"/>
       <c r="I29" s="30"/>
       <c r="J29" s="10"/>
       <c r="K29" s="36"/>
@@ -6508,12 +6511,12 @@
         <v>1</v>
       </c>
       <c r="B30" s="21"/>
-      <c r="C30" s="73"/>
-      <c r="D30" s="73"/>
-      <c r="E30" s="73"/>
-      <c r="F30" s="73"/>
-      <c r="G30" s="73"/>
-      <c r="H30" s="73"/>
+      <c r="C30" s="75"/>
+      <c r="D30" s="75"/>
+      <c r="E30" s="75"/>
+      <c r="F30" s="75"/>
+      <c r="G30" s="75"/>
+      <c r="H30" s="75"/>
       <c r="I30" s="22"/>
       <c r="J30" s="10"/>
       <c r="K30" s="36"/>
@@ -6537,51 +6540,12 @@
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="G13:H13"/>
@@ -6594,45 +6558,84 @@
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="G15:H15"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:H30"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:H3">
-    <cfRule type="expression" dxfId="78" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="94" priority="9" stopIfTrue="1">
       <formula>DAY(C3)&gt;8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:I8">
-    <cfRule type="expression" dxfId="77" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="93" priority="8" stopIfTrue="1">
       <formula>AND(DAY(C7)&gt;=1,DAY(C7)&lt;=15)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:I8">
-    <cfRule type="expression" dxfId="76" priority="10">
+    <cfRule type="expression" dxfId="92" priority="10">
       <formula>VLOOKUP(DAY(C3),AssignmentDays,1,FALSE)=DAY(C3)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:I13 B15:I15 B17:I17 B19:I19 B21:I21 B23:I23 B25:I25 B27:I27 B29:I29 B31:I31">
-    <cfRule type="expression" dxfId="75" priority="7">
+    <cfRule type="expression" dxfId="91" priority="7">
       <formula>B13&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:I12 B14:I14 B16:I16 B18:I18 B20:I20 B22:I22 B24:I24 B26:I26 B28:I28 B30:I30">
-    <cfRule type="expression" dxfId="74" priority="6">
+    <cfRule type="expression" dxfId="90" priority="6">
       <formula>B12&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:I13 B15:I15 B17:I17 B19:I19 B21:I21 B23:I23 B25:I25 B27:I27 B29:I29">
-    <cfRule type="expression" dxfId="73" priority="4">
+    <cfRule type="expression" dxfId="89" priority="4">
       <formula>COLUMN(B12)&gt;=2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:I31">
-    <cfRule type="expression" dxfId="72" priority="1">
+    <cfRule type="expression" dxfId="88" priority="1">
       <formula>COLUMN(B12)&gt;2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6997,18 +7000,18 @@
       <c r="B11" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="65" t="s">
+      <c r="C11" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="66"/>
-      <c r="E11" s="65" t="s">
+      <c r="D11" s="68"/>
+      <c r="E11" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="66"/>
-      <c r="G11" s="65" t="s">
+      <c r="F11" s="68"/>
+      <c r="G11" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="H11" s="66"/>
+      <c r="H11" s="68"/>
       <c r="I11" s="3" t="s">
         <v>33</v>
       </c>
@@ -7021,12 +7024,12 @@
         <v>1</v>
       </c>
       <c r="B12" s="21"/>
-      <c r="C12" s="72"/>
-      <c r="D12" s="72"/>
-      <c r="E12" s="72"/>
-      <c r="F12" s="72"/>
-      <c r="G12" s="72"/>
-      <c r="H12" s="72"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="76"/>
       <c r="I12" s="22"/>
       <c r="J12" s="10"/>
       <c r="K12" s="36"/>
@@ -7037,12 +7040,12 @@
         <v>2</v>
       </c>
       <c r="B13" s="27"/>
-      <c r="C13" s="67"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="67"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
       <c r="I13" s="30"/>
       <c r="J13" s="20"/>
       <c r="K13" s="35"/>
@@ -7053,12 +7056,12 @@
         <v>1</v>
       </c>
       <c r="B14" s="21"/>
-      <c r="C14" s="72"/>
-      <c r="D14" s="72"/>
-      <c r="E14" s="72"/>
-      <c r="F14" s="72"/>
-      <c r="G14" s="72"/>
-      <c r="H14" s="72"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="76"/>
+      <c r="H14" s="76"/>
       <c r="I14" s="22">
         <v>0.76041666666666663</v>
       </c>
@@ -7073,12 +7076,12 @@
         <v>2</v>
       </c>
       <c r="B15" s="27"/>
-      <c r="C15" s="67"/>
-      <c r="D15" s="67"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="67"/>
-      <c r="G15" s="67"/>
-      <c r="H15" s="67"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="70"/>
       <c r="I15" s="27" t="s">
         <v>38</v>
       </c>
@@ -7091,12 +7094,12 @@
         <v>1</v>
       </c>
       <c r="B16" s="21"/>
-      <c r="C16" s="72"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="72"/>
-      <c r="F16" s="72"/>
-      <c r="G16" s="72"/>
-      <c r="H16" s="72"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="76"/>
       <c r="I16" s="24">
         <v>0.82291666666666663</v>
       </c>
@@ -7109,12 +7112,12 @@
         <v>2</v>
       </c>
       <c r="B17" s="27"/>
-      <c r="C17" s="67"/>
-      <c r="D17" s="67"/>
-      <c r="E17" s="67"/>
-      <c r="F17" s="67"/>
-      <c r="G17" s="67"/>
-      <c r="H17" s="67"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="70"/>
       <c r="I17" s="27" t="s">
         <v>41</v>
       </c>
@@ -7127,14 +7130,14 @@
         <v>1</v>
       </c>
       <c r="B18" s="21"/>
-      <c r="C18" s="72">
+      <c r="C18" s="76">
         <v>0.82986111111111116</v>
       </c>
-      <c r="D18" s="72"/>
-      <c r="E18" s="72"/>
-      <c r="F18" s="72"/>
-      <c r="G18" s="72"/>
-      <c r="H18" s="72"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="76"/>
+      <c r="H18" s="76"/>
       <c r="I18" s="22"/>
       <c r="J18" s="10"/>
       <c r="K18" s="36"/>
@@ -7145,14 +7148,14 @@
         <v>2</v>
       </c>
       <c r="B19" s="27"/>
-      <c r="C19" s="76" t="s">
+      <c r="C19" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="67"/>
-      <c r="E19" s="67"/>
-      <c r="F19" s="67"/>
-      <c r="G19" s="67"/>
-      <c r="H19" s="67"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="70"/>
       <c r="I19" s="47"/>
       <c r="J19" s="20"/>
       <c r="K19" s="35"/>
@@ -7163,14 +7166,14 @@
         <v>1</v>
       </c>
       <c r="B20" s="21"/>
-      <c r="C20" s="72">
+      <c r="C20" s="76">
         <v>0.875</v>
       </c>
-      <c r="D20" s="72"/>
-      <c r="E20" s="72"/>
-      <c r="F20" s="72"/>
-      <c r="G20" s="72"/>
-      <c r="H20" s="72"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="76"/>
       <c r="I20" s="22"/>
       <c r="J20" s="10" t="s">
         <v>32</v>
@@ -7187,14 +7190,14 @@
         <v>2</v>
       </c>
       <c r="B21" s="27"/>
-      <c r="C21" s="76" t="s">
+      <c r="C21" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="67"/>
-      <c r="E21" s="67"/>
-      <c r="F21" s="67"/>
-      <c r="G21" s="67"/>
-      <c r="H21" s="67"/>
+      <c r="D21" s="70"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="70"/>
+      <c r="G21" s="70"/>
+      <c r="H21" s="70"/>
       <c r="I21" s="30"/>
       <c r="J21" s="10"/>
       <c r="K21" s="36"/>
@@ -7205,14 +7208,14 @@
         <v>1</v>
       </c>
       <c r="B22" s="21"/>
-      <c r="C22" s="72" t="s">
+      <c r="C22" s="76" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="72"/>
-      <c r="E22" s="72"/>
-      <c r="F22" s="72"/>
-      <c r="G22" s="72"/>
-      <c r="H22" s="72"/>
+      <c r="D22" s="76"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="76"/>
+      <c r="G22" s="76"/>
+      <c r="H22" s="76"/>
       <c r="I22" s="22"/>
       <c r="J22" s="10"/>
       <c r="K22" s="36"/>
@@ -7223,14 +7226,14 @@
         <v>2</v>
       </c>
       <c r="B23" s="27"/>
-      <c r="C23" s="75">
+      <c r="C23" s="78">
         <v>0.96180555555555547</v>
       </c>
-      <c r="D23" s="67"/>
-      <c r="E23" s="67"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="67"/>
-      <c r="H23" s="67"/>
+      <c r="D23" s="70"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="70"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="70"/>
       <c r="I23" s="30"/>
       <c r="J23" s="10"/>
       <c r="K23" s="36"/>
@@ -7241,12 +7244,12 @@
         <v>1</v>
       </c>
       <c r="B24" s="21"/>
-      <c r="C24" s="72"/>
-      <c r="D24" s="72"/>
-      <c r="E24" s="72"/>
-      <c r="F24" s="72"/>
-      <c r="G24" s="72"/>
-      <c r="H24" s="72"/>
+      <c r="C24" s="76"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="76"/>
+      <c r="F24" s="76"/>
+      <c r="G24" s="76"/>
+      <c r="H24" s="76"/>
       <c r="I24" s="22"/>
       <c r="J24" s="10"/>
       <c r="K24" s="36"/>
@@ -7257,12 +7260,12 @@
         <v>2</v>
       </c>
       <c r="B25" s="27"/>
-      <c r="C25" s="67"/>
-      <c r="D25" s="67"/>
-      <c r="E25" s="67"/>
-      <c r="F25" s="67"/>
-      <c r="G25" s="67"/>
-      <c r="H25" s="67"/>
+      <c r="C25" s="70"/>
+      <c r="D25" s="70"/>
+      <c r="E25" s="70"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="70"/>
       <c r="I25" s="30"/>
       <c r="J25" s="20"/>
       <c r="K25" s="35"/>
@@ -7273,12 +7276,12 @@
         <v>1</v>
       </c>
       <c r="B26" s="21"/>
-      <c r="C26" s="72"/>
-      <c r="D26" s="72"/>
-      <c r="E26" s="72"/>
-      <c r="F26" s="72"/>
-      <c r="G26" s="72"/>
-      <c r="H26" s="72"/>
+      <c r="C26" s="76"/>
+      <c r="D26" s="76"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="76"/>
+      <c r="H26" s="76"/>
       <c r="I26" s="22"/>
       <c r="J26" s="10" t="s">
         <v>33</v>
@@ -7295,12 +7298,12 @@
         <v>2</v>
       </c>
       <c r="B27" s="27"/>
-      <c r="C27" s="67"/>
-      <c r="D27" s="67"/>
-      <c r="E27" s="67"/>
-      <c r="F27" s="67"/>
-      <c r="G27" s="67"/>
-      <c r="H27" s="67"/>
+      <c r="C27" s="70"/>
+      <c r="D27" s="70"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="70"/>
       <c r="I27" s="30"/>
       <c r="J27" s="10"/>
       <c r="K27" s="36">
@@ -7315,12 +7318,12 @@
         <v>1</v>
       </c>
       <c r="B28" s="21"/>
-      <c r="C28" s="72"/>
-      <c r="D28" s="72"/>
-      <c r="E28" s="72"/>
-      <c r="F28" s="72"/>
-      <c r="G28" s="72"/>
-      <c r="H28" s="72"/>
+      <c r="C28" s="76"/>
+      <c r="D28" s="76"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="76"/>
+      <c r="G28" s="76"/>
+      <c r="H28" s="76"/>
       <c r="I28" s="22"/>
       <c r="J28" s="10"/>
       <c r="K28" s="36"/>
@@ -7331,12 +7334,12 @@
         <v>2</v>
       </c>
       <c r="B29" s="27"/>
-      <c r="C29" s="67"/>
-      <c r="D29" s="67"/>
-      <c r="E29" s="67"/>
-      <c r="F29" s="67"/>
-      <c r="G29" s="67"/>
-      <c r="H29" s="67"/>
+      <c r="C29" s="70"/>
+      <c r="D29" s="70"/>
+      <c r="E29" s="70"/>
+      <c r="F29" s="70"/>
+      <c r="G29" s="70"/>
+      <c r="H29" s="70"/>
       <c r="I29" s="30"/>
       <c r="J29" s="10"/>
       <c r="K29" s="36"/>
@@ -7347,12 +7350,12 @@
         <v>1</v>
       </c>
       <c r="B30" s="21"/>
-      <c r="C30" s="72"/>
-      <c r="D30" s="72"/>
-      <c r="E30" s="72"/>
-      <c r="F30" s="72"/>
-      <c r="G30" s="72"/>
-      <c r="H30" s="72"/>
+      <c r="C30" s="76"/>
+      <c r="D30" s="76"/>
+      <c r="E30" s="76"/>
+      <c r="F30" s="76"/>
+      <c r="G30" s="76"/>
+      <c r="H30" s="76"/>
       <c r="I30" s="22"/>
       <c r="J30" s="10"/>
       <c r="K30" s="36"/>
@@ -7363,12 +7366,12 @@
         <v>2</v>
       </c>
       <c r="B31" s="28"/>
-      <c r="C31" s="69"/>
-      <c r="D31" s="69"/>
-      <c r="E31" s="69"/>
-      <c r="F31" s="69"/>
-      <c r="G31" s="69"/>
-      <c r="H31" s="69"/>
+      <c r="C31" s="72"/>
+      <c r="D31" s="72"/>
+      <c r="E31" s="72"/>
+      <c r="F31" s="72"/>
+      <c r="G31" s="72"/>
+      <c r="H31" s="72"/>
       <c r="I31" s="29"/>
       <c r="J31" s="10"/>
       <c r="K31" s="42"/>
@@ -7376,60 +7379,6 @@
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="G31:H31"/>
@@ -7439,39 +7388,93 @@
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="G30:H30"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:H3">
-    <cfRule type="expression" dxfId="71" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="86" priority="6" stopIfTrue="1">
       <formula>DAY(C3)&gt;8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:I8">
-    <cfRule type="expression" dxfId="70" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="85" priority="5" stopIfTrue="1">
       <formula>AND(DAY(C7)&gt;=1,DAY(C7)&lt;=15)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:I8">
-    <cfRule type="expression" dxfId="69" priority="7">
+    <cfRule type="expression" dxfId="84" priority="7">
       <formula>VLOOKUP(DAY(C3),AssignmentDays,1,FALSE)=DAY(C3)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:I13 B15:I15 B17:I17 B19:I19 B21:I21 B23:I23 B25:I25 B27:I27 B29:I29 B31:I31">
-    <cfRule type="expression" dxfId="68" priority="4">
+    <cfRule type="expression" dxfId="83" priority="4">
       <formula>B13&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:I12 B14:I14 B16:I16 B18:I18 B20:I20 B22:I22 B24:I24 B26:I26 B28:I28 B30:I30">
-    <cfRule type="expression" dxfId="67" priority="3">
+    <cfRule type="expression" dxfId="82" priority="3">
       <formula>B12&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:I13 B15:I15 B17:I17 B19:I19 B21:I21 B23:I23 B25:I25 B27:I27 B29:I29">
-    <cfRule type="expression" dxfId="66" priority="2">
+    <cfRule type="expression" dxfId="81" priority="2">
       <formula>COLUMN(B12)&gt;=2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:I31">
-    <cfRule type="expression" dxfId="65" priority="1">
+    <cfRule type="expression" dxfId="80" priority="1">
       <formula>COLUMN(B12)&gt;2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7510,8 +7513,8 @@
   </sheetPr>
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="84" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="84" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7838,18 +7841,18 @@
       <c r="B11" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="65" t="s">
+      <c r="C11" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="66"/>
-      <c r="E11" s="65" t="s">
+      <c r="D11" s="68"/>
+      <c r="E11" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="66"/>
-      <c r="G11" s="65" t="s">
+      <c r="F11" s="68"/>
+      <c r="G11" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="H11" s="66"/>
+      <c r="H11" s="68"/>
       <c r="I11" s="3" t="s">
         <v>33</v>
       </c>
@@ -7865,12 +7868,12 @@
         <v>1</v>
       </c>
       <c r="B12" s="56"/>
-      <c r="C12" s="72"/>
-      <c r="D12" s="72"/>
-      <c r="E12" s="72"/>
-      <c r="F12" s="72"/>
-      <c r="G12" s="72"/>
-      <c r="H12" s="72"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="76"/>
       <c r="I12" s="22"/>
       <c r="K12" s="36"/>
       <c r="L12" s="49"/>
@@ -7880,12 +7883,12 @@
         <v>2</v>
       </c>
       <c r="B13" s="27"/>
-      <c r="C13" s="67"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="67"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
       <c r="I13" s="54"/>
       <c r="J13" s="20"/>
       <c r="K13" s="35"/>
@@ -7896,49 +7899,49 @@
         <v>1</v>
       </c>
       <c r="B14" s="56"/>
-      <c r="C14" s="72"/>
-      <c r="D14" s="72"/>
-      <c r="E14" s="72"/>
-      <c r="F14" s="72"/>
-      <c r="G14" s="72"/>
-      <c r="H14" s="72"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="76"/>
+      <c r="H14" s="76"/>
       <c r="I14" s="22">
         <v>0.76041666666666663</v>
       </c>
       <c r="J14" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="K14" s="77"/>
-      <c r="L14" s="78"/>
+      <c r="K14" s="65"/>
+      <c r="L14" s="66"/>
     </row>
     <row r="15" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
         <v>2</v>
       </c>
       <c r="B15" s="27"/>
-      <c r="C15" s="67"/>
-      <c r="D15" s="67"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="67"/>
-      <c r="G15" s="67"/>
-      <c r="H15" s="67"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="70"/>
       <c r="I15" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="K15" s="77"/>
-      <c r="L15" s="78"/>
+      <c r="K15" s="65"/>
+      <c r="L15" s="66"/>
     </row>
     <row r="16" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="s">
         <v>1</v>
       </c>
       <c r="B16" s="56"/>
-      <c r="C16" s="72"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="72"/>
-      <c r="F16" s="72"/>
-      <c r="G16" s="72"/>
-      <c r="H16" s="72"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="76"/>
       <c r="I16" s="24">
         <v>0.82291666666666663</v>
       </c>
@@ -7950,12 +7953,12 @@
         <v>2</v>
       </c>
       <c r="B17" s="27"/>
-      <c r="C17" s="67"/>
-      <c r="D17" s="67"/>
-      <c r="E17" s="67"/>
-      <c r="F17" s="67"/>
-      <c r="G17" s="67"/>
-      <c r="H17" s="67"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="70"/>
       <c r="I17" s="27" t="s">
         <v>41</v>
       </c>
@@ -7967,14 +7970,14 @@
         <v>1</v>
       </c>
       <c r="B18" s="56"/>
-      <c r="C18" s="72">
+      <c r="C18" s="76">
         <v>0.82986111111111116</v>
       </c>
-      <c r="D18" s="72"/>
-      <c r="E18" s="72"/>
-      <c r="F18" s="72"/>
-      <c r="G18" s="72"/>
-      <c r="H18" s="72"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="76"/>
+      <c r="H18" s="76"/>
       <c r="I18" s="22"/>
       <c r="K18" s="36"/>
       <c r="L18" s="49"/>
@@ -7984,14 +7987,14 @@
         <v>2</v>
       </c>
       <c r="B19" s="27"/>
-      <c r="C19" s="76" t="s">
+      <c r="C19" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="67"/>
-      <c r="E19" s="67"/>
-      <c r="F19" s="67"/>
-      <c r="G19" s="67"/>
-      <c r="H19" s="67"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="70"/>
       <c r="I19" s="47"/>
       <c r="J19" s="20"/>
       <c r="K19" s="35"/>
@@ -8002,34 +8005,38 @@
         <v>1</v>
       </c>
       <c r="B20" s="56"/>
-      <c r="C20" s="72">
+      <c r="C20" s="76">
         <v>0.875</v>
       </c>
-      <c r="D20" s="72"/>
-      <c r="E20" s="72"/>
-      <c r="F20" s="72"/>
-      <c r="G20" s="72"/>
-      <c r="H20" s="72"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="76"/>
       <c r="I20" s="22"/>
       <c r="J20" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="K20" s="37"/>
-      <c r="L20" s="49"/>
+      <c r="K20" s="37">
+        <v>26</v>
+      </c>
+      <c r="L20" s="49" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="21" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="26" t="s">
         <v>2</v>
       </c>
       <c r="B21" s="27"/>
-      <c r="C21" s="76" t="s">
+      <c r="C21" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="67"/>
-      <c r="E21" s="67"/>
-      <c r="F21" s="67"/>
-      <c r="G21" s="67"/>
-      <c r="H21" s="67"/>
+      <c r="D21" s="70"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="70"/>
+      <c r="G21" s="70"/>
+      <c r="H21" s="70"/>
       <c r="I21" s="54"/>
       <c r="K21" s="36"/>
       <c r="L21" s="49"/>
@@ -8039,14 +8046,14 @@
         <v>1</v>
       </c>
       <c r="B22" s="56"/>
-      <c r="C22" s="72" t="s">
+      <c r="C22" s="76" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="72"/>
-      <c r="E22" s="72"/>
-      <c r="F22" s="72"/>
-      <c r="G22" s="72"/>
-      <c r="H22" s="72"/>
+      <c r="D22" s="76"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="76"/>
+      <c r="G22" s="76"/>
+      <c r="H22" s="76"/>
       <c r="I22" s="22"/>
       <c r="K22" s="36"/>
       <c r="L22" s="49"/>
@@ -8056,14 +8063,14 @@
         <v>2</v>
       </c>
       <c r="B23" s="27"/>
-      <c r="C23" s="75">
+      <c r="C23" s="78">
         <v>0.96180555555555547</v>
       </c>
-      <c r="D23" s="67"/>
-      <c r="E23" s="67"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="67"/>
-      <c r="H23" s="67"/>
+      <c r="D23" s="70"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="70"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="70"/>
       <c r="I23" s="54"/>
       <c r="K23" s="36"/>
       <c r="L23" s="49"/>
@@ -8073,12 +8080,12 @@
         <v>1</v>
       </c>
       <c r="B24" s="56"/>
-      <c r="C24" s="72"/>
-      <c r="D24" s="72"/>
-      <c r="E24" s="72"/>
-      <c r="F24" s="72"/>
-      <c r="G24" s="72"/>
-      <c r="H24" s="72"/>
+      <c r="C24" s="76"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="76"/>
+      <c r="F24" s="76"/>
+      <c r="G24" s="76"/>
+      <c r="H24" s="76"/>
       <c r="I24" s="22"/>
       <c r="K24" s="36"/>
       <c r="L24" s="49"/>
@@ -8088,12 +8095,12 @@
         <v>2</v>
       </c>
       <c r="B25" s="27"/>
-      <c r="C25" s="67"/>
-      <c r="D25" s="67"/>
-      <c r="E25" s="67"/>
-      <c r="F25" s="67"/>
-      <c r="G25" s="67"/>
-      <c r="H25" s="67"/>
+      <c r="C25" s="70"/>
+      <c r="D25" s="70"/>
+      <c r="E25" s="70"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="70"/>
       <c r="I25" s="54"/>
       <c r="J25" s="20"/>
       <c r="K25" s="35"/>
@@ -8104,12 +8111,12 @@
         <v>1</v>
       </c>
       <c r="B26" s="56"/>
-      <c r="C26" s="72"/>
-      <c r="D26" s="72"/>
-      <c r="E26" s="72"/>
-      <c r="F26" s="72"/>
-      <c r="G26" s="72"/>
-      <c r="H26" s="72"/>
+      <c r="C26" s="76"/>
+      <c r="D26" s="76"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="76"/>
+      <c r="H26" s="76"/>
       <c r="I26" s="22"/>
       <c r="J26" s="10" t="s">
         <v>33</v>
@@ -8126,18 +8133,18 @@
         <v>2</v>
       </c>
       <c r="B27" s="27"/>
-      <c r="C27" s="67"/>
-      <c r="D27" s="67"/>
-      <c r="E27" s="67"/>
-      <c r="F27" s="67"/>
-      <c r="G27" s="67"/>
-      <c r="H27" s="67"/>
+      <c r="C27" s="70"/>
+      <c r="D27" s="70"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="70"/>
       <c r="I27" s="54"/>
       <c r="K27" s="36">
         <v>13</v>
       </c>
       <c r="L27" s="49" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -8145,18 +8152,18 @@
         <v>1</v>
       </c>
       <c r="B28" s="56"/>
-      <c r="C28" s="72"/>
-      <c r="D28" s="72"/>
-      <c r="E28" s="72"/>
-      <c r="F28" s="72"/>
-      <c r="G28" s="72"/>
-      <c r="H28" s="72"/>
+      <c r="C28" s="76"/>
+      <c r="D28" s="76"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="76"/>
+      <c r="G28" s="76"/>
+      <c r="H28" s="76"/>
       <c r="I28" s="22"/>
       <c r="K28" s="36">
         <v>20</v>
       </c>
       <c r="L28" s="49" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -8164,18 +8171,18 @@
         <v>2</v>
       </c>
       <c r="B29" s="27"/>
-      <c r="C29" s="67"/>
-      <c r="D29" s="67"/>
-      <c r="E29" s="67"/>
-      <c r="F29" s="67"/>
-      <c r="G29" s="67"/>
-      <c r="H29" s="67"/>
+      <c r="C29" s="70"/>
+      <c r="D29" s="70"/>
+      <c r="E29" s="70"/>
+      <c r="F29" s="70"/>
+      <c r="G29" s="70"/>
+      <c r="H29" s="70"/>
       <c r="I29" s="54"/>
       <c r="K29" s="36">
         <v>27</v>
       </c>
       <c r="L29" s="49" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -8183,12 +8190,12 @@
         <v>1</v>
       </c>
       <c r="B30" s="56"/>
-      <c r="C30" s="72"/>
-      <c r="D30" s="72"/>
-      <c r="E30" s="72"/>
-      <c r="F30" s="72"/>
-      <c r="G30" s="72"/>
-      <c r="H30" s="72"/>
+      <c r="C30" s="76"/>
+      <c r="D30" s="76"/>
+      <c r="E30" s="76"/>
+      <c r="F30" s="76"/>
+      <c r="G30" s="76"/>
+      <c r="H30" s="76"/>
       <c r="I30" s="22"/>
       <c r="K30" s="36"/>
       <c r="L30" s="49"/>
@@ -8198,72 +8205,18 @@
         <v>2</v>
       </c>
       <c r="B31" s="28"/>
-      <c r="C31" s="69"/>
-      <c r="D31" s="69"/>
-      <c r="E31" s="69"/>
-      <c r="F31" s="69"/>
-      <c r="G31" s="69"/>
-      <c r="H31" s="69"/>
+      <c r="C31" s="72"/>
+      <c r="D31" s="72"/>
+      <c r="E31" s="72"/>
+      <c r="F31" s="72"/>
+      <c r="G31" s="72"/>
+      <c r="H31" s="72"/>
       <c r="I31" s="55"/>
       <c r="K31" s="42"/>
       <c r="L31" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="G31:H31"/>
@@ -8273,39 +8226,93 @@
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="G30:H30"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:H3">
-    <cfRule type="expression" dxfId="64" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="77" priority="10" stopIfTrue="1">
       <formula>DAY(C3)&gt;8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:I8">
-    <cfRule type="expression" dxfId="63" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="76" priority="9" stopIfTrue="1">
       <formula>AND(DAY(C7)&gt;=1,DAY(C7)&lt;=15)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:I8">
-    <cfRule type="expression" dxfId="62" priority="11">
+    <cfRule type="expression" dxfId="75" priority="11">
       <formula>VLOOKUP(DAY(C3),AssignmentDays,1,FALSE)=DAY(C3)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:I13 B15:I15 B17:I17 B19:I19 B21:I21 B23:I23 B25:I25 B27:I27 B29:I29 B31:I31">
-    <cfRule type="expression" dxfId="61" priority="4">
+    <cfRule type="expression" dxfId="74" priority="4">
       <formula>B13&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:I12 B14:I14 B16:I16 B18:I18 B20:I20 B22:I22 B24:I24 B26:I26 B28:I28 B30:I30">
-    <cfRule type="expression" dxfId="60" priority="3">
+    <cfRule type="expression" dxfId="73" priority="3">
       <formula>B12&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:I13 B15:I15 B17:I17 B19:I19 B21:I21 B23:I23 B25:I25 B27:I27 B29:I29">
-    <cfRule type="expression" dxfId="59" priority="2">
+    <cfRule type="expression" dxfId="72" priority="2">
       <formula>COLUMN(B12)&gt;=2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:I31">
-    <cfRule type="expression" dxfId="58" priority="1">
+    <cfRule type="expression" dxfId="71" priority="1">
       <formula>COLUMN(B12)&gt;2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8666,18 +8673,18 @@
       <c r="B11" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="65" t="s">
+      <c r="C11" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="66"/>
-      <c r="E11" s="65" t="s">
+      <c r="D11" s="68"/>
+      <c r="E11" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="66"/>
-      <c r="G11" s="65" t="s">
+      <c r="F11" s="68"/>
+      <c r="G11" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="H11" s="66"/>
+      <c r="H11" s="68"/>
       <c r="I11" s="3" t="s">
         <v>33</v>
       </c>
@@ -8690,12 +8697,12 @@
         <v>1</v>
       </c>
       <c r="B12" s="56"/>
-      <c r="C12" s="72"/>
-      <c r="D12" s="72"/>
-      <c r="E12" s="72"/>
-      <c r="F12" s="72"/>
-      <c r="G12" s="72"/>
-      <c r="H12" s="72"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="76"/>
       <c r="I12" s="22"/>
       <c r="J12" s="10"/>
       <c r="K12" s="36"/>
@@ -8706,12 +8713,12 @@
         <v>2</v>
       </c>
       <c r="B13" s="27"/>
-      <c r="C13" s="67"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="67"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
       <c r="I13" s="54"/>
       <c r="J13" s="20"/>
       <c r="K13" s="35"/>
@@ -8722,12 +8729,12 @@
         <v>1</v>
       </c>
       <c r="B14" s="56"/>
-      <c r="C14" s="72"/>
-      <c r="D14" s="72"/>
-      <c r="E14" s="72"/>
-      <c r="F14" s="72"/>
-      <c r="G14" s="72"/>
-      <c r="H14" s="72"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="76"/>
+      <c r="H14" s="76"/>
       <c r="I14" s="22">
         <v>0.76041666666666663</v>
       </c>
@@ -8742,12 +8749,12 @@
         <v>2</v>
       </c>
       <c r="B15" s="27"/>
-      <c r="C15" s="67"/>
-      <c r="D15" s="67"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="67"/>
-      <c r="G15" s="67"/>
-      <c r="H15" s="67"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="70"/>
       <c r="I15" s="27" t="s">
         <v>38</v>
       </c>
@@ -8760,12 +8767,12 @@
         <v>1</v>
       </c>
       <c r="B16" s="56"/>
-      <c r="C16" s="72"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="72"/>
-      <c r="F16" s="72"/>
-      <c r="G16" s="72"/>
-      <c r="H16" s="72"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="76"/>
       <c r="I16" s="24">
         <v>0.82291666666666663</v>
       </c>
@@ -8778,12 +8785,12 @@
         <v>2</v>
       </c>
       <c r="B17" s="27"/>
-      <c r="C17" s="67"/>
-      <c r="D17" s="67"/>
-      <c r="E17" s="67"/>
-      <c r="F17" s="67"/>
-      <c r="G17" s="67"/>
-      <c r="H17" s="67"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="70"/>
       <c r="I17" s="27" t="s">
         <v>41</v>
       </c>
@@ -8796,14 +8803,14 @@
         <v>1</v>
       </c>
       <c r="B18" s="56"/>
-      <c r="C18" s="72">
+      <c r="C18" s="76">
         <v>0.82986111111111116</v>
       </c>
-      <c r="D18" s="72"/>
-      <c r="E18" s="72"/>
-      <c r="F18" s="72"/>
-      <c r="G18" s="72"/>
-      <c r="H18" s="72"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="76"/>
+      <c r="H18" s="76"/>
       <c r="I18" s="22"/>
       <c r="J18" s="10"/>
       <c r="K18" s="36"/>
@@ -8814,14 +8821,14 @@
         <v>2</v>
       </c>
       <c r="B19" s="27"/>
-      <c r="C19" s="76" t="s">
+      <c r="C19" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="67"/>
-      <c r="E19" s="67"/>
-      <c r="F19" s="67"/>
-      <c r="G19" s="67"/>
-      <c r="H19" s="67"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="70"/>
       <c r="I19" s="47"/>
       <c r="J19" s="20"/>
       <c r="K19" s="35"/>
@@ -8832,14 +8839,14 @@
         <v>1</v>
       </c>
       <c r="B20" s="56"/>
-      <c r="C20" s="72">
+      <c r="C20" s="76">
         <v>0.875</v>
       </c>
-      <c r="D20" s="72"/>
-      <c r="E20" s="72"/>
-      <c r="F20" s="72"/>
-      <c r="G20" s="72"/>
-      <c r="H20" s="72"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="76"/>
       <c r="I20" s="22"/>
       <c r="J20" s="10" t="s">
         <v>32</v>
@@ -8852,14 +8859,14 @@
         <v>2</v>
       </c>
       <c r="B21" s="27"/>
-      <c r="C21" s="76" t="s">
+      <c r="C21" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="67"/>
-      <c r="E21" s="67"/>
-      <c r="F21" s="67"/>
-      <c r="G21" s="67"/>
-      <c r="H21" s="67"/>
+      <c r="D21" s="70"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="70"/>
+      <c r="G21" s="70"/>
+      <c r="H21" s="70"/>
       <c r="I21" s="54"/>
       <c r="J21" s="10"/>
       <c r="K21" s="36"/>
@@ -8870,14 +8877,14 @@
         <v>1</v>
       </c>
       <c r="B22" s="56"/>
-      <c r="C22" s="72" t="s">
+      <c r="C22" s="76" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="72"/>
-      <c r="E22" s="72"/>
-      <c r="F22" s="72"/>
-      <c r="G22" s="72"/>
-      <c r="H22" s="72"/>
+      <c r="D22" s="76"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="76"/>
+      <c r="G22" s="76"/>
+      <c r="H22" s="76"/>
       <c r="I22" s="22"/>
       <c r="J22" s="10"/>
       <c r="K22" s="36"/>
@@ -8888,14 +8895,14 @@
         <v>2</v>
       </c>
       <c r="B23" s="27"/>
-      <c r="C23" s="75">
+      <c r="C23" s="78">
         <v>0.96180555555555547</v>
       </c>
-      <c r="D23" s="67"/>
-      <c r="E23" s="67"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="67"/>
-      <c r="H23" s="67"/>
+      <c r="D23" s="70"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="70"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="70"/>
       <c r="I23" s="54"/>
       <c r="J23" s="10"/>
       <c r="K23" s="36"/>
@@ -8906,12 +8913,12 @@
         <v>1</v>
       </c>
       <c r="B24" s="56"/>
-      <c r="C24" s="72"/>
-      <c r="D24" s="72"/>
-      <c r="E24" s="72"/>
-      <c r="F24" s="72"/>
-      <c r="G24" s="72"/>
-      <c r="H24" s="72"/>
+      <c r="C24" s="76"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="76"/>
+      <c r="F24" s="76"/>
+      <c r="G24" s="76"/>
+      <c r="H24" s="76"/>
       <c r="I24" s="22"/>
       <c r="J24" s="10"/>
       <c r="K24" s="36"/>
@@ -8922,12 +8929,12 @@
         <v>2</v>
       </c>
       <c r="B25" s="27"/>
-      <c r="C25" s="67"/>
-      <c r="D25" s="67"/>
-      <c r="E25" s="67"/>
-      <c r="F25" s="67"/>
-      <c r="G25" s="67"/>
-      <c r="H25" s="67"/>
+      <c r="C25" s="70"/>
+      <c r="D25" s="70"/>
+      <c r="E25" s="70"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="70"/>
       <c r="I25" s="54"/>
       <c r="J25" s="20"/>
       <c r="K25" s="35"/>
@@ -8938,12 +8945,12 @@
         <v>1</v>
       </c>
       <c r="B26" s="56"/>
-      <c r="C26" s="72"/>
-      <c r="D26" s="72"/>
-      <c r="E26" s="72"/>
-      <c r="F26" s="72"/>
-      <c r="G26" s="72"/>
-      <c r="H26" s="72"/>
+      <c r="C26" s="76"/>
+      <c r="D26" s="76"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="76"/>
+      <c r="H26" s="76"/>
       <c r="I26" s="22"/>
       <c r="J26" s="10" t="s">
         <v>33</v>
@@ -8956,12 +8963,12 @@
         <v>2</v>
       </c>
       <c r="B27" s="27"/>
-      <c r="C27" s="67"/>
-      <c r="D27" s="67"/>
-      <c r="E27" s="67"/>
-      <c r="F27" s="67"/>
-      <c r="G27" s="67"/>
-      <c r="H27" s="67"/>
+      <c r="C27" s="70"/>
+      <c r="D27" s="70"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="70"/>
       <c r="I27" s="54"/>
       <c r="J27" s="10"/>
       <c r="K27" s="36"/>
@@ -8972,12 +8979,12 @@
         <v>1</v>
       </c>
       <c r="B28" s="56"/>
-      <c r="C28" s="72"/>
-      <c r="D28" s="72"/>
-      <c r="E28" s="72"/>
-      <c r="F28" s="72"/>
-      <c r="G28" s="72"/>
-      <c r="H28" s="72"/>
+      <c r="C28" s="76"/>
+      <c r="D28" s="76"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="76"/>
+      <c r="G28" s="76"/>
+      <c r="H28" s="76"/>
       <c r="I28" s="22"/>
       <c r="J28" s="10"/>
       <c r="K28" s="36"/>
@@ -8988,12 +8995,12 @@
         <v>2</v>
       </c>
       <c r="B29" s="27"/>
-      <c r="C29" s="67"/>
-      <c r="D29" s="67"/>
-      <c r="E29" s="67"/>
-      <c r="F29" s="67"/>
-      <c r="G29" s="67"/>
-      <c r="H29" s="67"/>
+      <c r="C29" s="70"/>
+      <c r="D29" s="70"/>
+      <c r="E29" s="70"/>
+      <c r="F29" s="70"/>
+      <c r="G29" s="70"/>
+      <c r="H29" s="70"/>
       <c r="I29" s="54"/>
       <c r="J29" s="10"/>
       <c r="K29" s="36">
@@ -9008,12 +9015,12 @@
         <v>1</v>
       </c>
       <c r="B30" s="56"/>
-      <c r="C30" s="72"/>
-      <c r="D30" s="72"/>
-      <c r="E30" s="72"/>
-      <c r="F30" s="72"/>
-      <c r="G30" s="72"/>
-      <c r="H30" s="72"/>
+      <c r="C30" s="76"/>
+      <c r="D30" s="76"/>
+      <c r="E30" s="76"/>
+      <c r="F30" s="76"/>
+      <c r="G30" s="76"/>
+      <c r="H30" s="76"/>
       <c r="I30" s="22"/>
       <c r="J30" s="10"/>
       <c r="K30" s="36"/>
@@ -9024,12 +9031,12 @@
         <v>2</v>
       </c>
       <c r="B31" s="28"/>
-      <c r="C31" s="69"/>
-      <c r="D31" s="69"/>
-      <c r="E31" s="69"/>
-      <c r="F31" s="69"/>
-      <c r="G31" s="69"/>
-      <c r="H31" s="69"/>
+      <c r="C31" s="72"/>
+      <c r="D31" s="72"/>
+      <c r="E31" s="72"/>
+      <c r="F31" s="72"/>
+      <c r="G31" s="72"/>
+      <c r="H31" s="72"/>
       <c r="I31" s="55"/>
       <c r="J31" s="45"/>
       <c r="K31" s="42"/>
@@ -9037,60 +9044,6 @@
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="G31:H31"/>
@@ -9100,39 +9053,93 @@
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="G30:H30"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:H3">
-    <cfRule type="expression" dxfId="57" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="68" priority="12" stopIfTrue="1">
       <formula>DAY(C3)&gt;8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:I8">
-    <cfRule type="expression" dxfId="56" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="67" priority="11" stopIfTrue="1">
       <formula>AND(DAY(C7)&gt;=1,DAY(C7)&lt;=15)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:I8">
-    <cfRule type="expression" dxfId="55" priority="13">
+    <cfRule type="expression" dxfId="66" priority="13">
       <formula>VLOOKUP(DAY(C3),AssignmentDays,1,FALSE)=DAY(C3)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:I13 B15:I15 B17:I17 B19:I19 B21:I21 B23:I23 B25:I25 B27:I27 B29:I29 B31:I31">
-    <cfRule type="expression" dxfId="54" priority="4">
+    <cfRule type="expression" dxfId="65" priority="4">
       <formula>B13&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:I12 B14:I14 B16:I16 B18:I18 B20:I20 B22:I22 B24:I24 B26:I26 B28:I28 B30:I30">
-    <cfRule type="expression" dxfId="53" priority="3">
+    <cfRule type="expression" dxfId="64" priority="3">
       <formula>B12&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:I13 B15:I15 B17:I17 B19:I19 B21:I21 B23:I23 B25:I25 B27:I27 B29:I29">
-    <cfRule type="expression" dxfId="52" priority="2">
+    <cfRule type="expression" dxfId="63" priority="2">
       <formula>COLUMN(B12)&gt;=2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:I31">
-    <cfRule type="expression" dxfId="51" priority="1">
+    <cfRule type="expression" dxfId="62" priority="1">
       <formula>COLUMN(B12)&gt;2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9493,18 +9500,18 @@
       <c r="B11" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="65" t="s">
+      <c r="C11" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="66"/>
-      <c r="E11" s="65" t="s">
+      <c r="D11" s="68"/>
+      <c r="E11" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="66"/>
-      <c r="G11" s="65" t="s">
+      <c r="F11" s="68"/>
+      <c r="G11" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="H11" s="66"/>
+      <c r="H11" s="68"/>
       <c r="I11" s="3" t="s">
         <v>33</v>
       </c>
@@ -9517,12 +9524,12 @@
         <v>1</v>
       </c>
       <c r="B12" s="56"/>
-      <c r="C12" s="72"/>
-      <c r="D12" s="72"/>
-      <c r="E12" s="72"/>
-      <c r="F12" s="72"/>
-      <c r="G12" s="72"/>
-      <c r="H12" s="72"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="76"/>
       <c r="I12" s="22"/>
       <c r="J12" s="10"/>
       <c r="K12" s="36"/>
@@ -9533,12 +9540,12 @@
         <v>2</v>
       </c>
       <c r="B13" s="27"/>
-      <c r="C13" s="67"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="67"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
       <c r="I13" s="54"/>
       <c r="J13" s="20"/>
       <c r="K13" s="35"/>
@@ -9549,12 +9556,12 @@
         <v>1</v>
       </c>
       <c r="B14" s="56"/>
-      <c r="C14" s="72"/>
-      <c r="D14" s="72"/>
-      <c r="E14" s="72"/>
-      <c r="F14" s="72"/>
-      <c r="G14" s="72"/>
-      <c r="H14" s="72"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="76"/>
+      <c r="H14" s="76"/>
       <c r="I14" s="22">
         <v>0.76041666666666663</v>
       </c>
@@ -9569,12 +9576,12 @@
         <v>2</v>
       </c>
       <c r="B15" s="27"/>
-      <c r="C15" s="67"/>
-      <c r="D15" s="67"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="67"/>
-      <c r="G15" s="67"/>
-      <c r="H15" s="67"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="70"/>
       <c r="I15" s="27" t="s">
         <v>38</v>
       </c>
@@ -9587,12 +9594,12 @@
         <v>1</v>
       </c>
       <c r="B16" s="56"/>
-      <c r="C16" s="72"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="72"/>
-      <c r="F16" s="72"/>
-      <c r="G16" s="72"/>
-      <c r="H16" s="72"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="76"/>
       <c r="I16" s="24">
         <v>0.82291666666666663</v>
       </c>
@@ -9609,12 +9616,12 @@
         <v>2</v>
       </c>
       <c r="B17" s="27"/>
-      <c r="C17" s="67"/>
-      <c r="D17" s="67"/>
-      <c r="E17" s="67"/>
-      <c r="F17" s="67"/>
-      <c r="G17" s="67"/>
-      <c r="H17" s="67"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="70"/>
       <c r="I17" s="27" t="s">
         <v>41</v>
       </c>
@@ -9627,14 +9634,14 @@
         <v>1</v>
       </c>
       <c r="B18" s="56"/>
-      <c r="C18" s="72">
+      <c r="C18" s="76">
         <v>0.82986111111111116</v>
       </c>
-      <c r="D18" s="72"/>
-      <c r="E18" s="72"/>
-      <c r="F18" s="72"/>
-      <c r="G18" s="72"/>
-      <c r="H18" s="72"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="76"/>
+      <c r="H18" s="76"/>
       <c r="I18" s="22"/>
       <c r="J18" s="10"/>
       <c r="K18" s="36"/>
@@ -9645,14 +9652,14 @@
         <v>2</v>
       </c>
       <c r="B19" s="27"/>
-      <c r="C19" s="76" t="s">
+      <c r="C19" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="67"/>
-      <c r="E19" s="67"/>
-      <c r="F19" s="67"/>
-      <c r="G19" s="67"/>
-      <c r="H19" s="67"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="70"/>
       <c r="I19" s="47"/>
       <c r="J19" s="20"/>
       <c r="K19" s="35"/>
@@ -9663,14 +9670,14 @@
         <v>1</v>
       </c>
       <c r="B20" s="56"/>
-      <c r="C20" s="72">
+      <c r="C20" s="76">
         <v>0.875</v>
       </c>
-      <c r="D20" s="72"/>
-      <c r="E20" s="72"/>
-      <c r="F20" s="72"/>
-      <c r="G20" s="72"/>
-      <c r="H20" s="72"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="76"/>
       <c r="I20" s="22"/>
       <c r="J20" s="10" t="s">
         <v>32</v>
@@ -9683,14 +9690,14 @@
         <v>2</v>
       </c>
       <c r="B21" s="27"/>
-      <c r="C21" s="76" t="s">
+      <c r="C21" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="67"/>
-      <c r="E21" s="67"/>
-      <c r="F21" s="67"/>
-      <c r="G21" s="67"/>
-      <c r="H21" s="67"/>
+      <c r="D21" s="70"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="70"/>
+      <c r="G21" s="70"/>
+      <c r="H21" s="70"/>
       <c r="I21" s="54"/>
       <c r="J21" s="10"/>
       <c r="K21" s="36"/>
@@ -9701,14 +9708,14 @@
         <v>1</v>
       </c>
       <c r="B22" s="56"/>
-      <c r="C22" s="72" t="s">
+      <c r="C22" s="76" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="72"/>
-      <c r="E22" s="72"/>
-      <c r="F22" s="72"/>
-      <c r="G22" s="72"/>
-      <c r="H22" s="72"/>
+      <c r="D22" s="76"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="76"/>
+      <c r="G22" s="76"/>
+      <c r="H22" s="76"/>
       <c r="I22" s="22"/>
       <c r="J22" s="10"/>
       <c r="K22" s="36"/>
@@ -9719,14 +9726,14 @@
         <v>2</v>
       </c>
       <c r="B23" s="27"/>
-      <c r="C23" s="75">
+      <c r="C23" s="78">
         <v>0.96180555555555547</v>
       </c>
-      <c r="D23" s="67"/>
-      <c r="E23" s="67"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="67"/>
-      <c r="H23" s="67"/>
+      <c r="D23" s="70"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="70"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="70"/>
       <c r="I23" s="54"/>
       <c r="J23" s="10"/>
       <c r="K23" s="36"/>
@@ -9737,12 +9744,12 @@
         <v>1</v>
       </c>
       <c r="B24" s="56"/>
-      <c r="C24" s="72"/>
-      <c r="D24" s="72"/>
-      <c r="E24" s="72"/>
-      <c r="F24" s="72"/>
-      <c r="G24" s="72"/>
-      <c r="H24" s="72"/>
+      <c r="C24" s="76"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="76"/>
+      <c r="F24" s="76"/>
+      <c r="G24" s="76"/>
+      <c r="H24" s="76"/>
       <c r="I24" s="22"/>
       <c r="J24" s="10"/>
       <c r="K24" s="36"/>
@@ -9753,12 +9760,12 @@
         <v>2</v>
       </c>
       <c r="B25" s="27"/>
-      <c r="C25" s="67"/>
-      <c r="D25" s="67"/>
-      <c r="E25" s="67"/>
-      <c r="F25" s="67"/>
-      <c r="G25" s="67"/>
-      <c r="H25" s="67"/>
+      <c r="C25" s="70"/>
+      <c r="D25" s="70"/>
+      <c r="E25" s="70"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="70"/>
       <c r="I25" s="54"/>
       <c r="J25" s="20"/>
       <c r="K25" s="35"/>
@@ -9769,12 +9776,12 @@
         <v>1</v>
       </c>
       <c r="B26" s="56"/>
-      <c r="C26" s="72"/>
-      <c r="D26" s="72"/>
-      <c r="E26" s="72"/>
-      <c r="F26" s="72"/>
-      <c r="G26" s="72"/>
-      <c r="H26" s="72"/>
+      <c r="C26" s="76"/>
+      <c r="D26" s="76"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="76"/>
+      <c r="H26" s="76"/>
       <c r="I26" s="22"/>
       <c r="J26" s="10" t="s">
         <v>33</v>
@@ -9791,12 +9798,12 @@
         <v>2</v>
       </c>
       <c r="B27" s="27"/>
-      <c r="C27" s="67"/>
-      <c r="D27" s="67"/>
-      <c r="E27" s="67"/>
-      <c r="F27" s="67"/>
-      <c r="G27" s="67"/>
-      <c r="H27" s="67"/>
+      <c r="C27" s="70"/>
+      <c r="D27" s="70"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="70"/>
       <c r="I27" s="54"/>
       <c r="J27" s="10"/>
       <c r="K27" s="36"/>
@@ -9807,12 +9814,12 @@
         <v>1</v>
       </c>
       <c r="B28" s="56"/>
-      <c r="C28" s="72"/>
-      <c r="D28" s="72"/>
-      <c r="E28" s="72"/>
-      <c r="F28" s="72"/>
-      <c r="G28" s="72"/>
-      <c r="H28" s="72"/>
+      <c r="C28" s="76"/>
+      <c r="D28" s="76"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="76"/>
+      <c r="G28" s="76"/>
+      <c r="H28" s="76"/>
       <c r="I28" s="22"/>
       <c r="J28" s="10"/>
       <c r="K28" s="36"/>
@@ -9823,12 +9830,12 @@
         <v>2</v>
       </c>
       <c r="B29" s="27"/>
-      <c r="C29" s="67"/>
-      <c r="D29" s="67"/>
-      <c r="E29" s="67"/>
-      <c r="F29" s="67"/>
-      <c r="G29" s="67"/>
-      <c r="H29" s="67"/>
+      <c r="C29" s="70"/>
+      <c r="D29" s="70"/>
+      <c r="E29" s="70"/>
+      <c r="F29" s="70"/>
+      <c r="G29" s="70"/>
+      <c r="H29" s="70"/>
       <c r="I29" s="54"/>
       <c r="J29" s="10"/>
       <c r="K29" s="36"/>
@@ -9839,12 +9846,12 @@
         <v>1</v>
       </c>
       <c r="B30" s="56"/>
-      <c r="C30" s="72"/>
-      <c r="D30" s="72"/>
-      <c r="E30" s="72"/>
-      <c r="F30" s="72"/>
-      <c r="G30" s="72"/>
-      <c r="H30" s="72"/>
+      <c r="C30" s="76"/>
+      <c r="D30" s="76"/>
+      <c r="E30" s="76"/>
+      <c r="F30" s="76"/>
+      <c r="G30" s="76"/>
+      <c r="H30" s="76"/>
       <c r="I30" s="22"/>
       <c r="J30" s="10"/>
       <c r="K30" s="36"/>
@@ -9855,12 +9862,12 @@
         <v>2</v>
       </c>
       <c r="B31" s="28"/>
-      <c r="C31" s="69"/>
-      <c r="D31" s="69"/>
-      <c r="E31" s="69"/>
-      <c r="F31" s="69"/>
-      <c r="G31" s="69"/>
-      <c r="H31" s="69"/>
+      <c r="C31" s="72"/>
+      <c r="D31" s="72"/>
+      <c r="E31" s="72"/>
+      <c r="F31" s="72"/>
+      <c r="G31" s="72"/>
+      <c r="H31" s="72"/>
       <c r="I31" s="55"/>
       <c r="J31" s="10"/>
       <c r="K31" s="42"/>
@@ -9868,60 +9875,6 @@
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="G31:H31"/>
@@ -9931,39 +9884,93 @@
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="G30:H30"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:H3">
-    <cfRule type="expression" dxfId="50" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="59" priority="10" stopIfTrue="1">
       <formula>DAY(C3)&gt;8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:I8">
-    <cfRule type="expression" dxfId="49" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="58" priority="9" stopIfTrue="1">
       <formula>AND(DAY(C7)&gt;=1,DAY(C7)&lt;=15)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:I8">
-    <cfRule type="expression" dxfId="48" priority="11">
+    <cfRule type="expression" dxfId="57" priority="11">
       <formula>VLOOKUP(DAY(C3),AssignmentDays,1,FALSE)=DAY(C3)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:I13 B15:I15 B17:I17 B19:I19 B21:I21 B23:I23 B25:I25 B27:I27 B29:I29 B31:I31">
-    <cfRule type="expression" dxfId="47" priority="4">
+    <cfRule type="expression" dxfId="56" priority="4">
       <formula>B13&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:I12 B14:I14 B16:I16 B18:I18 B20:I20 B22:I22 B24:I24 B26:I26 B28:I28 B30:I30">
-    <cfRule type="expression" dxfId="46" priority="3">
+    <cfRule type="expression" dxfId="55" priority="3">
       <formula>B12&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:I13 B15:I15 B17:I17 B19:I19 B21:I21 B23:I23 B25:I25 B27:I27 B29:I29">
-    <cfRule type="expression" dxfId="45" priority="2">
+    <cfRule type="expression" dxfId="54" priority="2">
       <formula>COLUMN(B12)&gt;=2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:I31">
-    <cfRule type="expression" dxfId="44" priority="1">
+    <cfRule type="expression" dxfId="53" priority="1">
       <formula>COLUMN(B12)&gt;2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10316,18 +10323,18 @@
       <c r="B11" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="65" t="s">
+      <c r="C11" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="66"/>
-      <c r="E11" s="65" t="s">
+      <c r="D11" s="68"/>
+      <c r="E11" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="66"/>
-      <c r="G11" s="65" t="s">
+      <c r="F11" s="68"/>
+      <c r="G11" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="H11" s="66"/>
+      <c r="H11" s="68"/>
       <c r="I11" s="3" t="s">
         <v>33</v>
       </c>
@@ -10340,12 +10347,12 @@
         <v>1</v>
       </c>
       <c r="B12" s="56"/>
-      <c r="C12" s="72"/>
-      <c r="D12" s="72"/>
-      <c r="E12" s="72"/>
-      <c r="F12" s="72"/>
-      <c r="G12" s="72"/>
-      <c r="H12" s="72"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="76"/>
       <c r="I12" s="22"/>
       <c r="J12" s="10"/>
       <c r="K12" s="36"/>
@@ -10356,12 +10363,12 @@
         <v>2</v>
       </c>
       <c r="B13" s="27"/>
-      <c r="C13" s="67"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="67"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
       <c r="I13" s="54"/>
       <c r="J13" s="20"/>
       <c r="K13" s="35"/>
@@ -10372,12 +10379,12 @@
         <v>1</v>
       </c>
       <c r="B14" s="56"/>
-      <c r="C14" s="72"/>
-      <c r="D14" s="72"/>
-      <c r="E14" s="72"/>
-      <c r="F14" s="72"/>
-      <c r="G14" s="72"/>
-      <c r="H14" s="72"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="76"/>
+      <c r="H14" s="76"/>
       <c r="I14" s="22">
         <v>0.76041666666666663</v>
       </c>
@@ -10392,12 +10399,12 @@
         <v>2</v>
       </c>
       <c r="B15" s="27"/>
-      <c r="C15" s="67"/>
-      <c r="D15" s="67"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="67"/>
-      <c r="G15" s="67"/>
-      <c r="H15" s="67"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="70"/>
       <c r="I15" s="27" t="s">
         <v>38</v>
       </c>
@@ -10410,12 +10417,12 @@
         <v>1</v>
       </c>
       <c r="B16" s="56"/>
-      <c r="C16" s="72"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="72"/>
-      <c r="F16" s="72"/>
-      <c r="G16" s="72"/>
-      <c r="H16" s="72"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="76"/>
       <c r="I16" s="24">
         <v>0.82291666666666663</v>
       </c>
@@ -10428,12 +10435,12 @@
         <v>2</v>
       </c>
       <c r="B17" s="27"/>
-      <c r="C17" s="67"/>
-      <c r="D17" s="67"/>
-      <c r="E17" s="67"/>
-      <c r="F17" s="67"/>
-      <c r="G17" s="67"/>
-      <c r="H17" s="67"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="70"/>
       <c r="I17" s="27" t="s">
         <v>41</v>
       </c>
@@ -10446,14 +10453,14 @@
         <v>1</v>
       </c>
       <c r="B18" s="56"/>
-      <c r="C18" s="72">
+      <c r="C18" s="76">
         <v>0.82986111111111116</v>
       </c>
-      <c r="D18" s="72"/>
-      <c r="E18" s="72"/>
-      <c r="F18" s="72"/>
-      <c r="G18" s="72"/>
-      <c r="H18" s="72"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="76"/>
+      <c r="H18" s="76"/>
       <c r="I18" s="22"/>
       <c r="J18" s="10"/>
       <c r="K18" s="36"/>
@@ -10464,14 +10471,14 @@
         <v>2</v>
       </c>
       <c r="B19" s="27"/>
-      <c r="C19" s="76" t="s">
+      <c r="C19" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="67"/>
-      <c r="E19" s="67"/>
-      <c r="F19" s="67"/>
-      <c r="G19" s="67"/>
-      <c r="H19" s="67"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="70"/>
       <c r="I19" s="47"/>
       <c r="J19" s="20"/>
       <c r="K19" s="35"/>
@@ -10482,14 +10489,14 @@
         <v>1</v>
       </c>
       <c r="B20" s="56"/>
-      <c r="C20" s="72">
+      <c r="C20" s="76">
         <v>0.875</v>
       </c>
-      <c r="D20" s="72"/>
-      <c r="E20" s="72"/>
-      <c r="F20" s="72"/>
-      <c r="G20" s="72"/>
-      <c r="H20" s="72"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="76"/>
       <c r="I20" s="22"/>
       <c r="J20" s="10" t="s">
         <v>32</v>
@@ -10502,14 +10509,14 @@
         <v>2</v>
       </c>
       <c r="B21" s="27"/>
-      <c r="C21" s="76" t="s">
+      <c r="C21" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="67"/>
-      <c r="E21" s="67"/>
-      <c r="F21" s="67"/>
-      <c r="G21" s="67"/>
-      <c r="H21" s="67"/>
+      <c r="D21" s="70"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="70"/>
+      <c r="G21" s="70"/>
+      <c r="H21" s="70"/>
       <c r="I21" s="54"/>
       <c r="J21" s="10"/>
       <c r="K21" s="36"/>
@@ -10520,14 +10527,14 @@
         <v>1</v>
       </c>
       <c r="B22" s="56"/>
-      <c r="C22" s="72" t="s">
+      <c r="C22" s="76" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="72"/>
-      <c r="E22" s="72"/>
-      <c r="F22" s="72"/>
-      <c r="G22" s="72"/>
-      <c r="H22" s="72"/>
+      <c r="D22" s="76"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="76"/>
+      <c r="G22" s="76"/>
+      <c r="H22" s="76"/>
       <c r="I22" s="22"/>
       <c r="J22" s="10"/>
       <c r="K22" s="36"/>
@@ -10538,14 +10545,14 @@
         <v>2</v>
       </c>
       <c r="B23" s="27"/>
-      <c r="C23" s="75">
+      <c r="C23" s="78">
         <v>0.96180555555555547</v>
       </c>
-      <c r="D23" s="67"/>
-      <c r="E23" s="67"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="67"/>
-      <c r="H23" s="67"/>
+      <c r="D23" s="70"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="70"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="70"/>
       <c r="I23" s="54"/>
       <c r="J23" s="10"/>
       <c r="K23" s="36"/>
@@ -10556,12 +10563,12 @@
         <v>1</v>
       </c>
       <c r="B24" s="56"/>
-      <c r="C24" s="72"/>
-      <c r="D24" s="72"/>
-      <c r="E24" s="72"/>
-      <c r="F24" s="72"/>
-      <c r="G24" s="72"/>
-      <c r="H24" s="72"/>
+      <c r="C24" s="76"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="76"/>
+      <c r="F24" s="76"/>
+      <c r="G24" s="76"/>
+      <c r="H24" s="76"/>
       <c r="I24" s="22"/>
       <c r="J24" s="10"/>
       <c r="K24" s="36"/>
@@ -10572,12 +10579,12 @@
         <v>2</v>
       </c>
       <c r="B25" s="27"/>
-      <c r="C25" s="67"/>
-      <c r="D25" s="67"/>
-      <c r="E25" s="67"/>
-      <c r="F25" s="67"/>
-      <c r="G25" s="67"/>
-      <c r="H25" s="67"/>
+      <c r="C25" s="70"/>
+      <c r="D25" s="70"/>
+      <c r="E25" s="70"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="70"/>
       <c r="I25" s="54"/>
       <c r="J25" s="20"/>
       <c r="K25" s="35"/>
@@ -10588,12 +10595,12 @@
         <v>1</v>
       </c>
       <c r="B26" s="56"/>
-      <c r="C26" s="72"/>
-      <c r="D26" s="72"/>
-      <c r="E26" s="72"/>
-      <c r="F26" s="72"/>
-      <c r="G26" s="72"/>
-      <c r="H26" s="72"/>
+      <c r="C26" s="76"/>
+      <c r="D26" s="76"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="76"/>
+      <c r="H26" s="76"/>
       <c r="I26" s="22"/>
       <c r="J26" s="10" t="s">
         <v>33</v>
@@ -10606,12 +10613,12 @@
         <v>2</v>
       </c>
       <c r="B27" s="27"/>
-      <c r="C27" s="67"/>
-      <c r="D27" s="67"/>
-      <c r="E27" s="67"/>
-      <c r="F27" s="67"/>
-      <c r="G27" s="67"/>
-      <c r="H27" s="67"/>
+      <c r="C27" s="70"/>
+      <c r="D27" s="70"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="70"/>
       <c r="I27" s="54"/>
       <c r="J27" s="10"/>
       <c r="K27" s="36"/>
@@ -10622,12 +10629,12 @@
         <v>1</v>
       </c>
       <c r="B28" s="56"/>
-      <c r="C28" s="72"/>
-      <c r="D28" s="72"/>
-      <c r="E28" s="72"/>
-      <c r="F28" s="72"/>
-      <c r="G28" s="72"/>
-      <c r="H28" s="72"/>
+      <c r="C28" s="76"/>
+      <c r="D28" s="76"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="76"/>
+      <c r="G28" s="76"/>
+      <c r="H28" s="76"/>
       <c r="I28" s="22"/>
       <c r="J28" s="10"/>
       <c r="K28" s="36"/>
@@ -10638,12 +10645,12 @@
         <v>2</v>
       </c>
       <c r="B29" s="27"/>
-      <c r="C29" s="67"/>
-      <c r="D29" s="67"/>
-      <c r="E29" s="67"/>
-      <c r="F29" s="67"/>
-      <c r="G29" s="67"/>
-      <c r="H29" s="67"/>
+      <c r="C29" s="70"/>
+      <c r="D29" s="70"/>
+      <c r="E29" s="70"/>
+      <c r="F29" s="70"/>
+      <c r="G29" s="70"/>
+      <c r="H29" s="70"/>
       <c r="I29" s="54"/>
       <c r="J29" s="10"/>
       <c r="K29" s="36"/>
@@ -10654,12 +10661,12 @@
         <v>1</v>
       </c>
       <c r="B30" s="56"/>
-      <c r="C30" s="72"/>
-      <c r="D30" s="72"/>
-      <c r="E30" s="72"/>
-      <c r="F30" s="72"/>
-      <c r="G30" s="72"/>
-      <c r="H30" s="72"/>
+      <c r="C30" s="76"/>
+      <c r="D30" s="76"/>
+      <c r="E30" s="76"/>
+      <c r="F30" s="76"/>
+      <c r="G30" s="76"/>
+      <c r="H30" s="76"/>
       <c r="I30" s="22"/>
       <c r="J30" s="10"/>
       <c r="K30" s="36"/>
@@ -10670,12 +10677,12 @@
         <v>2</v>
       </c>
       <c r="B31" s="28"/>
-      <c r="C31" s="69"/>
-      <c r="D31" s="69"/>
-      <c r="E31" s="69"/>
-      <c r="F31" s="69"/>
-      <c r="G31" s="69"/>
-      <c r="H31" s="69"/>
+      <c r="C31" s="72"/>
+      <c r="D31" s="72"/>
+      <c r="E31" s="72"/>
+      <c r="F31" s="72"/>
+      <c r="G31" s="72"/>
+      <c r="H31" s="72"/>
       <c r="I31" s="55"/>
       <c r="J31" s="10"/>
       <c r="K31" s="42"/>
@@ -10683,60 +10690,6 @@
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="G31:H31"/>
@@ -10746,39 +10699,93 @@
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="G30:H30"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:H3">
-    <cfRule type="expression" dxfId="43" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="10" stopIfTrue="1">
       <formula>DAY(C3)&gt;8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:I8">
-    <cfRule type="expression" dxfId="42" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="9" stopIfTrue="1">
       <formula>AND(DAY(C7)&gt;=1,DAY(C7)&lt;=15)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:I8">
-    <cfRule type="expression" dxfId="41" priority="11">
+    <cfRule type="expression" dxfId="48" priority="11">
       <formula>VLOOKUP(DAY(C3),AssignmentDays,1,FALSE)=DAY(C3)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:I13 B15:I15 B17:I17 B19:I19 B21:I21 B23:I23 B25:I25 B27:I27 B29:I29 B31:I31">
-    <cfRule type="expression" dxfId="40" priority="4">
+    <cfRule type="expression" dxfId="47" priority="4">
       <formula>B13&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:I12 B14:I14 B16:I16 B18:I18 B20:I20 B22:I22 B24:I24 B26:I26 B28:I28 B30:I30">
-    <cfRule type="expression" dxfId="39" priority="3">
+    <cfRule type="expression" dxfId="46" priority="3">
       <formula>B12&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:I13 B15:I15 B17:I17 B19:I19 B21:I21 B23:I23 B25:I25 B27:I27 B29:I29">
-    <cfRule type="expression" dxfId="38" priority="2">
+    <cfRule type="expression" dxfId="45" priority="2">
       <formula>COLUMN(B12)&gt;=2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:I31">
-    <cfRule type="expression" dxfId="37" priority="1">
+    <cfRule type="expression" dxfId="44" priority="1">
       <formula>COLUMN(B12)&gt;2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11122,18 +11129,18 @@
       <c r="B11" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="65" t="s">
+      <c r="C11" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="66"/>
-      <c r="E11" s="65" t="s">
+      <c r="D11" s="68"/>
+      <c r="E11" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="66"/>
-      <c r="G11" s="65" t="s">
+      <c r="F11" s="68"/>
+      <c r="G11" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="H11" s="66"/>
+      <c r="H11" s="68"/>
       <c r="I11" s="3" t="s">
         <v>33</v>
       </c>
@@ -11148,14 +11155,14 @@
       <c r="B12" s="21">
         <v>0.33333333333333331</v>
       </c>
-      <c r="C12" s="72"/>
-      <c r="D12" s="72"/>
-      <c r="E12" s="72">
+      <c r="C12" s="76"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="76">
         <v>0.33333333333333331</v>
       </c>
-      <c r="F12" s="72"/>
-      <c r="G12" s="72"/>
-      <c r="H12" s="72"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="76"/>
       <c r="I12" s="22">
         <v>0.33333333333333331</v>
       </c>
@@ -11170,14 +11177,14 @@
       <c r="B13" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="67"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="67" t="s">
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="F13" s="67"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="67"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
       <c r="I13" s="30" t="s">
         <v>5</v>
       </c>
@@ -11190,16 +11197,16 @@
         <v>1</v>
       </c>
       <c r="B14" s="21"/>
-      <c r="C14" s="72">
+      <c r="C14" s="76">
         <v>0.375</v>
       </c>
-      <c r="D14" s="72"/>
-      <c r="E14" s="72"/>
-      <c r="F14" s="72"/>
-      <c r="G14" s="72">
+      <c r="D14" s="76"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="76">
         <v>0.375</v>
       </c>
-      <c r="H14" s="72"/>
+      <c r="H14" s="76"/>
       <c r="I14" s="22"/>
       <c r="J14" s="10" t="s">
         <v>31</v>
@@ -11212,16 +11219,16 @@
         <v>2</v>
       </c>
       <c r="B15" s="27"/>
-      <c r="C15" s="67" t="s">
+      <c r="C15" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="67"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="67"/>
-      <c r="G15" s="67" t="s">
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="67"/>
+      <c r="H15" s="70"/>
       <c r="I15" s="30"/>
       <c r="J15" s="10"/>
       <c r="K15" s="36"/>
@@ -11234,14 +11241,14 @@
       <c r="B16" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="72"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="72" t="s">
+      <c r="C16" s="76"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="F16" s="72"/>
-      <c r="G16" s="72"/>
-      <c r="H16" s="72"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="76"/>
       <c r="I16" s="24" t="s">
         <v>6</v>
       </c>
@@ -11256,14 +11263,14 @@
       <c r="B17" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="67"/>
-      <c r="D17" s="67"/>
-      <c r="E17" s="67" t="s">
+      <c r="C17" s="70"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="F17" s="67"/>
-      <c r="G17" s="67"/>
-      <c r="H17" s="67"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="70"/>
       <c r="I17" s="30" t="s">
         <v>7</v>
       </c>
@@ -11276,12 +11283,12 @@
         <v>1</v>
       </c>
       <c r="B18" s="21"/>
-      <c r="C18" s="72"/>
-      <c r="D18" s="72"/>
-      <c r="E18" s="72"/>
-      <c r="F18" s="72"/>
-      <c r="G18" s="72"/>
-      <c r="H18" s="72"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="76"/>
+      <c r="H18" s="76"/>
       <c r="I18" s="22"/>
       <c r="J18" s="10"/>
       <c r="K18" s="36"/>
@@ -11292,12 +11299,12 @@
         <v>2</v>
       </c>
       <c r="B19" s="27"/>
-      <c r="C19" s="67"/>
-      <c r="D19" s="67"/>
-      <c r="E19" s="67"/>
-      <c r="F19" s="67"/>
-      <c r="G19" s="67"/>
-      <c r="H19" s="67"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="70"/>
       <c r="I19" s="47"/>
       <c r="J19" s="20"/>
       <c r="K19" s="35"/>
@@ -11308,12 +11315,12 @@
         <v>1</v>
       </c>
       <c r="B20" s="21"/>
-      <c r="C20" s="72"/>
-      <c r="D20" s="72"/>
-      <c r="E20" s="72"/>
-      <c r="F20" s="72"/>
-      <c r="G20" s="72"/>
-      <c r="H20" s="72"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="76"/>
       <c r="I20" s="22"/>
       <c r="J20" s="10" t="s">
         <v>32</v>
@@ -11326,12 +11333,12 @@
         <v>2</v>
       </c>
       <c r="B21" s="27"/>
-      <c r="C21" s="67"/>
-      <c r="D21" s="67"/>
-      <c r="E21" s="67"/>
-      <c r="F21" s="67"/>
-      <c r="G21" s="67"/>
-      <c r="H21" s="67"/>
+      <c r="C21" s="70"/>
+      <c r="D21" s="70"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="70"/>
+      <c r="G21" s="70"/>
+      <c r="H21" s="70"/>
       <c r="I21" s="30"/>
       <c r="J21" s="10"/>
       <c r="K21" s="36"/>
@@ -11342,12 +11349,12 @@
         <v>1</v>
       </c>
       <c r="B22" s="21"/>
-      <c r="C22" s="72"/>
-      <c r="D22" s="72"/>
-      <c r="E22" s="72"/>
-      <c r="F22" s="72"/>
-      <c r="G22" s="72"/>
-      <c r="H22" s="72"/>
+      <c r="C22" s="76"/>
+      <c r="D22" s="76"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="76"/>
+      <c r="G22" s="76"/>
+      <c r="H22" s="76"/>
       <c r="I22" s="22"/>
       <c r="J22" s="10"/>
       <c r="K22" s="36"/>
@@ -11358,12 +11365,12 @@
         <v>2</v>
       </c>
       <c r="B23" s="27"/>
-      <c r="C23" s="67"/>
-      <c r="D23" s="67"/>
-      <c r="E23" s="67"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="67"/>
-      <c r="H23" s="67"/>
+      <c r="C23" s="70"/>
+      <c r="D23" s="70"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="70"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="70"/>
       <c r="I23" s="30"/>
       <c r="J23" s="10"/>
       <c r="K23" s="36"/>
@@ -11376,14 +11383,14 @@
       <c r="B24" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="72"/>
-      <c r="D24" s="72"/>
-      <c r="E24" s="72" t="s">
+      <c r="C24" s="76"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="72"/>
-      <c r="G24" s="72"/>
-      <c r="H24" s="72"/>
+      <c r="F24" s="76"/>
+      <c r="G24" s="76"/>
+      <c r="H24" s="76"/>
       <c r="I24" s="22" t="s">
         <v>8</v>
       </c>
@@ -11398,14 +11405,14 @@
       <c r="B25" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="67"/>
-      <c r="D25" s="67"/>
-      <c r="E25" s="67" t="s">
+      <c r="C25" s="70"/>
+      <c r="D25" s="70"/>
+      <c r="E25" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="F25" s="67"/>
-      <c r="G25" s="67"/>
-      <c r="H25" s="67"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="70"/>
       <c r="I25" s="30" t="s">
         <v>9</v>
       </c>
@@ -11418,12 +11425,12 @@
         <v>1</v>
       </c>
       <c r="B26" s="21"/>
-      <c r="C26" s="72"/>
-      <c r="D26" s="72"/>
-      <c r="E26" s="72"/>
-      <c r="F26" s="72"/>
-      <c r="G26" s="72"/>
-      <c r="H26" s="72"/>
+      <c r="C26" s="76"/>
+      <c r="D26" s="76"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="76"/>
+      <c r="H26" s="76"/>
       <c r="I26" s="22"/>
       <c r="J26" s="10" t="s">
         <v>33</v>
@@ -11436,12 +11443,12 @@
         <v>2</v>
       </c>
       <c r="B27" s="27"/>
-      <c r="C27" s="67"/>
-      <c r="D27" s="67"/>
-      <c r="E27" s="67"/>
-      <c r="F27" s="67"/>
-      <c r="G27" s="67"/>
-      <c r="H27" s="67"/>
+      <c r="C27" s="70"/>
+      <c r="D27" s="70"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="70"/>
       <c r="I27" s="30"/>
       <c r="J27" s="10"/>
       <c r="K27" s="36"/>
@@ -11452,16 +11459,16 @@
         <v>1</v>
       </c>
       <c r="B28" s="21"/>
-      <c r="C28" s="72" t="s">
+      <c r="C28" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="D28" s="72"/>
-      <c r="E28" s="72"/>
-      <c r="F28" s="72"/>
-      <c r="G28" s="72" t="s">
+      <c r="D28" s="76"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="76"/>
+      <c r="G28" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="H28" s="72"/>
+      <c r="H28" s="76"/>
       <c r="I28" s="22"/>
       <c r="J28" s="10"/>
       <c r="K28" s="36"/>
@@ -11472,16 +11479,16 @@
         <v>2</v>
       </c>
       <c r="B29" s="27"/>
-      <c r="C29" s="67" t="s">
+      <c r="C29" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="67"/>
-      <c r="E29" s="67"/>
-      <c r="F29" s="67"/>
-      <c r="G29" s="67" t="s">
+      <c r="D29" s="70"/>
+      <c r="E29" s="70"/>
+      <c r="F29" s="70"/>
+      <c r="G29" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="H29" s="67"/>
+      <c r="H29" s="70"/>
       <c r="I29" s="30"/>
       <c r="J29" s="10"/>
       <c r="K29" s="36"/>
@@ -11492,12 +11499,12 @@
         <v>1</v>
       </c>
       <c r="B30" s="21"/>
-      <c r="C30" s="72"/>
-      <c r="D30" s="72"/>
-      <c r="E30" s="72"/>
-      <c r="F30" s="72"/>
-      <c r="G30" s="72"/>
-      <c r="H30" s="72"/>
+      <c r="C30" s="76"/>
+      <c r="D30" s="76"/>
+      <c r="E30" s="76"/>
+      <c r="F30" s="76"/>
+      <c r="G30" s="76"/>
+      <c r="H30" s="76"/>
       <c r="I30" s="22"/>
       <c r="J30" s="10"/>
       <c r="K30" s="36"/>
@@ -11508,12 +11515,12 @@
         <v>2</v>
       </c>
       <c r="B31" s="28"/>
-      <c r="C31" s="69"/>
-      <c r="D31" s="69"/>
-      <c r="E31" s="69"/>
-      <c r="F31" s="69"/>
-      <c r="G31" s="69"/>
-      <c r="H31" s="69"/>
+      <c r="C31" s="72"/>
+      <c r="D31" s="72"/>
+      <c r="E31" s="72"/>
+      <c r="F31" s="72"/>
+      <c r="G31" s="72"/>
+      <c r="H31" s="72"/>
       <c r="I31" s="40"/>
       <c r="J31" s="10"/>
       <c r="K31" s="42"/>
@@ -11521,60 +11528,6 @@
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="G31:H31"/>
@@ -11584,39 +11537,93 @@
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="G30:H30"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:H3">
-    <cfRule type="expression" dxfId="36" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="6" stopIfTrue="1">
       <formula>DAY(C3)&gt;8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:I8">
-    <cfRule type="expression" dxfId="35" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="5" stopIfTrue="1">
       <formula>AND(DAY(C7)&gt;=1,DAY(C7)&lt;=15)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:I8">
-    <cfRule type="expression" dxfId="34" priority="7">
+    <cfRule type="expression" dxfId="39" priority="7">
       <formula>VLOOKUP(DAY(C3),AssignmentDays,1,FALSE)=DAY(C3)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:I12 B14:I14 B16:I16 B18:I18 B20:I20 B22:I22 B24:I24 B26:I26 B28:I28 B30:I30">
-    <cfRule type="expression" dxfId="33" priority="4">
+    <cfRule type="expression" dxfId="38" priority="4">
       <formula>B12&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:I13 B15:I15 B17:I17 B19:I19 B21:I21 B23:I23 B25:I25 B27:I27 B29:I29 B31:I31">
-    <cfRule type="expression" dxfId="32" priority="3">
+    <cfRule type="expression" dxfId="37" priority="3">
       <formula>B12&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:I13 B15:I15 B17:I17 B19:I19 B21:I21 B23:I23 B25:I25 B27:I27 B29:I29">
-    <cfRule type="expression" dxfId="31" priority="2">
+    <cfRule type="expression" dxfId="36" priority="2">
       <formula>COLUMN(B13)&gt;=2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:I31">
-    <cfRule type="expression" dxfId="30" priority="1">
+    <cfRule type="expression" dxfId="35" priority="1">
       <formula>COLUMN(B12)&gt;2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11960,18 +11967,18 @@
       <c r="B11" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="65" t="s">
+      <c r="C11" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="66"/>
-      <c r="E11" s="65" t="s">
+      <c r="D11" s="68"/>
+      <c r="E11" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="66"/>
-      <c r="G11" s="65" t="s">
+      <c r="F11" s="68"/>
+      <c r="G11" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="H11" s="66"/>
+      <c r="H11" s="68"/>
       <c r="I11" s="3" t="s">
         <v>33</v>
       </c>
@@ -11986,14 +11993,14 @@
       <c r="B12" s="21">
         <v>0.33333333333333331</v>
       </c>
-      <c r="C12" s="72"/>
-      <c r="D12" s="72"/>
-      <c r="E12" s="72">
+      <c r="C12" s="76"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="76">
         <v>0.33333333333333331</v>
       </c>
-      <c r="F12" s="72"/>
-      <c r="G12" s="72"/>
-      <c r="H12" s="72"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="76"/>
       <c r="I12" s="22">
         <v>0.33333333333333331</v>
       </c>
@@ -12008,14 +12015,14 @@
       <c r="B13" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="67"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="67" t="s">
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="F13" s="67"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="67"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
       <c r="I13" s="30" t="s">
         <v>5</v>
       </c>
@@ -12028,16 +12035,16 @@
         <v>1</v>
       </c>
       <c r="B14" s="21"/>
-      <c r="C14" s="72">
+      <c r="C14" s="76">
         <v>0.375</v>
       </c>
-      <c r="D14" s="72"/>
-      <c r="E14" s="72"/>
-      <c r="F14" s="72"/>
-      <c r="G14" s="72">
+      <c r="D14" s="76"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="76">
         <v>0.375</v>
       </c>
-      <c r="H14" s="72"/>
+      <c r="H14" s="76"/>
       <c r="I14" s="22"/>
       <c r="J14" s="10" t="s">
         <v>31</v>
@@ -12050,16 +12057,16 @@
         <v>2</v>
       </c>
       <c r="B15" s="27"/>
-      <c r="C15" s="67" t="s">
+      <c r="C15" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="67"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="67"/>
-      <c r="G15" s="67" t="s">
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="67"/>
+      <c r="H15" s="70"/>
       <c r="I15" s="30"/>
       <c r="J15" s="10"/>
       <c r="K15" s="36"/>
@@ -12072,14 +12079,14 @@
       <c r="B16" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="72"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="72" t="s">
+      <c r="C16" s="76"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="F16" s="72"/>
-      <c r="G16" s="72"/>
-      <c r="H16" s="72"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="76"/>
       <c r="I16" s="24" t="s">
         <v>6</v>
       </c>
@@ -12094,14 +12101,14 @@
       <c r="B17" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="67"/>
-      <c r="D17" s="67"/>
-      <c r="E17" s="67" t="s">
+      <c r="C17" s="70"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="F17" s="67"/>
-      <c r="G17" s="67"/>
-      <c r="H17" s="67"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="70"/>
       <c r="I17" s="30" t="s">
         <v>7</v>
       </c>
@@ -12114,12 +12121,12 @@
         <v>1</v>
       </c>
       <c r="B18" s="21"/>
-      <c r="C18" s="72"/>
-      <c r="D18" s="72"/>
-      <c r="E18" s="72"/>
-      <c r="F18" s="72"/>
-      <c r="G18" s="72"/>
-      <c r="H18" s="72"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="76"/>
+      <c r="H18" s="76"/>
       <c r="I18" s="22"/>
       <c r="J18" s="10"/>
       <c r="K18" s="36"/>
@@ -12130,12 +12137,12 @@
         <v>2</v>
       </c>
       <c r="B19" s="27"/>
-      <c r="C19" s="67"/>
-      <c r="D19" s="67"/>
-      <c r="E19" s="67"/>
-      <c r="F19" s="67"/>
-      <c r="G19" s="67"/>
-      <c r="H19" s="67"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="70"/>
       <c r="I19" s="47"/>
       <c r="J19" s="20"/>
       <c r="K19" s="35"/>
@@ -12146,12 +12153,12 @@
         <v>1</v>
       </c>
       <c r="B20" s="21"/>
-      <c r="C20" s="72"/>
-      <c r="D20" s="72"/>
-      <c r="E20" s="72"/>
-      <c r="F20" s="72"/>
-      <c r="G20" s="72"/>
-      <c r="H20" s="72"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="76"/>
       <c r="I20" s="22"/>
       <c r="J20" s="10" t="s">
         <v>32</v>
@@ -12164,12 +12171,12 @@
         <v>2</v>
       </c>
       <c r="B21" s="27"/>
-      <c r="C21" s="67"/>
-      <c r="D21" s="67"/>
-      <c r="E21" s="67"/>
-      <c r="F21" s="67"/>
-      <c r="G21" s="67"/>
-      <c r="H21" s="67"/>
+      <c r="C21" s="70"/>
+      <c r="D21" s="70"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="70"/>
+      <c r="G21" s="70"/>
+      <c r="H21" s="70"/>
       <c r="I21" s="30"/>
       <c r="J21" s="10"/>
       <c r="K21" s="36"/>
@@ -12180,12 +12187,12 @@
         <v>1</v>
       </c>
       <c r="B22" s="21"/>
-      <c r="C22" s="72"/>
-      <c r="D22" s="72"/>
-      <c r="E22" s="72"/>
-      <c r="F22" s="72"/>
-      <c r="G22" s="72"/>
-      <c r="H22" s="72"/>
+      <c r="C22" s="76"/>
+      <c r="D22" s="76"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="76"/>
+      <c r="G22" s="76"/>
+      <c r="H22" s="76"/>
       <c r="I22" s="22"/>
       <c r="J22" s="10"/>
       <c r="K22" s="36"/>
@@ -12196,12 +12203,12 @@
         <v>2</v>
       </c>
       <c r="B23" s="27"/>
-      <c r="C23" s="67"/>
-      <c r="D23" s="67"/>
-      <c r="E23" s="67"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="67"/>
-      <c r="H23" s="67"/>
+      <c r="C23" s="70"/>
+      <c r="D23" s="70"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="70"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="70"/>
       <c r="I23" s="30"/>
       <c r="J23" s="10"/>
       <c r="K23" s="36"/>
@@ -12214,14 +12221,14 @@
       <c r="B24" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="72"/>
-      <c r="D24" s="72"/>
-      <c r="E24" s="72" t="s">
+      <c r="C24" s="76"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="72"/>
-      <c r="G24" s="72"/>
-      <c r="H24" s="72"/>
+      <c r="F24" s="76"/>
+      <c r="G24" s="76"/>
+      <c r="H24" s="76"/>
       <c r="I24" s="22" t="s">
         <v>8</v>
       </c>
@@ -12236,14 +12243,14 @@
       <c r="B25" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="67"/>
-      <c r="D25" s="67"/>
-      <c r="E25" s="67" t="s">
+      <c r="C25" s="70"/>
+      <c r="D25" s="70"/>
+      <c r="E25" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="F25" s="67"/>
-      <c r="G25" s="67"/>
-      <c r="H25" s="67"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="70"/>
       <c r="I25" s="30" t="s">
         <v>9</v>
       </c>
@@ -12256,12 +12263,12 @@
         <v>1</v>
       </c>
       <c r="B26" s="21"/>
-      <c r="C26" s="72"/>
-      <c r="D26" s="72"/>
-      <c r="E26" s="72"/>
-      <c r="F26" s="72"/>
-      <c r="G26" s="72"/>
-      <c r="H26" s="72"/>
+      <c r="C26" s="76"/>
+      <c r="D26" s="76"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="76"/>
+      <c r="H26" s="76"/>
       <c r="I26" s="22"/>
       <c r="J26" s="10" t="s">
         <v>33</v>
@@ -12274,12 +12281,12 @@
         <v>2</v>
       </c>
       <c r="B27" s="27"/>
-      <c r="C27" s="67"/>
-      <c r="D27" s="67"/>
-      <c r="E27" s="67"/>
-      <c r="F27" s="67"/>
-      <c r="G27" s="67"/>
-      <c r="H27" s="67"/>
+      <c r="C27" s="70"/>
+      <c r="D27" s="70"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="70"/>
       <c r="I27" s="30"/>
       <c r="J27" s="10"/>
       <c r="K27" s="36"/>
@@ -12290,16 +12297,16 @@
         <v>1</v>
       </c>
       <c r="B28" s="21"/>
-      <c r="C28" s="72" t="s">
+      <c r="C28" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="D28" s="72"/>
-      <c r="E28" s="72"/>
-      <c r="F28" s="72"/>
-      <c r="G28" s="72" t="s">
+      <c r="D28" s="76"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="76"/>
+      <c r="G28" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="H28" s="72"/>
+      <c r="H28" s="76"/>
       <c r="I28" s="22"/>
       <c r="J28" s="10"/>
       <c r="K28" s="36"/>
@@ -12310,16 +12317,16 @@
         <v>2</v>
       </c>
       <c r="B29" s="27"/>
-      <c r="C29" s="67" t="s">
+      <c r="C29" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="67"/>
-      <c r="E29" s="67"/>
-      <c r="F29" s="67"/>
-      <c r="G29" s="67" t="s">
+      <c r="D29" s="70"/>
+      <c r="E29" s="70"/>
+      <c r="F29" s="70"/>
+      <c r="G29" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="H29" s="67"/>
+      <c r="H29" s="70"/>
       <c r="I29" s="30"/>
       <c r="J29" s="10"/>
       <c r="K29" s="36"/>
@@ -12330,12 +12337,12 @@
         <v>1</v>
       </c>
       <c r="B30" s="21"/>
-      <c r="C30" s="72"/>
-      <c r="D30" s="72"/>
-      <c r="E30" s="72"/>
-      <c r="F30" s="72"/>
-      <c r="G30" s="72"/>
-      <c r="H30" s="72"/>
+      <c r="C30" s="76"/>
+      <c r="D30" s="76"/>
+      <c r="E30" s="76"/>
+      <c r="F30" s="76"/>
+      <c r="G30" s="76"/>
+      <c r="H30" s="76"/>
       <c r="I30" s="22"/>
       <c r="J30" s="10"/>
       <c r="K30" s="36"/>
@@ -12346,12 +12353,12 @@
         <v>2</v>
       </c>
       <c r="B31" s="28"/>
-      <c r="C31" s="69"/>
-      <c r="D31" s="69"/>
-      <c r="E31" s="69"/>
-      <c r="F31" s="69"/>
-      <c r="G31" s="69"/>
-      <c r="H31" s="69"/>
+      <c r="C31" s="72"/>
+      <c r="D31" s="72"/>
+      <c r="E31" s="72"/>
+      <c r="F31" s="72"/>
+      <c r="G31" s="72"/>
+      <c r="H31" s="72"/>
       <c r="I31" s="40"/>
       <c r="J31" s="10"/>
       <c r="K31" s="42"/>
@@ -12359,60 +12366,6 @@
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="G31:H31"/>
@@ -12422,39 +12375,93 @@
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="G30:H30"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:H3">
-    <cfRule type="expression" dxfId="29" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="6" stopIfTrue="1">
       <formula>DAY(C3)&gt;8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:I8">
-    <cfRule type="expression" dxfId="28" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="5" stopIfTrue="1">
       <formula>AND(DAY(C7)&gt;=1,DAY(C7)&lt;=15)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:I8">
-    <cfRule type="expression" dxfId="27" priority="7">
+    <cfRule type="expression" dxfId="31" priority="7">
       <formula>VLOOKUP(DAY(C3),AssignmentDays,1,FALSE)=DAY(C3)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:I13 B15:I15 B17:I17 B19:I19 B21:I21 B23:I23 B25:I25 B27:I27 B29:I29 B31:I31">
-    <cfRule type="expression" dxfId="26" priority="4">
+    <cfRule type="expression" dxfId="30" priority="4">
       <formula>B13&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:I12 B14:I14 B16:I16 B18:I18 B20:I20 B22:I22 B24:I24 B26:I26 B28:I28 B30:I30">
-    <cfRule type="expression" dxfId="25" priority="3">
+    <cfRule type="expression" dxfId="29" priority="3">
       <formula>B12&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:I13 B15:I15 B17:I17 B19:I19 B21:I21 B23:I23 B25:I25 B27:I27 B29:I29">
-    <cfRule type="expression" dxfId="24" priority="2">
+    <cfRule type="expression" dxfId="28" priority="2">
       <formula>COLUMN(B13)&gt;=2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:I31">
-    <cfRule type="expression" dxfId="23" priority="1">
+    <cfRule type="expression" dxfId="27" priority="1">
       <formula>COLUMN(B12)&gt;2</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Produccion Propia/Cronogramas/Cronograma_Actividades_Grupales.xlsx
+++ b/Produccion Propia/Cronogramas/Cronograma_Actividades_Grupales.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Facu\4º año\Ingenieria de Software (ISW)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D5AC7C-CDFF-44B3-8840-54D6BA00C025}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F00750A4-7262-4808-BF70-A7DB10E95688}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9510" tabRatio="741" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9510" tabRatio="741" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ene" sheetId="1" state="hidden" r:id="rId1"/>
@@ -101,7 +101,7 @@
     <definedName name="TítuloDeColumna8">AgostoTareas[[#Headers],[Día de la semana]]</definedName>
     <definedName name="TítuloDeColumna9">SeptiembreTareas[[#Headers],[Día de la semana]]</definedName>
   </definedNames>
-  <calcPr calcId="179017" concurrentCalc="0"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -111,7 +111,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="66">
   <si>
     <t>Día de la semana</t>
   </si>
@@ -288,9 +288,6 @@
     <t xml:space="preserve">Hacer TP3 en clases </t>
   </si>
   <si>
-    <t>TP4 entregable, tipo Parcial</t>
-  </si>
-  <si>
     <t>Entrega de TP Evaluable 2º . Notas TP1:4  TP2:7 - Introduccion de conceptos de testing</t>
   </si>
   <si>
@@ -300,13 +297,19 @@
     <t>Clase Teorica: Testing de Software</t>
   </si>
   <si>
-    <t>1er Teorico Grupal - Pecha Kucha</t>
-  </si>
-  <si>
     <t>Llevar dudas de temas del 1er tp teorico. Clase teorica: Revisiones tecnicas</t>
   </si>
   <si>
     <t>Revision final de Pecha Kucha antes de presentar</t>
+  </si>
+  <si>
+    <t>TP4 ejercicio en clases, tipo parcal</t>
+  </si>
+  <si>
+    <t>Entregar TP5 - Practico Evaluable</t>
+  </si>
+  <si>
+    <t>1er Teorico Grupal - Pecha Kucha; Nota: 7 temas al parcial Teoricos Papers: No hay Balas de Plata y  Snowden HBR Cynefin A Leader’s Framework for Decision Making Color</t>
   </si>
 </sst>
 </file>
@@ -852,13 +855,10 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="12" applyBorder="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="20" fontId="13" fillId="2" borderId="10" xfId="21" applyNumberFormat="1" applyBorder="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="19" applyFont="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="20" fontId="13" fillId="2" borderId="3" xfId="21" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="20" fontId="13" fillId="2" borderId="10" xfId="21" applyNumberFormat="1" applyBorder="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="19" applyFont="1" applyBorder="1">
@@ -867,19 +867,22 @@
     <xf numFmtId="20" fontId="13" fillId="2" borderId="0" xfId="21" applyNumberFormat="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="19" applyBorder="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="13" fillId="2" borderId="0" xfId="21">
+    <xf numFmtId="20" fontId="13" fillId="2" borderId="3" xfId="21" applyNumberFormat="1" applyBorder="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="20" fontId="13" fillId="2" borderId="10" xfId="21" applyBorder="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="19" applyFont="1">
+    <xf numFmtId="20" fontId="13" fillId="2" borderId="0" xfId="21">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="19" applyBorder="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
     <xf numFmtId="20" fontId="1" fillId="2" borderId="0" xfId="19" applyNumberFormat="1" applyFont="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="19" applyFont="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
   </cellXfs>
@@ -2800,14 +2803,14 @@
       <c r="B12" s="41">
         <v>0.33333333333333331</v>
       </c>
-      <c r="C12" s="69"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="69">
+      <c r="C12" s="70"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="70">
         <v>0.33333333333333331</v>
       </c>
-      <c r="F12" s="69"/>
-      <c r="G12" s="69"/>
-      <c r="H12" s="69"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="70"/>
       <c r="I12" s="44">
         <v>0.33333333333333331</v>
       </c>
@@ -2822,14 +2825,14 @@
       <c r="B13" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70" t="s">
+      <c r="C13" s="69"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="69"/>
       <c r="I13" s="43" t="s">
         <v>5</v>
       </c>
@@ -2842,16 +2845,16 @@
         <v>1</v>
       </c>
       <c r="B14" s="34"/>
-      <c r="C14" s="69">
+      <c r="C14" s="70">
         <v>0.375</v>
       </c>
-      <c r="D14" s="69"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="69"/>
-      <c r="G14" s="69">
+      <c r="D14" s="70"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="70"/>
+      <c r="G14" s="70">
         <v>0.375</v>
       </c>
-      <c r="H14" s="71"/>
+      <c r="H14" s="73"/>
       <c r="I14" s="44"/>
       <c r="J14" s="10" t="s">
         <v>31</v>
@@ -2864,16 +2867,16 @@
         <v>2</v>
       </c>
       <c r="B15" s="27"/>
-      <c r="C15" s="70" t="s">
+      <c r="C15" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="70" t="s">
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="70"/>
+      <c r="H15" s="69"/>
       <c r="I15" s="43"/>
       <c r="J15" s="10"/>
       <c r="K15" s="36"/>
@@ -2886,14 +2889,14 @@
       <c r="B16" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="69"/>
-      <c r="D16" s="69"/>
-      <c r="E16" s="69" t="s">
+      <c r="C16" s="70"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="F16" s="69"/>
-      <c r="G16" s="69"/>
-      <c r="H16" s="71"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="70"/>
+      <c r="H16" s="73"/>
       <c r="I16" s="44" t="s">
         <v>6</v>
       </c>
@@ -2908,14 +2911,14 @@
       <c r="B17" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="70"/>
-      <c r="D17" s="70"/>
-      <c r="E17" s="70" t="s">
+      <c r="C17" s="69"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="F17" s="70"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="70"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="69"/>
+      <c r="H17" s="69"/>
       <c r="I17" s="43" t="s">
         <v>7</v>
       </c>
@@ -2928,12 +2931,12 @@
         <v>1</v>
       </c>
       <c r="B18" s="34"/>
-      <c r="C18" s="69"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="69"/>
-      <c r="G18" s="69"/>
-      <c r="H18" s="71"/>
+      <c r="C18" s="70"/>
+      <c r="D18" s="70"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="70"/>
+      <c r="G18" s="70"/>
+      <c r="H18" s="73"/>
       <c r="I18" s="44"/>
       <c r="J18" s="10"/>
       <c r="K18" s="36"/>
@@ -2944,12 +2947,12 @@
         <v>2</v>
       </c>
       <c r="B19" s="27"/>
-      <c r="C19" s="70"/>
-      <c r="D19" s="70"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="70"/>
-      <c r="H19" s="70"/>
+      <c r="C19" s="69"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="69"/>
+      <c r="H19" s="69"/>
       <c r="I19" s="46"/>
       <c r="J19" s="20"/>
       <c r="K19" s="35"/>
@@ -2960,12 +2963,12 @@
         <v>1</v>
       </c>
       <c r="B20" s="34"/>
-      <c r="C20" s="69"/>
-      <c r="D20" s="69"/>
-      <c r="E20" s="69"/>
-      <c r="F20" s="69"/>
-      <c r="G20" s="69"/>
-      <c r="H20" s="71"/>
+      <c r="C20" s="70"/>
+      <c r="D20" s="70"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="70"/>
+      <c r="G20" s="70"/>
+      <c r="H20" s="73"/>
       <c r="I20" s="44"/>
       <c r="J20" s="10" t="s">
         <v>32</v>
@@ -2978,12 +2981,12 @@
         <v>2</v>
       </c>
       <c r="B21" s="27"/>
-      <c r="C21" s="70"/>
-      <c r="D21" s="70"/>
-      <c r="E21" s="70"/>
-      <c r="F21" s="70"/>
-      <c r="G21" s="70"/>
-      <c r="H21" s="70"/>
+      <c r="C21" s="69"/>
+      <c r="D21" s="69"/>
+      <c r="E21" s="69"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="69"/>
+      <c r="H21" s="69"/>
       <c r="I21" s="43"/>
       <c r="J21" s="10"/>
       <c r="K21" s="36"/>
@@ -2994,12 +2997,12 @@
         <v>1</v>
       </c>
       <c r="B22" s="34"/>
-      <c r="C22" s="69"/>
-      <c r="D22" s="69"/>
-      <c r="E22" s="69"/>
-      <c r="F22" s="69"/>
-      <c r="G22" s="69"/>
-      <c r="H22" s="71"/>
+      <c r="C22" s="70"/>
+      <c r="D22" s="70"/>
+      <c r="E22" s="70"/>
+      <c r="F22" s="70"/>
+      <c r="G22" s="70"/>
+      <c r="H22" s="73"/>
       <c r="I22" s="44"/>
       <c r="J22" s="10"/>
       <c r="K22" s="36"/>
@@ -3010,12 +3013,12 @@
         <v>2</v>
       </c>
       <c r="B23" s="27"/>
-      <c r="C23" s="70"/>
-      <c r="D23" s="70"/>
-      <c r="E23" s="70"/>
-      <c r="F23" s="70"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="70"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="69"/>
+      <c r="H23" s="69"/>
       <c r="I23" s="43"/>
       <c r="J23" s="10"/>
       <c r="K23" s="36"/>
@@ -3028,14 +3031,14 @@
       <c r="B24" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="69"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="69" t="s">
+      <c r="C24" s="70"/>
+      <c r="D24" s="70"/>
+      <c r="E24" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="69"/>
-      <c r="G24" s="69"/>
-      <c r="H24" s="71"/>
+      <c r="F24" s="70"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="73"/>
       <c r="I24" s="44" t="s">
         <v>8</v>
       </c>
@@ -3050,14 +3053,14 @@
       <c r="B25" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="70"/>
-      <c r="D25" s="70"/>
-      <c r="E25" s="70" t="s">
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="F25" s="70"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="70"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="69"/>
+      <c r="H25" s="69"/>
       <c r="I25" s="43" t="s">
         <v>9</v>
       </c>
@@ -3070,12 +3073,12 @@
         <v>1</v>
       </c>
       <c r="B26" s="34"/>
-      <c r="C26" s="69"/>
-      <c r="D26" s="69"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="69"/>
-      <c r="G26" s="69"/>
-      <c r="H26" s="71"/>
+      <c r="C26" s="70"/>
+      <c r="D26" s="70"/>
+      <c r="E26" s="70"/>
+      <c r="F26" s="70"/>
+      <c r="G26" s="70"/>
+      <c r="H26" s="73"/>
       <c r="I26" s="44"/>
       <c r="J26" s="10" t="s">
         <v>33</v>
@@ -3088,12 +3091,12 @@
         <v>2</v>
       </c>
       <c r="B27" s="27"/>
-      <c r="C27" s="70"/>
-      <c r="D27" s="70"/>
-      <c r="E27" s="70"/>
-      <c r="F27" s="70"/>
-      <c r="G27" s="70"/>
-      <c r="H27" s="70"/>
+      <c r="C27" s="69"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="69"/>
+      <c r="F27" s="69"/>
+      <c r="G27" s="69"/>
+      <c r="H27" s="69"/>
       <c r="I27" s="43"/>
       <c r="J27" s="10"/>
       <c r="K27" s="36"/>
@@ -3104,16 +3107,16 @@
         <v>1</v>
       </c>
       <c r="B28" s="34"/>
-      <c r="C28" s="69" t="s">
+      <c r="C28" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="D28" s="69"/>
-      <c r="E28" s="69"/>
-      <c r="F28" s="69"/>
-      <c r="G28" s="69" t="s">
+      <c r="D28" s="70"/>
+      <c r="E28" s="70"/>
+      <c r="F28" s="70"/>
+      <c r="G28" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="H28" s="71"/>
+      <c r="H28" s="73"/>
       <c r="I28" s="44"/>
       <c r="J28" s="10"/>
       <c r="K28" s="36"/>
@@ -3124,16 +3127,16 @@
         <v>2</v>
       </c>
       <c r="B29" s="27"/>
-      <c r="C29" s="70" t="s">
+      <c r="C29" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="70"/>
-      <c r="E29" s="70"/>
-      <c r="F29" s="70"/>
-      <c r="G29" s="70" t="s">
+      <c r="D29" s="69"/>
+      <c r="E29" s="69"/>
+      <c r="F29" s="69"/>
+      <c r="G29" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="H29" s="70"/>
+      <c r="H29" s="69"/>
       <c r="I29" s="43"/>
       <c r="J29" s="10"/>
       <c r="K29" s="36"/>
@@ -3144,12 +3147,12 @@
         <v>1</v>
       </c>
       <c r="B30" s="34"/>
-      <c r="C30" s="73"/>
-      <c r="D30" s="73"/>
-      <c r="E30" s="73"/>
-      <c r="F30" s="73"/>
-      <c r="G30" s="73"/>
-      <c r="H30" s="73"/>
+      <c r="C30" s="72"/>
+      <c r="D30" s="72"/>
+      <c r="E30" s="72"/>
+      <c r="F30" s="72"/>
+      <c r="G30" s="72"/>
+      <c r="H30" s="72"/>
       <c r="I30" s="44"/>
       <c r="J30" s="10"/>
       <c r="K30" s="36"/>
@@ -3160,12 +3163,12 @@
         <v>2</v>
       </c>
       <c r="B31" s="28"/>
-      <c r="C31" s="72"/>
-      <c r="D31" s="72"/>
-      <c r="E31" s="72"/>
-      <c r="F31" s="72"/>
-      <c r="G31" s="72"/>
-      <c r="H31" s="72"/>
+      <c r="C31" s="71"/>
+      <c r="D31" s="71"/>
+      <c r="E31" s="71"/>
+      <c r="F31" s="71"/>
+      <c r="G31" s="71"/>
+      <c r="H31" s="71"/>
       <c r="I31" s="29"/>
       <c r="J31" s="15"/>
       <c r="K31" s="42"/>
@@ -3174,27 +3177,32 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="63">
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E15:F15"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C20:D20"/>
@@ -3211,32 +3219,27 @@
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E12:F12"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C3:H3">
@@ -3667,14 +3670,14 @@
       <c r="B13" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70" t="s">
+      <c r="C13" s="69"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="69"/>
       <c r="I13" s="30" t="s">
         <v>5</v>
       </c>
@@ -3709,16 +3712,16 @@
         <v>2</v>
       </c>
       <c r="B15" s="27"/>
-      <c r="C15" s="70" t="s">
+      <c r="C15" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="70" t="s">
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="70"/>
+      <c r="H15" s="69"/>
       <c r="I15" s="30"/>
       <c r="J15" s="10"/>
       <c r="K15" s="36"/>
@@ -3753,14 +3756,14 @@
       <c r="B17" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="70"/>
-      <c r="D17" s="70"/>
-      <c r="E17" s="70" t="s">
+      <c r="C17" s="69"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="F17" s="70"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="70"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="69"/>
+      <c r="H17" s="69"/>
       <c r="I17" s="30" t="s">
         <v>7</v>
       </c>
@@ -3789,12 +3792,12 @@
         <v>2</v>
       </c>
       <c r="B19" s="27"/>
-      <c r="C19" s="70"/>
-      <c r="D19" s="70"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="70"/>
-      <c r="H19" s="70"/>
+      <c r="C19" s="69"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="69"/>
+      <c r="H19" s="69"/>
       <c r="I19" s="47"/>
       <c r="J19" s="20"/>
       <c r="K19" s="35"/>
@@ -3823,12 +3826,12 @@
         <v>2</v>
       </c>
       <c r="B21" s="27"/>
-      <c r="C21" s="70"/>
-      <c r="D21" s="70"/>
-      <c r="E21" s="70"/>
-      <c r="F21" s="70"/>
-      <c r="G21" s="70"/>
-      <c r="H21" s="70"/>
+      <c r="C21" s="69"/>
+      <c r="D21" s="69"/>
+      <c r="E21" s="69"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="69"/>
+      <c r="H21" s="69"/>
       <c r="I21" s="30"/>
       <c r="J21" s="10"/>
       <c r="K21" s="36"/>
@@ -3855,12 +3858,12 @@
         <v>2</v>
       </c>
       <c r="B23" s="27"/>
-      <c r="C23" s="70"/>
-      <c r="D23" s="70"/>
-      <c r="E23" s="70"/>
-      <c r="F23" s="70"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="70"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="69"/>
+      <c r="H23" s="69"/>
       <c r="I23" s="30"/>
       <c r="J23" s="10"/>
       <c r="K23" s="36"/>
@@ -3895,14 +3898,14 @@
       <c r="B25" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="70"/>
-      <c r="D25" s="70"/>
-      <c r="E25" s="70" t="s">
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="F25" s="70"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="70"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="69"/>
+      <c r="H25" s="69"/>
       <c r="I25" s="30" t="s">
         <v>9</v>
       </c>
@@ -3933,12 +3936,12 @@
         <v>2</v>
       </c>
       <c r="B27" s="27"/>
-      <c r="C27" s="70"/>
-      <c r="D27" s="70"/>
-      <c r="E27" s="70"/>
-      <c r="F27" s="70"/>
-      <c r="G27" s="70"/>
-      <c r="H27" s="70"/>
+      <c r="C27" s="69"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="69"/>
+      <c r="F27" s="69"/>
+      <c r="G27" s="69"/>
+      <c r="H27" s="69"/>
       <c r="I27" s="30"/>
       <c r="J27" s="10"/>
       <c r="K27" s="36"/>
@@ -3969,16 +3972,16 @@
         <v>2</v>
       </c>
       <c r="B29" s="27"/>
-      <c r="C29" s="70" t="s">
+      <c r="C29" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="70"/>
-      <c r="E29" s="70"/>
-      <c r="F29" s="70"/>
-      <c r="G29" s="70" t="s">
+      <c r="D29" s="69"/>
+      <c r="E29" s="69"/>
+      <c r="F29" s="69"/>
+      <c r="G29" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="H29" s="70"/>
+      <c r="H29" s="69"/>
       <c r="I29" s="30"/>
       <c r="J29" s="10"/>
       <c r="K29" s="36"/>
@@ -4005,12 +4008,12 @@
         <v>2</v>
       </c>
       <c r="B31" s="28"/>
-      <c r="C31" s="72"/>
-      <c r="D31" s="72"/>
-      <c r="E31" s="72"/>
-      <c r="F31" s="72"/>
-      <c r="G31" s="72"/>
-      <c r="H31" s="72"/>
+      <c r="C31" s="71"/>
+      <c r="D31" s="71"/>
+      <c r="E31" s="71"/>
+      <c r="F31" s="71"/>
+      <c r="G31" s="71"/>
+      <c r="H31" s="71"/>
       <c r="I31" s="40"/>
       <c r="J31" s="10"/>
       <c r="K31" s="42"/>
@@ -4018,6 +4021,60 @@
     </row>
   </sheetData>
   <mergeCells count="63">
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="G31:H31"/>
@@ -4027,60 +4084,6 @@
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="G30:H30"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:H3">
     <cfRule type="expression" dxfId="25" priority="8" stopIfTrue="1">
@@ -4491,14 +4494,14 @@
       <c r="B12" s="21">
         <v>0.33333333333333331</v>
       </c>
-      <c r="C12" s="76"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="76">
+      <c r="C12" s="74"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="74">
         <v>0.33333333333333331</v>
       </c>
-      <c r="F12" s="76"/>
-      <c r="G12" s="76"/>
-      <c r="H12" s="76"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="74"/>
       <c r="I12" s="22">
         <v>0.33333333333333331</v>
       </c>
@@ -4513,14 +4516,14 @@
       <c r="B13" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70" t="s">
+      <c r="C13" s="69"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="69"/>
       <c r="I13" s="30" t="s">
         <v>5</v>
       </c>
@@ -4533,16 +4536,16 @@
         <v>1</v>
       </c>
       <c r="B14" s="21"/>
-      <c r="C14" s="76">
+      <c r="C14" s="74">
         <v>0.375</v>
       </c>
-      <c r="D14" s="76"/>
-      <c r="E14" s="76"/>
-      <c r="F14" s="76"/>
-      <c r="G14" s="76">
+      <c r="D14" s="74"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="74">
         <v>0.375</v>
       </c>
-      <c r="H14" s="76"/>
+      <c r="H14" s="74"/>
       <c r="I14" s="22"/>
       <c r="J14" s="10" t="s">
         <v>31</v>
@@ -4555,16 +4558,16 @@
         <v>2</v>
       </c>
       <c r="B15" s="27"/>
-      <c r="C15" s="70" t="s">
+      <c r="C15" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="70" t="s">
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="70"/>
+      <c r="H15" s="69"/>
       <c r="I15" s="30"/>
       <c r="J15" s="10"/>
       <c r="K15" s="36"/>
@@ -4577,14 +4580,14 @@
       <c r="B16" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="76"/>
-      <c r="D16" s="76"/>
-      <c r="E16" s="76" t="s">
+      <c r="C16" s="74"/>
+      <c r="D16" s="74"/>
+      <c r="E16" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="F16" s="76"/>
-      <c r="G16" s="76"/>
-      <c r="H16" s="76"/>
+      <c r="F16" s="74"/>
+      <c r="G16" s="74"/>
+      <c r="H16" s="74"/>
       <c r="I16" s="24" t="s">
         <v>6</v>
       </c>
@@ -4599,14 +4602,14 @@
       <c r="B17" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="70"/>
-      <c r="D17" s="70"/>
-      <c r="E17" s="70" t="s">
+      <c r="C17" s="69"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="F17" s="70"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="70"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="69"/>
+      <c r="H17" s="69"/>
       <c r="I17" s="30" t="s">
         <v>7</v>
       </c>
@@ -4619,12 +4622,12 @@
         <v>1</v>
       </c>
       <c r="B18" s="21"/>
-      <c r="C18" s="76"/>
-      <c r="D18" s="76"/>
-      <c r="E18" s="76"/>
-      <c r="F18" s="76"/>
-      <c r="G18" s="76"/>
-      <c r="H18" s="76"/>
+      <c r="C18" s="74"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="74"/>
+      <c r="G18" s="74"/>
+      <c r="H18" s="74"/>
       <c r="I18" s="22"/>
       <c r="J18" s="10"/>
       <c r="K18" s="36"/>
@@ -4635,12 +4638,12 @@
         <v>2</v>
       </c>
       <c r="B19" s="27"/>
-      <c r="C19" s="70"/>
-      <c r="D19" s="70"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="70"/>
-      <c r="H19" s="70"/>
+      <c r="C19" s="69"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="69"/>
+      <c r="H19" s="69"/>
       <c r="I19" s="47"/>
       <c r="J19" s="20"/>
       <c r="K19" s="35"/>
@@ -4651,12 +4654,12 @@
         <v>1</v>
       </c>
       <c r="B20" s="21"/>
-      <c r="C20" s="76"/>
-      <c r="D20" s="76"/>
-      <c r="E20" s="76"/>
-      <c r="F20" s="76"/>
-      <c r="G20" s="76"/>
-      <c r="H20" s="76"/>
+      <c r="C20" s="74"/>
+      <c r="D20" s="74"/>
+      <c r="E20" s="74"/>
+      <c r="F20" s="74"/>
+      <c r="G20" s="74"/>
+      <c r="H20" s="74"/>
       <c r="I20" s="22"/>
       <c r="J20" s="10" t="s">
         <v>32</v>
@@ -4669,12 +4672,12 @@
         <v>2</v>
       </c>
       <c r="B21" s="27"/>
-      <c r="C21" s="70"/>
-      <c r="D21" s="70"/>
-      <c r="E21" s="70"/>
-      <c r="F21" s="70"/>
-      <c r="G21" s="70"/>
-      <c r="H21" s="70"/>
+      <c r="C21" s="69"/>
+      <c r="D21" s="69"/>
+      <c r="E21" s="69"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="69"/>
+      <c r="H21" s="69"/>
       <c r="I21" s="30"/>
       <c r="J21" s="10"/>
       <c r="K21" s="36"/>
@@ -4685,12 +4688,12 @@
         <v>1</v>
       </c>
       <c r="B22" s="21"/>
-      <c r="C22" s="76"/>
-      <c r="D22" s="76"/>
-      <c r="E22" s="76"/>
-      <c r="F22" s="76"/>
-      <c r="G22" s="76"/>
-      <c r="H22" s="76"/>
+      <c r="C22" s="74"/>
+      <c r="D22" s="74"/>
+      <c r="E22" s="74"/>
+      <c r="F22" s="74"/>
+      <c r="G22" s="74"/>
+      <c r="H22" s="74"/>
       <c r="I22" s="22"/>
       <c r="J22" s="10"/>
       <c r="K22" s="36"/>
@@ -4701,12 +4704,12 @@
         <v>2</v>
       </c>
       <c r="B23" s="27"/>
-      <c r="C23" s="70"/>
-      <c r="D23" s="70"/>
-      <c r="E23" s="70"/>
-      <c r="F23" s="70"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="70"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="69"/>
+      <c r="H23" s="69"/>
       <c r="I23" s="30"/>
       <c r="J23" s="10"/>
       <c r="K23" s="36"/>
@@ -4719,14 +4722,14 @@
       <c r="B24" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="76"/>
-      <c r="D24" s="76"/>
-      <c r="E24" s="76" t="s">
+      <c r="C24" s="74"/>
+      <c r="D24" s="74"/>
+      <c r="E24" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="76"/>
-      <c r="G24" s="76"/>
-      <c r="H24" s="76"/>
+      <c r="F24" s="74"/>
+      <c r="G24" s="74"/>
+      <c r="H24" s="74"/>
       <c r="I24" s="22" t="s">
         <v>8</v>
       </c>
@@ -4741,14 +4744,14 @@
       <c r="B25" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="70"/>
-      <c r="D25" s="70"/>
-      <c r="E25" s="70" t="s">
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="F25" s="70"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="70"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="69"/>
+      <c r="H25" s="69"/>
       <c r="I25" s="30" t="s">
         <v>9</v>
       </c>
@@ -4761,12 +4764,12 @@
         <v>1</v>
       </c>
       <c r="B26" s="21"/>
-      <c r="C26" s="76"/>
-      <c r="D26" s="76"/>
-      <c r="E26" s="76"/>
-      <c r="F26" s="76"/>
-      <c r="G26" s="76"/>
-      <c r="H26" s="76"/>
+      <c r="C26" s="74"/>
+      <c r="D26" s="74"/>
+      <c r="E26" s="74"/>
+      <c r="F26" s="74"/>
+      <c r="G26" s="74"/>
+      <c r="H26" s="74"/>
       <c r="I26" s="22"/>
       <c r="J26" s="10" t="s">
         <v>33</v>
@@ -4779,12 +4782,12 @@
         <v>2</v>
       </c>
       <c r="B27" s="27"/>
-      <c r="C27" s="70"/>
-      <c r="D27" s="70"/>
-      <c r="E27" s="70"/>
-      <c r="F27" s="70"/>
-      <c r="G27" s="70"/>
-      <c r="H27" s="70"/>
+      <c r="C27" s="69"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="69"/>
+      <c r="F27" s="69"/>
+      <c r="G27" s="69"/>
+      <c r="H27" s="69"/>
       <c r="I27" s="30"/>
       <c r="J27" s="10"/>
       <c r="K27" s="36"/>
@@ -4795,16 +4798,16 @@
         <v>1</v>
       </c>
       <c r="B28" s="21"/>
-      <c r="C28" s="76" t="s">
+      <c r="C28" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="D28" s="76"/>
-      <c r="E28" s="76"/>
-      <c r="F28" s="76"/>
-      <c r="G28" s="76" t="s">
+      <c r="D28" s="74"/>
+      <c r="E28" s="74"/>
+      <c r="F28" s="74"/>
+      <c r="G28" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="H28" s="76"/>
+      <c r="H28" s="74"/>
       <c r="I28" s="22"/>
       <c r="J28" s="10"/>
       <c r="K28" s="36"/>
@@ -4815,16 +4818,16 @@
         <v>2</v>
       </c>
       <c r="B29" s="27"/>
-      <c r="C29" s="70" t="s">
+      <c r="C29" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="70"/>
-      <c r="E29" s="70"/>
-      <c r="F29" s="70"/>
-      <c r="G29" s="70" t="s">
+      <c r="D29" s="69"/>
+      <c r="E29" s="69"/>
+      <c r="F29" s="69"/>
+      <c r="G29" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="H29" s="70"/>
+      <c r="H29" s="69"/>
       <c r="I29" s="30"/>
       <c r="J29" s="10"/>
       <c r="K29" s="36"/>
@@ -4835,12 +4838,12 @@
         <v>1</v>
       </c>
       <c r="B30" s="21"/>
-      <c r="C30" s="76"/>
-      <c r="D30" s="76"/>
-      <c r="E30" s="76"/>
-      <c r="F30" s="76"/>
-      <c r="G30" s="76"/>
-      <c r="H30" s="76"/>
+      <c r="C30" s="74"/>
+      <c r="D30" s="74"/>
+      <c r="E30" s="74"/>
+      <c r="F30" s="74"/>
+      <c r="G30" s="74"/>
+      <c r="H30" s="74"/>
       <c r="I30" s="22"/>
       <c r="J30" s="10"/>
       <c r="K30" s="36"/>
@@ -4851,12 +4854,12 @@
         <v>2</v>
       </c>
       <c r="B31" s="28"/>
-      <c r="C31" s="72"/>
-      <c r="D31" s="72"/>
-      <c r="E31" s="72"/>
-      <c r="F31" s="72"/>
-      <c r="G31" s="72"/>
-      <c r="H31" s="72"/>
+      <c r="C31" s="71"/>
+      <c r="D31" s="71"/>
+      <c r="E31" s="71"/>
+      <c r="F31" s="71"/>
+      <c r="G31" s="71"/>
+      <c r="H31" s="71"/>
       <c r="I31" s="40"/>
       <c r="J31" s="10"/>
       <c r="K31" s="42"/>
@@ -4864,6 +4867,60 @@
     </row>
   </sheetData>
   <mergeCells count="63">
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="G31:H31"/>
@@ -4873,60 +4930,6 @@
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="G30:H30"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:H3">
     <cfRule type="expression" dxfId="15" priority="6" stopIfTrue="1">
@@ -5329,14 +5332,14 @@
       <c r="B12" s="21">
         <v>0.33333333333333331</v>
       </c>
-      <c r="C12" s="76"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="76">
+      <c r="C12" s="74"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="74">
         <v>0.33333333333333331</v>
       </c>
-      <c r="F12" s="76"/>
-      <c r="G12" s="76"/>
-      <c r="H12" s="76"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="74"/>
       <c r="I12" s="22">
         <v>0.33333333333333331</v>
       </c>
@@ -5351,14 +5354,14 @@
       <c r="B13" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70" t="s">
+      <c r="C13" s="69"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="69"/>
       <c r="I13" s="30" t="s">
         <v>5</v>
       </c>
@@ -5371,16 +5374,16 @@
         <v>1</v>
       </c>
       <c r="B14" s="21"/>
-      <c r="C14" s="76">
+      <c r="C14" s="74">
         <v>0.375</v>
       </c>
-      <c r="D14" s="76"/>
-      <c r="E14" s="76"/>
-      <c r="F14" s="76"/>
-      <c r="G14" s="76">
+      <c r="D14" s="74"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="74">
         <v>0.375</v>
       </c>
-      <c r="H14" s="76"/>
+      <c r="H14" s="74"/>
       <c r="I14" s="22"/>
       <c r="J14" s="10" t="s">
         <v>31</v>
@@ -5393,16 +5396,16 @@
         <v>2</v>
       </c>
       <c r="B15" s="27"/>
-      <c r="C15" s="70" t="s">
+      <c r="C15" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="70" t="s">
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="70"/>
+      <c r="H15" s="69"/>
       <c r="I15" s="30"/>
       <c r="J15" s="10"/>
       <c r="K15" s="36"/>
@@ -5415,14 +5418,14 @@
       <c r="B16" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="76"/>
-      <c r="D16" s="76"/>
-      <c r="E16" s="76" t="s">
+      <c r="C16" s="74"/>
+      <c r="D16" s="74"/>
+      <c r="E16" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="F16" s="76"/>
-      <c r="G16" s="76"/>
-      <c r="H16" s="76"/>
+      <c r="F16" s="74"/>
+      <c r="G16" s="74"/>
+      <c r="H16" s="74"/>
       <c r="I16" s="24" t="s">
         <v>6</v>
       </c>
@@ -5437,14 +5440,14 @@
       <c r="B17" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="70"/>
-      <c r="D17" s="70"/>
-      <c r="E17" s="70" t="s">
+      <c r="C17" s="69"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="F17" s="70"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="70"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="69"/>
+      <c r="H17" s="69"/>
       <c r="I17" s="30" t="s">
         <v>7</v>
       </c>
@@ -5457,12 +5460,12 @@
         <v>1</v>
       </c>
       <c r="B18" s="21"/>
-      <c r="C18" s="76"/>
-      <c r="D18" s="76"/>
-      <c r="E18" s="76"/>
-      <c r="F18" s="76"/>
-      <c r="G18" s="76"/>
-      <c r="H18" s="76"/>
+      <c r="C18" s="74"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="74"/>
+      <c r="G18" s="74"/>
+      <c r="H18" s="74"/>
       <c r="I18" s="22"/>
       <c r="J18" s="10"/>
       <c r="K18" s="36"/>
@@ -5473,12 +5476,12 @@
         <v>2</v>
       </c>
       <c r="B19" s="27"/>
-      <c r="C19" s="70"/>
-      <c r="D19" s="70"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="70"/>
-      <c r="H19" s="70"/>
+      <c r="C19" s="69"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="69"/>
+      <c r="H19" s="69"/>
       <c r="I19" s="47"/>
       <c r="J19" s="20"/>
       <c r="K19" s="35"/>
@@ -5489,12 +5492,12 @@
         <v>1</v>
       </c>
       <c r="B20" s="21"/>
-      <c r="C20" s="76"/>
-      <c r="D20" s="76"/>
-      <c r="E20" s="76"/>
-      <c r="F20" s="76"/>
-      <c r="G20" s="76"/>
-      <c r="H20" s="76"/>
+      <c r="C20" s="74"/>
+      <c r="D20" s="74"/>
+      <c r="E20" s="74"/>
+      <c r="F20" s="74"/>
+      <c r="G20" s="74"/>
+      <c r="H20" s="74"/>
       <c r="I20" s="22"/>
       <c r="J20" s="10" t="s">
         <v>32</v>
@@ -5507,12 +5510,12 @@
         <v>2</v>
       </c>
       <c r="B21" s="27"/>
-      <c r="C21" s="70"/>
-      <c r="D21" s="70"/>
-      <c r="E21" s="70"/>
-      <c r="F21" s="70"/>
-      <c r="G21" s="70"/>
-      <c r="H21" s="70"/>
+      <c r="C21" s="69"/>
+      <c r="D21" s="69"/>
+      <c r="E21" s="69"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="69"/>
+      <c r="H21" s="69"/>
       <c r="I21" s="30"/>
       <c r="J21" s="10"/>
       <c r="K21" s="36"/>
@@ -5523,12 +5526,12 @@
         <v>1</v>
       </c>
       <c r="B22" s="21"/>
-      <c r="C22" s="76"/>
-      <c r="D22" s="76"/>
-      <c r="E22" s="76"/>
-      <c r="F22" s="76"/>
-      <c r="G22" s="76"/>
-      <c r="H22" s="76"/>
+      <c r="C22" s="74"/>
+      <c r="D22" s="74"/>
+      <c r="E22" s="74"/>
+      <c r="F22" s="74"/>
+      <c r="G22" s="74"/>
+      <c r="H22" s="74"/>
       <c r="I22" s="22"/>
       <c r="J22" s="10"/>
       <c r="K22" s="36"/>
@@ -5539,12 +5542,12 @@
         <v>2</v>
       </c>
       <c r="B23" s="27"/>
-      <c r="C23" s="70"/>
-      <c r="D23" s="70"/>
-      <c r="E23" s="70"/>
-      <c r="F23" s="70"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="70"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="69"/>
+      <c r="H23" s="69"/>
       <c r="I23" s="30"/>
       <c r="J23" s="10"/>
       <c r="K23" s="36"/>
@@ -5557,14 +5560,14 @@
       <c r="B24" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="76"/>
-      <c r="D24" s="76"/>
-      <c r="E24" s="76" t="s">
+      <c r="C24" s="74"/>
+      <c r="D24" s="74"/>
+      <c r="E24" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="76"/>
-      <c r="G24" s="76"/>
-      <c r="H24" s="76"/>
+      <c r="F24" s="74"/>
+      <c r="G24" s="74"/>
+      <c r="H24" s="74"/>
       <c r="I24" s="22" t="s">
         <v>8</v>
       </c>
@@ -5579,14 +5582,14 @@
       <c r="B25" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="70"/>
-      <c r="D25" s="70"/>
-      <c r="E25" s="70" t="s">
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="F25" s="70"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="70"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="69"/>
+      <c r="H25" s="69"/>
       <c r="I25" s="30" t="s">
         <v>9</v>
       </c>
@@ -5599,12 +5602,12 @@
         <v>1</v>
       </c>
       <c r="B26" s="21"/>
-      <c r="C26" s="76"/>
-      <c r="D26" s="76"/>
-      <c r="E26" s="76"/>
-      <c r="F26" s="76"/>
-      <c r="G26" s="76"/>
-      <c r="H26" s="76"/>
+      <c r="C26" s="74"/>
+      <c r="D26" s="74"/>
+      <c r="E26" s="74"/>
+      <c r="F26" s="74"/>
+      <c r="G26" s="74"/>
+      <c r="H26" s="74"/>
       <c r="I26" s="22"/>
       <c r="J26" s="32" t="s">
         <v>33</v>
@@ -5617,12 +5620,12 @@
         <v>2</v>
       </c>
       <c r="B27" s="27"/>
-      <c r="C27" s="70"/>
-      <c r="D27" s="70"/>
-      <c r="E27" s="70"/>
-      <c r="F27" s="70"/>
-      <c r="G27" s="70"/>
-      <c r="H27" s="70"/>
+      <c r="C27" s="69"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="69"/>
+      <c r="F27" s="69"/>
+      <c r="G27" s="69"/>
+      <c r="H27" s="69"/>
       <c r="I27" s="30"/>
       <c r="J27" s="45"/>
       <c r="K27" s="42"/>
@@ -5633,16 +5636,16 @@
         <v>1</v>
       </c>
       <c r="B28" s="21"/>
-      <c r="C28" s="76" t="s">
+      <c r="C28" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="D28" s="76"/>
-      <c r="E28" s="76"/>
-      <c r="F28" s="76"/>
-      <c r="G28" s="76" t="s">
+      <c r="D28" s="74"/>
+      <c r="E28" s="74"/>
+      <c r="F28" s="74"/>
+      <c r="G28" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="H28" s="76"/>
+      <c r="H28" s="74"/>
       <c r="I28" s="22"/>
       <c r="J28" s="45"/>
       <c r="K28" s="42"/>
@@ -5653,16 +5656,16 @@
         <v>2</v>
       </c>
       <c r="B29" s="27"/>
-      <c r="C29" s="70" t="s">
+      <c r="C29" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="70"/>
-      <c r="E29" s="70"/>
-      <c r="F29" s="70"/>
-      <c r="G29" s="70" t="s">
+      <c r="D29" s="69"/>
+      <c r="E29" s="69"/>
+      <c r="F29" s="69"/>
+      <c r="G29" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="H29" s="70"/>
+      <c r="H29" s="69"/>
       <c r="I29" s="30"/>
       <c r="J29" s="45"/>
       <c r="K29" s="42"/>
@@ -5673,12 +5676,12 @@
         <v>1</v>
       </c>
       <c r="B30" s="21"/>
-      <c r="C30" s="76"/>
-      <c r="D30" s="76"/>
-      <c r="E30" s="76"/>
-      <c r="F30" s="76"/>
-      <c r="G30" s="76"/>
-      <c r="H30" s="76"/>
+      <c r="C30" s="74"/>
+      <c r="D30" s="74"/>
+      <c r="E30" s="74"/>
+      <c r="F30" s="74"/>
+      <c r="G30" s="74"/>
+      <c r="H30" s="74"/>
       <c r="I30" s="22"/>
       <c r="J30" s="45"/>
       <c r="K30" s="42"/>
@@ -5689,12 +5692,12 @@
         <v>2</v>
       </c>
       <c r="B31" s="28"/>
-      <c r="C31" s="72"/>
-      <c r="D31" s="72"/>
-      <c r="E31" s="72"/>
-      <c r="F31" s="72"/>
-      <c r="G31" s="72"/>
-      <c r="H31" s="72"/>
+      <c r="C31" s="71"/>
+      <c r="D31" s="71"/>
+      <c r="E31" s="71"/>
+      <c r="F31" s="71"/>
+      <c r="G31" s="71"/>
+      <c r="H31" s="71"/>
       <c r="I31" s="29"/>
       <c r="J31" s="45"/>
       <c r="K31" s="42"/>
@@ -5702,6 +5705,60 @@
     </row>
   </sheetData>
   <mergeCells count="63">
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="G31:H31"/>
@@ -5711,60 +5768,6 @@
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="G30:H30"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:H3">
     <cfRule type="expression" dxfId="7" priority="6" stopIfTrue="1">
@@ -6167,14 +6170,14 @@
       <c r="B12" s="21">
         <v>0.33333333333333331</v>
       </c>
-      <c r="C12" s="76"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="76">
+      <c r="C12" s="74"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="74">
         <v>0.33333333333333331</v>
       </c>
-      <c r="F12" s="76"/>
-      <c r="G12" s="76"/>
-      <c r="H12" s="76"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="74"/>
       <c r="I12" s="22">
         <v>0.33333333333333331</v>
       </c>
@@ -6189,14 +6192,14 @@
       <c r="B13" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70" t="s">
+      <c r="C13" s="69"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="69"/>
       <c r="I13" s="30" t="s">
         <v>5</v>
       </c>
@@ -6231,16 +6234,16 @@
         <v>2</v>
       </c>
       <c r="B15" s="27"/>
-      <c r="C15" s="70" t="s">
+      <c r="C15" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="70" t="s">
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="70"/>
+      <c r="H15" s="69"/>
       <c r="I15" s="30"/>
       <c r="J15" s="10"/>
       <c r="K15" s="36"/>
@@ -6275,14 +6278,14 @@
       <c r="B17" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="70"/>
-      <c r="D17" s="70"/>
-      <c r="E17" s="70" t="s">
+      <c r="C17" s="69"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="F17" s="70"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="70"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="69"/>
+      <c r="H17" s="69"/>
       <c r="I17" s="30" t="s">
         <v>7</v>
       </c>
@@ -6311,12 +6314,12 @@
         <v>2</v>
       </c>
       <c r="B19" s="27"/>
-      <c r="C19" s="70"/>
-      <c r="D19" s="70"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="70"/>
-      <c r="H19" s="70"/>
+      <c r="C19" s="69"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="69"/>
+      <c r="H19" s="69"/>
       <c r="I19" s="47"/>
       <c r="J19" s="20"/>
       <c r="K19" s="35"/>
@@ -6345,12 +6348,12 @@
         <v>2</v>
       </c>
       <c r="B21" s="27"/>
-      <c r="C21" s="70"/>
-      <c r="D21" s="70"/>
-      <c r="E21" s="70"/>
-      <c r="F21" s="70"/>
-      <c r="G21" s="70"/>
-      <c r="H21" s="70"/>
+      <c r="C21" s="69"/>
+      <c r="D21" s="69"/>
+      <c r="E21" s="69"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="69"/>
+      <c r="H21" s="69"/>
       <c r="I21" s="30"/>
       <c r="J21" s="10"/>
       <c r="K21" s="36"/>
@@ -6377,12 +6380,12 @@
         <v>2</v>
       </c>
       <c r="B23" s="27"/>
-      <c r="C23" s="70"/>
-      <c r="D23" s="70"/>
-      <c r="E23" s="70"/>
-      <c r="F23" s="70"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="70"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="69"/>
+      <c r="H23" s="69"/>
       <c r="I23" s="30"/>
       <c r="J23" s="10"/>
       <c r="K23" s="36"/>
@@ -6417,14 +6420,14 @@
       <c r="B25" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="70"/>
-      <c r="D25" s="70"/>
-      <c r="E25" s="70" t="s">
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="F25" s="70"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="70"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="69"/>
+      <c r="H25" s="69"/>
       <c r="I25" s="30" t="s">
         <v>9</v>
       </c>
@@ -6455,12 +6458,12 @@
         <v>2</v>
       </c>
       <c r="B27" s="27"/>
-      <c r="C27" s="70"/>
-      <c r="D27" s="70"/>
-      <c r="E27" s="70"/>
-      <c r="F27" s="70"/>
-      <c r="G27" s="70"/>
-      <c r="H27" s="70"/>
+      <c r="C27" s="69"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="69"/>
+      <c r="F27" s="69"/>
+      <c r="G27" s="69"/>
+      <c r="H27" s="69"/>
       <c r="I27" s="30"/>
       <c r="J27" s="10"/>
       <c r="K27" s="36"/>
@@ -6491,16 +6494,16 @@
         <v>2</v>
       </c>
       <c r="B29" s="27"/>
-      <c r="C29" s="70" t="s">
+      <c r="C29" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="70"/>
-      <c r="E29" s="70"/>
-      <c r="F29" s="70"/>
-      <c r="G29" s="70" t="s">
+      <c r="D29" s="69"/>
+      <c r="E29" s="69"/>
+      <c r="F29" s="69"/>
+      <c r="G29" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="H29" s="70"/>
+      <c r="H29" s="69"/>
       <c r="I29" s="30"/>
       <c r="J29" s="10"/>
       <c r="K29" s="36"/>
@@ -6527,12 +6530,12 @@
         <v>2</v>
       </c>
       <c r="B31" s="31"/>
-      <c r="C31" s="74"/>
-      <c r="D31" s="74"/>
-      <c r="E31" s="74"/>
-      <c r="F31" s="74"/>
-      <c r="G31" s="74"/>
-      <c r="H31" s="74"/>
+      <c r="C31" s="76"/>
+      <c r="D31" s="76"/>
+      <c r="E31" s="76"/>
+      <c r="F31" s="76"/>
+      <c r="G31" s="76"/>
+      <c r="H31" s="76"/>
       <c r="I31" s="29"/>
       <c r="J31" s="10"/>
       <c r="K31" s="42"/>
@@ -6540,12 +6543,51 @@
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="G13:H13"/>
@@ -6558,51 +6600,12 @@
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="G15:H15"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:H3">
     <cfRule type="expression" dxfId="94" priority="9" stopIfTrue="1">
@@ -7024,12 +7027,12 @@
         <v>1</v>
       </c>
       <c r="B12" s="21"/>
-      <c r="C12" s="76"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="76"/>
-      <c r="F12" s="76"/>
-      <c r="G12" s="76"/>
-      <c r="H12" s="76"/>
+      <c r="C12" s="74"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="74"/>
       <c r="I12" s="22"/>
       <c r="J12" s="10"/>
       <c r="K12" s="36"/>
@@ -7040,12 +7043,12 @@
         <v>2</v>
       </c>
       <c r="B13" s="27"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="69"/>
       <c r="I13" s="30"/>
       <c r="J13" s="20"/>
       <c r="K13" s="35"/>
@@ -7056,12 +7059,12 @@
         <v>1</v>
       </c>
       <c r="B14" s="21"/>
-      <c r="C14" s="76"/>
-      <c r="D14" s="76"/>
-      <c r="E14" s="76"/>
-      <c r="F14" s="76"/>
-      <c r="G14" s="76"/>
-      <c r="H14" s="76"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="74"/>
+      <c r="H14" s="74"/>
       <c r="I14" s="22">
         <v>0.76041666666666663</v>
       </c>
@@ -7076,12 +7079,12 @@
         <v>2</v>
       </c>
       <c r="B15" s="27"/>
-      <c r="C15" s="70"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="70"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="69"/>
       <c r="I15" s="27" t="s">
         <v>38</v>
       </c>
@@ -7094,12 +7097,12 @@
         <v>1</v>
       </c>
       <c r="B16" s="21"/>
-      <c r="C16" s="76"/>
-      <c r="D16" s="76"/>
-      <c r="E16" s="76"/>
-      <c r="F16" s="76"/>
-      <c r="G16" s="76"/>
-      <c r="H16" s="76"/>
+      <c r="C16" s="74"/>
+      <c r="D16" s="74"/>
+      <c r="E16" s="74"/>
+      <c r="F16" s="74"/>
+      <c r="G16" s="74"/>
+      <c r="H16" s="74"/>
       <c r="I16" s="24">
         <v>0.82291666666666663</v>
       </c>
@@ -7112,12 +7115,12 @@
         <v>2</v>
       </c>
       <c r="B17" s="27"/>
-      <c r="C17" s="70"/>
-      <c r="D17" s="70"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="70"/>
+      <c r="C17" s="69"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="69"/>
+      <c r="H17" s="69"/>
       <c r="I17" s="27" t="s">
         <v>41</v>
       </c>
@@ -7130,14 +7133,14 @@
         <v>1</v>
       </c>
       <c r="B18" s="21"/>
-      <c r="C18" s="76">
+      <c r="C18" s="74">
         <v>0.82986111111111116</v>
       </c>
-      <c r="D18" s="76"/>
-      <c r="E18" s="76"/>
-      <c r="F18" s="76"/>
-      <c r="G18" s="76"/>
-      <c r="H18" s="76"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="74"/>
+      <c r="G18" s="74"/>
+      <c r="H18" s="74"/>
       <c r="I18" s="22"/>
       <c r="J18" s="10"/>
       <c r="K18" s="36"/>
@@ -7148,14 +7151,14 @@
         <v>2</v>
       </c>
       <c r="B19" s="27"/>
-      <c r="C19" s="77" t="s">
+      <c r="C19" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="70"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="70"/>
-      <c r="H19" s="70"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="69"/>
+      <c r="H19" s="69"/>
       <c r="I19" s="47"/>
       <c r="J19" s="20"/>
       <c r="K19" s="35"/>
@@ -7166,14 +7169,14 @@
         <v>1</v>
       </c>
       <c r="B20" s="21"/>
-      <c r="C20" s="76">
+      <c r="C20" s="74">
         <v>0.875</v>
       </c>
-      <c r="D20" s="76"/>
-      <c r="E20" s="76"/>
-      <c r="F20" s="76"/>
-      <c r="G20" s="76"/>
-      <c r="H20" s="76"/>
+      <c r="D20" s="74"/>
+      <c r="E20" s="74"/>
+      <c r="F20" s="74"/>
+      <c r="G20" s="74"/>
+      <c r="H20" s="74"/>
       <c r="I20" s="22"/>
       <c r="J20" s="10" t="s">
         <v>32</v>
@@ -7190,14 +7193,14 @@
         <v>2</v>
       </c>
       <c r="B21" s="27"/>
-      <c r="C21" s="77" t="s">
+      <c r="C21" s="78" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="70"/>
-      <c r="E21" s="70"/>
-      <c r="F21" s="70"/>
-      <c r="G21" s="70"/>
-      <c r="H21" s="70"/>
+      <c r="D21" s="69"/>
+      <c r="E21" s="69"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="69"/>
+      <c r="H21" s="69"/>
       <c r="I21" s="30"/>
       <c r="J21" s="10"/>
       <c r="K21" s="36"/>
@@ -7208,14 +7211,14 @@
         <v>1</v>
       </c>
       <c r="B22" s="21"/>
-      <c r="C22" s="76" t="s">
+      <c r="C22" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="76"/>
-      <c r="E22" s="76"/>
-      <c r="F22" s="76"/>
-      <c r="G22" s="76"/>
-      <c r="H22" s="76"/>
+      <c r="D22" s="74"/>
+      <c r="E22" s="74"/>
+      <c r="F22" s="74"/>
+      <c r="G22" s="74"/>
+      <c r="H22" s="74"/>
       <c r="I22" s="22"/>
       <c r="J22" s="10"/>
       <c r="K22" s="36"/>
@@ -7226,14 +7229,14 @@
         <v>2</v>
       </c>
       <c r="B23" s="27"/>
-      <c r="C23" s="78">
+      <c r="C23" s="77">
         <v>0.96180555555555547</v>
       </c>
-      <c r="D23" s="70"/>
-      <c r="E23" s="70"/>
-      <c r="F23" s="70"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="70"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="69"/>
+      <c r="H23" s="69"/>
       <c r="I23" s="30"/>
       <c r="J23" s="10"/>
       <c r="K23" s="36"/>
@@ -7244,12 +7247,12 @@
         <v>1</v>
       </c>
       <c r="B24" s="21"/>
-      <c r="C24" s="76"/>
-      <c r="D24" s="76"/>
-      <c r="E24" s="76"/>
-      <c r="F24" s="76"/>
-      <c r="G24" s="76"/>
-      <c r="H24" s="76"/>
+      <c r="C24" s="74"/>
+      <c r="D24" s="74"/>
+      <c r="E24" s="74"/>
+      <c r="F24" s="74"/>
+      <c r="G24" s="74"/>
+      <c r="H24" s="74"/>
       <c r="I24" s="22"/>
       <c r="J24" s="10"/>
       <c r="K24" s="36"/>
@@ -7260,12 +7263,12 @@
         <v>2</v>
       </c>
       <c r="B25" s="27"/>
-      <c r="C25" s="70"/>
-      <c r="D25" s="70"/>
-      <c r="E25" s="70"/>
-      <c r="F25" s="70"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="70"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="69"/>
+      <c r="H25" s="69"/>
       <c r="I25" s="30"/>
       <c r="J25" s="20"/>
       <c r="K25" s="35"/>
@@ -7276,12 +7279,12 @@
         <v>1</v>
       </c>
       <c r="B26" s="21"/>
-      <c r="C26" s="76"/>
-      <c r="D26" s="76"/>
-      <c r="E26" s="76"/>
-      <c r="F26" s="76"/>
-      <c r="G26" s="76"/>
-      <c r="H26" s="76"/>
+      <c r="C26" s="74"/>
+      <c r="D26" s="74"/>
+      <c r="E26" s="74"/>
+      <c r="F26" s="74"/>
+      <c r="G26" s="74"/>
+      <c r="H26" s="74"/>
       <c r="I26" s="22"/>
       <c r="J26" s="10" t="s">
         <v>33</v>
@@ -7298,12 +7301,12 @@
         <v>2</v>
       </c>
       <c r="B27" s="27"/>
-      <c r="C27" s="70"/>
-      <c r="D27" s="70"/>
-      <c r="E27" s="70"/>
-      <c r="F27" s="70"/>
-      <c r="G27" s="70"/>
-      <c r="H27" s="70"/>
+      <c r="C27" s="69"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="69"/>
+      <c r="F27" s="69"/>
+      <c r="G27" s="69"/>
+      <c r="H27" s="69"/>
       <c r="I27" s="30"/>
       <c r="J27" s="10"/>
       <c r="K27" s="36">
@@ -7318,12 +7321,12 @@
         <v>1</v>
       </c>
       <c r="B28" s="21"/>
-      <c r="C28" s="76"/>
-      <c r="D28" s="76"/>
-      <c r="E28" s="76"/>
-      <c r="F28" s="76"/>
-      <c r="G28" s="76"/>
-      <c r="H28" s="76"/>
+      <c r="C28" s="74"/>
+      <c r="D28" s="74"/>
+      <c r="E28" s="74"/>
+      <c r="F28" s="74"/>
+      <c r="G28" s="74"/>
+      <c r="H28" s="74"/>
       <c r="I28" s="22"/>
       <c r="J28" s="10"/>
       <c r="K28" s="36"/>
@@ -7334,12 +7337,12 @@
         <v>2</v>
       </c>
       <c r="B29" s="27"/>
-      <c r="C29" s="70"/>
-      <c r="D29" s="70"/>
-      <c r="E29" s="70"/>
-      <c r="F29" s="70"/>
-      <c r="G29" s="70"/>
-      <c r="H29" s="70"/>
+      <c r="C29" s="69"/>
+      <c r="D29" s="69"/>
+      <c r="E29" s="69"/>
+      <c r="F29" s="69"/>
+      <c r="G29" s="69"/>
+      <c r="H29" s="69"/>
       <c r="I29" s="30"/>
       <c r="J29" s="10"/>
       <c r="K29" s="36"/>
@@ -7350,12 +7353,12 @@
         <v>1</v>
       </c>
       <c r="B30" s="21"/>
-      <c r="C30" s="76"/>
-      <c r="D30" s="76"/>
-      <c r="E30" s="76"/>
-      <c r="F30" s="76"/>
-      <c r="G30" s="76"/>
-      <c r="H30" s="76"/>
+      <c r="C30" s="74"/>
+      <c r="D30" s="74"/>
+      <c r="E30" s="74"/>
+      <c r="F30" s="74"/>
+      <c r="G30" s="74"/>
+      <c r="H30" s="74"/>
       <c r="I30" s="22"/>
       <c r="J30" s="10"/>
       <c r="K30" s="36"/>
@@ -7366,12 +7369,12 @@
         <v>2</v>
       </c>
       <c r="B31" s="28"/>
-      <c r="C31" s="72"/>
-      <c r="D31" s="72"/>
-      <c r="E31" s="72"/>
-      <c r="F31" s="72"/>
-      <c r="G31" s="72"/>
-      <c r="H31" s="72"/>
+      <c r="C31" s="71"/>
+      <c r="D31" s="71"/>
+      <c r="E31" s="71"/>
+      <c r="F31" s="71"/>
+      <c r="G31" s="71"/>
+      <c r="H31" s="71"/>
       <c r="I31" s="29"/>
       <c r="J31" s="10"/>
       <c r="K31" s="42"/>
@@ -7379,6 +7382,60 @@
     </row>
   </sheetData>
   <mergeCells count="63">
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="G31:H31"/>
@@ -7388,60 +7445,6 @@
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="G30:H30"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:H3">
     <cfRule type="expression" dxfId="86" priority="6" stopIfTrue="1">
@@ -7513,8 +7516,8 @@
   </sheetPr>
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="84" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="84" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28:H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7812,7 +7815,7 @@
         <v>10</v>
       </c>
       <c r="L9" s="49" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -7860,7 +7863,7 @@
         <v>24</v>
       </c>
       <c r="L11" s="49" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -7868,12 +7871,12 @@
         <v>1</v>
       </c>
       <c r="B12" s="56"/>
-      <c r="C12" s="76"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="76"/>
-      <c r="F12" s="76"/>
-      <c r="G12" s="76"/>
-      <c r="H12" s="76"/>
+      <c r="C12" s="74"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="74"/>
       <c r="I12" s="22"/>
       <c r="K12" s="36"/>
       <c r="L12" s="49"/>
@@ -7883,12 +7886,12 @@
         <v>2</v>
       </c>
       <c r="B13" s="27"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="69"/>
       <c r="I13" s="54"/>
       <c r="J13" s="20"/>
       <c r="K13" s="35"/>
@@ -7899,12 +7902,12 @@
         <v>1</v>
       </c>
       <c r="B14" s="56"/>
-      <c r="C14" s="76"/>
-      <c r="D14" s="76"/>
-      <c r="E14" s="76"/>
-      <c r="F14" s="76"/>
-      <c r="G14" s="76"/>
-      <c r="H14" s="76"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="74"/>
+      <c r="H14" s="74"/>
       <c r="I14" s="22">
         <v>0.76041666666666663</v>
       </c>
@@ -7919,12 +7922,12 @@
         <v>2</v>
       </c>
       <c r="B15" s="27"/>
-      <c r="C15" s="70"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="70"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="69"/>
       <c r="I15" s="27" t="s">
         <v>38</v>
       </c>
@@ -7936,12 +7939,12 @@
         <v>1</v>
       </c>
       <c r="B16" s="56"/>
-      <c r="C16" s="76"/>
-      <c r="D16" s="76"/>
-      <c r="E16" s="76"/>
-      <c r="F16" s="76"/>
-      <c r="G16" s="76"/>
-      <c r="H16" s="76"/>
+      <c r="C16" s="74"/>
+      <c r="D16" s="74"/>
+      <c r="E16" s="74"/>
+      <c r="F16" s="74"/>
+      <c r="G16" s="74"/>
+      <c r="H16" s="74"/>
       <c r="I16" s="24">
         <v>0.82291666666666663</v>
       </c>
@@ -7953,12 +7956,12 @@
         <v>2</v>
       </c>
       <c r="B17" s="27"/>
-      <c r="C17" s="70"/>
-      <c r="D17" s="70"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="70"/>
+      <c r="C17" s="69"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="69"/>
+      <c r="H17" s="69"/>
       <c r="I17" s="27" t="s">
         <v>41</v>
       </c>
@@ -7970,14 +7973,14 @@
         <v>1</v>
       </c>
       <c r="B18" s="56"/>
-      <c r="C18" s="76">
+      <c r="C18" s="74">
         <v>0.82986111111111116</v>
       </c>
-      <c r="D18" s="76"/>
-      <c r="E18" s="76"/>
-      <c r="F18" s="76"/>
-      <c r="G18" s="76"/>
-      <c r="H18" s="76"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="74"/>
+      <c r="G18" s="74"/>
+      <c r="H18" s="74"/>
       <c r="I18" s="22"/>
       <c r="K18" s="36"/>
       <c r="L18" s="49"/>
@@ -7987,14 +7990,14 @@
         <v>2</v>
       </c>
       <c r="B19" s="27"/>
-      <c r="C19" s="77" t="s">
+      <c r="C19" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="70"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="70"/>
-      <c r="H19" s="70"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="69"/>
+      <c r="H19" s="69"/>
       <c r="I19" s="47"/>
       <c r="J19" s="20"/>
       <c r="K19" s="35"/>
@@ -8005,14 +8008,14 @@
         <v>1</v>
       </c>
       <c r="B20" s="56"/>
-      <c r="C20" s="76">
+      <c r="C20" s="74">
         <v>0.875</v>
       </c>
-      <c r="D20" s="76"/>
-      <c r="E20" s="76"/>
-      <c r="F20" s="76"/>
-      <c r="G20" s="76"/>
-      <c r="H20" s="76"/>
+      <c r="D20" s="74"/>
+      <c r="E20" s="74"/>
+      <c r="F20" s="74"/>
+      <c r="G20" s="74"/>
+      <c r="H20" s="74"/>
       <c r="I20" s="22"/>
       <c r="J20" s="10" t="s">
         <v>32</v>
@@ -8021,7 +8024,7 @@
         <v>26</v>
       </c>
       <c r="L20" s="49" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -8029,14 +8032,14 @@
         <v>2</v>
       </c>
       <c r="B21" s="27"/>
-      <c r="C21" s="77" t="s">
+      <c r="C21" s="78" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="70"/>
-      <c r="E21" s="70"/>
-      <c r="F21" s="70"/>
-      <c r="G21" s="70"/>
-      <c r="H21" s="70"/>
+      <c r="D21" s="69"/>
+      <c r="E21" s="69"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="69"/>
+      <c r="H21" s="69"/>
       <c r="I21" s="54"/>
       <c r="K21" s="36"/>
       <c r="L21" s="49"/>
@@ -8046,14 +8049,14 @@
         <v>1</v>
       </c>
       <c r="B22" s="56"/>
-      <c r="C22" s="76" t="s">
+      <c r="C22" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="76"/>
-      <c r="E22" s="76"/>
-      <c r="F22" s="76"/>
-      <c r="G22" s="76"/>
-      <c r="H22" s="76"/>
+      <c r="D22" s="74"/>
+      <c r="E22" s="74"/>
+      <c r="F22" s="74"/>
+      <c r="G22" s="74"/>
+      <c r="H22" s="74"/>
       <c r="I22" s="22"/>
       <c r="K22" s="36"/>
       <c r="L22" s="49"/>
@@ -8063,14 +8066,14 @@
         <v>2</v>
       </c>
       <c r="B23" s="27"/>
-      <c r="C23" s="78">
+      <c r="C23" s="77">
         <v>0.96180555555555547</v>
       </c>
-      <c r="D23" s="70"/>
-      <c r="E23" s="70"/>
-      <c r="F23" s="70"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="70"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="69"/>
+      <c r="H23" s="69"/>
       <c r="I23" s="54"/>
       <c r="K23" s="36"/>
       <c r="L23" s="49"/>
@@ -8080,12 +8083,12 @@
         <v>1</v>
       </c>
       <c r="B24" s="56"/>
-      <c r="C24" s="76"/>
-      <c r="D24" s="76"/>
-      <c r="E24" s="76"/>
-      <c r="F24" s="76"/>
-      <c r="G24" s="76"/>
-      <c r="H24" s="76"/>
+      <c r="C24" s="74"/>
+      <c r="D24" s="74"/>
+      <c r="E24" s="74"/>
+      <c r="F24" s="74"/>
+      <c r="G24" s="74"/>
+      <c r="H24" s="74"/>
       <c r="I24" s="22"/>
       <c r="K24" s="36"/>
       <c r="L24" s="49"/>
@@ -8095,12 +8098,12 @@
         <v>2</v>
       </c>
       <c r="B25" s="27"/>
-      <c r="C25" s="70"/>
-      <c r="D25" s="70"/>
-      <c r="E25" s="70"/>
-      <c r="F25" s="70"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="70"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="69"/>
+      <c r="H25" s="69"/>
       <c r="I25" s="54"/>
       <c r="J25" s="20"/>
       <c r="K25" s="35"/>
@@ -8111,12 +8114,12 @@
         <v>1</v>
       </c>
       <c r="B26" s="56"/>
-      <c r="C26" s="76"/>
-      <c r="D26" s="76"/>
-      <c r="E26" s="76"/>
-      <c r="F26" s="76"/>
-      <c r="G26" s="76"/>
-      <c r="H26" s="76"/>
+      <c r="C26" s="74"/>
+      <c r="D26" s="74"/>
+      <c r="E26" s="74"/>
+      <c r="F26" s="74"/>
+      <c r="G26" s="74"/>
+      <c r="H26" s="74"/>
       <c r="I26" s="22"/>
       <c r="J26" s="10" t="s">
         <v>33</v>
@@ -8125,7 +8128,7 @@
         <v>6</v>
       </c>
       <c r="L26" s="49" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -8133,18 +8136,18 @@
         <v>2</v>
       </c>
       <c r="B27" s="27"/>
-      <c r="C27" s="70"/>
-      <c r="D27" s="70"/>
-      <c r="E27" s="70"/>
-      <c r="F27" s="70"/>
-      <c r="G27" s="70"/>
-      <c r="H27" s="70"/>
+      <c r="C27" s="69"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="69"/>
+      <c r="F27" s="69"/>
+      <c r="G27" s="69"/>
+      <c r="H27" s="69"/>
       <c r="I27" s="54"/>
       <c r="K27" s="36">
         <v>13</v>
       </c>
       <c r="L27" s="49" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -8152,37 +8155,37 @@
         <v>1</v>
       </c>
       <c r="B28" s="56"/>
-      <c r="C28" s="76"/>
-      <c r="D28" s="76"/>
-      <c r="E28" s="76"/>
-      <c r="F28" s="76"/>
-      <c r="G28" s="76"/>
-      <c r="H28" s="76"/>
+      <c r="C28" s="74"/>
+      <c r="D28" s="74"/>
+      <c r="E28" s="74"/>
+      <c r="F28" s="74"/>
+      <c r="G28" s="74"/>
+      <c r="H28" s="74"/>
       <c r="I28" s="22"/>
       <c r="K28" s="36">
         <v>20</v>
       </c>
       <c r="L28" s="49" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="26" t="s">
         <v>2</v>
       </c>
       <c r="B29" s="27"/>
-      <c r="C29" s="70"/>
-      <c r="D29" s="70"/>
-      <c r="E29" s="70"/>
-      <c r="F29" s="70"/>
-      <c r="G29" s="70"/>
-      <c r="H29" s="70"/>
+      <c r="C29" s="69"/>
+      <c r="D29" s="69"/>
+      <c r="E29" s="69"/>
+      <c r="F29" s="69"/>
+      <c r="G29" s="69"/>
+      <c r="H29" s="69"/>
       <c r="I29" s="54"/>
       <c r="K29" s="36">
         <v>27</v>
       </c>
       <c r="L29" s="49" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -8190,12 +8193,12 @@
         <v>1</v>
       </c>
       <c r="B30" s="56"/>
-      <c r="C30" s="76"/>
-      <c r="D30" s="76"/>
-      <c r="E30" s="76"/>
-      <c r="F30" s="76"/>
-      <c r="G30" s="76"/>
-      <c r="H30" s="76"/>
+      <c r="C30" s="74"/>
+      <c r="D30" s="74"/>
+      <c r="E30" s="74"/>
+      <c r="F30" s="74"/>
+      <c r="G30" s="74"/>
+      <c r="H30" s="74"/>
       <c r="I30" s="22"/>
       <c r="K30" s="36"/>
       <c r="L30" s="49"/>
@@ -8205,18 +8208,72 @@
         <v>2</v>
       </c>
       <c r="B31" s="28"/>
-      <c r="C31" s="72"/>
-      <c r="D31" s="72"/>
-      <c r="E31" s="72"/>
-      <c r="F31" s="72"/>
-      <c r="G31" s="72"/>
-      <c r="H31" s="72"/>
+      <c r="C31" s="71"/>
+      <c r="D31" s="71"/>
+      <c r="E31" s="71"/>
+      <c r="F31" s="71"/>
+      <c r="G31" s="71"/>
+      <c r="H31" s="71"/>
       <c r="I31" s="55"/>
       <c r="K31" s="42"/>
       <c r="L31" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="63">
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="G31:H31"/>
@@ -8226,60 +8283,6 @@
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="G30:H30"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:H3">
     <cfRule type="expression" dxfId="77" priority="10" stopIfTrue="1">
@@ -8351,8 +8354,8 @@
   </sheetPr>
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="84" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:L1"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="84" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8697,12 +8700,12 @@
         <v>1</v>
       </c>
       <c r="B12" s="56"/>
-      <c r="C12" s="76"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="76"/>
-      <c r="F12" s="76"/>
-      <c r="G12" s="76"/>
-      <c r="H12" s="76"/>
+      <c r="C12" s="74"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="74"/>
       <c r="I12" s="22"/>
       <c r="J12" s="10"/>
       <c r="K12" s="36"/>
@@ -8713,12 +8716,12 @@
         <v>2</v>
       </c>
       <c r="B13" s="27"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="69"/>
       <c r="I13" s="54"/>
       <c r="J13" s="20"/>
       <c r="K13" s="35"/>
@@ -8729,32 +8732,36 @@
         <v>1</v>
       </c>
       <c r="B14" s="56"/>
-      <c r="C14" s="76"/>
-      <c r="D14" s="76"/>
-      <c r="E14" s="76"/>
-      <c r="F14" s="76"/>
-      <c r="G14" s="76"/>
-      <c r="H14" s="76"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="74"/>
+      <c r="H14" s="74"/>
       <c r="I14" s="22">
         <v>0.76041666666666663</v>
       </c>
       <c r="J14" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="K14" s="37"/>
-      <c r="L14" s="49"/>
+      <c r="K14" s="37">
+        <v>2</v>
+      </c>
+      <c r="L14" s="49" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="15" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
         <v>2</v>
       </c>
       <c r="B15" s="27"/>
-      <c r="C15" s="70"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="70"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="69"/>
       <c r="I15" s="27" t="s">
         <v>38</v>
       </c>
@@ -8767,12 +8774,12 @@
         <v>1</v>
       </c>
       <c r="B16" s="56"/>
-      <c r="C16" s="76"/>
-      <c r="D16" s="76"/>
-      <c r="E16" s="76"/>
-      <c r="F16" s="76"/>
-      <c r="G16" s="76"/>
-      <c r="H16" s="76"/>
+      <c r="C16" s="74"/>
+      <c r="D16" s="74"/>
+      <c r="E16" s="74"/>
+      <c r="F16" s="74"/>
+      <c r="G16" s="74"/>
+      <c r="H16" s="74"/>
       <c r="I16" s="24">
         <v>0.82291666666666663</v>
       </c>
@@ -8785,12 +8792,12 @@
         <v>2</v>
       </c>
       <c r="B17" s="27"/>
-      <c r="C17" s="70"/>
-      <c r="D17" s="70"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="70"/>
+      <c r="C17" s="69"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="69"/>
+      <c r="H17" s="69"/>
       <c r="I17" s="27" t="s">
         <v>41</v>
       </c>
@@ -8803,14 +8810,14 @@
         <v>1</v>
       </c>
       <c r="B18" s="56"/>
-      <c r="C18" s="76">
+      <c r="C18" s="74">
         <v>0.82986111111111116</v>
       </c>
-      <c r="D18" s="76"/>
-      <c r="E18" s="76"/>
-      <c r="F18" s="76"/>
-      <c r="G18" s="76"/>
-      <c r="H18" s="76"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="74"/>
+      <c r="G18" s="74"/>
+      <c r="H18" s="74"/>
       <c r="I18" s="22"/>
       <c r="J18" s="10"/>
       <c r="K18" s="36"/>
@@ -8821,14 +8828,14 @@
         <v>2</v>
       </c>
       <c r="B19" s="27"/>
-      <c r="C19" s="77" t="s">
+      <c r="C19" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="70"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="70"/>
-      <c r="H19" s="70"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="69"/>
+      <c r="H19" s="69"/>
       <c r="I19" s="47"/>
       <c r="J19" s="20"/>
       <c r="K19" s="35"/>
@@ -8839,14 +8846,14 @@
         <v>1</v>
       </c>
       <c r="B20" s="56"/>
-      <c r="C20" s="76">
+      <c r="C20" s="74">
         <v>0.875</v>
       </c>
-      <c r="D20" s="76"/>
-      <c r="E20" s="76"/>
-      <c r="F20" s="76"/>
-      <c r="G20" s="76"/>
-      <c r="H20" s="76"/>
+      <c r="D20" s="74"/>
+      <c r="E20" s="74"/>
+      <c r="F20" s="74"/>
+      <c r="G20" s="74"/>
+      <c r="H20" s="74"/>
       <c r="I20" s="22"/>
       <c r="J20" s="10" t="s">
         <v>32</v>
@@ -8859,14 +8866,14 @@
         <v>2</v>
       </c>
       <c r="B21" s="27"/>
-      <c r="C21" s="77" t="s">
+      <c r="C21" s="78" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="70"/>
-      <c r="E21" s="70"/>
-      <c r="F21" s="70"/>
-      <c r="G21" s="70"/>
-      <c r="H21" s="70"/>
+      <c r="D21" s="69"/>
+      <c r="E21" s="69"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="69"/>
+      <c r="H21" s="69"/>
       <c r="I21" s="54"/>
       <c r="J21" s="10"/>
       <c r="K21" s="36"/>
@@ -8877,14 +8884,14 @@
         <v>1</v>
       </c>
       <c r="B22" s="56"/>
-      <c r="C22" s="76" t="s">
+      <c r="C22" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="76"/>
-      <c r="E22" s="76"/>
-      <c r="F22" s="76"/>
-      <c r="G22" s="76"/>
-      <c r="H22" s="76"/>
+      <c r="D22" s="74"/>
+      <c r="E22" s="74"/>
+      <c r="F22" s="74"/>
+      <c r="G22" s="74"/>
+      <c r="H22" s="74"/>
       <c r="I22" s="22"/>
       <c r="J22" s="10"/>
       <c r="K22" s="36"/>
@@ -8895,14 +8902,14 @@
         <v>2</v>
       </c>
       <c r="B23" s="27"/>
-      <c r="C23" s="78">
+      <c r="C23" s="77">
         <v>0.96180555555555547</v>
       </c>
-      <c r="D23" s="70"/>
-      <c r="E23" s="70"/>
-      <c r="F23" s="70"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="70"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="69"/>
+      <c r="H23" s="69"/>
       <c r="I23" s="54"/>
       <c r="J23" s="10"/>
       <c r="K23" s="36"/>
@@ -8913,12 +8920,12 @@
         <v>1</v>
       </c>
       <c r="B24" s="56"/>
-      <c r="C24" s="76"/>
-      <c r="D24" s="76"/>
-      <c r="E24" s="76"/>
-      <c r="F24" s="76"/>
-      <c r="G24" s="76"/>
-      <c r="H24" s="76"/>
+      <c r="C24" s="74"/>
+      <c r="D24" s="74"/>
+      <c r="E24" s="74"/>
+      <c r="F24" s="74"/>
+      <c r="G24" s="74"/>
+      <c r="H24" s="74"/>
       <c r="I24" s="22"/>
       <c r="J24" s="10"/>
       <c r="K24" s="36"/>
@@ -8929,12 +8936,12 @@
         <v>2</v>
       </c>
       <c r="B25" s="27"/>
-      <c r="C25" s="70"/>
-      <c r="D25" s="70"/>
-      <c r="E25" s="70"/>
-      <c r="F25" s="70"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="70"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="69"/>
+      <c r="H25" s="69"/>
       <c r="I25" s="54"/>
       <c r="J25" s="20"/>
       <c r="K25" s="35"/>
@@ -8945,12 +8952,12 @@
         <v>1</v>
       </c>
       <c r="B26" s="56"/>
-      <c r="C26" s="76"/>
-      <c r="D26" s="76"/>
-      <c r="E26" s="76"/>
-      <c r="F26" s="76"/>
-      <c r="G26" s="76"/>
-      <c r="H26" s="76"/>
+      <c r="C26" s="74"/>
+      <c r="D26" s="74"/>
+      <c r="E26" s="74"/>
+      <c r="F26" s="74"/>
+      <c r="G26" s="74"/>
+      <c r="H26" s="74"/>
       <c r="I26" s="22"/>
       <c r="J26" s="10" t="s">
         <v>33</v>
@@ -8963,12 +8970,12 @@
         <v>2</v>
       </c>
       <c r="B27" s="27"/>
-      <c r="C27" s="70"/>
-      <c r="D27" s="70"/>
-      <c r="E27" s="70"/>
-      <c r="F27" s="70"/>
-      <c r="G27" s="70"/>
-      <c r="H27" s="70"/>
+      <c r="C27" s="69"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="69"/>
+      <c r="F27" s="69"/>
+      <c r="G27" s="69"/>
+      <c r="H27" s="69"/>
       <c r="I27" s="54"/>
       <c r="J27" s="10"/>
       <c r="K27" s="36"/>
@@ -8979,12 +8986,12 @@
         <v>1</v>
       </c>
       <c r="B28" s="56"/>
-      <c r="C28" s="76"/>
-      <c r="D28" s="76"/>
-      <c r="E28" s="76"/>
-      <c r="F28" s="76"/>
-      <c r="G28" s="76"/>
-      <c r="H28" s="76"/>
+      <c r="C28" s="74"/>
+      <c r="D28" s="74"/>
+      <c r="E28" s="74"/>
+      <c r="F28" s="74"/>
+      <c r="G28" s="74"/>
+      <c r="H28" s="74"/>
       <c r="I28" s="22"/>
       <c r="J28" s="10"/>
       <c r="K28" s="36"/>
@@ -8995,12 +9002,12 @@
         <v>2</v>
       </c>
       <c r="B29" s="27"/>
-      <c r="C29" s="70"/>
-      <c r="D29" s="70"/>
-      <c r="E29" s="70"/>
-      <c r="F29" s="70"/>
-      <c r="G29" s="70"/>
-      <c r="H29" s="70"/>
+      <c r="C29" s="69"/>
+      <c r="D29" s="69"/>
+      <c r="E29" s="69"/>
+      <c r="F29" s="69"/>
+      <c r="G29" s="69"/>
+      <c r="H29" s="69"/>
       <c r="I29" s="54"/>
       <c r="J29" s="10"/>
       <c r="K29" s="36">
@@ -9015,12 +9022,12 @@
         <v>1</v>
       </c>
       <c r="B30" s="56"/>
-      <c r="C30" s="76"/>
-      <c r="D30" s="76"/>
-      <c r="E30" s="76"/>
-      <c r="F30" s="76"/>
-      <c r="G30" s="76"/>
-      <c r="H30" s="76"/>
+      <c r="C30" s="74"/>
+      <c r="D30" s="74"/>
+      <c r="E30" s="74"/>
+      <c r="F30" s="74"/>
+      <c r="G30" s="74"/>
+      <c r="H30" s="74"/>
       <c r="I30" s="22"/>
       <c r="J30" s="10"/>
       <c r="K30" s="36"/>
@@ -9031,12 +9038,12 @@
         <v>2</v>
       </c>
       <c r="B31" s="28"/>
-      <c r="C31" s="72"/>
-      <c r="D31" s="72"/>
-      <c r="E31" s="72"/>
-      <c r="F31" s="72"/>
-      <c r="G31" s="72"/>
-      <c r="H31" s="72"/>
+      <c r="C31" s="71"/>
+      <c r="D31" s="71"/>
+      <c r="E31" s="71"/>
+      <c r="F31" s="71"/>
+      <c r="G31" s="71"/>
+      <c r="H31" s="71"/>
       <c r="I31" s="55"/>
       <c r="J31" s="45"/>
       <c r="K31" s="42"/>
@@ -9044,6 +9051,60 @@
     </row>
   </sheetData>
   <mergeCells count="63">
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="G31:H31"/>
@@ -9053,60 +9114,6 @@
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="G30:H30"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:H3">
     <cfRule type="expression" dxfId="68" priority="12" stopIfTrue="1">
@@ -9524,12 +9531,12 @@
         <v>1</v>
       </c>
       <c r="B12" s="56"/>
-      <c r="C12" s="76"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="76"/>
-      <c r="F12" s="76"/>
-      <c r="G12" s="76"/>
-      <c r="H12" s="76"/>
+      <c r="C12" s="74"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="74"/>
       <c r="I12" s="22"/>
       <c r="J12" s="10"/>
       <c r="K12" s="36"/>
@@ -9540,12 +9547,12 @@
         <v>2</v>
       </c>
       <c r="B13" s="27"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="69"/>
       <c r="I13" s="54"/>
       <c r="J13" s="20"/>
       <c r="K13" s="35"/>
@@ -9556,12 +9563,12 @@
         <v>1</v>
       </c>
       <c r="B14" s="56"/>
-      <c r="C14" s="76"/>
-      <c r="D14" s="76"/>
-      <c r="E14" s="76"/>
-      <c r="F14" s="76"/>
-      <c r="G14" s="76"/>
-      <c r="H14" s="76"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="74"/>
+      <c r="H14" s="74"/>
       <c r="I14" s="22">
         <v>0.76041666666666663</v>
       </c>
@@ -9576,12 +9583,12 @@
         <v>2</v>
       </c>
       <c r="B15" s="27"/>
-      <c r="C15" s="70"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="70"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="69"/>
       <c r="I15" s="27" t="s">
         <v>38</v>
       </c>
@@ -9594,12 +9601,12 @@
         <v>1</v>
       </c>
       <c r="B16" s="56"/>
-      <c r="C16" s="76"/>
-      <c r="D16" s="76"/>
-      <c r="E16" s="76"/>
-      <c r="F16" s="76"/>
-      <c r="G16" s="76"/>
-      <c r="H16" s="76"/>
+      <c r="C16" s="74"/>
+      <c r="D16" s="74"/>
+      <c r="E16" s="74"/>
+      <c r="F16" s="74"/>
+      <c r="G16" s="74"/>
+      <c r="H16" s="74"/>
       <c r="I16" s="24">
         <v>0.82291666666666663</v>
       </c>
@@ -9616,12 +9623,12 @@
         <v>2</v>
       </c>
       <c r="B17" s="27"/>
-      <c r="C17" s="70"/>
-      <c r="D17" s="70"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="70"/>
+      <c r="C17" s="69"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="69"/>
+      <c r="H17" s="69"/>
       <c r="I17" s="27" t="s">
         <v>41</v>
       </c>
@@ -9634,14 +9641,14 @@
         <v>1</v>
       </c>
       <c r="B18" s="56"/>
-      <c r="C18" s="76">
+      <c r="C18" s="74">
         <v>0.82986111111111116</v>
       </c>
-      <c r="D18" s="76"/>
-      <c r="E18" s="76"/>
-      <c r="F18" s="76"/>
-      <c r="G18" s="76"/>
-      <c r="H18" s="76"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="74"/>
+      <c r="G18" s="74"/>
+      <c r="H18" s="74"/>
       <c r="I18" s="22"/>
       <c r="J18" s="10"/>
       <c r="K18" s="36"/>
@@ -9652,14 +9659,14 @@
         <v>2</v>
       </c>
       <c r="B19" s="27"/>
-      <c r="C19" s="77" t="s">
+      <c r="C19" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="70"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="70"/>
-      <c r="H19" s="70"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="69"/>
+      <c r="H19" s="69"/>
       <c r="I19" s="47"/>
       <c r="J19" s="20"/>
       <c r="K19" s="35"/>
@@ -9670,14 +9677,14 @@
         <v>1</v>
       </c>
       <c r="B20" s="56"/>
-      <c r="C20" s="76">
+      <c r="C20" s="74">
         <v>0.875</v>
       </c>
-      <c r="D20" s="76"/>
-      <c r="E20" s="76"/>
-      <c r="F20" s="76"/>
-      <c r="G20" s="76"/>
-      <c r="H20" s="76"/>
+      <c r="D20" s="74"/>
+      <c r="E20" s="74"/>
+      <c r="F20" s="74"/>
+      <c r="G20" s="74"/>
+      <c r="H20" s="74"/>
       <c r="I20" s="22"/>
       <c r="J20" s="10" t="s">
         <v>32</v>
@@ -9690,14 +9697,14 @@
         <v>2</v>
       </c>
       <c r="B21" s="27"/>
-      <c r="C21" s="77" t="s">
+      <c r="C21" s="78" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="70"/>
-      <c r="E21" s="70"/>
-      <c r="F21" s="70"/>
-      <c r="G21" s="70"/>
-      <c r="H21" s="70"/>
+      <c r="D21" s="69"/>
+      <c r="E21" s="69"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="69"/>
+      <c r="H21" s="69"/>
       <c r="I21" s="54"/>
       <c r="J21" s="10"/>
       <c r="K21" s="36"/>
@@ -9708,14 +9715,14 @@
         <v>1</v>
       </c>
       <c r="B22" s="56"/>
-      <c r="C22" s="76" t="s">
+      <c r="C22" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="76"/>
-      <c r="E22" s="76"/>
-      <c r="F22" s="76"/>
-      <c r="G22" s="76"/>
-      <c r="H22" s="76"/>
+      <c r="D22" s="74"/>
+      <c r="E22" s="74"/>
+      <c r="F22" s="74"/>
+      <c r="G22" s="74"/>
+      <c r="H22" s="74"/>
       <c r="I22" s="22"/>
       <c r="J22" s="10"/>
       <c r="K22" s="36"/>
@@ -9726,14 +9733,14 @@
         <v>2</v>
       </c>
       <c r="B23" s="27"/>
-      <c r="C23" s="78">
+      <c r="C23" s="77">
         <v>0.96180555555555547</v>
       </c>
-      <c r="D23" s="70"/>
-      <c r="E23" s="70"/>
-      <c r="F23" s="70"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="70"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="69"/>
+      <c r="H23" s="69"/>
       <c r="I23" s="54"/>
       <c r="J23" s="10"/>
       <c r="K23" s="36"/>
@@ -9744,12 +9751,12 @@
         <v>1</v>
       </c>
       <c r="B24" s="56"/>
-      <c r="C24" s="76"/>
-      <c r="D24" s="76"/>
-      <c r="E24" s="76"/>
-      <c r="F24" s="76"/>
-      <c r="G24" s="76"/>
-      <c r="H24" s="76"/>
+      <c r="C24" s="74"/>
+      <c r="D24" s="74"/>
+      <c r="E24" s="74"/>
+      <c r="F24" s="74"/>
+      <c r="G24" s="74"/>
+      <c r="H24" s="74"/>
       <c r="I24" s="22"/>
       <c r="J24" s="10"/>
       <c r="K24" s="36"/>
@@ -9760,12 +9767,12 @@
         <v>2</v>
       </c>
       <c r="B25" s="27"/>
-      <c r="C25" s="70"/>
-      <c r="D25" s="70"/>
-      <c r="E25" s="70"/>
-      <c r="F25" s="70"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="70"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="69"/>
+      <c r="H25" s="69"/>
       <c r="I25" s="54"/>
       <c r="J25" s="20"/>
       <c r="K25" s="35"/>
@@ -9776,12 +9783,12 @@
         <v>1</v>
       </c>
       <c r="B26" s="56"/>
-      <c r="C26" s="76"/>
-      <c r="D26" s="76"/>
-      <c r="E26" s="76"/>
-      <c r="F26" s="76"/>
-      <c r="G26" s="76"/>
-      <c r="H26" s="76"/>
+      <c r="C26" s="74"/>
+      <c r="D26" s="74"/>
+      <c r="E26" s="74"/>
+      <c r="F26" s="74"/>
+      <c r="G26" s="74"/>
+      <c r="H26" s="74"/>
       <c r="I26" s="22"/>
       <c r="J26" s="10" t="s">
         <v>33</v>
@@ -9798,12 +9805,12 @@
         <v>2</v>
       </c>
       <c r="B27" s="27"/>
-      <c r="C27" s="70"/>
-      <c r="D27" s="70"/>
-      <c r="E27" s="70"/>
-      <c r="F27" s="70"/>
-      <c r="G27" s="70"/>
-      <c r="H27" s="70"/>
+      <c r="C27" s="69"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="69"/>
+      <c r="F27" s="69"/>
+      <c r="G27" s="69"/>
+      <c r="H27" s="69"/>
       <c r="I27" s="54"/>
       <c r="J27" s="10"/>
       <c r="K27" s="36"/>
@@ -9814,12 +9821,12 @@
         <v>1</v>
       </c>
       <c r="B28" s="56"/>
-      <c r="C28" s="76"/>
-      <c r="D28" s="76"/>
-      <c r="E28" s="76"/>
-      <c r="F28" s="76"/>
-      <c r="G28" s="76"/>
-      <c r="H28" s="76"/>
+      <c r="C28" s="74"/>
+      <c r="D28" s="74"/>
+      <c r="E28" s="74"/>
+      <c r="F28" s="74"/>
+      <c r="G28" s="74"/>
+      <c r="H28" s="74"/>
       <c r="I28" s="22"/>
       <c r="J28" s="10"/>
       <c r="K28" s="36"/>
@@ -9830,12 +9837,12 @@
         <v>2</v>
       </c>
       <c r="B29" s="27"/>
-      <c r="C29" s="70"/>
-      <c r="D29" s="70"/>
-      <c r="E29" s="70"/>
-      <c r="F29" s="70"/>
-      <c r="G29" s="70"/>
-      <c r="H29" s="70"/>
+      <c r="C29" s="69"/>
+      <c r="D29" s="69"/>
+      <c r="E29" s="69"/>
+      <c r="F29" s="69"/>
+      <c r="G29" s="69"/>
+      <c r="H29" s="69"/>
       <c r="I29" s="54"/>
       <c r="J29" s="10"/>
       <c r="K29" s="36"/>
@@ -9846,12 +9853,12 @@
         <v>1</v>
       </c>
       <c r="B30" s="56"/>
-      <c r="C30" s="76"/>
-      <c r="D30" s="76"/>
-      <c r="E30" s="76"/>
-      <c r="F30" s="76"/>
-      <c r="G30" s="76"/>
-      <c r="H30" s="76"/>
+      <c r="C30" s="74"/>
+      <c r="D30" s="74"/>
+      <c r="E30" s="74"/>
+      <c r="F30" s="74"/>
+      <c r="G30" s="74"/>
+      <c r="H30" s="74"/>
       <c r="I30" s="22"/>
       <c r="J30" s="10"/>
       <c r="K30" s="36"/>
@@ -9862,12 +9869,12 @@
         <v>2</v>
       </c>
       <c r="B31" s="28"/>
-      <c r="C31" s="72"/>
-      <c r="D31" s="72"/>
-      <c r="E31" s="72"/>
-      <c r="F31" s="72"/>
-      <c r="G31" s="72"/>
-      <c r="H31" s="72"/>
+      <c r="C31" s="71"/>
+      <c r="D31" s="71"/>
+      <c r="E31" s="71"/>
+      <c r="F31" s="71"/>
+      <c r="G31" s="71"/>
+      <c r="H31" s="71"/>
       <c r="I31" s="55"/>
       <c r="J31" s="10"/>
       <c r="K31" s="42"/>
@@ -9875,6 +9882,60 @@
     </row>
   </sheetData>
   <mergeCells count="63">
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="G31:H31"/>
@@ -9884,60 +9945,6 @@
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="G30:H30"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:H3">
     <cfRule type="expression" dxfId="59" priority="10" stopIfTrue="1">
@@ -10347,12 +10354,12 @@
         <v>1</v>
       </c>
       <c r="B12" s="56"/>
-      <c r="C12" s="76"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="76"/>
-      <c r="F12" s="76"/>
-      <c r="G12" s="76"/>
-      <c r="H12" s="76"/>
+      <c r="C12" s="74"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="74"/>
       <c r="I12" s="22"/>
       <c r="J12" s="10"/>
       <c r="K12" s="36"/>
@@ -10363,12 +10370,12 @@
         <v>2</v>
       </c>
       <c r="B13" s="27"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="69"/>
       <c r="I13" s="54"/>
       <c r="J13" s="20"/>
       <c r="K13" s="35"/>
@@ -10379,12 +10386,12 @@
         <v>1</v>
       </c>
       <c r="B14" s="56"/>
-      <c r="C14" s="76"/>
-      <c r="D14" s="76"/>
-      <c r="E14" s="76"/>
-      <c r="F14" s="76"/>
-      <c r="G14" s="76"/>
-      <c r="H14" s="76"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="74"/>
+      <c r="H14" s="74"/>
       <c r="I14" s="22">
         <v>0.76041666666666663</v>
       </c>
@@ -10399,12 +10406,12 @@
         <v>2</v>
       </c>
       <c r="B15" s="27"/>
-      <c r="C15" s="70"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="70"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="69"/>
       <c r="I15" s="27" t="s">
         <v>38</v>
       </c>
@@ -10417,12 +10424,12 @@
         <v>1</v>
       </c>
       <c r="B16" s="56"/>
-      <c r="C16" s="76"/>
-      <c r="D16" s="76"/>
-      <c r="E16" s="76"/>
-      <c r="F16" s="76"/>
-      <c r="G16" s="76"/>
-      <c r="H16" s="76"/>
+      <c r="C16" s="74"/>
+      <c r="D16" s="74"/>
+      <c r="E16" s="74"/>
+      <c r="F16" s="74"/>
+      <c r="G16" s="74"/>
+      <c r="H16" s="74"/>
       <c r="I16" s="24">
         <v>0.82291666666666663</v>
       </c>
@@ -10435,12 +10442,12 @@
         <v>2</v>
       </c>
       <c r="B17" s="27"/>
-      <c r="C17" s="70"/>
-      <c r="D17" s="70"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="70"/>
+      <c r="C17" s="69"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="69"/>
+      <c r="H17" s="69"/>
       <c r="I17" s="27" t="s">
         <v>41</v>
       </c>
@@ -10453,14 +10460,14 @@
         <v>1</v>
       </c>
       <c r="B18" s="56"/>
-      <c r="C18" s="76">
+      <c r="C18" s="74">
         <v>0.82986111111111116</v>
       </c>
-      <c r="D18" s="76"/>
-      <c r="E18" s="76"/>
-      <c r="F18" s="76"/>
-      <c r="G18" s="76"/>
-      <c r="H18" s="76"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="74"/>
+      <c r="G18" s="74"/>
+      <c r="H18" s="74"/>
       <c r="I18" s="22"/>
       <c r="J18" s="10"/>
       <c r="K18" s="36"/>
@@ -10471,14 +10478,14 @@
         <v>2</v>
       </c>
       <c r="B19" s="27"/>
-      <c r="C19" s="77" t="s">
+      <c r="C19" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="70"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="70"/>
-      <c r="H19" s="70"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="69"/>
+      <c r="H19" s="69"/>
       <c r="I19" s="47"/>
       <c r="J19" s="20"/>
       <c r="K19" s="35"/>
@@ -10489,14 +10496,14 @@
         <v>1</v>
       </c>
       <c r="B20" s="56"/>
-      <c r="C20" s="76">
+      <c r="C20" s="74">
         <v>0.875</v>
       </c>
-      <c r="D20" s="76"/>
-      <c r="E20" s="76"/>
-      <c r="F20" s="76"/>
-      <c r="G20" s="76"/>
-      <c r="H20" s="76"/>
+      <c r="D20" s="74"/>
+      <c r="E20" s="74"/>
+      <c r="F20" s="74"/>
+      <c r="G20" s="74"/>
+      <c r="H20" s="74"/>
       <c r="I20" s="22"/>
       <c r="J20" s="10" t="s">
         <v>32</v>
@@ -10509,14 +10516,14 @@
         <v>2</v>
       </c>
       <c r="B21" s="27"/>
-      <c r="C21" s="77" t="s">
+      <c r="C21" s="78" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="70"/>
-      <c r="E21" s="70"/>
-      <c r="F21" s="70"/>
-      <c r="G21" s="70"/>
-      <c r="H21" s="70"/>
+      <c r="D21" s="69"/>
+      <c r="E21" s="69"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="69"/>
+      <c r="H21" s="69"/>
       <c r="I21" s="54"/>
       <c r="J21" s="10"/>
       <c r="K21" s="36"/>
@@ -10527,14 +10534,14 @@
         <v>1</v>
       </c>
       <c r="B22" s="56"/>
-      <c r="C22" s="76" t="s">
+      <c r="C22" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="76"/>
-      <c r="E22" s="76"/>
-      <c r="F22" s="76"/>
-      <c r="G22" s="76"/>
-      <c r="H22" s="76"/>
+      <c r="D22" s="74"/>
+      <c r="E22" s="74"/>
+      <c r="F22" s="74"/>
+      <c r="G22" s="74"/>
+      <c r="H22" s="74"/>
       <c r="I22" s="22"/>
       <c r="J22" s="10"/>
       <c r="K22" s="36"/>
@@ -10545,14 +10552,14 @@
         <v>2</v>
       </c>
       <c r="B23" s="27"/>
-      <c r="C23" s="78">
+      <c r="C23" s="77">
         <v>0.96180555555555547</v>
       </c>
-      <c r="D23" s="70"/>
-      <c r="E23" s="70"/>
-      <c r="F23" s="70"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="70"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="69"/>
+      <c r="H23" s="69"/>
       <c r="I23" s="54"/>
       <c r="J23" s="10"/>
       <c r="K23" s="36"/>
@@ -10563,12 +10570,12 @@
         <v>1</v>
       </c>
       <c r="B24" s="56"/>
-      <c r="C24" s="76"/>
-      <c r="D24" s="76"/>
-      <c r="E24" s="76"/>
-      <c r="F24" s="76"/>
-      <c r="G24" s="76"/>
-      <c r="H24" s="76"/>
+      <c r="C24" s="74"/>
+      <c r="D24" s="74"/>
+      <c r="E24" s="74"/>
+      <c r="F24" s="74"/>
+      <c r="G24" s="74"/>
+      <c r="H24" s="74"/>
       <c r="I24" s="22"/>
       <c r="J24" s="10"/>
       <c r="K24" s="36"/>
@@ -10579,12 +10586,12 @@
         <v>2</v>
       </c>
       <c r="B25" s="27"/>
-      <c r="C25" s="70"/>
-      <c r="D25" s="70"/>
-      <c r="E25" s="70"/>
-      <c r="F25" s="70"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="70"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="69"/>
+      <c r="H25" s="69"/>
       <c r="I25" s="54"/>
       <c r="J25" s="20"/>
       <c r="K25" s="35"/>
@@ -10595,12 +10602,12 @@
         <v>1</v>
       </c>
       <c r="B26" s="56"/>
-      <c r="C26" s="76"/>
-      <c r="D26" s="76"/>
-      <c r="E26" s="76"/>
-      <c r="F26" s="76"/>
-      <c r="G26" s="76"/>
-      <c r="H26" s="76"/>
+      <c r="C26" s="74"/>
+      <c r="D26" s="74"/>
+      <c r="E26" s="74"/>
+      <c r="F26" s="74"/>
+      <c r="G26" s="74"/>
+      <c r="H26" s="74"/>
       <c r="I26" s="22"/>
       <c r="J26" s="10" t="s">
         <v>33</v>
@@ -10613,12 +10620,12 @@
         <v>2</v>
       </c>
       <c r="B27" s="27"/>
-      <c r="C27" s="70"/>
-      <c r="D27" s="70"/>
-      <c r="E27" s="70"/>
-      <c r="F27" s="70"/>
-      <c r="G27" s="70"/>
-      <c r="H27" s="70"/>
+      <c r="C27" s="69"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="69"/>
+      <c r="F27" s="69"/>
+      <c r="G27" s="69"/>
+      <c r="H27" s="69"/>
       <c r="I27" s="54"/>
       <c r="J27" s="10"/>
       <c r="K27" s="36"/>
@@ -10629,12 +10636,12 @@
         <v>1</v>
       </c>
       <c r="B28" s="56"/>
-      <c r="C28" s="76"/>
-      <c r="D28" s="76"/>
-      <c r="E28" s="76"/>
-      <c r="F28" s="76"/>
-      <c r="G28" s="76"/>
-      <c r="H28" s="76"/>
+      <c r="C28" s="74"/>
+      <c r="D28" s="74"/>
+      <c r="E28" s="74"/>
+      <c r="F28" s="74"/>
+      <c r="G28" s="74"/>
+      <c r="H28" s="74"/>
       <c r="I28" s="22"/>
       <c r="J28" s="10"/>
       <c r="K28" s="36"/>
@@ -10645,12 +10652,12 @@
         <v>2</v>
       </c>
       <c r="B29" s="27"/>
-      <c r="C29" s="70"/>
-      <c r="D29" s="70"/>
-      <c r="E29" s="70"/>
-      <c r="F29" s="70"/>
-      <c r="G29" s="70"/>
-      <c r="H29" s="70"/>
+      <c r="C29" s="69"/>
+      <c r="D29" s="69"/>
+      <c r="E29" s="69"/>
+      <c r="F29" s="69"/>
+      <c r="G29" s="69"/>
+      <c r="H29" s="69"/>
       <c r="I29" s="54"/>
       <c r="J29" s="10"/>
       <c r="K29" s="36"/>
@@ -10661,12 +10668,12 @@
         <v>1</v>
       </c>
       <c r="B30" s="56"/>
-      <c r="C30" s="76"/>
-      <c r="D30" s="76"/>
-      <c r="E30" s="76"/>
-      <c r="F30" s="76"/>
-      <c r="G30" s="76"/>
-      <c r="H30" s="76"/>
+      <c r="C30" s="74"/>
+      <c r="D30" s="74"/>
+      <c r="E30" s="74"/>
+      <c r="F30" s="74"/>
+      <c r="G30" s="74"/>
+      <c r="H30" s="74"/>
       <c r="I30" s="22"/>
       <c r="J30" s="10"/>
       <c r="K30" s="36"/>
@@ -10677,12 +10684,12 @@
         <v>2</v>
       </c>
       <c r="B31" s="28"/>
-      <c r="C31" s="72"/>
-      <c r="D31" s="72"/>
-      <c r="E31" s="72"/>
-      <c r="F31" s="72"/>
-      <c r="G31" s="72"/>
-      <c r="H31" s="72"/>
+      <c r="C31" s="71"/>
+      <c r="D31" s="71"/>
+      <c r="E31" s="71"/>
+      <c r="F31" s="71"/>
+      <c r="G31" s="71"/>
+      <c r="H31" s="71"/>
       <c r="I31" s="55"/>
       <c r="J31" s="10"/>
       <c r="K31" s="42"/>
@@ -10690,6 +10697,60 @@
     </row>
   </sheetData>
   <mergeCells count="63">
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="G31:H31"/>
@@ -10699,60 +10760,6 @@
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="G30:H30"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:H3">
     <cfRule type="expression" dxfId="50" priority="10" stopIfTrue="1">
@@ -11155,14 +11162,14 @@
       <c r="B12" s="21">
         <v>0.33333333333333331</v>
       </c>
-      <c r="C12" s="76"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="76">
+      <c r="C12" s="74"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="74">
         <v>0.33333333333333331</v>
       </c>
-      <c r="F12" s="76"/>
-      <c r="G12" s="76"/>
-      <c r="H12" s="76"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="74"/>
       <c r="I12" s="22">
         <v>0.33333333333333331</v>
       </c>
@@ -11177,14 +11184,14 @@
       <c r="B13" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70" t="s">
+      <c r="C13" s="69"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="69"/>
       <c r="I13" s="30" t="s">
         <v>5</v>
       </c>
@@ -11197,16 +11204,16 @@
         <v>1</v>
       </c>
       <c r="B14" s="21"/>
-      <c r="C14" s="76">
+      <c r="C14" s="74">
         <v>0.375</v>
       </c>
-      <c r="D14" s="76"/>
-      <c r="E14" s="76"/>
-      <c r="F14" s="76"/>
-      <c r="G14" s="76">
+      <c r="D14" s="74"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="74">
         <v>0.375</v>
       </c>
-      <c r="H14" s="76"/>
+      <c r="H14" s="74"/>
       <c r="I14" s="22"/>
       <c r="J14" s="10" t="s">
         <v>31</v>
@@ -11219,16 +11226,16 @@
         <v>2</v>
       </c>
       <c r="B15" s="27"/>
-      <c r="C15" s="70" t="s">
+      <c r="C15" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="70" t="s">
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="70"/>
+      <c r="H15" s="69"/>
       <c r="I15" s="30"/>
       <c r="J15" s="10"/>
       <c r="K15" s="36"/>
@@ -11241,14 +11248,14 @@
       <c r="B16" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="76"/>
-      <c r="D16" s="76"/>
-      <c r="E16" s="76" t="s">
+      <c r="C16" s="74"/>
+      <c r="D16" s="74"/>
+      <c r="E16" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="F16" s="76"/>
-      <c r="G16" s="76"/>
-      <c r="H16" s="76"/>
+      <c r="F16" s="74"/>
+      <c r="G16" s="74"/>
+      <c r="H16" s="74"/>
       <c r="I16" s="24" t="s">
         <v>6</v>
       </c>
@@ -11263,14 +11270,14 @@
       <c r="B17" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="70"/>
-      <c r="D17" s="70"/>
-      <c r="E17" s="70" t="s">
+      <c r="C17" s="69"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="F17" s="70"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="70"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="69"/>
+      <c r="H17" s="69"/>
       <c r="I17" s="30" t="s">
         <v>7</v>
       </c>
@@ -11283,12 +11290,12 @@
         <v>1</v>
       </c>
       <c r="B18" s="21"/>
-      <c r="C18" s="76"/>
-      <c r="D18" s="76"/>
-      <c r="E18" s="76"/>
-      <c r="F18" s="76"/>
-      <c r="G18" s="76"/>
-      <c r="H18" s="76"/>
+      <c r="C18" s="74"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="74"/>
+      <c r="G18" s="74"/>
+      <c r="H18" s="74"/>
       <c r="I18" s="22"/>
       <c r="J18" s="10"/>
       <c r="K18" s="36"/>
@@ -11299,12 +11306,12 @@
         <v>2</v>
       </c>
       <c r="B19" s="27"/>
-      <c r="C19" s="70"/>
-      <c r="D19" s="70"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="70"/>
-      <c r="H19" s="70"/>
+      <c r="C19" s="69"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="69"/>
+      <c r="H19" s="69"/>
       <c r="I19" s="47"/>
       <c r="J19" s="20"/>
       <c r="K19" s="35"/>
@@ -11315,12 +11322,12 @@
         <v>1</v>
       </c>
       <c r="B20" s="21"/>
-      <c r="C20" s="76"/>
-      <c r="D20" s="76"/>
-      <c r="E20" s="76"/>
-      <c r="F20" s="76"/>
-      <c r="G20" s="76"/>
-      <c r="H20" s="76"/>
+      <c r="C20" s="74"/>
+      <c r="D20" s="74"/>
+      <c r="E20" s="74"/>
+      <c r="F20" s="74"/>
+      <c r="G20" s="74"/>
+      <c r="H20" s="74"/>
       <c r="I20" s="22"/>
       <c r="J20" s="10" t="s">
         <v>32</v>
@@ -11333,12 +11340,12 @@
         <v>2</v>
       </c>
       <c r="B21" s="27"/>
-      <c r="C21" s="70"/>
-      <c r="D21" s="70"/>
-      <c r="E21" s="70"/>
-      <c r="F21" s="70"/>
-      <c r="G21" s="70"/>
-      <c r="H21" s="70"/>
+      <c r="C21" s="69"/>
+      <c r="D21" s="69"/>
+      <c r="E21" s="69"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="69"/>
+      <c r="H21" s="69"/>
       <c r="I21" s="30"/>
       <c r="J21" s="10"/>
       <c r="K21" s="36"/>
@@ -11349,12 +11356,12 @@
         <v>1</v>
       </c>
       <c r="B22" s="21"/>
-      <c r="C22" s="76"/>
-      <c r="D22" s="76"/>
-      <c r="E22" s="76"/>
-      <c r="F22" s="76"/>
-      <c r="G22" s="76"/>
-      <c r="H22" s="76"/>
+      <c r="C22" s="74"/>
+      <c r="D22" s="74"/>
+      <c r="E22" s="74"/>
+      <c r="F22" s="74"/>
+      <c r="G22" s="74"/>
+      <c r="H22" s="74"/>
       <c r="I22" s="22"/>
       <c r="J22" s="10"/>
       <c r="K22" s="36"/>
@@ -11365,12 +11372,12 @@
         <v>2</v>
       </c>
       <c r="B23" s="27"/>
-      <c r="C23" s="70"/>
-      <c r="D23" s="70"/>
-      <c r="E23" s="70"/>
-      <c r="F23" s="70"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="70"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="69"/>
+      <c r="H23" s="69"/>
       <c r="I23" s="30"/>
       <c r="J23" s="10"/>
       <c r="K23" s="36"/>
@@ -11383,14 +11390,14 @@
       <c r="B24" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="76"/>
-      <c r="D24" s="76"/>
-      <c r="E24" s="76" t="s">
+      <c r="C24" s="74"/>
+      <c r="D24" s="74"/>
+      <c r="E24" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="76"/>
-      <c r="G24" s="76"/>
-      <c r="H24" s="76"/>
+      <c r="F24" s="74"/>
+      <c r="G24" s="74"/>
+      <c r="H24" s="74"/>
       <c r="I24" s="22" t="s">
         <v>8</v>
       </c>
@@ -11405,14 +11412,14 @@
       <c r="B25" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="70"/>
-      <c r="D25" s="70"/>
-      <c r="E25" s="70" t="s">
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="F25" s="70"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="70"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="69"/>
+      <c r="H25" s="69"/>
       <c r="I25" s="30" t="s">
         <v>9</v>
       </c>
@@ -11425,12 +11432,12 @@
         <v>1</v>
       </c>
       <c r="B26" s="21"/>
-      <c r="C26" s="76"/>
-      <c r="D26" s="76"/>
-      <c r="E26" s="76"/>
-      <c r="F26" s="76"/>
-      <c r="G26" s="76"/>
-      <c r="H26" s="76"/>
+      <c r="C26" s="74"/>
+      <c r="D26" s="74"/>
+      <c r="E26" s="74"/>
+      <c r="F26" s="74"/>
+      <c r="G26" s="74"/>
+      <c r="H26" s="74"/>
       <c r="I26" s="22"/>
       <c r="J26" s="10" t="s">
         <v>33</v>
@@ -11443,12 +11450,12 @@
         <v>2</v>
       </c>
       <c r="B27" s="27"/>
-      <c r="C27" s="70"/>
-      <c r="D27" s="70"/>
-      <c r="E27" s="70"/>
-      <c r="F27" s="70"/>
-      <c r="G27" s="70"/>
-      <c r="H27" s="70"/>
+      <c r="C27" s="69"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="69"/>
+      <c r="F27" s="69"/>
+      <c r="G27" s="69"/>
+      <c r="H27" s="69"/>
       <c r="I27" s="30"/>
       <c r="J27" s="10"/>
       <c r="K27" s="36"/>
@@ -11459,16 +11466,16 @@
         <v>1</v>
       </c>
       <c r="B28" s="21"/>
-      <c r="C28" s="76" t="s">
+      <c r="C28" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="D28" s="76"/>
-      <c r="E28" s="76"/>
-      <c r="F28" s="76"/>
-      <c r="G28" s="76" t="s">
+      <c r="D28" s="74"/>
+      <c r="E28" s="74"/>
+      <c r="F28" s="74"/>
+      <c r="G28" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="H28" s="76"/>
+      <c r="H28" s="74"/>
       <c r="I28" s="22"/>
       <c r="J28" s="10"/>
       <c r="K28" s="36"/>
@@ -11479,16 +11486,16 @@
         <v>2</v>
       </c>
       <c r="B29" s="27"/>
-      <c r="C29" s="70" t="s">
+      <c r="C29" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="70"/>
-      <c r="E29" s="70"/>
-      <c r="F29" s="70"/>
-      <c r="G29" s="70" t="s">
+      <c r="D29" s="69"/>
+      <c r="E29" s="69"/>
+      <c r="F29" s="69"/>
+      <c r="G29" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="H29" s="70"/>
+      <c r="H29" s="69"/>
       <c r="I29" s="30"/>
       <c r="J29" s="10"/>
       <c r="K29" s="36"/>
@@ -11499,12 +11506,12 @@
         <v>1</v>
       </c>
       <c r="B30" s="21"/>
-      <c r="C30" s="76"/>
-      <c r="D30" s="76"/>
-      <c r="E30" s="76"/>
-      <c r="F30" s="76"/>
-      <c r="G30" s="76"/>
-      <c r="H30" s="76"/>
+      <c r="C30" s="74"/>
+      <c r="D30" s="74"/>
+      <c r="E30" s="74"/>
+      <c r="F30" s="74"/>
+      <c r="G30" s="74"/>
+      <c r="H30" s="74"/>
       <c r="I30" s="22"/>
       <c r="J30" s="10"/>
       <c r="K30" s="36"/>
@@ -11515,12 +11522,12 @@
         <v>2</v>
       </c>
       <c r="B31" s="28"/>
-      <c r="C31" s="72"/>
-      <c r="D31" s="72"/>
-      <c r="E31" s="72"/>
-      <c r="F31" s="72"/>
-      <c r="G31" s="72"/>
-      <c r="H31" s="72"/>
+      <c r="C31" s="71"/>
+      <c r="D31" s="71"/>
+      <c r="E31" s="71"/>
+      <c r="F31" s="71"/>
+      <c r="G31" s="71"/>
+      <c r="H31" s="71"/>
       <c r="I31" s="40"/>
       <c r="J31" s="10"/>
       <c r="K31" s="42"/>
@@ -11528,6 +11535,60 @@
     </row>
   </sheetData>
   <mergeCells count="63">
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="G31:H31"/>
@@ -11537,60 +11598,6 @@
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="G30:H30"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:H3">
     <cfRule type="expression" dxfId="41" priority="6" stopIfTrue="1">
@@ -11993,14 +12000,14 @@
       <c r="B12" s="21">
         <v>0.33333333333333331</v>
       </c>
-      <c r="C12" s="76"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="76">
+      <c r="C12" s="74"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="74">
         <v>0.33333333333333331</v>
       </c>
-      <c r="F12" s="76"/>
-      <c r="G12" s="76"/>
-      <c r="H12" s="76"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="74"/>
       <c r="I12" s="22">
         <v>0.33333333333333331</v>
       </c>
@@ -12015,14 +12022,14 @@
       <c r="B13" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70" t="s">
+      <c r="C13" s="69"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="69"/>
       <c r="I13" s="30" t="s">
         <v>5</v>
       </c>
@@ -12035,16 +12042,16 @@
         <v>1</v>
       </c>
       <c r="B14" s="21"/>
-      <c r="C14" s="76">
+      <c r="C14" s="74">
         <v>0.375</v>
       </c>
-      <c r="D14" s="76"/>
-      <c r="E14" s="76"/>
-      <c r="F14" s="76"/>
-      <c r="G14" s="76">
+      <c r="D14" s="74"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="74">
         <v>0.375</v>
       </c>
-      <c r="H14" s="76"/>
+      <c r="H14" s="74"/>
       <c r="I14" s="22"/>
       <c r="J14" s="10" t="s">
         <v>31</v>
@@ -12057,16 +12064,16 @@
         <v>2</v>
       </c>
       <c r="B15" s="27"/>
-      <c r="C15" s="70" t="s">
+      <c r="C15" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="70" t="s">
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="70"/>
+      <c r="H15" s="69"/>
       <c r="I15" s="30"/>
       <c r="J15" s="10"/>
       <c r="K15" s="36"/>
@@ -12079,14 +12086,14 @@
       <c r="B16" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="76"/>
-      <c r="D16" s="76"/>
-      <c r="E16" s="76" t="s">
+      <c r="C16" s="74"/>
+      <c r="D16" s="74"/>
+      <c r="E16" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="F16" s="76"/>
-      <c r="G16" s="76"/>
-      <c r="H16" s="76"/>
+      <c r="F16" s="74"/>
+      <c r="G16" s="74"/>
+      <c r="H16" s="74"/>
       <c r="I16" s="24" t="s">
         <v>6</v>
       </c>
@@ -12101,14 +12108,14 @@
       <c r="B17" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="70"/>
-      <c r="D17" s="70"/>
-      <c r="E17" s="70" t="s">
+      <c r="C17" s="69"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="F17" s="70"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="70"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="69"/>
+      <c r="H17" s="69"/>
       <c r="I17" s="30" t="s">
         <v>7</v>
       </c>
@@ -12121,12 +12128,12 @@
         <v>1</v>
       </c>
       <c r="B18" s="21"/>
-      <c r="C18" s="76"/>
-      <c r="D18" s="76"/>
-      <c r="E18" s="76"/>
-      <c r="F18" s="76"/>
-      <c r="G18" s="76"/>
-      <c r="H18" s="76"/>
+      <c r="C18" s="74"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="74"/>
+      <c r="G18" s="74"/>
+      <c r="H18" s="74"/>
       <c r="I18" s="22"/>
       <c r="J18" s="10"/>
       <c r="K18" s="36"/>
@@ -12137,12 +12144,12 @@
         <v>2</v>
       </c>
       <c r="B19" s="27"/>
-      <c r="C19" s="70"/>
-      <c r="D19" s="70"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="70"/>
-      <c r="H19" s="70"/>
+      <c r="C19" s="69"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="69"/>
+      <c r="H19" s="69"/>
       <c r="I19" s="47"/>
       <c r="J19" s="20"/>
       <c r="K19" s="35"/>
@@ -12153,12 +12160,12 @@
         <v>1</v>
       </c>
       <c r="B20" s="21"/>
-      <c r="C20" s="76"/>
-      <c r="D20" s="76"/>
-      <c r="E20" s="76"/>
-      <c r="F20" s="76"/>
-      <c r="G20" s="76"/>
-      <c r="H20" s="76"/>
+      <c r="C20" s="74"/>
+      <c r="D20" s="74"/>
+      <c r="E20" s="74"/>
+      <c r="F20" s="74"/>
+      <c r="G20" s="74"/>
+      <c r="H20" s="74"/>
       <c r="I20" s="22"/>
       <c r="J20" s="10" t="s">
         <v>32</v>
@@ -12171,12 +12178,12 @@
         <v>2</v>
       </c>
       <c r="B21" s="27"/>
-      <c r="C21" s="70"/>
-      <c r="D21" s="70"/>
-      <c r="E21" s="70"/>
-      <c r="F21" s="70"/>
-      <c r="G21" s="70"/>
-      <c r="H21" s="70"/>
+      <c r="C21" s="69"/>
+      <c r="D21" s="69"/>
+      <c r="E21" s="69"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="69"/>
+      <c r="H21" s="69"/>
       <c r="I21" s="30"/>
       <c r="J21" s="10"/>
       <c r="K21" s="36"/>
@@ -12187,12 +12194,12 @@
         <v>1</v>
       </c>
       <c r="B22" s="21"/>
-      <c r="C22" s="76"/>
-      <c r="D22" s="76"/>
-      <c r="E22" s="76"/>
-      <c r="F22" s="76"/>
-      <c r="G22" s="76"/>
-      <c r="H22" s="76"/>
+      <c r="C22" s="74"/>
+      <c r="D22" s="74"/>
+      <c r="E22" s="74"/>
+      <c r="F22" s="74"/>
+      <c r="G22" s="74"/>
+      <c r="H22" s="74"/>
       <c r="I22" s="22"/>
       <c r="J22" s="10"/>
       <c r="K22" s="36"/>
@@ -12203,12 +12210,12 @@
         <v>2</v>
       </c>
       <c r="B23" s="27"/>
-      <c r="C23" s="70"/>
-      <c r="D23" s="70"/>
-      <c r="E23" s="70"/>
-      <c r="F23" s="70"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="70"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="69"/>
+      <c r="H23" s="69"/>
       <c r="I23" s="30"/>
       <c r="J23" s="10"/>
       <c r="K23" s="36"/>
@@ -12221,14 +12228,14 @@
       <c r="B24" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="76"/>
-      <c r="D24" s="76"/>
-      <c r="E24" s="76" t="s">
+      <c r="C24" s="74"/>
+      <c r="D24" s="74"/>
+      <c r="E24" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="76"/>
-      <c r="G24" s="76"/>
-      <c r="H24" s="76"/>
+      <c r="F24" s="74"/>
+      <c r="G24" s="74"/>
+      <c r="H24" s="74"/>
       <c r="I24" s="22" t="s">
         <v>8</v>
       </c>
@@ -12243,14 +12250,14 @@
       <c r="B25" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="70"/>
-      <c r="D25" s="70"/>
-      <c r="E25" s="70" t="s">
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="F25" s="70"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="70"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="69"/>
+      <c r="H25" s="69"/>
       <c r="I25" s="30" t="s">
         <v>9</v>
       </c>
@@ -12263,12 +12270,12 @@
         <v>1</v>
       </c>
       <c r="B26" s="21"/>
-      <c r="C26" s="76"/>
-      <c r="D26" s="76"/>
-      <c r="E26" s="76"/>
-      <c r="F26" s="76"/>
-      <c r="G26" s="76"/>
-      <c r="H26" s="76"/>
+      <c r="C26" s="74"/>
+      <c r="D26" s="74"/>
+      <c r="E26" s="74"/>
+      <c r="F26" s="74"/>
+      <c r="G26" s="74"/>
+      <c r="H26" s="74"/>
       <c r="I26" s="22"/>
       <c r="J26" s="10" t="s">
         <v>33</v>
@@ -12281,12 +12288,12 @@
         <v>2</v>
       </c>
       <c r="B27" s="27"/>
-      <c r="C27" s="70"/>
-      <c r="D27" s="70"/>
-      <c r="E27" s="70"/>
-      <c r="F27" s="70"/>
-      <c r="G27" s="70"/>
-      <c r="H27" s="70"/>
+      <c r="C27" s="69"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="69"/>
+      <c r="F27" s="69"/>
+      <c r="G27" s="69"/>
+      <c r="H27" s="69"/>
       <c r="I27" s="30"/>
       <c r="J27" s="10"/>
       <c r="K27" s="36"/>
@@ -12297,16 +12304,16 @@
         <v>1</v>
       </c>
       <c r="B28" s="21"/>
-      <c r="C28" s="76" t="s">
+      <c r="C28" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="D28" s="76"/>
-      <c r="E28" s="76"/>
-      <c r="F28" s="76"/>
-      <c r="G28" s="76" t="s">
+      <c r="D28" s="74"/>
+      <c r="E28" s="74"/>
+      <c r="F28" s="74"/>
+      <c r="G28" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="H28" s="76"/>
+      <c r="H28" s="74"/>
       <c r="I28" s="22"/>
       <c r="J28" s="10"/>
       <c r="K28" s="36"/>
@@ -12317,16 +12324,16 @@
         <v>2</v>
       </c>
       <c r="B29" s="27"/>
-      <c r="C29" s="70" t="s">
+      <c r="C29" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="70"/>
-      <c r="E29" s="70"/>
-      <c r="F29" s="70"/>
-      <c r="G29" s="70" t="s">
+      <c r="D29" s="69"/>
+      <c r="E29" s="69"/>
+      <c r="F29" s="69"/>
+      <c r="G29" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="H29" s="70"/>
+      <c r="H29" s="69"/>
       <c r="I29" s="30"/>
       <c r="J29" s="10"/>
       <c r="K29" s="36"/>
@@ -12337,12 +12344,12 @@
         <v>1</v>
       </c>
       <c r="B30" s="21"/>
-      <c r="C30" s="76"/>
-      <c r="D30" s="76"/>
-      <c r="E30" s="76"/>
-      <c r="F30" s="76"/>
-      <c r="G30" s="76"/>
-      <c r="H30" s="76"/>
+      <c r="C30" s="74"/>
+      <c r="D30" s="74"/>
+      <c r="E30" s="74"/>
+      <c r="F30" s="74"/>
+      <c r="G30" s="74"/>
+      <c r="H30" s="74"/>
       <c r="I30" s="22"/>
       <c r="J30" s="10"/>
       <c r="K30" s="36"/>
@@ -12353,12 +12360,12 @@
         <v>2</v>
       </c>
       <c r="B31" s="28"/>
-      <c r="C31" s="72"/>
-      <c r="D31" s="72"/>
-      <c r="E31" s="72"/>
-      <c r="F31" s="72"/>
-      <c r="G31" s="72"/>
-      <c r="H31" s="72"/>
+      <c r="C31" s="71"/>
+      <c r="D31" s="71"/>
+      <c r="E31" s="71"/>
+      <c r="F31" s="71"/>
+      <c r="G31" s="71"/>
+      <c r="H31" s="71"/>
       <c r="I31" s="40"/>
       <c r="J31" s="10"/>
       <c r="K31" s="42"/>
@@ -12366,6 +12373,60 @@
     </row>
   </sheetData>
   <mergeCells count="63">
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="G31:H31"/>
@@ -12375,60 +12436,6 @@
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="G30:H30"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:H3">
     <cfRule type="expression" dxfId="33" priority="6" stopIfTrue="1">

--- a/Produccion Propia/Cronogramas/Cronograma_Actividades_Grupales.xlsx
+++ b/Produccion Propia/Cronogramas/Cronograma_Actividades_Grupales.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19226"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Facu\4º año\Ingenieria de Software (ISW)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F00750A4-7262-4808-BF70-A7DB10E95688}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14E70981-384B-42F0-848C-6EF3F93F77E8}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9510" tabRatio="741" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -111,7 +111,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="70">
   <si>
     <t>Día de la semana</t>
   </si>
@@ -310,6 +310,18 @@
   </si>
   <si>
     <t>1er Teorico Grupal - Pecha Kucha; Nota: 7 temas al parcial Teoricos Papers: No hay Balas de Plata y  Snowden HBR Cynefin A Leader’s Framework for Decision Making Color</t>
+  </si>
+  <si>
+    <t>Clase Teorica de Proceso de SW</t>
+  </si>
+  <si>
+    <t>Clase Teorica de  Consultas antes del parcial</t>
+  </si>
+  <si>
+    <t>Clase Practica de Reviciones tecnicas, comienzo del TP7 Entregable</t>
+  </si>
+  <si>
+    <t>Entregar TP7 de Reviciones Tecnicas</t>
   </si>
 </sst>
 </file>
@@ -7517,7 +7529,7 @@
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="84" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28:H28"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8355,7 +8367,7 @@
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="84" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8490,8 +8502,12 @@
         <v>43233</v>
       </c>
       <c r="J4" s="10"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="49"/>
+      <c r="K4" s="36">
+        <v>14</v>
+      </c>
+      <c r="L4" s="49" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="5" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
@@ -8646,8 +8662,12 @@
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="10"/>
-      <c r="K9" s="36"/>
-      <c r="L9" s="49"/>
+      <c r="K9" s="36">
+        <v>8</v>
+      </c>
+      <c r="L9" s="49" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="10" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13"/>
@@ -8962,8 +8982,12 @@
       <c r="J26" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="K26" s="37"/>
-      <c r="L26" s="49"/>
+      <c r="K26" s="37">
+        <v>4</v>
+      </c>
+      <c r="L26" s="49" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="27" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="26" t="s">
@@ -8978,8 +9002,12 @@
       <c r="H27" s="69"/>
       <c r="I27" s="54"/>
       <c r="J27" s="10"/>
-      <c r="K27" s="36"/>
-      <c r="L27" s="49"/>
+      <c r="K27" s="36">
+        <v>11</v>
+      </c>
+      <c r="L27" s="49" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="28" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="26" t="s">

--- a/Produccion Propia/Cronogramas/Cronograma_Actividades_Grupales.xlsx
+++ b/Produccion Propia/Cronogramas/Cronograma_Actividades_Grupales.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Facu\4º año\Ingenieria de Software (ISW)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14E70981-384B-42F0-848C-6EF3F93F77E8}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D86F701-4508-4B4D-9948-ECDED0990415}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9510" tabRatio="741" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9510" tabRatio="741" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ene" sheetId="1" state="hidden" r:id="rId1"/>
@@ -111,7 +111,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="74">
   <si>
     <t>Día de la semana</t>
   </si>
@@ -255,9 +255,6 @@
     <t>Feriado - Dia del veterano y caido de Malvinas</t>
   </si>
   <si>
-    <t xml:space="preserve">1º Parcial Teorico-Practico (No va SCM)  </t>
-  </si>
-  <si>
     <t>Feriado - Dia del Trabajador</t>
   </si>
   <si>
@@ -271,9 +268,6 @@
   </si>
   <si>
     <t xml:space="preserve">2º Parcial Teorico-Practico  </t>
-  </si>
-  <si>
-    <t>Recuperatorio de Parcial</t>
   </si>
   <si>
     <t>Fin del 1º Cuatrimertre - Fin Cursado Ing. De Software</t>
@@ -322,6 +316,24 @@
   </si>
   <si>
     <t>Entregar TP7 de Reviciones Tecnicas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1º Parcial Teorico-Practico (No va SCM practico)  </t>
+  </si>
+  <si>
+    <t>Clase Teorica de Metodologias Agiles</t>
+  </si>
+  <si>
+    <t>Clase de repaso de US  y Estimaciones. TP9 realizado en clases. Muestra de parciales Parte Practica.</t>
+  </si>
+  <si>
+    <t>Clase Teorica-practica de US. Realizacion de TP8 en clases.</t>
+  </si>
+  <si>
+    <t>Realizacion de TP10 en clases. Llevar materiales</t>
+  </si>
+  <si>
+    <t>Recuperatorio de Parcial Teorico/Practico</t>
   </si>
 </sst>
 </file>
@@ -867,10 +879,13 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="12" applyBorder="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="20" fontId="13" fillId="2" borderId="10" xfId="21" applyNumberFormat="1" applyBorder="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="19" applyFont="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="20" fontId="13" fillId="2" borderId="10" xfId="21" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="20" fontId="13" fillId="2" borderId="3" xfId="21" applyNumberFormat="1" applyBorder="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="19" applyFont="1" applyBorder="1">
@@ -879,22 +894,19 @@
     <xf numFmtId="20" fontId="13" fillId="2" borderId="0" xfId="21" applyNumberFormat="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="20" fontId="13" fillId="2" borderId="3" xfId="21" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="19" applyBorder="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="13" fillId="2" borderId="0" xfId="21">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="20" fontId="13" fillId="2" borderId="10" xfId="21" applyBorder="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="20" fontId="13" fillId="2" borderId="0" xfId="21">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="19" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="19" applyFont="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
     <xf numFmtId="20" fontId="1" fillId="2" borderId="0" xfId="19" applyNumberFormat="1" applyFont="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="19" applyFont="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
   </cellXfs>
@@ -923,9 +935,6 @@
     <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="106">
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <border>
         <left style="thin">
@@ -993,9 +1002,6 @@
       </font>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <border>
         <left style="thin">
           <color theme="0"/>
@@ -1060,9 +1066,6 @@
       <font>
         <color theme="0" tint="-0.24994659260841701"/>
       </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border>
@@ -1152,9 +1155,6 @@
       </font>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <border>
         <left style="thin">
           <color theme="0"/>
@@ -1221,9 +1221,6 @@
       </font>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <border>
         <left style="thin">
           <color theme="0"/>
@@ -1287,21 +1284,6 @@
     <dxf>
       <font>
         <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
       </font>
     </dxf>
     <dxf>
@@ -1371,18 +1353,69 @@
       </font>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border>
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
         <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
       </font>
     </dxf>
     <dxf>
@@ -1452,18 +1485,69 @@
       </font>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border>
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
         <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
       </font>
     </dxf>
     <dxf>
@@ -1533,21 +1617,6 @@
       </font>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
       <border>
         <left style="thin">
           <color theme="0"/>
@@ -1612,159 +1681,6 @@
       <font>
         <color theme="0" tint="-0.24994659260841701"/>
       </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border>
@@ -1839,6 +1755,102 @@
       <font>
         <color theme="0" tint="-0.24994659260841701"/>
       </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1924,7 +1936,7 @@
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Día de la semana" dataCellStyle="Encabezado 4"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="día de calendario" dataCellStyle="Fecha"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="TAREAS" dataDxfId="95"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="TAREAS" dataDxfId="102"/>
   </tableColumns>
   <tableStyleInfo name="Tareas" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1945,7 +1957,7 @@
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="Día de la semana" dataCellStyle="Encabezado 4"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="día de calendario" dataCellStyle="Fecha"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="TAREAS" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="TAREAS" dataDxfId="88"/>
   </tableColumns>
   <tableStyleInfo name="Tareas" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1966,7 +1978,7 @@
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0A00-000001000000}" name="Día de la semana" dataCellStyle="Encabezado 4"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0A00-000002000000}" name="día de calendario" dataCellStyle="Fecha"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0A00-000003000000}" name="TAREAS" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0A00-000003000000}" name="TAREAS" dataDxfId="87"/>
   </tableColumns>
   <tableStyleInfo name="Tareas" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1987,7 +1999,7 @@
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0B00-000001000000}" name="Día de la semana" dataCellStyle="Encabezado 4"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0B00-000002000000}" name="día de calendario" dataCellStyle="Fecha"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0B00-000003000000}" name="TAREAS" dataDxfId="0" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0B00-000003000000}" name="TAREAS" dataDxfId="86" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="Tareas" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2008,7 +2020,7 @@
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Día de la semana" dataCellStyle="Encabezado 4"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="día de calendario" dataCellStyle="Fecha"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="TAREAS" dataDxfId="87" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="TAREAS" dataDxfId="101" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="Tareas" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2020,7 +2032,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="MarzoTareas" displayName="MarzoTareas" ref="J1:L31" totalsRowShown="0" headerRowDxfId="79">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="MarzoTareas" displayName="MarzoTareas" ref="J1:L31" totalsRowShown="0" headerRowDxfId="100">
   <autoFilter ref="J1:L31" xr:uid="{00000000-0009-0000-0100-000003000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -2029,7 +2041,7 @@
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Día de la semana" dataCellStyle="Encabezado 4"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="día de calendario" dataCellStyle="Fecha"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="TAREAS - Comentarios" dataDxfId="78"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="TAREAS - Comentarios" dataDxfId="99"/>
   </tableColumns>
   <tableStyleInfo name="Tareas" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2041,7 +2053,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="AbrilTareas" displayName="AbrilTareas" ref="J1:L31" totalsRowShown="0" headerRowDxfId="70">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="AbrilTareas" displayName="AbrilTareas" ref="J1:L31" totalsRowShown="0" headerRowDxfId="98">
   <autoFilter ref="J1:L31" xr:uid="{00000000-0009-0000-0100-000004000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -2050,7 +2062,7 @@
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Día de la semana" dataCellStyle="Encabezado 4"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="día de calendario" dataCellStyle="Fecha"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="TAREAS - Comentarios" dataDxfId="69"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="TAREAS - Comentarios" dataDxfId="97"/>
   </tableColumns>
   <tableStyleInfo name="Tareas" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2062,7 +2074,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="MayoTareas" displayName="MayoTareas" ref="J1:L31" totalsRowShown="0" headerRowDxfId="61">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="MayoTareas" displayName="MayoTareas" ref="J1:L31" totalsRowShown="0" headerRowDxfId="96">
   <autoFilter ref="J1:L31" xr:uid="{00000000-0009-0000-0100-000005000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -2071,7 +2083,7 @@
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Día de la semana" dataCellStyle="Encabezado 4"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="día de calendario" dataCellStyle="Fecha"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="TAREAS - Comentarios" dataDxfId="60"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="TAREAS - Comentarios" dataDxfId="95"/>
   </tableColumns>
   <tableStyleInfo name="Tareas" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2083,7 +2095,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="JunioTareas" displayName="JunioTareas" ref="J1:L31" totalsRowShown="0" headerRowDxfId="52">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="JunioTareas" displayName="JunioTareas" ref="J1:L31" totalsRowShown="0" headerRowDxfId="94">
   <autoFilter ref="J1:L31" xr:uid="{00000000-0009-0000-0100-000006000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -2092,7 +2104,7 @@
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Día de la semana" dataCellStyle="Encabezado 4"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="día de calendario" dataCellStyle="Fecha"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="TAREAS - Comentarios" dataDxfId="51"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="TAREAS - Comentarios" dataDxfId="93"/>
   </tableColumns>
   <tableStyleInfo name="Tareas" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2104,7 +2116,7 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="JulioTareas" displayName="JulioTareas" ref="J1:L31" totalsRowShown="0" headerRowDxfId="43">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="JulioTareas" displayName="JulioTareas" ref="J1:L31" totalsRowShown="0" headerRowDxfId="92">
   <autoFilter ref="J1:L31" xr:uid="{00000000-0009-0000-0100-000007000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -2113,7 +2125,7 @@
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="Día de la semana" dataCellStyle="Encabezado 4"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="día de calendario" dataCellStyle="Fecha"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="TAREAS - Comentarios" dataDxfId="42"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="TAREAS - Comentarios" dataDxfId="91"/>
   </tableColumns>
   <tableStyleInfo name="Tareas" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2134,7 +2146,7 @@
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="Día de la semana" dataCellStyle="Encabezado 4"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="día de calendario" dataCellStyle="Fecha"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="TAREAS" dataDxfId="34"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="TAREAS" dataDxfId="90"/>
   </tableColumns>
   <tableStyleInfo name="Tareas" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2155,7 +2167,7 @@
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="Día de la semana" dataCellStyle="Encabezado 4"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="día de calendario" dataCellStyle="Fecha"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="TAREAS" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="TAREAS" dataDxfId="89"/>
   </tableColumns>
   <tableStyleInfo name="Tareas" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2815,14 +2827,14 @@
       <c r="B12" s="41">
         <v>0.33333333333333331</v>
       </c>
-      <c r="C12" s="70"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="70">
+      <c r="C12" s="69"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="69">
         <v>0.33333333333333331</v>
       </c>
-      <c r="F12" s="70"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="70"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="69"/>
+      <c r="H12" s="69"/>
       <c r="I12" s="44">
         <v>0.33333333333333331</v>
       </c>
@@ -2837,14 +2849,14 @@
       <c r="B13" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="69"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="69" t="s">
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="F13" s="69"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="69"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
       <c r="I13" s="43" t="s">
         <v>5</v>
       </c>
@@ -2857,16 +2869,16 @@
         <v>1</v>
       </c>
       <c r="B14" s="34"/>
-      <c r="C14" s="70">
+      <c r="C14" s="69">
         <v>0.375</v>
       </c>
-      <c r="D14" s="70"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="70">
+      <c r="D14" s="69"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="69">
         <v>0.375</v>
       </c>
-      <c r="H14" s="73"/>
+      <c r="H14" s="71"/>
       <c r="I14" s="44"/>
       <c r="J14" s="10" t="s">
         <v>31</v>
@@ -2879,16 +2891,16 @@
         <v>2</v>
       </c>
       <c r="B15" s="27"/>
-      <c r="C15" s="69" t="s">
+      <c r="C15" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="69"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="69" t="s">
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="69"/>
+      <c r="H15" s="70"/>
       <c r="I15" s="43"/>
       <c r="J15" s="10"/>
       <c r="K15" s="36"/>
@@ -2901,14 +2913,14 @@
       <c r="B16" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="70"/>
-      <c r="D16" s="70"/>
-      <c r="E16" s="70" t="s">
+      <c r="C16" s="69"/>
+      <c r="D16" s="69"/>
+      <c r="E16" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="F16" s="70"/>
-      <c r="G16" s="70"/>
-      <c r="H16" s="73"/>
+      <c r="F16" s="69"/>
+      <c r="G16" s="69"/>
+      <c r="H16" s="71"/>
       <c r="I16" s="44" t="s">
         <v>6</v>
       </c>
@@ -2923,14 +2935,14 @@
       <c r="B17" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="69"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="69" t="s">
+      <c r="C17" s="70"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="F17" s="69"/>
-      <c r="G17" s="69"/>
-      <c r="H17" s="69"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="70"/>
       <c r="I17" s="43" t="s">
         <v>7</v>
       </c>
@@ -2943,12 +2955,12 @@
         <v>1</v>
       </c>
       <c r="B18" s="34"/>
-      <c r="C18" s="70"/>
-      <c r="D18" s="70"/>
-      <c r="E18" s="70"/>
-      <c r="F18" s="70"/>
-      <c r="G18" s="70"/>
-      <c r="H18" s="73"/>
+      <c r="C18" s="69"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="69"/>
+      <c r="H18" s="71"/>
       <c r="I18" s="44"/>
       <c r="J18" s="10"/>
       <c r="K18" s="36"/>
@@ -2959,12 +2971,12 @@
         <v>2</v>
       </c>
       <c r="B19" s="27"/>
-      <c r="C19" s="69"/>
-      <c r="D19" s="69"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="69"/>
-      <c r="H19" s="69"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="70"/>
       <c r="I19" s="46"/>
       <c r="J19" s="20"/>
       <c r="K19" s="35"/>
@@ -2975,12 +2987,12 @@
         <v>1</v>
       </c>
       <c r="B20" s="34"/>
-      <c r="C20" s="70"/>
-      <c r="D20" s="70"/>
-      <c r="E20" s="70"/>
-      <c r="F20" s="70"/>
-      <c r="G20" s="70"/>
-      <c r="H20" s="73"/>
+      <c r="C20" s="69"/>
+      <c r="D20" s="69"/>
+      <c r="E20" s="69"/>
+      <c r="F20" s="69"/>
+      <c r="G20" s="69"/>
+      <c r="H20" s="71"/>
       <c r="I20" s="44"/>
       <c r="J20" s="10" t="s">
         <v>32</v>
@@ -2993,12 +3005,12 @@
         <v>2</v>
       </c>
       <c r="B21" s="27"/>
-      <c r="C21" s="69"/>
-      <c r="D21" s="69"/>
-      <c r="E21" s="69"/>
-      <c r="F21" s="69"/>
-      <c r="G21" s="69"/>
-      <c r="H21" s="69"/>
+      <c r="C21" s="70"/>
+      <c r="D21" s="70"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="70"/>
+      <c r="G21" s="70"/>
+      <c r="H21" s="70"/>
       <c r="I21" s="43"/>
       <c r="J21" s="10"/>
       <c r="K21" s="36"/>
@@ -3009,12 +3021,12 @@
         <v>1</v>
       </c>
       <c r="B22" s="34"/>
-      <c r="C22" s="70"/>
-      <c r="D22" s="70"/>
-      <c r="E22" s="70"/>
-      <c r="F22" s="70"/>
-      <c r="G22" s="70"/>
-      <c r="H22" s="73"/>
+      <c r="C22" s="69"/>
+      <c r="D22" s="69"/>
+      <c r="E22" s="69"/>
+      <c r="F22" s="69"/>
+      <c r="G22" s="69"/>
+      <c r="H22" s="71"/>
       <c r="I22" s="44"/>
       <c r="J22" s="10"/>
       <c r="K22" s="36"/>
@@ -3025,12 +3037,12 @@
         <v>2</v>
       </c>
       <c r="B23" s="27"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="69"/>
-      <c r="H23" s="69"/>
+      <c r="C23" s="70"/>
+      <c r="D23" s="70"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="70"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="70"/>
       <c r="I23" s="43"/>
       <c r="J23" s="10"/>
       <c r="K23" s="36"/>
@@ -3043,14 +3055,14 @@
       <c r="B24" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="70"/>
-      <c r="D24" s="70"/>
-      <c r="E24" s="70" t="s">
+      <c r="C24" s="69"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="70"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="73"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="69"/>
+      <c r="H24" s="71"/>
       <c r="I24" s="44" t="s">
         <v>8</v>
       </c>
@@ -3065,14 +3077,14 @@
       <c r="B25" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="69"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69" t="s">
+      <c r="C25" s="70"/>
+      <c r="D25" s="70"/>
+      <c r="E25" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="F25" s="69"/>
-      <c r="G25" s="69"/>
-      <c r="H25" s="69"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="70"/>
       <c r="I25" s="43" t="s">
         <v>9</v>
       </c>
@@ -3085,12 +3097,12 @@
         <v>1</v>
       </c>
       <c r="B26" s="34"/>
-      <c r="C26" s="70"/>
-      <c r="D26" s="70"/>
-      <c r="E26" s="70"/>
-      <c r="F26" s="70"/>
-      <c r="G26" s="70"/>
-      <c r="H26" s="73"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="69"/>
+      <c r="G26" s="69"/>
+      <c r="H26" s="71"/>
       <c r="I26" s="44"/>
       <c r="J26" s="10" t="s">
         <v>33</v>
@@ -3103,12 +3115,12 @@
         <v>2</v>
       </c>
       <c r="B27" s="27"/>
-      <c r="C27" s="69"/>
-      <c r="D27" s="69"/>
-      <c r="E27" s="69"/>
-      <c r="F27" s="69"/>
-      <c r="G27" s="69"/>
-      <c r="H27" s="69"/>
+      <c r="C27" s="70"/>
+      <c r="D27" s="70"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="70"/>
       <c r="I27" s="43"/>
       <c r="J27" s="10"/>
       <c r="K27" s="36"/>
@@ -3119,16 +3131,16 @@
         <v>1</v>
       </c>
       <c r="B28" s="34"/>
-      <c r="C28" s="70" t="s">
+      <c r="C28" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="D28" s="70"/>
-      <c r="E28" s="70"/>
-      <c r="F28" s="70"/>
-      <c r="G28" s="70" t="s">
+      <c r="D28" s="69"/>
+      <c r="E28" s="69"/>
+      <c r="F28" s="69"/>
+      <c r="G28" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="H28" s="73"/>
+      <c r="H28" s="71"/>
       <c r="I28" s="44"/>
       <c r="J28" s="10"/>
       <c r="K28" s="36"/>
@@ -3139,16 +3151,16 @@
         <v>2</v>
       </c>
       <c r="B29" s="27"/>
-      <c r="C29" s="69" t="s">
+      <c r="C29" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="69"/>
-      <c r="E29" s="69"/>
-      <c r="F29" s="69"/>
-      <c r="G29" s="69" t="s">
+      <c r="D29" s="70"/>
+      <c r="E29" s="70"/>
+      <c r="F29" s="70"/>
+      <c r="G29" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="H29" s="69"/>
+      <c r="H29" s="70"/>
       <c r="I29" s="43"/>
       <c r="J29" s="10"/>
       <c r="K29" s="36"/>
@@ -3159,12 +3171,12 @@
         <v>1</v>
       </c>
       <c r="B30" s="34"/>
-      <c r="C30" s="72"/>
-      <c r="D30" s="72"/>
-      <c r="E30" s="72"/>
-      <c r="F30" s="72"/>
-      <c r="G30" s="72"/>
-      <c r="H30" s="72"/>
+      <c r="C30" s="73"/>
+      <c r="D30" s="73"/>
+      <c r="E30" s="73"/>
+      <c r="F30" s="73"/>
+      <c r="G30" s="73"/>
+      <c r="H30" s="73"/>
       <c r="I30" s="44"/>
       <c r="J30" s="10"/>
       <c r="K30" s="36"/>
@@ -3175,12 +3187,12 @@
         <v>2</v>
       </c>
       <c r="B31" s="28"/>
-      <c r="C31" s="71"/>
-      <c r="D31" s="71"/>
-      <c r="E31" s="71"/>
-      <c r="F31" s="71"/>
-      <c r="G31" s="71"/>
-      <c r="H31" s="71"/>
+      <c r="C31" s="72"/>
+      <c r="D31" s="72"/>
+      <c r="E31" s="72"/>
+      <c r="F31" s="72"/>
+      <c r="G31" s="72"/>
+      <c r="H31" s="72"/>
       <c r="I31" s="29"/>
       <c r="J31" s="15"/>
       <c r="K31" s="42"/>
@@ -3189,32 +3201,27 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="63">
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C20:D20"/>
@@ -3231,61 +3238,66 @@
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="E20:F20"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C3:H3">
-    <cfRule type="expression" dxfId="102" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="85" priority="9" stopIfTrue="1">
       <formula>DAY(C3)&gt;8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:I8">
-    <cfRule type="expression" dxfId="101" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="84" priority="8" stopIfTrue="1">
       <formula>AND(DAY(C7)&gt;=1,DAY(C7)&lt;=15)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:I8">
-    <cfRule type="expression" dxfId="100" priority="20">
+    <cfRule type="expression" dxfId="83" priority="20">
       <formula>VLOOKUP(DAY(C3),AssignmentDays,1,FALSE)=DAY(C3)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:I12 B14:I14 B16:I16 B18:I18 B20:I20 B22:I22 B24:I24 B26:I26 B28:I28 B30:I30">
-    <cfRule type="expression" dxfId="99" priority="6">
+    <cfRule type="expression" dxfId="82" priority="6">
       <formula>B12&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:I13 B15:I15 B17:I17 B19:I19 B21:I21 B23:I23 B25:I25 B27:I27 B29:I29 B31:I31">
-    <cfRule type="expression" dxfId="98" priority="4">
+    <cfRule type="expression" dxfId="81" priority="4">
       <formula>B13&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:I13 B15:I15 B17:I17 B19:I19 B21:I21 B23:I23 B25:I25 B27:I27 B29:I29">
-    <cfRule type="expression" dxfId="97" priority="3">
+    <cfRule type="expression" dxfId="80" priority="3">
       <formula>COLUMN(B12)&gt;=2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:I31">
-    <cfRule type="expression" dxfId="96" priority="1">
+    <cfRule type="expression" dxfId="79" priority="1">
       <formula>COLUMN(B11)&gt;2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3682,14 +3694,14 @@
       <c r="B13" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="69"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="69" t="s">
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="F13" s="69"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="69"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
       <c r="I13" s="30" t="s">
         <v>5</v>
       </c>
@@ -3724,16 +3736,16 @@
         <v>2</v>
       </c>
       <c r="B15" s="27"/>
-      <c r="C15" s="69" t="s">
+      <c r="C15" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="69"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="69" t="s">
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="69"/>
+      <c r="H15" s="70"/>
       <c r="I15" s="30"/>
       <c r="J15" s="10"/>
       <c r="K15" s="36"/>
@@ -3768,14 +3780,14 @@
       <c r="B17" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="69"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="69" t="s">
+      <c r="C17" s="70"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="F17" s="69"/>
-      <c r="G17" s="69"/>
-      <c r="H17" s="69"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="70"/>
       <c r="I17" s="30" t="s">
         <v>7</v>
       </c>
@@ -3804,12 +3816,12 @@
         <v>2</v>
       </c>
       <c r="B19" s="27"/>
-      <c r="C19" s="69"/>
-      <c r="D19" s="69"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="69"/>
-      <c r="H19" s="69"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="70"/>
       <c r="I19" s="47"/>
       <c r="J19" s="20"/>
       <c r="K19" s="35"/>
@@ -3838,12 +3850,12 @@
         <v>2</v>
       </c>
       <c r="B21" s="27"/>
-      <c r="C21" s="69"/>
-      <c r="D21" s="69"/>
-      <c r="E21" s="69"/>
-      <c r="F21" s="69"/>
-      <c r="G21" s="69"/>
-      <c r="H21" s="69"/>
+      <c r="C21" s="70"/>
+      <c r="D21" s="70"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="70"/>
+      <c r="G21" s="70"/>
+      <c r="H21" s="70"/>
       <c r="I21" s="30"/>
       <c r="J21" s="10"/>
       <c r="K21" s="36"/>
@@ -3870,12 +3882,12 @@
         <v>2</v>
       </c>
       <c r="B23" s="27"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="69"/>
-      <c r="H23" s="69"/>
+      <c r="C23" s="70"/>
+      <c r="D23" s="70"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="70"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="70"/>
       <c r="I23" s="30"/>
       <c r="J23" s="10"/>
       <c r="K23" s="36"/>
@@ -3910,14 +3922,14 @@
       <c r="B25" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="69"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69" t="s">
+      <c r="C25" s="70"/>
+      <c r="D25" s="70"/>
+      <c r="E25" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="F25" s="69"/>
-      <c r="G25" s="69"/>
-      <c r="H25" s="69"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="70"/>
       <c r="I25" s="30" t="s">
         <v>9</v>
       </c>
@@ -3948,12 +3960,12 @@
         <v>2</v>
       </c>
       <c r="B27" s="27"/>
-      <c r="C27" s="69"/>
-      <c r="D27" s="69"/>
-      <c r="E27" s="69"/>
-      <c r="F27" s="69"/>
-      <c r="G27" s="69"/>
-      <c r="H27" s="69"/>
+      <c r="C27" s="70"/>
+      <c r="D27" s="70"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="70"/>
       <c r="I27" s="30"/>
       <c r="J27" s="10"/>
       <c r="K27" s="36"/>
@@ -3984,16 +3996,16 @@
         <v>2</v>
       </c>
       <c r="B29" s="27"/>
-      <c r="C29" s="69" t="s">
+      <c r="C29" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="69"/>
-      <c r="E29" s="69"/>
-      <c r="F29" s="69"/>
-      <c r="G29" s="69" t="s">
+      <c r="D29" s="70"/>
+      <c r="E29" s="70"/>
+      <c r="F29" s="70"/>
+      <c r="G29" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="H29" s="69"/>
+      <c r="H29" s="70"/>
       <c r="I29" s="30"/>
       <c r="J29" s="10"/>
       <c r="K29" s="36"/>
@@ -4020,12 +4032,12 @@
         <v>2</v>
       </c>
       <c r="B31" s="28"/>
-      <c r="C31" s="71"/>
-      <c r="D31" s="71"/>
-      <c r="E31" s="71"/>
-      <c r="F31" s="71"/>
-      <c r="G31" s="71"/>
-      <c r="H31" s="71"/>
+      <c r="C31" s="72"/>
+      <c r="D31" s="72"/>
+      <c r="E31" s="72"/>
+      <c r="F31" s="72"/>
+      <c r="G31" s="72"/>
+      <c r="H31" s="72"/>
       <c r="I31" s="40"/>
       <c r="J31" s="10"/>
       <c r="K31" s="42"/>
@@ -4033,60 +4045,6 @@
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="G31:H31"/>
@@ -4096,47 +4054,101 @@
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="G30:H30"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:H3">
-    <cfRule type="expression" dxfId="25" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="8" stopIfTrue="1">
       <formula>DAY(C3)&gt;8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:I8">
-    <cfRule type="expression" dxfId="24" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="7" stopIfTrue="1">
       <formula>AND(DAY(C7)&gt;=1,DAY(C7)&lt;=15)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:I8">
-    <cfRule type="expression" dxfId="23" priority="9">
+    <cfRule type="expression" dxfId="20" priority="9">
       <formula>VLOOKUP(DAY(C3),AssignmentDays,1,FALSE)=DAY(C3)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:I13 B15:I15 B17:I17 B19:I19 B21:I21 B23:I23 B25:I25 B27:I27 B29:I29 B31:I31">
-    <cfRule type="expression" dxfId="22" priority="6">
+    <cfRule type="expression" dxfId="19" priority="6">
       <formula>B13&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:I12 B14:I14 B16:I16 B18:I18 B20:I20 B22:I22 B24:I24 B26:I26 B28:I28 B30:I30">
-    <cfRule type="expression" dxfId="21" priority="5">
+    <cfRule type="expression" dxfId="18" priority="5">
       <formula>B12&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:I13 B15:I15 B17:I17 B19:I19 B21:I21 B23:I23 B25:I25 B27:I27 B29:I29">
-    <cfRule type="expression" dxfId="20" priority="2">
+    <cfRule type="expression" dxfId="17" priority="2">
       <formula>COLUMN(B13)&gt;=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="4">
+    <cfRule type="expression" dxfId="16" priority="4">
       <formula>COLUMN(B11)&gt;2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31:I31">
-    <cfRule type="expression" dxfId="18" priority="3">
+    <cfRule type="expression" dxfId="15" priority="3">
       <formula>COLUMN(B12)&gt;2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:I31">
-    <cfRule type="expression" dxfId="17" priority="1">
+    <cfRule type="expression" dxfId="14" priority="1">
       <formula>COLUMN(B12)&gt;2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4506,14 +4518,14 @@
       <c r="B12" s="21">
         <v>0.33333333333333331</v>
       </c>
-      <c r="C12" s="74"/>
-      <c r="D12" s="74"/>
-      <c r="E12" s="74">
+      <c r="C12" s="76"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="76">
         <v>0.33333333333333331</v>
       </c>
-      <c r="F12" s="74"/>
-      <c r="G12" s="74"/>
-      <c r="H12" s="74"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="76"/>
       <c r="I12" s="22">
         <v>0.33333333333333331</v>
       </c>
@@ -4528,14 +4540,14 @@
       <c r="B13" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="69"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="69" t="s">
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="F13" s="69"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="69"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
       <c r="I13" s="30" t="s">
         <v>5</v>
       </c>
@@ -4548,16 +4560,16 @@
         <v>1</v>
       </c>
       <c r="B14" s="21"/>
-      <c r="C14" s="74">
+      <c r="C14" s="76">
         <v>0.375</v>
       </c>
-      <c r="D14" s="74"/>
-      <c r="E14" s="74"/>
-      <c r="F14" s="74"/>
-      <c r="G14" s="74">
+      <c r="D14" s="76"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="76">
         <v>0.375</v>
       </c>
-      <c r="H14" s="74"/>
+      <c r="H14" s="76"/>
       <c r="I14" s="22"/>
       <c r="J14" s="10" t="s">
         <v>31</v>
@@ -4570,16 +4582,16 @@
         <v>2</v>
       </c>
       <c r="B15" s="27"/>
-      <c r="C15" s="69" t="s">
+      <c r="C15" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="69"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="69" t="s">
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="69"/>
+      <c r="H15" s="70"/>
       <c r="I15" s="30"/>
       <c r="J15" s="10"/>
       <c r="K15" s="36"/>
@@ -4592,14 +4604,14 @@
       <c r="B16" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="74"/>
-      <c r="D16" s="74"/>
-      <c r="E16" s="74" t="s">
+      <c r="C16" s="76"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="F16" s="74"/>
-      <c r="G16" s="74"/>
-      <c r="H16" s="74"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="76"/>
       <c r="I16" s="24" t="s">
         <v>6</v>
       </c>
@@ -4614,14 +4626,14 @@
       <c r="B17" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="69"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="69" t="s">
+      <c r="C17" s="70"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="F17" s="69"/>
-      <c r="G17" s="69"/>
-      <c r="H17" s="69"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="70"/>
       <c r="I17" s="30" t="s">
         <v>7</v>
       </c>
@@ -4634,12 +4646,12 @@
         <v>1</v>
       </c>
       <c r="B18" s="21"/>
-      <c r="C18" s="74"/>
-      <c r="D18" s="74"/>
-      <c r="E18" s="74"/>
-      <c r="F18" s="74"/>
-      <c r="G18" s="74"/>
-      <c r="H18" s="74"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="76"/>
+      <c r="H18" s="76"/>
       <c r="I18" s="22"/>
       <c r="J18" s="10"/>
       <c r="K18" s="36"/>
@@ -4650,12 +4662,12 @@
         <v>2</v>
       </c>
       <c r="B19" s="27"/>
-      <c r="C19" s="69"/>
-      <c r="D19" s="69"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="69"/>
-      <c r="H19" s="69"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="70"/>
       <c r="I19" s="47"/>
       <c r="J19" s="20"/>
       <c r="K19" s="35"/>
@@ -4666,12 +4678,12 @@
         <v>1</v>
       </c>
       <c r="B20" s="21"/>
-      <c r="C20" s="74"/>
-      <c r="D20" s="74"/>
-      <c r="E20" s="74"/>
-      <c r="F20" s="74"/>
-      <c r="G20" s="74"/>
-      <c r="H20" s="74"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="76"/>
       <c r="I20" s="22"/>
       <c r="J20" s="10" t="s">
         <v>32</v>
@@ -4684,12 +4696,12 @@
         <v>2</v>
       </c>
       <c r="B21" s="27"/>
-      <c r="C21" s="69"/>
-      <c r="D21" s="69"/>
-      <c r="E21" s="69"/>
-      <c r="F21" s="69"/>
-      <c r="G21" s="69"/>
-      <c r="H21" s="69"/>
+      <c r="C21" s="70"/>
+      <c r="D21" s="70"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="70"/>
+      <c r="G21" s="70"/>
+      <c r="H21" s="70"/>
       <c r="I21" s="30"/>
       <c r="J21" s="10"/>
       <c r="K21" s="36"/>
@@ -4700,12 +4712,12 @@
         <v>1</v>
       </c>
       <c r="B22" s="21"/>
-      <c r="C22" s="74"/>
-      <c r="D22" s="74"/>
-      <c r="E22" s="74"/>
-      <c r="F22" s="74"/>
-      <c r="G22" s="74"/>
-      <c r="H22" s="74"/>
+      <c r="C22" s="76"/>
+      <c r="D22" s="76"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="76"/>
+      <c r="G22" s="76"/>
+      <c r="H22" s="76"/>
       <c r="I22" s="22"/>
       <c r="J22" s="10"/>
       <c r="K22" s="36"/>
@@ -4716,12 +4728,12 @@
         <v>2</v>
       </c>
       <c r="B23" s="27"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="69"/>
-      <c r="H23" s="69"/>
+      <c r="C23" s="70"/>
+      <c r="D23" s="70"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="70"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="70"/>
       <c r="I23" s="30"/>
       <c r="J23" s="10"/>
       <c r="K23" s="36"/>
@@ -4734,14 +4746,14 @@
       <c r="B24" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="74"/>
-      <c r="D24" s="74"/>
-      <c r="E24" s="74" t="s">
+      <c r="C24" s="76"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="74"/>
-      <c r="G24" s="74"/>
-      <c r="H24" s="74"/>
+      <c r="F24" s="76"/>
+      <c r="G24" s="76"/>
+      <c r="H24" s="76"/>
       <c r="I24" s="22" t="s">
         <v>8</v>
       </c>
@@ -4756,14 +4768,14 @@
       <c r="B25" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="69"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69" t="s">
+      <c r="C25" s="70"/>
+      <c r="D25" s="70"/>
+      <c r="E25" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="F25" s="69"/>
-      <c r="G25" s="69"/>
-      <c r="H25" s="69"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="70"/>
       <c r="I25" s="30" t="s">
         <v>9</v>
       </c>
@@ -4776,12 +4788,12 @@
         <v>1</v>
       </c>
       <c r="B26" s="21"/>
-      <c r="C26" s="74"/>
-      <c r="D26" s="74"/>
-      <c r="E26" s="74"/>
-      <c r="F26" s="74"/>
-      <c r="G26" s="74"/>
-      <c r="H26" s="74"/>
+      <c r="C26" s="76"/>
+      <c r="D26" s="76"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="76"/>
+      <c r="H26" s="76"/>
       <c r="I26" s="22"/>
       <c r="J26" s="10" t="s">
         <v>33</v>
@@ -4794,12 +4806,12 @@
         <v>2</v>
       </c>
       <c r="B27" s="27"/>
-      <c r="C27" s="69"/>
-      <c r="D27" s="69"/>
-      <c r="E27" s="69"/>
-      <c r="F27" s="69"/>
-      <c r="G27" s="69"/>
-      <c r="H27" s="69"/>
+      <c r="C27" s="70"/>
+      <c r="D27" s="70"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="70"/>
       <c r="I27" s="30"/>
       <c r="J27" s="10"/>
       <c r="K27" s="36"/>
@@ -4810,16 +4822,16 @@
         <v>1</v>
       </c>
       <c r="B28" s="21"/>
-      <c r="C28" s="74" t="s">
+      <c r="C28" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="D28" s="74"/>
-      <c r="E28" s="74"/>
-      <c r="F28" s="74"/>
-      <c r="G28" s="74" t="s">
+      <c r="D28" s="76"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="76"/>
+      <c r="G28" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="H28" s="74"/>
+      <c r="H28" s="76"/>
       <c r="I28" s="22"/>
       <c r="J28" s="10"/>
       <c r="K28" s="36"/>
@@ -4830,16 +4842,16 @@
         <v>2</v>
       </c>
       <c r="B29" s="27"/>
-      <c r="C29" s="69" t="s">
+      <c r="C29" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="69"/>
-      <c r="E29" s="69"/>
-      <c r="F29" s="69"/>
-      <c r="G29" s="69" t="s">
+      <c r="D29" s="70"/>
+      <c r="E29" s="70"/>
+      <c r="F29" s="70"/>
+      <c r="G29" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="H29" s="69"/>
+      <c r="H29" s="70"/>
       <c r="I29" s="30"/>
       <c r="J29" s="10"/>
       <c r="K29" s="36"/>
@@ -4850,12 +4862,12 @@
         <v>1</v>
       </c>
       <c r="B30" s="21"/>
-      <c r="C30" s="74"/>
-      <c r="D30" s="74"/>
-      <c r="E30" s="74"/>
-      <c r="F30" s="74"/>
-      <c r="G30" s="74"/>
-      <c r="H30" s="74"/>
+      <c r="C30" s="76"/>
+      <c r="D30" s="76"/>
+      <c r="E30" s="76"/>
+      <c r="F30" s="76"/>
+      <c r="G30" s="76"/>
+      <c r="H30" s="76"/>
       <c r="I30" s="22"/>
       <c r="J30" s="10"/>
       <c r="K30" s="36"/>
@@ -4866,12 +4878,12 @@
         <v>2</v>
       </c>
       <c r="B31" s="28"/>
-      <c r="C31" s="71"/>
-      <c r="D31" s="71"/>
-      <c r="E31" s="71"/>
-      <c r="F31" s="71"/>
-      <c r="G31" s="71"/>
-      <c r="H31" s="71"/>
+      <c r="C31" s="72"/>
+      <c r="D31" s="72"/>
+      <c r="E31" s="72"/>
+      <c r="F31" s="72"/>
+      <c r="G31" s="72"/>
+      <c r="H31" s="72"/>
       <c r="I31" s="40"/>
       <c r="J31" s="10"/>
       <c r="K31" s="42"/>
@@ -4879,60 +4891,6 @@
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="G31:H31"/>
@@ -4942,39 +4900,93 @@
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="G30:H30"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:H3">
-    <cfRule type="expression" dxfId="15" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="6" stopIfTrue="1">
       <formula>DAY(C3)&gt;8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:I8">
-    <cfRule type="expression" dxfId="14" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="5" stopIfTrue="1">
       <formula>AND(DAY(C7)&gt;=1,DAY(C7)&lt;=15)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:I8">
-    <cfRule type="expression" dxfId="13" priority="7">
+    <cfRule type="expression" dxfId="11" priority="7">
       <formula>VLOOKUP(DAY(C3),AssignmentDays,1,FALSE)=DAY(C3)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:I13 B15:I15 B17:I17 B19:I19 B21:I21 B23:I23 B25:I25 B27:I27 B29:I29 B31:I31">
-    <cfRule type="expression" dxfId="12" priority="4">
+    <cfRule type="expression" dxfId="10" priority="4">
       <formula>B13&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:I12 B14:I14 B16:I16 B18:I18 B20:I20 B22:I22 B24:I24 B26:I26 B28:I28 B30:I30">
-    <cfRule type="expression" dxfId="11" priority="3">
+    <cfRule type="expression" dxfId="9" priority="3">
       <formula>B12&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:I13 B15:I15 B17:I17 B19:I19 B21:I21 B23:I23 B25:I25 B27:I27 B29:I29">
-    <cfRule type="expression" dxfId="10" priority="2">
+    <cfRule type="expression" dxfId="8" priority="2">
       <formula>COLUMN(B13)&gt;=2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:I31">
-    <cfRule type="expression" dxfId="9" priority="1">
+    <cfRule type="expression" dxfId="7" priority="1">
       <formula>COLUMN(B12)&gt;2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5344,14 +5356,14 @@
       <c r="B12" s="21">
         <v>0.33333333333333331</v>
       </c>
-      <c r="C12" s="74"/>
-      <c r="D12" s="74"/>
-      <c r="E12" s="74">
+      <c r="C12" s="76"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="76">
         <v>0.33333333333333331</v>
       </c>
-      <c r="F12" s="74"/>
-      <c r="G12" s="74"/>
-      <c r="H12" s="74"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="76"/>
       <c r="I12" s="22">
         <v>0.33333333333333331</v>
       </c>
@@ -5366,14 +5378,14 @@
       <c r="B13" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="69"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="69" t="s">
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="F13" s="69"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="69"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
       <c r="I13" s="30" t="s">
         <v>5</v>
       </c>
@@ -5386,16 +5398,16 @@
         <v>1</v>
       </c>
       <c r="B14" s="21"/>
-      <c r="C14" s="74">
+      <c r="C14" s="76">
         <v>0.375</v>
       </c>
-      <c r="D14" s="74"/>
-      <c r="E14" s="74"/>
-      <c r="F14" s="74"/>
-      <c r="G14" s="74">
+      <c r="D14" s="76"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="76">
         <v>0.375</v>
       </c>
-      <c r="H14" s="74"/>
+      <c r="H14" s="76"/>
       <c r="I14" s="22"/>
       <c r="J14" s="10" t="s">
         <v>31</v>
@@ -5408,16 +5420,16 @@
         <v>2</v>
       </c>
       <c r="B15" s="27"/>
-      <c r="C15" s="69" t="s">
+      <c r="C15" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="69"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="69" t="s">
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="69"/>
+      <c r="H15" s="70"/>
       <c r="I15" s="30"/>
       <c r="J15" s="10"/>
       <c r="K15" s="36"/>
@@ -5430,14 +5442,14 @@
       <c r="B16" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="74"/>
-      <c r="D16" s="74"/>
-      <c r="E16" s="74" t="s">
+      <c r="C16" s="76"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="F16" s="74"/>
-      <c r="G16" s="74"/>
-      <c r="H16" s="74"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="76"/>
       <c r="I16" s="24" t="s">
         <v>6</v>
       </c>
@@ -5452,14 +5464,14 @@
       <c r="B17" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="69"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="69" t="s">
+      <c r="C17" s="70"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="F17" s="69"/>
-      <c r="G17" s="69"/>
-      <c r="H17" s="69"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="70"/>
       <c r="I17" s="30" t="s">
         <v>7</v>
       </c>
@@ -5472,12 +5484,12 @@
         <v>1</v>
       </c>
       <c r="B18" s="21"/>
-      <c r="C18" s="74"/>
-      <c r="D18" s="74"/>
-      <c r="E18" s="74"/>
-      <c r="F18" s="74"/>
-      <c r="G18" s="74"/>
-      <c r="H18" s="74"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="76"/>
+      <c r="H18" s="76"/>
       <c r="I18" s="22"/>
       <c r="J18" s="10"/>
       <c r="K18" s="36"/>
@@ -5488,12 +5500,12 @@
         <v>2</v>
       </c>
       <c r="B19" s="27"/>
-      <c r="C19" s="69"/>
-      <c r="D19" s="69"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="69"/>
-      <c r="H19" s="69"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="70"/>
       <c r="I19" s="47"/>
       <c r="J19" s="20"/>
       <c r="K19" s="35"/>
@@ -5504,12 +5516,12 @@
         <v>1</v>
       </c>
       <c r="B20" s="21"/>
-      <c r="C20" s="74"/>
-      <c r="D20" s="74"/>
-      <c r="E20" s="74"/>
-      <c r="F20" s="74"/>
-      <c r="G20" s="74"/>
-      <c r="H20" s="74"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="76"/>
       <c r="I20" s="22"/>
       <c r="J20" s="10" t="s">
         <v>32</v>
@@ -5522,12 +5534,12 @@
         <v>2</v>
       </c>
       <c r="B21" s="27"/>
-      <c r="C21" s="69"/>
-      <c r="D21" s="69"/>
-      <c r="E21" s="69"/>
-      <c r="F21" s="69"/>
-      <c r="G21" s="69"/>
-      <c r="H21" s="69"/>
+      <c r="C21" s="70"/>
+      <c r="D21" s="70"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="70"/>
+      <c r="G21" s="70"/>
+      <c r="H21" s="70"/>
       <c r="I21" s="30"/>
       <c r="J21" s="10"/>
       <c r="K21" s="36"/>
@@ -5538,12 +5550,12 @@
         <v>1</v>
       </c>
       <c r="B22" s="21"/>
-      <c r="C22" s="74"/>
-      <c r="D22" s="74"/>
-      <c r="E22" s="74"/>
-      <c r="F22" s="74"/>
-      <c r="G22" s="74"/>
-      <c r="H22" s="74"/>
+      <c r="C22" s="76"/>
+      <c r="D22" s="76"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="76"/>
+      <c r="G22" s="76"/>
+      <c r="H22" s="76"/>
       <c r="I22" s="22"/>
       <c r="J22" s="10"/>
       <c r="K22" s="36"/>
@@ -5554,12 +5566,12 @@
         <v>2</v>
       </c>
       <c r="B23" s="27"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="69"/>
-      <c r="H23" s="69"/>
+      <c r="C23" s="70"/>
+      <c r="D23" s="70"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="70"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="70"/>
       <c r="I23" s="30"/>
       <c r="J23" s="10"/>
       <c r="K23" s="36"/>
@@ -5572,14 +5584,14 @@
       <c r="B24" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="74"/>
-      <c r="D24" s="74"/>
-      <c r="E24" s="74" t="s">
+      <c r="C24" s="76"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="74"/>
-      <c r="G24" s="74"/>
-      <c r="H24" s="74"/>
+      <c r="F24" s="76"/>
+      <c r="G24" s="76"/>
+      <c r="H24" s="76"/>
       <c r="I24" s="22" t="s">
         <v>8</v>
       </c>
@@ -5594,14 +5606,14 @@
       <c r="B25" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="69"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69" t="s">
+      <c r="C25" s="70"/>
+      <c r="D25" s="70"/>
+      <c r="E25" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="F25" s="69"/>
-      <c r="G25" s="69"/>
-      <c r="H25" s="69"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="70"/>
       <c r="I25" s="30" t="s">
         <v>9</v>
       </c>
@@ -5614,12 +5626,12 @@
         <v>1</v>
       </c>
       <c r="B26" s="21"/>
-      <c r="C26" s="74"/>
-      <c r="D26" s="74"/>
-      <c r="E26" s="74"/>
-      <c r="F26" s="74"/>
-      <c r="G26" s="74"/>
-      <c r="H26" s="74"/>
+      <c r="C26" s="76"/>
+      <c r="D26" s="76"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="76"/>
+      <c r="H26" s="76"/>
       <c r="I26" s="22"/>
       <c r="J26" s="32" t="s">
         <v>33</v>
@@ -5632,12 +5644,12 @@
         <v>2</v>
       </c>
       <c r="B27" s="27"/>
-      <c r="C27" s="69"/>
-      <c r="D27" s="69"/>
-      <c r="E27" s="69"/>
-      <c r="F27" s="69"/>
-      <c r="G27" s="69"/>
-      <c r="H27" s="69"/>
+      <c r="C27" s="70"/>
+      <c r="D27" s="70"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="70"/>
       <c r="I27" s="30"/>
       <c r="J27" s="45"/>
       <c r="K27" s="42"/>
@@ -5648,16 +5660,16 @@
         <v>1</v>
       </c>
       <c r="B28" s="21"/>
-      <c r="C28" s="74" t="s">
+      <c r="C28" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="D28" s="74"/>
-      <c r="E28" s="74"/>
-      <c r="F28" s="74"/>
-      <c r="G28" s="74" t="s">
+      <c r="D28" s="76"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="76"/>
+      <c r="G28" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="H28" s="74"/>
+      <c r="H28" s="76"/>
       <c r="I28" s="22"/>
       <c r="J28" s="45"/>
       <c r="K28" s="42"/>
@@ -5668,16 +5680,16 @@
         <v>2</v>
       </c>
       <c r="B29" s="27"/>
-      <c r="C29" s="69" t="s">
+      <c r="C29" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="69"/>
-      <c r="E29" s="69"/>
-      <c r="F29" s="69"/>
-      <c r="G29" s="69" t="s">
+      <c r="D29" s="70"/>
+      <c r="E29" s="70"/>
+      <c r="F29" s="70"/>
+      <c r="G29" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="H29" s="69"/>
+      <c r="H29" s="70"/>
       <c r="I29" s="30"/>
       <c r="J29" s="45"/>
       <c r="K29" s="42"/>
@@ -5688,12 +5700,12 @@
         <v>1</v>
       </c>
       <c r="B30" s="21"/>
-      <c r="C30" s="74"/>
-      <c r="D30" s="74"/>
-      <c r="E30" s="74"/>
-      <c r="F30" s="74"/>
-      <c r="G30" s="74"/>
-      <c r="H30" s="74"/>
+      <c r="C30" s="76"/>
+      <c r="D30" s="76"/>
+      <c r="E30" s="76"/>
+      <c r="F30" s="76"/>
+      <c r="G30" s="76"/>
+      <c r="H30" s="76"/>
       <c r="I30" s="22"/>
       <c r="J30" s="45"/>
       <c r="K30" s="42"/>
@@ -5704,12 +5716,12 @@
         <v>2</v>
       </c>
       <c r="B31" s="28"/>
-      <c r="C31" s="71"/>
-      <c r="D31" s="71"/>
-      <c r="E31" s="71"/>
-      <c r="F31" s="71"/>
-      <c r="G31" s="71"/>
-      <c r="H31" s="71"/>
+      <c r="C31" s="72"/>
+      <c r="D31" s="72"/>
+      <c r="E31" s="72"/>
+      <c r="F31" s="72"/>
+      <c r="G31" s="72"/>
+      <c r="H31" s="72"/>
       <c r="I31" s="29"/>
       <c r="J31" s="45"/>
       <c r="K31" s="42"/>
@@ -5717,60 +5729,6 @@
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="G31:H31"/>
@@ -5780,39 +5738,93 @@
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="G30:H30"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:H3">
-    <cfRule type="expression" dxfId="7" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="6" stopIfTrue="1">
       <formula>DAY(C3)&gt;8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:I8">
-    <cfRule type="expression" dxfId="6" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="5" stopIfTrue="1">
       <formula>AND(DAY(C7)&gt;=1,DAY(C7)&lt;=15)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:I8">
-    <cfRule type="expression" dxfId="5" priority="7">
+    <cfRule type="expression" dxfId="4" priority="7">
       <formula>VLOOKUP(DAY(C3),AssignmentDays,1,FALSE)=DAY(C3)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:I13 B15:I15 B17:I17 B19:I19 B21:I21 B23:I23 B25:I25 B27:I27 B29:I29 B31:I31">
-    <cfRule type="expression" dxfId="4" priority="4">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>B13&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:I12 B14:I14 B16:I16 B18:I18 B20:I20 B22:I22 B24:I24 B26:I26 B28:I28 B30:I30">
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>B12&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:I13 B15:I15 B17:I17 B19:I19 B21:I21 B23:I23 B25:I25 B27:I27 B29:I29">
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>COLUMN(B13)&gt;=2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:I31">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>COLUMN(B12)&gt;2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6182,14 +6194,14 @@
       <c r="B12" s="21">
         <v>0.33333333333333331</v>
       </c>
-      <c r="C12" s="74"/>
-      <c r="D12" s="74"/>
-      <c r="E12" s="74">
+      <c r="C12" s="76"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="76">
         <v>0.33333333333333331</v>
       </c>
-      <c r="F12" s="74"/>
-      <c r="G12" s="74"/>
-      <c r="H12" s="74"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="76"/>
       <c r="I12" s="22">
         <v>0.33333333333333331</v>
       </c>
@@ -6204,14 +6216,14 @@
       <c r="B13" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="69"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="69" t="s">
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="F13" s="69"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="69"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
       <c r="I13" s="30" t="s">
         <v>5</v>
       </c>
@@ -6246,16 +6258,16 @@
         <v>2</v>
       </c>
       <c r="B15" s="27"/>
-      <c r="C15" s="69" t="s">
+      <c r="C15" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="69"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="69" t="s">
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="69"/>
+      <c r="H15" s="70"/>
       <c r="I15" s="30"/>
       <c r="J15" s="10"/>
       <c r="K15" s="36"/>
@@ -6290,14 +6302,14 @@
       <c r="B17" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="69"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="69" t="s">
+      <c r="C17" s="70"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="F17" s="69"/>
-      <c r="G17" s="69"/>
-      <c r="H17" s="69"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="70"/>
       <c r="I17" s="30" t="s">
         <v>7</v>
       </c>
@@ -6326,12 +6338,12 @@
         <v>2</v>
       </c>
       <c r="B19" s="27"/>
-      <c r="C19" s="69"/>
-      <c r="D19" s="69"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="69"/>
-      <c r="H19" s="69"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="70"/>
       <c r="I19" s="47"/>
       <c r="J19" s="20"/>
       <c r="K19" s="35"/>
@@ -6360,12 +6372,12 @@
         <v>2</v>
       </c>
       <c r="B21" s="27"/>
-      <c r="C21" s="69"/>
-      <c r="D21" s="69"/>
-      <c r="E21" s="69"/>
-      <c r="F21" s="69"/>
-      <c r="G21" s="69"/>
-      <c r="H21" s="69"/>
+      <c r="C21" s="70"/>
+      <c r="D21" s="70"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="70"/>
+      <c r="G21" s="70"/>
+      <c r="H21" s="70"/>
       <c r="I21" s="30"/>
       <c r="J21" s="10"/>
       <c r="K21" s="36"/>
@@ -6392,12 +6404,12 @@
         <v>2</v>
       </c>
       <c r="B23" s="27"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="69"/>
-      <c r="H23" s="69"/>
+      <c r="C23" s="70"/>
+      <c r="D23" s="70"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="70"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="70"/>
       <c r="I23" s="30"/>
       <c r="J23" s="10"/>
       <c r="K23" s="36"/>
@@ -6432,14 +6444,14 @@
       <c r="B25" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="69"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69" t="s">
+      <c r="C25" s="70"/>
+      <c r="D25" s="70"/>
+      <c r="E25" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="F25" s="69"/>
-      <c r="G25" s="69"/>
-      <c r="H25" s="69"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="70"/>
       <c r="I25" s="30" t="s">
         <v>9</v>
       </c>
@@ -6470,12 +6482,12 @@
         <v>2</v>
       </c>
       <c r="B27" s="27"/>
-      <c r="C27" s="69"/>
-      <c r="D27" s="69"/>
-      <c r="E27" s="69"/>
-      <c r="F27" s="69"/>
-      <c r="G27" s="69"/>
-      <c r="H27" s="69"/>
+      <c r="C27" s="70"/>
+      <c r="D27" s="70"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="70"/>
       <c r="I27" s="30"/>
       <c r="J27" s="10"/>
       <c r="K27" s="36"/>
@@ -6506,16 +6518,16 @@
         <v>2</v>
       </c>
       <c r="B29" s="27"/>
-      <c r="C29" s="69" t="s">
+      <c r="C29" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="69"/>
-      <c r="E29" s="69"/>
-      <c r="F29" s="69"/>
-      <c r="G29" s="69" t="s">
+      <c r="D29" s="70"/>
+      <c r="E29" s="70"/>
+      <c r="F29" s="70"/>
+      <c r="G29" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="H29" s="69"/>
+      <c r="H29" s="70"/>
       <c r="I29" s="30"/>
       <c r="J29" s="10"/>
       <c r="K29" s="36"/>
@@ -6542,12 +6554,12 @@
         <v>2</v>
       </c>
       <c r="B31" s="31"/>
-      <c r="C31" s="76"/>
-      <c r="D31" s="76"/>
-      <c r="E31" s="76"/>
-      <c r="F31" s="76"/>
-      <c r="G31" s="76"/>
-      <c r="H31" s="76"/>
+      <c r="C31" s="74"/>
+      <c r="D31" s="74"/>
+      <c r="E31" s="74"/>
+      <c r="F31" s="74"/>
+      <c r="G31" s="74"/>
+      <c r="H31" s="74"/>
       <c r="I31" s="29"/>
       <c r="J31" s="10"/>
       <c r="K31" s="42"/>
@@ -6555,51 +6567,12 @@
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="G13:H13"/>
@@ -6612,45 +6585,84 @@
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="G15:H15"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:H30"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:H3">
-    <cfRule type="expression" dxfId="94" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="78" priority="9" stopIfTrue="1">
       <formula>DAY(C3)&gt;8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:I8">
-    <cfRule type="expression" dxfId="93" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="77" priority="8" stopIfTrue="1">
       <formula>AND(DAY(C7)&gt;=1,DAY(C7)&lt;=15)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:I8">
-    <cfRule type="expression" dxfId="92" priority="10">
+    <cfRule type="expression" dxfId="76" priority="10">
       <formula>VLOOKUP(DAY(C3),AssignmentDays,1,FALSE)=DAY(C3)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:I13 B15:I15 B17:I17 B19:I19 B21:I21 B23:I23 B25:I25 B27:I27 B29:I29 B31:I31">
-    <cfRule type="expression" dxfId="91" priority="7">
+    <cfRule type="expression" dxfId="75" priority="7">
       <formula>B13&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:I12 B14:I14 B16:I16 B18:I18 B20:I20 B22:I22 B24:I24 B26:I26 B28:I28 B30:I30">
-    <cfRule type="expression" dxfId="90" priority="6">
+    <cfRule type="expression" dxfId="74" priority="6">
       <formula>B12&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:I13 B15:I15 B17:I17 B19:I19 B21:I21 B23:I23 B25:I25 B27:I27 B29:I29">
-    <cfRule type="expression" dxfId="89" priority="4">
+    <cfRule type="expression" dxfId="73" priority="4">
       <formula>COLUMN(B12)&gt;=2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:I31">
-    <cfRule type="expression" dxfId="88" priority="1">
+    <cfRule type="expression" dxfId="72" priority="1">
       <formula>COLUMN(B12)&gt;2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6725,7 +6737,7 @@
         <v>14</v>
       </c>
       <c r="L1" s="63" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -7039,12 +7051,12 @@
         <v>1</v>
       </c>
       <c r="B12" s="21"/>
-      <c r="C12" s="74"/>
-      <c r="D12" s="74"/>
-      <c r="E12" s="74"/>
-      <c r="F12" s="74"/>
-      <c r="G12" s="74"/>
-      <c r="H12" s="74"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="76"/>
       <c r="I12" s="22"/>
       <c r="J12" s="10"/>
       <c r="K12" s="36"/>
@@ -7055,12 +7067,12 @@
         <v>2</v>
       </c>
       <c r="B13" s="27"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="69"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
       <c r="I13" s="30"/>
       <c r="J13" s="20"/>
       <c r="K13" s="35"/>
@@ -7071,12 +7083,12 @@
         <v>1</v>
       </c>
       <c r="B14" s="21"/>
-      <c r="C14" s="74"/>
-      <c r="D14" s="74"/>
-      <c r="E14" s="74"/>
-      <c r="F14" s="74"/>
-      <c r="G14" s="74"/>
-      <c r="H14" s="74"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="76"/>
+      <c r="H14" s="76"/>
       <c r="I14" s="22">
         <v>0.76041666666666663</v>
       </c>
@@ -7091,12 +7103,12 @@
         <v>2</v>
       </c>
       <c r="B15" s="27"/>
-      <c r="C15" s="69"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="69"/>
-      <c r="H15" s="69"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="70"/>
       <c r="I15" s="27" t="s">
         <v>38</v>
       </c>
@@ -7109,12 +7121,12 @@
         <v>1</v>
       </c>
       <c r="B16" s="21"/>
-      <c r="C16" s="74"/>
-      <c r="D16" s="74"/>
-      <c r="E16" s="74"/>
-      <c r="F16" s="74"/>
-      <c r="G16" s="74"/>
-      <c r="H16" s="74"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="76"/>
       <c r="I16" s="24">
         <v>0.82291666666666663</v>
       </c>
@@ -7127,12 +7139,12 @@
         <v>2</v>
       </c>
       <c r="B17" s="27"/>
-      <c r="C17" s="69"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="69"/>
-      <c r="G17" s="69"/>
-      <c r="H17" s="69"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="70"/>
       <c r="I17" s="27" t="s">
         <v>41</v>
       </c>
@@ -7145,14 +7157,14 @@
         <v>1</v>
       </c>
       <c r="B18" s="21"/>
-      <c r="C18" s="74">
+      <c r="C18" s="76">
         <v>0.82986111111111116</v>
       </c>
-      <c r="D18" s="74"/>
-      <c r="E18" s="74"/>
-      <c r="F18" s="74"/>
-      <c r="G18" s="74"/>
-      <c r="H18" s="74"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="76"/>
+      <c r="H18" s="76"/>
       <c r="I18" s="22"/>
       <c r="J18" s="10"/>
       <c r="K18" s="36"/>
@@ -7163,14 +7175,14 @@
         <v>2</v>
       </c>
       <c r="B19" s="27"/>
-      <c r="C19" s="78" t="s">
+      <c r="C19" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="69"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="69"/>
-      <c r="H19" s="69"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="70"/>
       <c r="I19" s="47"/>
       <c r="J19" s="20"/>
       <c r="K19" s="35"/>
@@ -7181,14 +7193,14 @@
         <v>1</v>
       </c>
       <c r="B20" s="21"/>
-      <c r="C20" s="74">
+      <c r="C20" s="76">
         <v>0.875</v>
       </c>
-      <c r="D20" s="74"/>
-      <c r="E20" s="74"/>
-      <c r="F20" s="74"/>
-      <c r="G20" s="74"/>
-      <c r="H20" s="74"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="76"/>
       <c r="I20" s="22"/>
       <c r="J20" s="10" t="s">
         <v>32</v>
@@ -7205,14 +7217,14 @@
         <v>2</v>
       </c>
       <c r="B21" s="27"/>
-      <c r="C21" s="78" t="s">
+      <c r="C21" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="69"/>
-      <c r="E21" s="69"/>
-      <c r="F21" s="69"/>
-      <c r="G21" s="69"/>
-      <c r="H21" s="69"/>
+      <c r="D21" s="70"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="70"/>
+      <c r="G21" s="70"/>
+      <c r="H21" s="70"/>
       <c r="I21" s="30"/>
       <c r="J21" s="10"/>
       <c r="K21" s="36"/>
@@ -7223,14 +7235,14 @@
         <v>1</v>
       </c>
       <c r="B22" s="21"/>
-      <c r="C22" s="74" t="s">
+      <c r="C22" s="76" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="74"/>
-      <c r="E22" s="74"/>
-      <c r="F22" s="74"/>
-      <c r="G22" s="74"/>
-      <c r="H22" s="74"/>
+      <c r="D22" s="76"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="76"/>
+      <c r="G22" s="76"/>
+      <c r="H22" s="76"/>
       <c r="I22" s="22"/>
       <c r="J22" s="10"/>
       <c r="K22" s="36"/>
@@ -7241,14 +7253,14 @@
         <v>2</v>
       </c>
       <c r="B23" s="27"/>
-      <c r="C23" s="77">
+      <c r="C23" s="78">
         <v>0.96180555555555547</v>
       </c>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="69"/>
-      <c r="H23" s="69"/>
+      <c r="D23" s="70"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="70"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="70"/>
       <c r="I23" s="30"/>
       <c r="J23" s="10"/>
       <c r="K23" s="36"/>
@@ -7259,12 +7271,12 @@
         <v>1</v>
       </c>
       <c r="B24" s="21"/>
-      <c r="C24" s="74"/>
-      <c r="D24" s="74"/>
-      <c r="E24" s="74"/>
-      <c r="F24" s="74"/>
-      <c r="G24" s="74"/>
-      <c r="H24" s="74"/>
+      <c r="C24" s="76"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="76"/>
+      <c r="F24" s="76"/>
+      <c r="G24" s="76"/>
+      <c r="H24" s="76"/>
       <c r="I24" s="22"/>
       <c r="J24" s="10"/>
       <c r="K24" s="36"/>
@@ -7275,12 +7287,12 @@
         <v>2</v>
       </c>
       <c r="B25" s="27"/>
-      <c r="C25" s="69"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="69"/>
-      <c r="H25" s="69"/>
+      <c r="C25" s="70"/>
+      <c r="D25" s="70"/>
+      <c r="E25" s="70"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="70"/>
       <c r="I25" s="30"/>
       <c r="J25" s="20"/>
       <c r="K25" s="35"/>
@@ -7291,12 +7303,12 @@
         <v>1</v>
       </c>
       <c r="B26" s="21"/>
-      <c r="C26" s="74"/>
-      <c r="D26" s="74"/>
-      <c r="E26" s="74"/>
-      <c r="F26" s="74"/>
-      <c r="G26" s="74"/>
-      <c r="H26" s="74"/>
+      <c r="C26" s="76"/>
+      <c r="D26" s="76"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="76"/>
+      <c r="H26" s="76"/>
       <c r="I26" s="22"/>
       <c r="J26" s="10" t="s">
         <v>33</v>
@@ -7313,12 +7325,12 @@
         <v>2</v>
       </c>
       <c r="B27" s="27"/>
-      <c r="C27" s="69"/>
-      <c r="D27" s="69"/>
-      <c r="E27" s="69"/>
-      <c r="F27" s="69"/>
-      <c r="G27" s="69"/>
-      <c r="H27" s="69"/>
+      <c r="C27" s="70"/>
+      <c r="D27" s="70"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="70"/>
       <c r="I27" s="30"/>
       <c r="J27" s="10"/>
       <c r="K27" s="36">
@@ -7333,12 +7345,12 @@
         <v>1</v>
       </c>
       <c r="B28" s="21"/>
-      <c r="C28" s="74"/>
-      <c r="D28" s="74"/>
-      <c r="E28" s="74"/>
-      <c r="F28" s="74"/>
-      <c r="G28" s="74"/>
-      <c r="H28" s="74"/>
+      <c r="C28" s="76"/>
+      <c r="D28" s="76"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="76"/>
+      <c r="G28" s="76"/>
+      <c r="H28" s="76"/>
       <c r="I28" s="22"/>
       <c r="J28" s="10"/>
       <c r="K28" s="36"/>
@@ -7349,12 +7361,12 @@
         <v>2</v>
       </c>
       <c r="B29" s="27"/>
-      <c r="C29" s="69"/>
-      <c r="D29" s="69"/>
-      <c r="E29" s="69"/>
-      <c r="F29" s="69"/>
-      <c r="G29" s="69"/>
-      <c r="H29" s="69"/>
+      <c r="C29" s="70"/>
+      <c r="D29" s="70"/>
+      <c r="E29" s="70"/>
+      <c r="F29" s="70"/>
+      <c r="G29" s="70"/>
+      <c r="H29" s="70"/>
       <c r="I29" s="30"/>
       <c r="J29" s="10"/>
       <c r="K29" s="36"/>
@@ -7365,12 +7377,12 @@
         <v>1</v>
       </c>
       <c r="B30" s="21"/>
-      <c r="C30" s="74"/>
-      <c r="D30" s="74"/>
-      <c r="E30" s="74"/>
-      <c r="F30" s="74"/>
-      <c r="G30" s="74"/>
-      <c r="H30" s="74"/>
+      <c r="C30" s="76"/>
+      <c r="D30" s="76"/>
+      <c r="E30" s="76"/>
+      <c r="F30" s="76"/>
+      <c r="G30" s="76"/>
+      <c r="H30" s="76"/>
       <c r="I30" s="22"/>
       <c r="J30" s="10"/>
       <c r="K30" s="36"/>
@@ -7381,12 +7393,12 @@
         <v>2</v>
       </c>
       <c r="B31" s="28"/>
-      <c r="C31" s="71"/>
-      <c r="D31" s="71"/>
-      <c r="E31" s="71"/>
-      <c r="F31" s="71"/>
-      <c r="G31" s="71"/>
-      <c r="H31" s="71"/>
+      <c r="C31" s="72"/>
+      <c r="D31" s="72"/>
+      <c r="E31" s="72"/>
+      <c r="F31" s="72"/>
+      <c r="G31" s="72"/>
+      <c r="H31" s="72"/>
       <c r="I31" s="29"/>
       <c r="J31" s="10"/>
       <c r="K31" s="42"/>
@@ -7394,60 +7406,6 @@
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="G31:H31"/>
@@ -7457,39 +7415,93 @@
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="G30:H30"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:H3">
-    <cfRule type="expression" dxfId="86" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="71" priority="6" stopIfTrue="1">
       <formula>DAY(C3)&gt;8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:I8">
-    <cfRule type="expression" dxfId="85" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="70" priority="5" stopIfTrue="1">
       <formula>AND(DAY(C7)&gt;=1,DAY(C7)&lt;=15)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:I8">
-    <cfRule type="expression" dxfId="84" priority="7">
+    <cfRule type="expression" dxfId="69" priority="7">
       <formula>VLOOKUP(DAY(C3),AssignmentDays,1,FALSE)=DAY(C3)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:I13 B15:I15 B17:I17 B19:I19 B21:I21 B23:I23 B25:I25 B27:I27 B29:I29 B31:I31">
-    <cfRule type="expression" dxfId="83" priority="4">
+    <cfRule type="expression" dxfId="68" priority="4">
       <formula>B13&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:I12 B14:I14 B16:I16 B18:I18 B20:I20 B22:I22 B24:I24 B26:I26 B28:I28 B30:I30">
-    <cfRule type="expression" dxfId="82" priority="3">
+    <cfRule type="expression" dxfId="67" priority="3">
       <formula>B12&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:I13 B15:I15 B17:I17 B19:I19 B21:I21 B23:I23 B25:I25 B27:I27 B29:I29">
-    <cfRule type="expression" dxfId="81" priority="2">
+    <cfRule type="expression" dxfId="66" priority="2">
       <formula>COLUMN(B12)&gt;=2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:I31">
-    <cfRule type="expression" dxfId="80" priority="1">
+    <cfRule type="expression" dxfId="65" priority="1">
       <formula>COLUMN(B12)&gt;2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7564,7 +7576,7 @@
         <v>14</v>
       </c>
       <c r="L1" s="63" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -7770,7 +7782,7 @@
         <v>30</v>
       </c>
       <c r="L7" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -7811,7 +7823,7 @@
         <v>3</v>
       </c>
       <c r="L8" s="49" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -7827,7 +7839,7 @@
         <v>10</v>
       </c>
       <c r="L9" s="49" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -7846,7 +7858,7 @@
         <v>17</v>
       </c>
       <c r="L10" s="49" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -7875,7 +7887,7 @@
         <v>24</v>
       </c>
       <c r="L11" s="49" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -7883,12 +7895,12 @@
         <v>1</v>
       </c>
       <c r="B12" s="56"/>
-      <c r="C12" s="74"/>
-      <c r="D12" s="74"/>
-      <c r="E12" s="74"/>
-      <c r="F12" s="74"/>
-      <c r="G12" s="74"/>
-      <c r="H12" s="74"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="76"/>
       <c r="I12" s="22"/>
       <c r="K12" s="36"/>
       <c r="L12" s="49"/>
@@ -7898,12 +7910,12 @@
         <v>2</v>
       </c>
       <c r="B13" s="27"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="69"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
       <c r="I13" s="54"/>
       <c r="J13" s="20"/>
       <c r="K13" s="35"/>
@@ -7914,12 +7926,12 @@
         <v>1</v>
       </c>
       <c r="B14" s="56"/>
-      <c r="C14" s="74"/>
-      <c r="D14" s="74"/>
-      <c r="E14" s="74"/>
-      <c r="F14" s="74"/>
-      <c r="G14" s="74"/>
-      <c r="H14" s="74"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="76"/>
+      <c r="H14" s="76"/>
       <c r="I14" s="22">
         <v>0.76041666666666663</v>
       </c>
@@ -7934,12 +7946,12 @@
         <v>2</v>
       </c>
       <c r="B15" s="27"/>
-      <c r="C15" s="69"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="69"/>
-      <c r="H15" s="69"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="70"/>
       <c r="I15" s="27" t="s">
         <v>38</v>
       </c>
@@ -7951,12 +7963,12 @@
         <v>1</v>
       </c>
       <c r="B16" s="56"/>
-      <c r="C16" s="74"/>
-      <c r="D16" s="74"/>
-      <c r="E16" s="74"/>
-      <c r="F16" s="74"/>
-      <c r="G16" s="74"/>
-      <c r="H16" s="74"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="76"/>
       <c r="I16" s="24">
         <v>0.82291666666666663</v>
       </c>
@@ -7968,12 +7980,12 @@
         <v>2</v>
       </c>
       <c r="B17" s="27"/>
-      <c r="C17" s="69"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="69"/>
-      <c r="G17" s="69"/>
-      <c r="H17" s="69"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="70"/>
       <c r="I17" s="27" t="s">
         <v>41</v>
       </c>
@@ -7985,14 +7997,14 @@
         <v>1</v>
       </c>
       <c r="B18" s="56"/>
-      <c r="C18" s="74">
+      <c r="C18" s="76">
         <v>0.82986111111111116</v>
       </c>
-      <c r="D18" s="74"/>
-      <c r="E18" s="74"/>
-      <c r="F18" s="74"/>
-      <c r="G18" s="74"/>
-      <c r="H18" s="74"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="76"/>
+      <c r="H18" s="76"/>
       <c r="I18" s="22"/>
       <c r="K18" s="36"/>
       <c r="L18" s="49"/>
@@ -8002,14 +8014,14 @@
         <v>2</v>
       </c>
       <c r="B19" s="27"/>
-      <c r="C19" s="78" t="s">
+      <c r="C19" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="69"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="69"/>
-      <c r="H19" s="69"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="70"/>
       <c r="I19" s="47"/>
       <c r="J19" s="20"/>
       <c r="K19" s="35"/>
@@ -8020,14 +8032,14 @@
         <v>1</v>
       </c>
       <c r="B20" s="56"/>
-      <c r="C20" s="74">
+      <c r="C20" s="76">
         <v>0.875</v>
       </c>
-      <c r="D20" s="74"/>
-      <c r="E20" s="74"/>
-      <c r="F20" s="74"/>
-      <c r="G20" s="74"/>
-      <c r="H20" s="74"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="76"/>
       <c r="I20" s="22"/>
       <c r="J20" s="10" t="s">
         <v>32</v>
@@ -8036,7 +8048,7 @@
         <v>26</v>
       </c>
       <c r="L20" s="49" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -8044,14 +8056,14 @@
         <v>2</v>
       </c>
       <c r="B21" s="27"/>
-      <c r="C21" s="78" t="s">
+      <c r="C21" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="69"/>
-      <c r="E21" s="69"/>
-      <c r="F21" s="69"/>
-      <c r="G21" s="69"/>
-      <c r="H21" s="69"/>
+      <c r="D21" s="70"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="70"/>
+      <c r="G21" s="70"/>
+      <c r="H21" s="70"/>
       <c r="I21" s="54"/>
       <c r="K21" s="36"/>
       <c r="L21" s="49"/>
@@ -8061,14 +8073,14 @@
         <v>1</v>
       </c>
       <c r="B22" s="56"/>
-      <c r="C22" s="74" t="s">
+      <c r="C22" s="76" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="74"/>
-      <c r="E22" s="74"/>
-      <c r="F22" s="74"/>
-      <c r="G22" s="74"/>
-      <c r="H22" s="74"/>
+      <c r="D22" s="76"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="76"/>
+      <c r="G22" s="76"/>
+      <c r="H22" s="76"/>
       <c r="I22" s="22"/>
       <c r="K22" s="36"/>
       <c r="L22" s="49"/>
@@ -8078,14 +8090,14 @@
         <v>2</v>
       </c>
       <c r="B23" s="27"/>
-      <c r="C23" s="77">
+      <c r="C23" s="78">
         <v>0.96180555555555547</v>
       </c>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="69"/>
-      <c r="H23" s="69"/>
+      <c r="D23" s="70"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="70"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="70"/>
       <c r="I23" s="54"/>
       <c r="K23" s="36"/>
       <c r="L23" s="49"/>
@@ -8095,12 +8107,12 @@
         <v>1</v>
       </c>
       <c r="B24" s="56"/>
-      <c r="C24" s="74"/>
-      <c r="D24" s="74"/>
-      <c r="E24" s="74"/>
-      <c r="F24" s="74"/>
-      <c r="G24" s="74"/>
-      <c r="H24" s="74"/>
+      <c r="C24" s="76"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="76"/>
+      <c r="F24" s="76"/>
+      <c r="G24" s="76"/>
+      <c r="H24" s="76"/>
       <c r="I24" s="22"/>
       <c r="K24" s="36"/>
       <c r="L24" s="49"/>
@@ -8110,12 +8122,12 @@
         <v>2</v>
       </c>
       <c r="B25" s="27"/>
-      <c r="C25" s="69"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="69"/>
-      <c r="H25" s="69"/>
+      <c r="C25" s="70"/>
+      <c r="D25" s="70"/>
+      <c r="E25" s="70"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="70"/>
       <c r="I25" s="54"/>
       <c r="J25" s="20"/>
       <c r="K25" s="35"/>
@@ -8126,12 +8138,12 @@
         <v>1</v>
       </c>
       <c r="B26" s="56"/>
-      <c r="C26" s="74"/>
-      <c r="D26" s="74"/>
-      <c r="E26" s="74"/>
-      <c r="F26" s="74"/>
-      <c r="G26" s="74"/>
-      <c r="H26" s="74"/>
+      <c r="C26" s="76"/>
+      <c r="D26" s="76"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="76"/>
+      <c r="H26" s="76"/>
       <c r="I26" s="22"/>
       <c r="J26" s="10" t="s">
         <v>33</v>
@@ -8140,7 +8152,7 @@
         <v>6</v>
       </c>
       <c r="L26" s="49" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -8148,18 +8160,18 @@
         <v>2</v>
       </c>
       <c r="B27" s="27"/>
-      <c r="C27" s="69"/>
-      <c r="D27" s="69"/>
-      <c r="E27" s="69"/>
-      <c r="F27" s="69"/>
-      <c r="G27" s="69"/>
-      <c r="H27" s="69"/>
+      <c r="C27" s="70"/>
+      <c r="D27" s="70"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="70"/>
       <c r="I27" s="54"/>
       <c r="K27" s="36">
         <v>13</v>
       </c>
       <c r="L27" s="49" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -8167,18 +8179,18 @@
         <v>1</v>
       </c>
       <c r="B28" s="56"/>
-      <c r="C28" s="74"/>
-      <c r="D28" s="74"/>
-      <c r="E28" s="74"/>
-      <c r="F28" s="74"/>
-      <c r="G28" s="74"/>
-      <c r="H28" s="74"/>
+      <c r="C28" s="76"/>
+      <c r="D28" s="76"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="76"/>
+      <c r="G28" s="76"/>
+      <c r="H28" s="76"/>
       <c r="I28" s="22"/>
       <c r="K28" s="36">
         <v>20</v>
       </c>
       <c r="L28" s="49" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8186,18 +8198,18 @@
         <v>2</v>
       </c>
       <c r="B29" s="27"/>
-      <c r="C29" s="69"/>
-      <c r="D29" s="69"/>
-      <c r="E29" s="69"/>
-      <c r="F29" s="69"/>
-      <c r="G29" s="69"/>
-      <c r="H29" s="69"/>
+      <c r="C29" s="70"/>
+      <c r="D29" s="70"/>
+      <c r="E29" s="70"/>
+      <c r="F29" s="70"/>
+      <c r="G29" s="70"/>
+      <c r="H29" s="70"/>
       <c r="I29" s="54"/>
       <c r="K29" s="36">
         <v>27</v>
       </c>
       <c r="L29" s="49" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -8205,12 +8217,12 @@
         <v>1</v>
       </c>
       <c r="B30" s="56"/>
-      <c r="C30" s="74"/>
-      <c r="D30" s="74"/>
-      <c r="E30" s="74"/>
-      <c r="F30" s="74"/>
-      <c r="G30" s="74"/>
-      <c r="H30" s="74"/>
+      <c r="C30" s="76"/>
+      <c r="D30" s="76"/>
+      <c r="E30" s="76"/>
+      <c r="F30" s="76"/>
+      <c r="G30" s="76"/>
+      <c r="H30" s="76"/>
       <c r="I30" s="22"/>
       <c r="K30" s="36"/>
       <c r="L30" s="49"/>
@@ -8220,72 +8232,18 @@
         <v>2</v>
       </c>
       <c r="B31" s="28"/>
-      <c r="C31" s="71"/>
-      <c r="D31" s="71"/>
-      <c r="E31" s="71"/>
-      <c r="F31" s="71"/>
-      <c r="G31" s="71"/>
-      <c r="H31" s="71"/>
+      <c r="C31" s="72"/>
+      <c r="D31" s="72"/>
+      <c r="E31" s="72"/>
+      <c r="F31" s="72"/>
+      <c r="G31" s="72"/>
+      <c r="H31" s="72"/>
       <c r="I31" s="55"/>
       <c r="K31" s="42"/>
       <c r="L31" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="G31:H31"/>
@@ -8295,39 +8253,93 @@
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="G30:H30"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:H3">
-    <cfRule type="expression" dxfId="77" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="64" priority="10" stopIfTrue="1">
       <formula>DAY(C3)&gt;8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:I8">
-    <cfRule type="expression" dxfId="76" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="9" stopIfTrue="1">
       <formula>AND(DAY(C7)&gt;=1,DAY(C7)&lt;=15)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:I8">
-    <cfRule type="expression" dxfId="75" priority="11">
+    <cfRule type="expression" dxfId="62" priority="11">
       <formula>VLOOKUP(DAY(C3),AssignmentDays,1,FALSE)=DAY(C3)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:I13 B15:I15 B17:I17 B19:I19 B21:I21 B23:I23 B25:I25 B27:I27 B29:I29 B31:I31">
-    <cfRule type="expression" dxfId="74" priority="4">
+    <cfRule type="expression" dxfId="61" priority="4">
       <formula>B13&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:I12 B14:I14 B16:I16 B18:I18 B20:I20 B22:I22 B24:I24 B26:I26 B28:I28 B30:I30">
-    <cfRule type="expression" dxfId="73" priority="3">
+    <cfRule type="expression" dxfId="60" priority="3">
       <formula>B12&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:I13 B15:I15 B17:I17 B19:I19 B21:I21 B23:I23 B25:I25 B27:I27 B29:I29">
-    <cfRule type="expression" dxfId="72" priority="2">
+    <cfRule type="expression" dxfId="59" priority="2">
       <formula>COLUMN(B12)&gt;=2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:I31">
-    <cfRule type="expression" dxfId="71" priority="1">
+    <cfRule type="expression" dxfId="58" priority="1">
       <formula>COLUMN(B12)&gt;2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8366,8 +8378,8 @@
   </sheetPr>
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="84" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView showGridLines="0" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="84" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8402,7 +8414,7 @@
         <v>14</v>
       </c>
       <c r="L1" s="63" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -8506,7 +8518,7 @@
         <v>14</v>
       </c>
       <c r="L4" s="49" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -8649,7 +8661,7 @@
         <v>1</v>
       </c>
       <c r="L8" s="49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -8666,7 +8678,7 @@
         <v>8</v>
       </c>
       <c r="L9" s="49" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -8686,7 +8698,7 @@
         <v>15</v>
       </c>
       <c r="L10" s="49" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -8712,36 +8724,44 @@
         <v>33</v>
       </c>
       <c r="J11" s="10"/>
-      <c r="K11" s="36"/>
-      <c r="L11" s="49"/>
+      <c r="K11" s="36">
+        <v>22</v>
+      </c>
+      <c r="L11" s="49" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="12" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
         <v>1</v>
       </c>
       <c r="B12" s="56"/>
-      <c r="C12" s="74"/>
-      <c r="D12" s="74"/>
-      <c r="E12" s="74"/>
-      <c r="F12" s="74"/>
-      <c r="G12" s="74"/>
-      <c r="H12" s="74"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="76"/>
       <c r="I12" s="22"/>
       <c r="J12" s="10"/>
-      <c r="K12" s="36"/>
-      <c r="L12" s="49"/>
+      <c r="K12" s="36">
+        <v>29</v>
+      </c>
+      <c r="L12" s="49" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="13" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
         <v>2</v>
       </c>
       <c r="B13" s="27"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="69"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
       <c r="I13" s="54"/>
       <c r="J13" s="20"/>
       <c r="K13" s="35"/>
@@ -8752,12 +8772,12 @@
         <v>1</v>
       </c>
       <c r="B14" s="56"/>
-      <c r="C14" s="74"/>
-      <c r="D14" s="74"/>
-      <c r="E14" s="74"/>
-      <c r="F14" s="74"/>
-      <c r="G14" s="74"/>
-      <c r="H14" s="74"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="76"/>
+      <c r="H14" s="76"/>
       <c r="I14" s="22">
         <v>0.76041666666666663</v>
       </c>
@@ -8768,7 +8788,7 @@
         <v>2</v>
       </c>
       <c r="L14" s="49" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -8776,12 +8796,12 @@
         <v>2</v>
       </c>
       <c r="B15" s="27"/>
-      <c r="C15" s="69"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="69"/>
-      <c r="H15" s="69"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="70"/>
       <c r="I15" s="27" t="s">
         <v>38</v>
       </c>
@@ -8794,12 +8814,12 @@
         <v>1</v>
       </c>
       <c r="B16" s="56"/>
-      <c r="C16" s="74"/>
-      <c r="D16" s="74"/>
-      <c r="E16" s="74"/>
-      <c r="F16" s="74"/>
-      <c r="G16" s="74"/>
-      <c r="H16" s="74"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="76"/>
       <c r="I16" s="24">
         <v>0.82291666666666663</v>
       </c>
@@ -8812,12 +8832,12 @@
         <v>2</v>
       </c>
       <c r="B17" s="27"/>
-      <c r="C17" s="69"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="69"/>
-      <c r="G17" s="69"/>
-      <c r="H17" s="69"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="70"/>
       <c r="I17" s="27" t="s">
         <v>41</v>
       </c>
@@ -8830,14 +8850,14 @@
         <v>1</v>
       </c>
       <c r="B18" s="56"/>
-      <c r="C18" s="74">
+      <c r="C18" s="76">
         <v>0.82986111111111116</v>
       </c>
-      <c r="D18" s="74"/>
-      <c r="E18" s="74"/>
-      <c r="F18" s="74"/>
-      <c r="G18" s="74"/>
-      <c r="H18" s="74"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="76"/>
+      <c r="H18" s="76"/>
       <c r="I18" s="22"/>
       <c r="J18" s="10"/>
       <c r="K18" s="36"/>
@@ -8848,14 +8868,14 @@
         <v>2</v>
       </c>
       <c r="B19" s="27"/>
-      <c r="C19" s="78" t="s">
+      <c r="C19" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="69"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="69"/>
-      <c r="H19" s="69"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="70"/>
       <c r="I19" s="47"/>
       <c r="J19" s="20"/>
       <c r="K19" s="35"/>
@@ -8866,14 +8886,14 @@
         <v>1</v>
       </c>
       <c r="B20" s="56"/>
-      <c r="C20" s="74">
+      <c r="C20" s="76">
         <v>0.875</v>
       </c>
-      <c r="D20" s="74"/>
-      <c r="E20" s="74"/>
-      <c r="F20" s="74"/>
-      <c r="G20" s="74"/>
-      <c r="H20" s="74"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="76"/>
       <c r="I20" s="22"/>
       <c r="J20" s="10" t="s">
         <v>32</v>
@@ -8886,14 +8906,14 @@
         <v>2</v>
       </c>
       <c r="B21" s="27"/>
-      <c r="C21" s="78" t="s">
+      <c r="C21" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="69"/>
-      <c r="E21" s="69"/>
-      <c r="F21" s="69"/>
-      <c r="G21" s="69"/>
-      <c r="H21" s="69"/>
+      <c r="D21" s="70"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="70"/>
+      <c r="G21" s="70"/>
+      <c r="H21" s="70"/>
       <c r="I21" s="54"/>
       <c r="J21" s="10"/>
       <c r="K21" s="36"/>
@@ -8904,14 +8924,14 @@
         <v>1</v>
       </c>
       <c r="B22" s="56"/>
-      <c r="C22" s="74" t="s">
+      <c r="C22" s="76" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="74"/>
-      <c r="E22" s="74"/>
-      <c r="F22" s="74"/>
-      <c r="G22" s="74"/>
-      <c r="H22" s="74"/>
+      <c r="D22" s="76"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="76"/>
+      <c r="G22" s="76"/>
+      <c r="H22" s="76"/>
       <c r="I22" s="22"/>
       <c r="J22" s="10"/>
       <c r="K22" s="36"/>
@@ -8922,14 +8942,14 @@
         <v>2</v>
       </c>
       <c r="B23" s="27"/>
-      <c r="C23" s="77">
+      <c r="C23" s="78">
         <v>0.96180555555555547</v>
       </c>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="69"/>
-      <c r="H23" s="69"/>
+      <c r="D23" s="70"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="70"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="70"/>
       <c r="I23" s="54"/>
       <c r="J23" s="10"/>
       <c r="K23" s="36"/>
@@ -8940,12 +8960,12 @@
         <v>1</v>
       </c>
       <c r="B24" s="56"/>
-      <c r="C24" s="74"/>
-      <c r="D24" s="74"/>
-      <c r="E24" s="74"/>
-      <c r="F24" s="74"/>
-      <c r="G24" s="74"/>
-      <c r="H24" s="74"/>
+      <c r="C24" s="76"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="76"/>
+      <c r="F24" s="76"/>
+      <c r="G24" s="76"/>
+      <c r="H24" s="76"/>
       <c r="I24" s="22"/>
       <c r="J24" s="10"/>
       <c r="K24" s="36"/>
@@ -8956,12 +8976,12 @@
         <v>2</v>
       </c>
       <c r="B25" s="27"/>
-      <c r="C25" s="69"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="69"/>
-      <c r="H25" s="69"/>
+      <c r="C25" s="70"/>
+      <c r="D25" s="70"/>
+      <c r="E25" s="70"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="70"/>
       <c r="I25" s="54"/>
       <c r="J25" s="20"/>
       <c r="K25" s="35"/>
@@ -8972,12 +8992,12 @@
         <v>1</v>
       </c>
       <c r="B26" s="56"/>
-      <c r="C26" s="74"/>
-      <c r="D26" s="74"/>
-      <c r="E26" s="74"/>
-      <c r="F26" s="74"/>
-      <c r="G26" s="74"/>
-      <c r="H26" s="74"/>
+      <c r="C26" s="76"/>
+      <c r="D26" s="76"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="76"/>
+      <c r="H26" s="76"/>
       <c r="I26" s="22"/>
       <c r="J26" s="10" t="s">
         <v>33</v>
@@ -8986,7 +9006,7 @@
         <v>4</v>
       </c>
       <c r="L26" s="49" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -8994,19 +9014,19 @@
         <v>2</v>
       </c>
       <c r="B27" s="27"/>
-      <c r="C27" s="69"/>
-      <c r="D27" s="69"/>
-      <c r="E27" s="69"/>
-      <c r="F27" s="69"/>
-      <c r="G27" s="69"/>
-      <c r="H27" s="69"/>
+      <c r="C27" s="70"/>
+      <c r="D27" s="70"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="70"/>
       <c r="I27" s="54"/>
       <c r="J27" s="10"/>
       <c r="K27" s="36">
         <v>11</v>
       </c>
       <c r="L27" s="49" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -9014,35 +9034,39 @@
         <v>1</v>
       </c>
       <c r="B28" s="56"/>
-      <c r="C28" s="74"/>
-      <c r="D28" s="74"/>
-      <c r="E28" s="74"/>
-      <c r="F28" s="74"/>
-      <c r="G28" s="74"/>
-      <c r="H28" s="74"/>
+      <c r="C28" s="76"/>
+      <c r="D28" s="76"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="76"/>
+      <c r="G28" s="76"/>
+      <c r="H28" s="76"/>
       <c r="I28" s="22"/>
       <c r="J28" s="10"/>
-      <c r="K28" s="36"/>
-      <c r="L28" s="49"/>
+      <c r="K28" s="36">
+        <v>18</v>
+      </c>
+      <c r="L28" s="49" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="29" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="26" t="s">
         <v>2</v>
       </c>
       <c r="B29" s="27"/>
-      <c r="C29" s="69"/>
-      <c r="D29" s="69"/>
-      <c r="E29" s="69"/>
-      <c r="F29" s="69"/>
-      <c r="G29" s="69"/>
-      <c r="H29" s="69"/>
+      <c r="C29" s="70"/>
+      <c r="D29" s="70"/>
+      <c r="E29" s="70"/>
+      <c r="F29" s="70"/>
+      <c r="G29" s="70"/>
+      <c r="H29" s="70"/>
       <c r="I29" s="54"/>
       <c r="J29" s="10"/>
       <c r="K29" s="36">
         <v>25</v>
       </c>
       <c r="L29" s="49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -9050,12 +9074,12 @@
         <v>1</v>
       </c>
       <c r="B30" s="56"/>
-      <c r="C30" s="74"/>
-      <c r="D30" s="74"/>
-      <c r="E30" s="74"/>
-      <c r="F30" s="74"/>
-      <c r="G30" s="74"/>
-      <c r="H30" s="74"/>
+      <c r="C30" s="76"/>
+      <c r="D30" s="76"/>
+      <c r="E30" s="76"/>
+      <c r="F30" s="76"/>
+      <c r="G30" s="76"/>
+      <c r="H30" s="76"/>
       <c r="I30" s="22"/>
       <c r="J30" s="10"/>
       <c r="K30" s="36"/>
@@ -9066,12 +9090,12 @@
         <v>2</v>
       </c>
       <c r="B31" s="28"/>
-      <c r="C31" s="71"/>
-      <c r="D31" s="71"/>
-      <c r="E31" s="71"/>
-      <c r="F31" s="71"/>
-      <c r="G31" s="71"/>
-      <c r="H31" s="71"/>
+      <c r="C31" s="72"/>
+      <c r="D31" s="72"/>
+      <c r="E31" s="72"/>
+      <c r="F31" s="72"/>
+      <c r="G31" s="72"/>
+      <c r="H31" s="72"/>
       <c r="I31" s="55"/>
       <c r="J31" s="45"/>
       <c r="K31" s="42"/>
@@ -9079,60 +9103,6 @@
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="G31:H31"/>
@@ -9142,39 +9112,93 @@
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="G30:H30"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:H3">
-    <cfRule type="expression" dxfId="68" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="12" stopIfTrue="1">
       <formula>DAY(C3)&gt;8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:I8">
-    <cfRule type="expression" dxfId="67" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="56" priority="11" stopIfTrue="1">
       <formula>AND(DAY(C7)&gt;=1,DAY(C7)&lt;=15)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:I8">
-    <cfRule type="expression" dxfId="66" priority="13">
+    <cfRule type="expression" dxfId="55" priority="13">
       <formula>VLOOKUP(DAY(C3),AssignmentDays,1,FALSE)=DAY(C3)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:I13 B15:I15 B17:I17 B19:I19 B21:I21 B23:I23 B25:I25 B27:I27 B29:I29 B31:I31">
-    <cfRule type="expression" dxfId="65" priority="4">
+    <cfRule type="expression" dxfId="54" priority="4">
       <formula>B13&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:I12 B14:I14 B16:I16 B18:I18 B20:I20 B22:I22 B24:I24 B26:I26 B28:I28 B30:I30">
-    <cfRule type="expression" dxfId="64" priority="3">
+    <cfRule type="expression" dxfId="53" priority="3">
       <formula>B12&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:I13 B15:I15 B17:I17 B19:I19 B21:I21 B23:I23 B25:I25 B27:I27 B29:I29">
-    <cfRule type="expression" dxfId="63" priority="2">
+    <cfRule type="expression" dxfId="52" priority="2">
       <formula>COLUMN(B12)&gt;=2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:I31">
-    <cfRule type="expression" dxfId="62" priority="1">
+    <cfRule type="expression" dxfId="51" priority="1">
       <formula>COLUMN(B12)&gt;2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9213,8 +9237,8 @@
   </sheetPr>
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="84" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="84" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9249,7 +9273,7 @@
         <v>14</v>
       </c>
       <c r="L1" s="63" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -9315,12 +9339,8 @@
         <v>43254</v>
       </c>
       <c r="J3" s="10"/>
-      <c r="K3" s="36">
-        <v>12</v>
-      </c>
-      <c r="L3" s="49" t="s">
-        <v>52</v>
-      </c>
+      <c r="K3" s="65"/>
+      <c r="L3" s="66"/>
     </row>
     <row r="4" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13"/>
@@ -9387,12 +9407,8 @@
         <v>43268</v>
       </c>
       <c r="J5" s="10"/>
-      <c r="K5" s="36">
-        <v>26</v>
-      </c>
-      <c r="L5" s="49" t="s">
-        <v>53</v>
-      </c>
+      <c r="K5" s="65"/>
+      <c r="L5" s="66"/>
     </row>
     <row r="6" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13"/>
@@ -9496,8 +9512,12 @@
       <c r="J8" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="K8" s="37"/>
-      <c r="L8" s="49"/>
+      <c r="K8" s="37">
+        <v>5</v>
+      </c>
+      <c r="L8" s="49" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="9" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13"/>
@@ -9509,8 +9529,12 @@
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="10"/>
-      <c r="K9" s="36"/>
-      <c r="L9" s="49"/>
+      <c r="K9" s="36">
+        <v>12</v>
+      </c>
+      <c r="L9" s="49" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="10" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13"/>
@@ -9551,20 +9575,24 @@
         <v>33</v>
       </c>
       <c r="J11" s="10"/>
-      <c r="K11" s="36"/>
-      <c r="L11" s="49"/>
+      <c r="K11" s="36">
+        <v>26</v>
+      </c>
+      <c r="L11" s="49" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="12" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
         <v>1</v>
       </c>
       <c r="B12" s="56"/>
-      <c r="C12" s="74"/>
-      <c r="D12" s="74"/>
-      <c r="E12" s="74"/>
-      <c r="F12" s="74"/>
-      <c r="G12" s="74"/>
-      <c r="H12" s="74"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="76"/>
       <c r="I12" s="22"/>
       <c r="J12" s="10"/>
       <c r="K12" s="36"/>
@@ -9575,12 +9603,12 @@
         <v>2</v>
       </c>
       <c r="B13" s="27"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="69"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
       <c r="I13" s="54"/>
       <c r="J13" s="20"/>
       <c r="K13" s="35"/>
@@ -9591,12 +9619,12 @@
         <v>1</v>
       </c>
       <c r="B14" s="56"/>
-      <c r="C14" s="74"/>
-      <c r="D14" s="74"/>
-      <c r="E14" s="74"/>
-      <c r="F14" s="74"/>
-      <c r="G14" s="74"/>
-      <c r="H14" s="74"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="76"/>
+      <c r="H14" s="76"/>
       <c r="I14" s="22">
         <v>0.76041666666666663</v>
       </c>
@@ -9611,12 +9639,12 @@
         <v>2</v>
       </c>
       <c r="B15" s="27"/>
-      <c r="C15" s="69"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="69"/>
-      <c r="H15" s="69"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="70"/>
       <c r="I15" s="27" t="s">
         <v>38</v>
       </c>
@@ -9629,12 +9657,12 @@
         <v>1</v>
       </c>
       <c r="B16" s="56"/>
-      <c r="C16" s="74"/>
-      <c r="D16" s="74"/>
-      <c r="E16" s="74"/>
-      <c r="F16" s="74"/>
-      <c r="G16" s="74"/>
-      <c r="H16" s="74"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="76"/>
       <c r="I16" s="24">
         <v>0.82291666666666663</v>
       </c>
@@ -9643,7 +9671,7 @@
         <v>20</v>
       </c>
       <c r="L16" s="59" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -9651,12 +9679,12 @@
         <v>2</v>
       </c>
       <c r="B17" s="27"/>
-      <c r="C17" s="69"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="69"/>
-      <c r="G17" s="69"/>
-      <c r="H17" s="69"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="70"/>
       <c r="I17" s="27" t="s">
         <v>41</v>
       </c>
@@ -9669,14 +9697,14 @@
         <v>1</v>
       </c>
       <c r="B18" s="56"/>
-      <c r="C18" s="74">
+      <c r="C18" s="76">
         <v>0.82986111111111116</v>
       </c>
-      <c r="D18" s="74"/>
-      <c r="E18" s="74"/>
-      <c r="F18" s="74"/>
-      <c r="G18" s="74"/>
-      <c r="H18" s="74"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="76"/>
+      <c r="H18" s="76"/>
       <c r="I18" s="22"/>
       <c r="J18" s="10"/>
       <c r="K18" s="36"/>
@@ -9687,14 +9715,14 @@
         <v>2</v>
       </c>
       <c r="B19" s="27"/>
-      <c r="C19" s="78" t="s">
+      <c r="C19" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="69"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="69"/>
-      <c r="H19" s="69"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="70"/>
       <c r="I19" s="47"/>
       <c r="J19" s="20"/>
       <c r="K19" s="35"/>
@@ -9705,14 +9733,14 @@
         <v>1</v>
       </c>
       <c r="B20" s="56"/>
-      <c r="C20" s="74">
+      <c r="C20" s="76">
         <v>0.875</v>
       </c>
-      <c r="D20" s="74"/>
-      <c r="E20" s="74"/>
-      <c r="F20" s="74"/>
-      <c r="G20" s="74"/>
-      <c r="H20" s="74"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="76"/>
       <c r="I20" s="22"/>
       <c r="J20" s="10" t="s">
         <v>32</v>
@@ -9725,14 +9753,14 @@
         <v>2</v>
       </c>
       <c r="B21" s="27"/>
-      <c r="C21" s="78" t="s">
+      <c r="C21" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="69"/>
-      <c r="E21" s="69"/>
-      <c r="F21" s="69"/>
-      <c r="G21" s="69"/>
-      <c r="H21" s="69"/>
+      <c r="D21" s="70"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="70"/>
+      <c r="G21" s="70"/>
+      <c r="H21" s="70"/>
       <c r="I21" s="54"/>
       <c r="J21" s="10"/>
       <c r="K21" s="36"/>
@@ -9743,14 +9771,14 @@
         <v>1</v>
       </c>
       <c r="B22" s="56"/>
-      <c r="C22" s="74" t="s">
+      <c r="C22" s="76" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="74"/>
-      <c r="E22" s="74"/>
-      <c r="F22" s="74"/>
-      <c r="G22" s="74"/>
-      <c r="H22" s="74"/>
+      <c r="D22" s="76"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="76"/>
+      <c r="G22" s="76"/>
+      <c r="H22" s="76"/>
       <c r="I22" s="22"/>
       <c r="J22" s="10"/>
       <c r="K22" s="36"/>
@@ -9761,14 +9789,14 @@
         <v>2</v>
       </c>
       <c r="B23" s="27"/>
-      <c r="C23" s="77">
+      <c r="C23" s="78">
         <v>0.96180555555555547</v>
       </c>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="69"/>
-      <c r="H23" s="69"/>
+      <c r="D23" s="70"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="70"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="70"/>
       <c r="I23" s="54"/>
       <c r="J23" s="10"/>
       <c r="K23" s="36"/>
@@ -9779,12 +9807,12 @@
         <v>1</v>
       </c>
       <c r="B24" s="56"/>
-      <c r="C24" s="74"/>
-      <c r="D24" s="74"/>
-      <c r="E24" s="74"/>
-      <c r="F24" s="74"/>
-      <c r="G24" s="74"/>
-      <c r="H24" s="74"/>
+      <c r="C24" s="76"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="76"/>
+      <c r="F24" s="76"/>
+      <c r="G24" s="76"/>
+      <c r="H24" s="76"/>
       <c r="I24" s="22"/>
       <c r="J24" s="10"/>
       <c r="K24" s="36"/>
@@ -9795,12 +9823,12 @@
         <v>2</v>
       </c>
       <c r="B25" s="27"/>
-      <c r="C25" s="69"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="69"/>
-      <c r="H25" s="69"/>
+      <c r="C25" s="70"/>
+      <c r="D25" s="70"/>
+      <c r="E25" s="70"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="70"/>
       <c r="I25" s="54"/>
       <c r="J25" s="20"/>
       <c r="K25" s="35"/>
@@ -9811,34 +9839,30 @@
         <v>1</v>
       </c>
       <c r="B26" s="56"/>
-      <c r="C26" s="74"/>
-      <c r="D26" s="74"/>
-      <c r="E26" s="74"/>
-      <c r="F26" s="74"/>
-      <c r="G26" s="74"/>
-      <c r="H26" s="74"/>
+      <c r="C26" s="76"/>
+      <c r="D26" s="76"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="76"/>
+      <c r="H26" s="76"/>
       <c r="I26" s="22"/>
       <c r="J26" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="K26" s="36">
-        <v>29</v>
-      </c>
-      <c r="L26" s="49" t="s">
-        <v>54</v>
-      </c>
+      <c r="K26" s="65"/>
+      <c r="L26" s="66"/>
     </row>
     <row r="27" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="26" t="s">
         <v>2</v>
       </c>
       <c r="B27" s="27"/>
-      <c r="C27" s="69"/>
-      <c r="D27" s="69"/>
-      <c r="E27" s="69"/>
-      <c r="F27" s="69"/>
-      <c r="G27" s="69"/>
-      <c r="H27" s="69"/>
+      <c r="C27" s="70"/>
+      <c r="D27" s="70"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="70"/>
       <c r="I27" s="54"/>
       <c r="J27" s="10"/>
       <c r="K27" s="36"/>
@@ -9849,12 +9873,12 @@
         <v>1</v>
       </c>
       <c r="B28" s="56"/>
-      <c r="C28" s="74"/>
-      <c r="D28" s="74"/>
-      <c r="E28" s="74"/>
-      <c r="F28" s="74"/>
-      <c r="G28" s="74"/>
-      <c r="H28" s="74"/>
+      <c r="C28" s="76"/>
+      <c r="D28" s="76"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="76"/>
+      <c r="G28" s="76"/>
+      <c r="H28" s="76"/>
       <c r="I28" s="22"/>
       <c r="J28" s="10"/>
       <c r="K28" s="36"/>
@@ -9865,12 +9889,12 @@
         <v>2</v>
       </c>
       <c r="B29" s="27"/>
-      <c r="C29" s="69"/>
-      <c r="D29" s="69"/>
-      <c r="E29" s="69"/>
-      <c r="F29" s="69"/>
-      <c r="G29" s="69"/>
-      <c r="H29" s="69"/>
+      <c r="C29" s="70"/>
+      <c r="D29" s="70"/>
+      <c r="E29" s="70"/>
+      <c r="F29" s="70"/>
+      <c r="G29" s="70"/>
+      <c r="H29" s="70"/>
       <c r="I29" s="54"/>
       <c r="J29" s="10"/>
       <c r="K29" s="36"/>
@@ -9881,28 +9905,32 @@
         <v>1</v>
       </c>
       <c r="B30" s="56"/>
-      <c r="C30" s="74"/>
-      <c r="D30" s="74"/>
-      <c r="E30" s="74"/>
-      <c r="F30" s="74"/>
-      <c r="G30" s="74"/>
-      <c r="H30" s="74"/>
+      <c r="C30" s="76"/>
+      <c r="D30" s="76"/>
+      <c r="E30" s="76"/>
+      <c r="F30" s="76"/>
+      <c r="G30" s="76"/>
+      <c r="H30" s="76"/>
       <c r="I30" s="22"/>
       <c r="J30" s="10"/>
-      <c r="K30" s="36"/>
-      <c r="L30" s="49"/>
+      <c r="K30" s="36">
+        <v>29</v>
+      </c>
+      <c r="L30" s="49" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="31" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="26" t="s">
         <v>2</v>
       </c>
       <c r="B31" s="28"/>
-      <c r="C31" s="71"/>
-      <c r="D31" s="71"/>
-      <c r="E31" s="71"/>
-      <c r="F31" s="71"/>
-      <c r="G31" s="71"/>
-      <c r="H31" s="71"/>
+      <c r="C31" s="72"/>
+      <c r="D31" s="72"/>
+      <c r="E31" s="72"/>
+      <c r="F31" s="72"/>
+      <c r="G31" s="72"/>
+      <c r="H31" s="72"/>
       <c r="I31" s="55"/>
       <c r="J31" s="10"/>
       <c r="K31" s="42"/>
@@ -9910,60 +9938,6 @@
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="G31:H31"/>
@@ -9973,39 +9947,93 @@
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="G30:H30"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:H3">
-    <cfRule type="expression" dxfId="59" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="10" stopIfTrue="1">
       <formula>DAY(C3)&gt;8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:I8">
-    <cfRule type="expression" dxfId="58" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="9" stopIfTrue="1">
       <formula>AND(DAY(C7)&gt;=1,DAY(C7)&lt;=15)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:I8">
-    <cfRule type="expression" dxfId="57" priority="11">
+    <cfRule type="expression" dxfId="48" priority="11">
       <formula>VLOOKUP(DAY(C3),AssignmentDays,1,FALSE)=DAY(C3)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:I13 B15:I15 B17:I17 B19:I19 B21:I21 B23:I23 B25:I25 B27:I27 B29:I29 B31:I31">
-    <cfRule type="expression" dxfId="56" priority="4">
+    <cfRule type="expression" dxfId="47" priority="4">
       <formula>B13&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:I12 B14:I14 B16:I16 B18:I18 B20:I20 B22:I22 B24:I24 B26:I26 B28:I28 B30:I30">
-    <cfRule type="expression" dxfId="55" priority="3">
+    <cfRule type="expression" dxfId="46" priority="3">
       <formula>B12&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:I13 B15:I15 B17:I17 B19:I19 B21:I21 B23:I23 B25:I25 B27:I27 B29:I29">
-    <cfRule type="expression" dxfId="54" priority="2">
+    <cfRule type="expression" dxfId="45" priority="2">
       <formula>COLUMN(B12)&gt;=2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:I31">
-    <cfRule type="expression" dxfId="53" priority="1">
+    <cfRule type="expression" dxfId="44" priority="1">
       <formula>COLUMN(B12)&gt;2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10080,7 +10108,7 @@
         <v>14</v>
       </c>
       <c r="L1" s="63" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -10382,12 +10410,12 @@
         <v>1</v>
       </c>
       <c r="B12" s="56"/>
-      <c r="C12" s="74"/>
-      <c r="D12" s="74"/>
-      <c r="E12" s="74"/>
-      <c r="F12" s="74"/>
-      <c r="G12" s="74"/>
-      <c r="H12" s="74"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="76"/>
       <c r="I12" s="22"/>
       <c r="J12" s="10"/>
       <c r="K12" s="36"/>
@@ -10398,12 +10426,12 @@
         <v>2</v>
       </c>
       <c r="B13" s="27"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="69"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
       <c r="I13" s="54"/>
       <c r="J13" s="20"/>
       <c r="K13" s="35"/>
@@ -10414,12 +10442,12 @@
         <v>1</v>
       </c>
       <c r="B14" s="56"/>
-      <c r="C14" s="74"/>
-      <c r="D14" s="74"/>
-      <c r="E14" s="74"/>
-      <c r="F14" s="74"/>
-      <c r="G14" s="74"/>
-      <c r="H14" s="74"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="76"/>
+      <c r="H14" s="76"/>
       <c r="I14" s="22">
         <v>0.76041666666666663</v>
       </c>
@@ -10434,12 +10462,12 @@
         <v>2</v>
       </c>
       <c r="B15" s="27"/>
-      <c r="C15" s="69"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="69"/>
-      <c r="H15" s="69"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="70"/>
       <c r="I15" s="27" t="s">
         <v>38</v>
       </c>
@@ -10452,12 +10480,12 @@
         <v>1</v>
       </c>
       <c r="B16" s="56"/>
-      <c r="C16" s="74"/>
-      <c r="D16" s="74"/>
-      <c r="E16" s="74"/>
-      <c r="F16" s="74"/>
-      <c r="G16" s="74"/>
-      <c r="H16" s="74"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="76"/>
       <c r="I16" s="24">
         <v>0.82291666666666663</v>
       </c>
@@ -10470,12 +10498,12 @@
         <v>2</v>
       </c>
       <c r="B17" s="27"/>
-      <c r="C17" s="69"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="69"/>
-      <c r="G17" s="69"/>
-      <c r="H17" s="69"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="70"/>
       <c r="I17" s="27" t="s">
         <v>41</v>
       </c>
@@ -10488,14 +10516,14 @@
         <v>1</v>
       </c>
       <c r="B18" s="56"/>
-      <c r="C18" s="74">
+      <c r="C18" s="76">
         <v>0.82986111111111116</v>
       </c>
-      <c r="D18" s="74"/>
-      <c r="E18" s="74"/>
-      <c r="F18" s="74"/>
-      <c r="G18" s="74"/>
-      <c r="H18" s="74"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="76"/>
+      <c r="H18" s="76"/>
       <c r="I18" s="22"/>
       <c r="J18" s="10"/>
       <c r="K18" s="36"/>
@@ -10506,14 +10534,14 @@
         <v>2</v>
       </c>
       <c r="B19" s="27"/>
-      <c r="C19" s="78" t="s">
+      <c r="C19" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="69"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="69"/>
-      <c r="H19" s="69"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="70"/>
       <c r="I19" s="47"/>
       <c r="J19" s="20"/>
       <c r="K19" s="35"/>
@@ -10524,14 +10552,14 @@
         <v>1</v>
       </c>
       <c r="B20" s="56"/>
-      <c r="C20" s="74">
+      <c r="C20" s="76">
         <v>0.875</v>
       </c>
-      <c r="D20" s="74"/>
-      <c r="E20" s="74"/>
-      <c r="F20" s="74"/>
-      <c r="G20" s="74"/>
-      <c r="H20" s="74"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="76"/>
       <c r="I20" s="22"/>
       <c r="J20" s="10" t="s">
         <v>32</v>
@@ -10544,14 +10572,14 @@
         <v>2</v>
       </c>
       <c r="B21" s="27"/>
-      <c r="C21" s="78" t="s">
+      <c r="C21" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="69"/>
-      <c r="E21" s="69"/>
-      <c r="F21" s="69"/>
-      <c r="G21" s="69"/>
-      <c r="H21" s="69"/>
+      <c r="D21" s="70"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="70"/>
+      <c r="G21" s="70"/>
+      <c r="H21" s="70"/>
       <c r="I21" s="54"/>
       <c r="J21" s="10"/>
       <c r="K21" s="36"/>
@@ -10562,14 +10590,14 @@
         <v>1</v>
       </c>
       <c r="B22" s="56"/>
-      <c r="C22" s="74" t="s">
+      <c r="C22" s="76" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="74"/>
-      <c r="E22" s="74"/>
-      <c r="F22" s="74"/>
-      <c r="G22" s="74"/>
-      <c r="H22" s="74"/>
+      <c r="D22" s="76"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="76"/>
+      <c r="G22" s="76"/>
+      <c r="H22" s="76"/>
       <c r="I22" s="22"/>
       <c r="J22" s="10"/>
       <c r="K22" s="36"/>
@@ -10580,14 +10608,14 @@
         <v>2</v>
       </c>
       <c r="B23" s="27"/>
-      <c r="C23" s="77">
+      <c r="C23" s="78">
         <v>0.96180555555555547</v>
       </c>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="69"/>
-      <c r="H23" s="69"/>
+      <c r="D23" s="70"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="70"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="70"/>
       <c r="I23" s="54"/>
       <c r="J23" s="10"/>
       <c r="K23" s="36"/>
@@ -10598,12 +10626,12 @@
         <v>1</v>
       </c>
       <c r="B24" s="56"/>
-      <c r="C24" s="74"/>
-      <c r="D24" s="74"/>
-      <c r="E24" s="74"/>
-      <c r="F24" s="74"/>
-      <c r="G24" s="74"/>
-      <c r="H24" s="74"/>
+      <c r="C24" s="76"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="76"/>
+      <c r="F24" s="76"/>
+      <c r="G24" s="76"/>
+      <c r="H24" s="76"/>
       <c r="I24" s="22"/>
       <c r="J24" s="10"/>
       <c r="K24" s="36"/>
@@ -10614,12 +10642,12 @@
         <v>2</v>
       </c>
       <c r="B25" s="27"/>
-      <c r="C25" s="69"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="69"/>
-      <c r="H25" s="69"/>
+      <c r="C25" s="70"/>
+      <c r="D25" s="70"/>
+      <c r="E25" s="70"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="70"/>
       <c r="I25" s="54"/>
       <c r="J25" s="20"/>
       <c r="K25" s="35"/>
@@ -10630,12 +10658,12 @@
         <v>1</v>
       </c>
       <c r="B26" s="56"/>
-      <c r="C26" s="74"/>
-      <c r="D26" s="74"/>
-      <c r="E26" s="74"/>
-      <c r="F26" s="74"/>
-      <c r="G26" s="74"/>
-      <c r="H26" s="74"/>
+      <c r="C26" s="76"/>
+      <c r="D26" s="76"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="76"/>
+      <c r="H26" s="76"/>
       <c r="I26" s="22"/>
       <c r="J26" s="10" t="s">
         <v>33</v>
@@ -10648,12 +10676,12 @@
         <v>2</v>
       </c>
       <c r="B27" s="27"/>
-      <c r="C27" s="69"/>
-      <c r="D27" s="69"/>
-      <c r="E27" s="69"/>
-      <c r="F27" s="69"/>
-      <c r="G27" s="69"/>
-      <c r="H27" s="69"/>
+      <c r="C27" s="70"/>
+      <c r="D27" s="70"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="70"/>
       <c r="I27" s="54"/>
       <c r="J27" s="10"/>
       <c r="K27" s="36"/>
@@ -10664,12 +10692,12 @@
         <v>1</v>
       </c>
       <c r="B28" s="56"/>
-      <c r="C28" s="74"/>
-      <c r="D28" s="74"/>
-      <c r="E28" s="74"/>
-      <c r="F28" s="74"/>
-      <c r="G28" s="74"/>
-      <c r="H28" s="74"/>
+      <c r="C28" s="76"/>
+      <c r="D28" s="76"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="76"/>
+      <c r="G28" s="76"/>
+      <c r="H28" s="76"/>
       <c r="I28" s="22"/>
       <c r="J28" s="10"/>
       <c r="K28" s="36"/>
@@ -10680,12 +10708,12 @@
         <v>2</v>
       </c>
       <c r="B29" s="27"/>
-      <c r="C29" s="69"/>
-      <c r="D29" s="69"/>
-      <c r="E29" s="69"/>
-      <c r="F29" s="69"/>
-      <c r="G29" s="69"/>
-      <c r="H29" s="69"/>
+      <c r="C29" s="70"/>
+      <c r="D29" s="70"/>
+      <c r="E29" s="70"/>
+      <c r="F29" s="70"/>
+      <c r="G29" s="70"/>
+      <c r="H29" s="70"/>
       <c r="I29" s="54"/>
       <c r="J29" s="10"/>
       <c r="K29" s="36"/>
@@ -10696,12 +10724,12 @@
         <v>1</v>
       </c>
       <c r="B30" s="56"/>
-      <c r="C30" s="74"/>
-      <c r="D30" s="74"/>
-      <c r="E30" s="74"/>
-      <c r="F30" s="74"/>
-      <c r="G30" s="74"/>
-      <c r="H30" s="74"/>
+      <c r="C30" s="76"/>
+      <c r="D30" s="76"/>
+      <c r="E30" s="76"/>
+      <c r="F30" s="76"/>
+      <c r="G30" s="76"/>
+      <c r="H30" s="76"/>
       <c r="I30" s="22"/>
       <c r="J30" s="10"/>
       <c r="K30" s="36"/>
@@ -10712,12 +10740,12 @@
         <v>2</v>
       </c>
       <c r="B31" s="28"/>
-      <c r="C31" s="71"/>
-      <c r="D31" s="71"/>
-      <c r="E31" s="71"/>
-      <c r="F31" s="71"/>
-      <c r="G31" s="71"/>
-      <c r="H31" s="71"/>
+      <c r="C31" s="72"/>
+      <c r="D31" s="72"/>
+      <c r="E31" s="72"/>
+      <c r="F31" s="72"/>
+      <c r="G31" s="72"/>
+      <c r="H31" s="72"/>
       <c r="I31" s="55"/>
       <c r="J31" s="10"/>
       <c r="K31" s="42"/>
@@ -10725,60 +10753,6 @@
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="G31:H31"/>
@@ -10788,39 +10762,93 @@
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="G30:H30"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:H3">
-    <cfRule type="expression" dxfId="50" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="10" stopIfTrue="1">
       <formula>DAY(C3)&gt;8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:I8">
-    <cfRule type="expression" dxfId="49" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="9" stopIfTrue="1">
       <formula>AND(DAY(C7)&gt;=1,DAY(C7)&lt;=15)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:I8">
-    <cfRule type="expression" dxfId="48" priority="11">
+    <cfRule type="expression" dxfId="41" priority="11">
       <formula>VLOOKUP(DAY(C3),AssignmentDays,1,FALSE)=DAY(C3)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:I13 B15:I15 B17:I17 B19:I19 B21:I21 B23:I23 B25:I25 B27:I27 B29:I29 B31:I31">
-    <cfRule type="expression" dxfId="47" priority="4">
+    <cfRule type="expression" dxfId="40" priority="4">
       <formula>B13&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:I12 B14:I14 B16:I16 B18:I18 B20:I20 B22:I22 B24:I24 B26:I26 B28:I28 B30:I30">
-    <cfRule type="expression" dxfId="46" priority="3">
+    <cfRule type="expression" dxfId="39" priority="3">
       <formula>B12&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:I13 B15:I15 B17:I17 B19:I19 B21:I21 B23:I23 B25:I25 B27:I27 B29:I29">
-    <cfRule type="expression" dxfId="45" priority="2">
+    <cfRule type="expression" dxfId="38" priority="2">
       <formula>COLUMN(B12)&gt;=2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:I31">
-    <cfRule type="expression" dxfId="44" priority="1">
+    <cfRule type="expression" dxfId="37" priority="1">
       <formula>COLUMN(B12)&gt;2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11190,14 +11218,14 @@
       <c r="B12" s="21">
         <v>0.33333333333333331</v>
       </c>
-      <c r="C12" s="74"/>
-      <c r="D12" s="74"/>
-      <c r="E12" s="74">
+      <c r="C12" s="76"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="76">
         <v>0.33333333333333331</v>
       </c>
-      <c r="F12" s="74"/>
-      <c r="G12" s="74"/>
-      <c r="H12" s="74"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="76"/>
       <c r="I12" s="22">
         <v>0.33333333333333331</v>
       </c>
@@ -11212,14 +11240,14 @@
       <c r="B13" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="69"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="69" t="s">
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="F13" s="69"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="69"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
       <c r="I13" s="30" t="s">
         <v>5</v>
       </c>
@@ -11232,16 +11260,16 @@
         <v>1</v>
       </c>
       <c r="B14" s="21"/>
-      <c r="C14" s="74">
+      <c r="C14" s="76">
         <v>0.375</v>
       </c>
-      <c r="D14" s="74"/>
-      <c r="E14" s="74"/>
-      <c r="F14" s="74"/>
-      <c r="G14" s="74">
+      <c r="D14" s="76"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="76">
         <v>0.375</v>
       </c>
-      <c r="H14" s="74"/>
+      <c r="H14" s="76"/>
       <c r="I14" s="22"/>
       <c r="J14" s="10" t="s">
         <v>31</v>
@@ -11254,16 +11282,16 @@
         <v>2</v>
       </c>
       <c r="B15" s="27"/>
-      <c r="C15" s="69" t="s">
+      <c r="C15" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="69"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="69" t="s">
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="69"/>
+      <c r="H15" s="70"/>
       <c r="I15" s="30"/>
       <c r="J15" s="10"/>
       <c r="K15" s="36"/>
@@ -11276,14 +11304,14 @@
       <c r="B16" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="74"/>
-      <c r="D16" s="74"/>
-      <c r="E16" s="74" t="s">
+      <c r="C16" s="76"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="F16" s="74"/>
-      <c r="G16" s="74"/>
-      <c r="H16" s="74"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="76"/>
       <c r="I16" s="24" t="s">
         <v>6</v>
       </c>
@@ -11298,14 +11326,14 @@
       <c r="B17" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="69"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="69" t="s">
+      <c r="C17" s="70"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="F17" s="69"/>
-      <c r="G17" s="69"/>
-      <c r="H17" s="69"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="70"/>
       <c r="I17" s="30" t="s">
         <v>7</v>
       </c>
@@ -11318,12 +11346,12 @@
         <v>1</v>
       </c>
       <c r="B18" s="21"/>
-      <c r="C18" s="74"/>
-      <c r="D18" s="74"/>
-      <c r="E18" s="74"/>
-      <c r="F18" s="74"/>
-      <c r="G18" s="74"/>
-      <c r="H18" s="74"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="76"/>
+      <c r="H18" s="76"/>
       <c r="I18" s="22"/>
       <c r="J18" s="10"/>
       <c r="K18" s="36"/>
@@ -11334,12 +11362,12 @@
         <v>2</v>
       </c>
       <c r="B19" s="27"/>
-      <c r="C19" s="69"/>
-      <c r="D19" s="69"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="69"/>
-      <c r="H19" s="69"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="70"/>
       <c r="I19" s="47"/>
       <c r="J19" s="20"/>
       <c r="K19" s="35"/>
@@ -11350,12 +11378,12 @@
         <v>1</v>
       </c>
       <c r="B20" s="21"/>
-      <c r="C20" s="74"/>
-      <c r="D20" s="74"/>
-      <c r="E20" s="74"/>
-      <c r="F20" s="74"/>
-      <c r="G20" s="74"/>
-      <c r="H20" s="74"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="76"/>
       <c r="I20" s="22"/>
       <c r="J20" s="10" t="s">
         <v>32</v>
@@ -11368,12 +11396,12 @@
         <v>2</v>
       </c>
       <c r="B21" s="27"/>
-      <c r="C21" s="69"/>
-      <c r="D21" s="69"/>
-      <c r="E21" s="69"/>
-      <c r="F21" s="69"/>
-      <c r="G21" s="69"/>
-      <c r="H21" s="69"/>
+      <c r="C21" s="70"/>
+      <c r="D21" s="70"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="70"/>
+      <c r="G21" s="70"/>
+      <c r="H21" s="70"/>
       <c r="I21" s="30"/>
       <c r="J21" s="10"/>
       <c r="K21" s="36"/>
@@ -11384,12 +11412,12 @@
         <v>1</v>
       </c>
       <c r="B22" s="21"/>
-      <c r="C22" s="74"/>
-      <c r="D22" s="74"/>
-      <c r="E22" s="74"/>
-      <c r="F22" s="74"/>
-      <c r="G22" s="74"/>
-      <c r="H22" s="74"/>
+      <c r="C22" s="76"/>
+      <c r="D22" s="76"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="76"/>
+      <c r="G22" s="76"/>
+      <c r="H22" s="76"/>
       <c r="I22" s="22"/>
       <c r="J22" s="10"/>
       <c r="K22" s="36"/>
@@ -11400,12 +11428,12 @@
         <v>2</v>
       </c>
       <c r="B23" s="27"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="69"/>
-      <c r="H23" s="69"/>
+      <c r="C23" s="70"/>
+      <c r="D23" s="70"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="70"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="70"/>
       <c r="I23" s="30"/>
       <c r="J23" s="10"/>
       <c r="K23" s="36"/>
@@ -11418,14 +11446,14 @@
       <c r="B24" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="74"/>
-      <c r="D24" s="74"/>
-      <c r="E24" s="74" t="s">
+      <c r="C24" s="76"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="74"/>
-      <c r="G24" s="74"/>
-      <c r="H24" s="74"/>
+      <c r="F24" s="76"/>
+      <c r="G24" s="76"/>
+      <c r="H24" s="76"/>
       <c r="I24" s="22" t="s">
         <v>8</v>
       </c>
@@ -11440,14 +11468,14 @@
       <c r="B25" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="69"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69" t="s">
+      <c r="C25" s="70"/>
+      <c r="D25" s="70"/>
+      <c r="E25" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="F25" s="69"/>
-      <c r="G25" s="69"/>
-      <c r="H25" s="69"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="70"/>
       <c r="I25" s="30" t="s">
         <v>9</v>
       </c>
@@ -11460,12 +11488,12 @@
         <v>1</v>
       </c>
       <c r="B26" s="21"/>
-      <c r="C26" s="74"/>
-      <c r="D26" s="74"/>
-      <c r="E26" s="74"/>
-      <c r="F26" s="74"/>
-      <c r="G26" s="74"/>
-      <c r="H26" s="74"/>
+      <c r="C26" s="76"/>
+      <c r="D26" s="76"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="76"/>
+      <c r="H26" s="76"/>
       <c r="I26" s="22"/>
       <c r="J26" s="10" t="s">
         <v>33</v>
@@ -11478,12 +11506,12 @@
         <v>2</v>
       </c>
       <c r="B27" s="27"/>
-      <c r="C27" s="69"/>
-      <c r="D27" s="69"/>
-      <c r="E27" s="69"/>
-      <c r="F27" s="69"/>
-      <c r="G27" s="69"/>
-      <c r="H27" s="69"/>
+      <c r="C27" s="70"/>
+      <c r="D27" s="70"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="70"/>
       <c r="I27" s="30"/>
       <c r="J27" s="10"/>
       <c r="K27" s="36"/>
@@ -11494,16 +11522,16 @@
         <v>1</v>
       </c>
       <c r="B28" s="21"/>
-      <c r="C28" s="74" t="s">
+      <c r="C28" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="D28" s="74"/>
-      <c r="E28" s="74"/>
-      <c r="F28" s="74"/>
-      <c r="G28" s="74" t="s">
+      <c r="D28" s="76"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="76"/>
+      <c r="G28" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="H28" s="74"/>
+      <c r="H28" s="76"/>
       <c r="I28" s="22"/>
       <c r="J28" s="10"/>
       <c r="K28" s="36"/>
@@ -11514,16 +11542,16 @@
         <v>2</v>
       </c>
       <c r="B29" s="27"/>
-      <c r="C29" s="69" t="s">
+      <c r="C29" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="69"/>
-      <c r="E29" s="69"/>
-      <c r="F29" s="69"/>
-      <c r="G29" s="69" t="s">
+      <c r="D29" s="70"/>
+      <c r="E29" s="70"/>
+      <c r="F29" s="70"/>
+      <c r="G29" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="H29" s="69"/>
+      <c r="H29" s="70"/>
       <c r="I29" s="30"/>
       <c r="J29" s="10"/>
       <c r="K29" s="36"/>
@@ -11534,12 +11562,12 @@
         <v>1</v>
       </c>
       <c r="B30" s="21"/>
-      <c r="C30" s="74"/>
-      <c r="D30" s="74"/>
-      <c r="E30" s="74"/>
-      <c r="F30" s="74"/>
-      <c r="G30" s="74"/>
-      <c r="H30" s="74"/>
+      <c r="C30" s="76"/>
+      <c r="D30" s="76"/>
+      <c r="E30" s="76"/>
+      <c r="F30" s="76"/>
+      <c r="G30" s="76"/>
+      <c r="H30" s="76"/>
       <c r="I30" s="22"/>
       <c r="J30" s="10"/>
       <c r="K30" s="36"/>
@@ -11550,12 +11578,12 @@
         <v>2</v>
       </c>
       <c r="B31" s="28"/>
-      <c r="C31" s="71"/>
-      <c r="D31" s="71"/>
-      <c r="E31" s="71"/>
-      <c r="F31" s="71"/>
-      <c r="G31" s="71"/>
-      <c r="H31" s="71"/>
+      <c r="C31" s="72"/>
+      <c r="D31" s="72"/>
+      <c r="E31" s="72"/>
+      <c r="F31" s="72"/>
+      <c r="G31" s="72"/>
+      <c r="H31" s="72"/>
       <c r="I31" s="40"/>
       <c r="J31" s="10"/>
       <c r="K31" s="42"/>
@@ -11563,60 +11591,6 @@
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="G31:H31"/>
@@ -11626,39 +11600,93 @@
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="G30:H30"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:H3">
-    <cfRule type="expression" dxfId="41" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="6" stopIfTrue="1">
       <formula>DAY(C3)&gt;8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:I8">
-    <cfRule type="expression" dxfId="40" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="5" stopIfTrue="1">
       <formula>AND(DAY(C7)&gt;=1,DAY(C7)&lt;=15)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:I8">
-    <cfRule type="expression" dxfId="39" priority="7">
+    <cfRule type="expression" dxfId="34" priority="7">
       <formula>VLOOKUP(DAY(C3),AssignmentDays,1,FALSE)=DAY(C3)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:I12 B14:I14 B16:I16 B18:I18 B20:I20 B22:I22 B24:I24 B26:I26 B28:I28 B30:I30">
-    <cfRule type="expression" dxfId="38" priority="4">
+    <cfRule type="expression" dxfId="33" priority="4">
       <formula>B12&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:I13 B15:I15 B17:I17 B19:I19 B21:I21 B23:I23 B25:I25 B27:I27 B29:I29 B31:I31">
-    <cfRule type="expression" dxfId="37" priority="3">
+    <cfRule type="expression" dxfId="32" priority="3">
       <formula>B12&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:I13 B15:I15 B17:I17 B19:I19 B21:I21 B23:I23 B25:I25 B27:I27 B29:I29">
-    <cfRule type="expression" dxfId="36" priority="2">
+    <cfRule type="expression" dxfId="31" priority="2">
       <formula>COLUMN(B13)&gt;=2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:I31">
-    <cfRule type="expression" dxfId="35" priority="1">
+    <cfRule type="expression" dxfId="30" priority="1">
       <formula>COLUMN(B12)&gt;2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12028,14 +12056,14 @@
       <c r="B12" s="21">
         <v>0.33333333333333331</v>
       </c>
-      <c r="C12" s="74"/>
-      <c r="D12" s="74"/>
-      <c r="E12" s="74">
+      <c r="C12" s="76"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="76">
         <v>0.33333333333333331</v>
       </c>
-      <c r="F12" s="74"/>
-      <c r="G12" s="74"/>
-      <c r="H12" s="74"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="76"/>
       <c r="I12" s="22">
         <v>0.33333333333333331</v>
       </c>
@@ -12050,14 +12078,14 @@
       <c r="B13" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="69"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="69" t="s">
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="F13" s="69"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="69"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
       <c r="I13" s="30" t="s">
         <v>5</v>
       </c>
@@ -12070,16 +12098,16 @@
         <v>1</v>
       </c>
       <c r="B14" s="21"/>
-      <c r="C14" s="74">
+      <c r="C14" s="76">
         <v>0.375</v>
       </c>
-      <c r="D14" s="74"/>
-      <c r="E14" s="74"/>
-      <c r="F14" s="74"/>
-      <c r="G14" s="74">
+      <c r="D14" s="76"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="76">
         <v>0.375</v>
       </c>
-      <c r="H14" s="74"/>
+      <c r="H14" s="76"/>
       <c r="I14" s="22"/>
       <c r="J14" s="10" t="s">
         <v>31</v>
@@ -12092,16 +12120,16 @@
         <v>2</v>
       </c>
       <c r="B15" s="27"/>
-      <c r="C15" s="69" t="s">
+      <c r="C15" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="69"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="69" t="s">
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="69"/>
+      <c r="H15" s="70"/>
       <c r="I15" s="30"/>
       <c r="J15" s="10"/>
       <c r="K15" s="36"/>
@@ -12114,14 +12142,14 @@
       <c r="B16" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="74"/>
-      <c r="D16" s="74"/>
-      <c r="E16" s="74" t="s">
+      <c r="C16" s="76"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="F16" s="74"/>
-      <c r="G16" s="74"/>
-      <c r="H16" s="74"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="76"/>
       <c r="I16" s="24" t="s">
         <v>6</v>
       </c>
@@ -12136,14 +12164,14 @@
       <c r="B17" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="69"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="69" t="s">
+      <c r="C17" s="70"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="F17" s="69"/>
-      <c r="G17" s="69"/>
-      <c r="H17" s="69"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="70"/>
       <c r="I17" s="30" t="s">
         <v>7</v>
       </c>
@@ -12156,12 +12184,12 @@
         <v>1</v>
       </c>
       <c r="B18" s="21"/>
-      <c r="C18" s="74"/>
-      <c r="D18" s="74"/>
-      <c r="E18" s="74"/>
-      <c r="F18" s="74"/>
-      <c r="G18" s="74"/>
-      <c r="H18" s="74"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="76"/>
+      <c r="H18" s="76"/>
       <c r="I18" s="22"/>
       <c r="J18" s="10"/>
       <c r="K18" s="36"/>
@@ -12172,12 +12200,12 @@
         <v>2</v>
       </c>
       <c r="B19" s="27"/>
-      <c r="C19" s="69"/>
-      <c r="D19" s="69"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="69"/>
-      <c r="H19" s="69"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="70"/>
       <c r="I19" s="47"/>
       <c r="J19" s="20"/>
       <c r="K19" s="35"/>
@@ -12188,12 +12216,12 @@
         <v>1</v>
       </c>
       <c r="B20" s="21"/>
-      <c r="C20" s="74"/>
-      <c r="D20" s="74"/>
-      <c r="E20" s="74"/>
-      <c r="F20" s="74"/>
-      <c r="G20" s="74"/>
-      <c r="H20" s="74"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="76"/>
       <c r="I20" s="22"/>
       <c r="J20" s="10" t="s">
         <v>32</v>
@@ -12206,12 +12234,12 @@
         <v>2</v>
       </c>
       <c r="B21" s="27"/>
-      <c r="C21" s="69"/>
-      <c r="D21" s="69"/>
-      <c r="E21" s="69"/>
-      <c r="F21" s="69"/>
-      <c r="G21" s="69"/>
-      <c r="H21" s="69"/>
+      <c r="C21" s="70"/>
+      <c r="D21" s="70"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="70"/>
+      <c r="G21" s="70"/>
+      <c r="H21" s="70"/>
       <c r="I21" s="30"/>
       <c r="J21" s="10"/>
       <c r="K21" s="36"/>
@@ -12222,12 +12250,12 @@
         <v>1</v>
       </c>
       <c r="B22" s="21"/>
-      <c r="C22" s="74"/>
-      <c r="D22" s="74"/>
-      <c r="E22" s="74"/>
-      <c r="F22" s="74"/>
-      <c r="G22" s="74"/>
-      <c r="H22" s="74"/>
+      <c r="C22" s="76"/>
+      <c r="D22" s="76"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="76"/>
+      <c r="G22" s="76"/>
+      <c r="H22" s="76"/>
       <c r="I22" s="22"/>
       <c r="J22" s="10"/>
       <c r="K22" s="36"/>
@@ -12238,12 +12266,12 @@
         <v>2</v>
       </c>
       <c r="B23" s="27"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="69"/>
-      <c r="H23" s="69"/>
+      <c r="C23" s="70"/>
+      <c r="D23" s="70"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="70"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="70"/>
       <c r="I23" s="30"/>
       <c r="J23" s="10"/>
       <c r="K23" s="36"/>
@@ -12256,14 +12284,14 @@
       <c r="B24" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="74"/>
-      <c r="D24" s="74"/>
-      <c r="E24" s="74" t="s">
+      <c r="C24" s="76"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="74"/>
-      <c r="G24" s="74"/>
-      <c r="H24" s="74"/>
+      <c r="F24" s="76"/>
+      <c r="G24" s="76"/>
+      <c r="H24" s="76"/>
       <c r="I24" s="22" t="s">
         <v>8</v>
       </c>
@@ -12278,14 +12306,14 @@
       <c r="B25" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="69"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69" t="s">
+      <c r="C25" s="70"/>
+      <c r="D25" s="70"/>
+      <c r="E25" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="F25" s="69"/>
-      <c r="G25" s="69"/>
-      <c r="H25" s="69"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="70"/>
       <c r="I25" s="30" t="s">
         <v>9</v>
       </c>
@@ -12298,12 +12326,12 @@
         <v>1</v>
       </c>
       <c r="B26" s="21"/>
-      <c r="C26" s="74"/>
-      <c r="D26" s="74"/>
-      <c r="E26" s="74"/>
-      <c r="F26" s="74"/>
-      <c r="G26" s="74"/>
-      <c r="H26" s="74"/>
+      <c r="C26" s="76"/>
+      <c r="D26" s="76"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="76"/>
+      <c r="H26" s="76"/>
       <c r="I26" s="22"/>
       <c r="J26" s="10" t="s">
         <v>33</v>
@@ -12316,12 +12344,12 @@
         <v>2</v>
       </c>
       <c r="B27" s="27"/>
-      <c r="C27" s="69"/>
-      <c r="D27" s="69"/>
-      <c r="E27" s="69"/>
-      <c r="F27" s="69"/>
-      <c r="G27" s="69"/>
-      <c r="H27" s="69"/>
+      <c r="C27" s="70"/>
+      <c r="D27" s="70"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="70"/>
       <c r="I27" s="30"/>
       <c r="J27" s="10"/>
       <c r="K27" s="36"/>
@@ -12332,16 +12360,16 @@
         <v>1</v>
       </c>
       <c r="B28" s="21"/>
-      <c r="C28" s="74" t="s">
+      <c r="C28" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="D28" s="74"/>
-      <c r="E28" s="74"/>
-      <c r="F28" s="74"/>
-      <c r="G28" s="74" t="s">
+      <c r="D28" s="76"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="76"/>
+      <c r="G28" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="H28" s="74"/>
+      <c r="H28" s="76"/>
       <c r="I28" s="22"/>
       <c r="J28" s="10"/>
       <c r="K28" s="36"/>
@@ -12352,16 +12380,16 @@
         <v>2</v>
       </c>
       <c r="B29" s="27"/>
-      <c r="C29" s="69" t="s">
+      <c r="C29" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="69"/>
-      <c r="E29" s="69"/>
-      <c r="F29" s="69"/>
-      <c r="G29" s="69" t="s">
+      <c r="D29" s="70"/>
+      <c r="E29" s="70"/>
+      <c r="F29" s="70"/>
+      <c r="G29" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="H29" s="69"/>
+      <c r="H29" s="70"/>
       <c r="I29" s="30"/>
       <c r="J29" s="10"/>
       <c r="K29" s="36"/>
@@ -12372,12 +12400,12 @@
         <v>1</v>
       </c>
       <c r="B30" s="21"/>
-      <c r="C30" s="74"/>
-      <c r="D30" s="74"/>
-      <c r="E30" s="74"/>
-      <c r="F30" s="74"/>
-      <c r="G30" s="74"/>
-      <c r="H30" s="74"/>
+      <c r="C30" s="76"/>
+      <c r="D30" s="76"/>
+      <c r="E30" s="76"/>
+      <c r="F30" s="76"/>
+      <c r="G30" s="76"/>
+      <c r="H30" s="76"/>
       <c r="I30" s="22"/>
       <c r="J30" s="10"/>
       <c r="K30" s="36"/>
@@ -12388,12 +12416,12 @@
         <v>2</v>
       </c>
       <c r="B31" s="28"/>
-      <c r="C31" s="71"/>
-      <c r="D31" s="71"/>
-      <c r="E31" s="71"/>
-      <c r="F31" s="71"/>
-      <c r="G31" s="71"/>
-      <c r="H31" s="71"/>
+      <c r="C31" s="72"/>
+      <c r="D31" s="72"/>
+      <c r="E31" s="72"/>
+      <c r="F31" s="72"/>
+      <c r="G31" s="72"/>
+      <c r="H31" s="72"/>
       <c r="I31" s="40"/>
       <c r="J31" s="10"/>
       <c r="K31" s="42"/>
@@ -12401,60 +12429,6 @@
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="G31:H31"/>
@@ -12464,39 +12438,93 @@
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="G30:H30"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:H3">
-    <cfRule type="expression" dxfId="33" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="6" stopIfTrue="1">
       <formula>DAY(C3)&gt;8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:I8">
-    <cfRule type="expression" dxfId="32" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="5" stopIfTrue="1">
       <formula>AND(DAY(C7)&gt;=1,DAY(C7)&lt;=15)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:I8">
-    <cfRule type="expression" dxfId="31" priority="7">
+    <cfRule type="expression" dxfId="27" priority="7">
       <formula>VLOOKUP(DAY(C3),AssignmentDays,1,FALSE)=DAY(C3)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:I13 B15:I15 B17:I17 B19:I19 B21:I21 B23:I23 B25:I25 B27:I27 B29:I29 B31:I31">
-    <cfRule type="expression" dxfId="30" priority="4">
+    <cfRule type="expression" dxfId="26" priority="4">
       <formula>B13&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:I12 B14:I14 B16:I16 B18:I18 B20:I20 B22:I22 B24:I24 B26:I26 B28:I28 B30:I30">
-    <cfRule type="expression" dxfId="29" priority="3">
+    <cfRule type="expression" dxfId="25" priority="3">
       <formula>B12&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:I13 B15:I15 B17:I17 B19:I19 B21:I21 B23:I23 B25:I25 B27:I27 B29:I29">
-    <cfRule type="expression" dxfId="28" priority="2">
+    <cfRule type="expression" dxfId="24" priority="2">
       <formula>COLUMN(B13)&gt;=2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:I31">
-    <cfRule type="expression" dxfId="27" priority="1">
+    <cfRule type="expression" dxfId="23" priority="1">
       <formula>COLUMN(B12)&gt;2</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Produccion Propia/Cronogramas/Cronograma_Actividades_Grupales.xlsx
+++ b/Produccion Propia/Cronogramas/Cronograma_Actividades_Grupales.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19330"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Facu\4º año\Ingenieria de Software (ISW)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Facu\4º año\Ingenieria de Software (ISW)\Repositorio_Ingenieria_de_Software\Produccion Propia\Cronogramas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D86F701-4508-4B4D-9948-ECDED0990415}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D6D92C8-C438-4738-B168-95F12E3BDD89}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9510" tabRatio="741" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -111,7 +111,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="76">
   <si>
     <t>Día de la semana</t>
   </si>
@@ -330,10 +330,16 @@
     <t>Clase Teorica-practica de US. Realizacion de TP8 en clases.</t>
   </si>
   <si>
-    <t>Realizacion de TP10 en clases. Llevar materiales</t>
+    <t>Recuperatorio de Parcial Teorico/Practico</t>
   </si>
   <si>
-    <t>Recuperatorio de Parcial Teorico/Practico</t>
+    <t>Realizacion de TP10 en clases. Llevar materiales. Nota :8</t>
+  </si>
+  <si>
+    <t>Clase Teorica de Scrum primera parte</t>
+  </si>
+  <si>
+    <t>Clase Teorica de Scrum segunda parte -Consultas antes del parcial</t>
   </si>
 </sst>
 </file>
@@ -879,13 +885,10 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="12" applyBorder="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="20" fontId="13" fillId="2" borderId="10" xfId="21" applyNumberFormat="1" applyBorder="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="19" applyFont="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="20" fontId="13" fillId="2" borderId="3" xfId="21" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="20" fontId="13" fillId="2" borderId="10" xfId="21" applyNumberFormat="1" applyBorder="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="19" applyFont="1" applyBorder="1">
@@ -894,19 +897,22 @@
     <xf numFmtId="20" fontId="13" fillId="2" borderId="0" xfId="21" applyNumberFormat="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="19" applyBorder="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="13" fillId="2" borderId="0" xfId="21">
+    <xf numFmtId="20" fontId="13" fillId="2" borderId="3" xfId="21" applyNumberFormat="1" applyBorder="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="20" fontId="13" fillId="2" borderId="10" xfId="21" applyBorder="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="19" applyFont="1">
+    <xf numFmtId="20" fontId="13" fillId="2" borderId="0" xfId="21">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="19" applyBorder="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
     <xf numFmtId="20" fontId="1" fillId="2" borderId="0" xfId="19" applyNumberFormat="1" applyFont="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="19" applyFont="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
   </cellXfs>
@@ -935,6 +941,9 @@
     <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="106">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <border>
         <left style="thin">
@@ -1002,6 +1011,9 @@
       </font>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border>
         <left style="thin">
           <color theme="0"/>
@@ -1066,6 +1078,9 @@
       <font>
         <color theme="0" tint="-0.24994659260841701"/>
       </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border>
@@ -1155,6 +1170,9 @@
       </font>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border>
         <left style="thin">
           <color theme="0"/>
@@ -1221,6 +1239,9 @@
       </font>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border>
         <left style="thin">
           <color theme="0"/>
@@ -1284,6 +1305,21 @@
     <dxf>
       <font>
         <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
       </font>
     </dxf>
     <dxf>
@@ -1353,69 +1389,18 @@
       </font>
     </dxf>
     <dxf>
-      <border>
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
         <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
+        <name val="Arial"/>
+        <family val="2"/>
       </font>
     </dxf>
     <dxf>
@@ -1485,69 +1470,18 @@
       </font>
     </dxf>
     <dxf>
-      <border>
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
         <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
+        <name val="Arial"/>
+        <family val="2"/>
       </font>
     </dxf>
     <dxf>
@@ -1617,6 +1551,21 @@
       </font>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
       <border>
         <left style="thin">
           <color theme="0"/>
@@ -1681,6 +1630,159 @@
       <font>
         <color theme="0" tint="-0.24994659260841701"/>
       </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border>
@@ -1755,102 +1857,6 @@
       <font>
         <color theme="0" tint="-0.24994659260841701"/>
       </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1936,7 +1942,7 @@
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Día de la semana" dataCellStyle="Encabezado 4"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="día de calendario" dataCellStyle="Fecha"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="TAREAS" dataDxfId="102"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="TAREAS" dataDxfId="95"/>
   </tableColumns>
   <tableStyleInfo name="Tareas" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1957,7 +1963,7 @@
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="Día de la semana" dataCellStyle="Encabezado 4"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="día de calendario" dataCellStyle="Fecha"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="TAREAS" dataDxfId="88"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="TAREAS" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="Tareas" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1978,7 +1984,7 @@
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0A00-000001000000}" name="Día de la semana" dataCellStyle="Encabezado 4"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0A00-000002000000}" name="día de calendario" dataCellStyle="Fecha"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0A00-000003000000}" name="TAREAS" dataDxfId="87"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0A00-000003000000}" name="TAREAS" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="Tareas" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1999,7 +2005,7 @@
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0B00-000001000000}" name="Día de la semana" dataCellStyle="Encabezado 4"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0B00-000002000000}" name="día de calendario" dataCellStyle="Fecha"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0B00-000003000000}" name="TAREAS" dataDxfId="86" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0B00-000003000000}" name="TAREAS" dataDxfId="0" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="Tareas" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2020,7 +2026,7 @@
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Día de la semana" dataCellStyle="Encabezado 4"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="día de calendario" dataCellStyle="Fecha"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="TAREAS" dataDxfId="101" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="TAREAS" dataDxfId="87" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="Tareas" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2032,7 +2038,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="MarzoTareas" displayName="MarzoTareas" ref="J1:L31" totalsRowShown="0" headerRowDxfId="100">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="MarzoTareas" displayName="MarzoTareas" ref="J1:L31" totalsRowShown="0" headerRowDxfId="79">
   <autoFilter ref="J1:L31" xr:uid="{00000000-0009-0000-0100-000003000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -2041,7 +2047,7 @@
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Día de la semana" dataCellStyle="Encabezado 4"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="día de calendario" dataCellStyle="Fecha"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="TAREAS - Comentarios" dataDxfId="99"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="TAREAS - Comentarios" dataDxfId="78"/>
   </tableColumns>
   <tableStyleInfo name="Tareas" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2053,7 +2059,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="AbrilTareas" displayName="AbrilTareas" ref="J1:L31" totalsRowShown="0" headerRowDxfId="98">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="AbrilTareas" displayName="AbrilTareas" ref="J1:L31" totalsRowShown="0" headerRowDxfId="70">
   <autoFilter ref="J1:L31" xr:uid="{00000000-0009-0000-0100-000004000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -2062,7 +2068,7 @@
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Día de la semana" dataCellStyle="Encabezado 4"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="día de calendario" dataCellStyle="Fecha"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="TAREAS - Comentarios" dataDxfId="97"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="TAREAS - Comentarios" dataDxfId="69"/>
   </tableColumns>
   <tableStyleInfo name="Tareas" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2074,7 +2080,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="MayoTareas" displayName="MayoTareas" ref="J1:L31" totalsRowShown="0" headerRowDxfId="96">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="MayoTareas" displayName="MayoTareas" ref="J1:L31" totalsRowShown="0" headerRowDxfId="61">
   <autoFilter ref="J1:L31" xr:uid="{00000000-0009-0000-0100-000005000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -2083,7 +2089,7 @@
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Día de la semana" dataCellStyle="Encabezado 4"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="día de calendario" dataCellStyle="Fecha"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="TAREAS - Comentarios" dataDxfId="95"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="TAREAS - Comentarios" dataDxfId="60"/>
   </tableColumns>
   <tableStyleInfo name="Tareas" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2095,7 +2101,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="JunioTareas" displayName="JunioTareas" ref="J1:L31" totalsRowShown="0" headerRowDxfId="94">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="JunioTareas" displayName="JunioTareas" ref="J1:L31" totalsRowShown="0" headerRowDxfId="52">
   <autoFilter ref="J1:L31" xr:uid="{00000000-0009-0000-0100-000006000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -2104,7 +2110,7 @@
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Día de la semana" dataCellStyle="Encabezado 4"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="día de calendario" dataCellStyle="Fecha"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="TAREAS - Comentarios" dataDxfId="93"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="TAREAS - Comentarios" dataDxfId="51"/>
   </tableColumns>
   <tableStyleInfo name="Tareas" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2116,7 +2122,7 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="JulioTareas" displayName="JulioTareas" ref="J1:L31" totalsRowShown="0" headerRowDxfId="92">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="JulioTareas" displayName="JulioTareas" ref="J1:L31" totalsRowShown="0" headerRowDxfId="43">
   <autoFilter ref="J1:L31" xr:uid="{00000000-0009-0000-0100-000007000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -2125,7 +2131,7 @@
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="Día de la semana" dataCellStyle="Encabezado 4"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="día de calendario" dataCellStyle="Fecha"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="TAREAS - Comentarios" dataDxfId="91"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="TAREAS - Comentarios" dataDxfId="42"/>
   </tableColumns>
   <tableStyleInfo name="Tareas" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2146,7 +2152,7 @@
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="Día de la semana" dataCellStyle="Encabezado 4"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="día de calendario" dataCellStyle="Fecha"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="TAREAS" dataDxfId="90"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="TAREAS" dataDxfId="34"/>
   </tableColumns>
   <tableStyleInfo name="Tareas" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2167,7 +2173,7 @@
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="Día de la semana" dataCellStyle="Encabezado 4"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="día de calendario" dataCellStyle="Fecha"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="TAREAS" dataDxfId="89"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="TAREAS" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="Tareas" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2827,14 +2833,14 @@
       <c r="B12" s="41">
         <v>0.33333333333333331</v>
       </c>
-      <c r="C12" s="69"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="69">
+      <c r="C12" s="70"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="70">
         <v>0.33333333333333331</v>
       </c>
-      <c r="F12" s="69"/>
-      <c r="G12" s="69"/>
-      <c r="H12" s="69"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="70"/>
       <c r="I12" s="44">
         <v>0.33333333333333331</v>
       </c>
@@ -2849,14 +2855,14 @@
       <c r="B13" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70" t="s">
+      <c r="C13" s="69"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="69"/>
       <c r="I13" s="43" t="s">
         <v>5</v>
       </c>
@@ -2869,16 +2875,16 @@
         <v>1</v>
       </c>
       <c r="B14" s="34"/>
-      <c r="C14" s="69">
+      <c r="C14" s="70">
         <v>0.375</v>
       </c>
-      <c r="D14" s="69"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="69"/>
-      <c r="G14" s="69">
+      <c r="D14" s="70"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="70"/>
+      <c r="G14" s="70">
         <v>0.375</v>
       </c>
-      <c r="H14" s="71"/>
+      <c r="H14" s="73"/>
       <c r="I14" s="44"/>
       <c r="J14" s="10" t="s">
         <v>31</v>
@@ -2891,16 +2897,16 @@
         <v>2</v>
       </c>
       <c r="B15" s="27"/>
-      <c r="C15" s="70" t="s">
+      <c r="C15" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="70" t="s">
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="70"/>
+      <c r="H15" s="69"/>
       <c r="I15" s="43"/>
       <c r="J15" s="10"/>
       <c r="K15" s="36"/>
@@ -2913,14 +2919,14 @@
       <c r="B16" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="69"/>
-      <c r="D16" s="69"/>
-      <c r="E16" s="69" t="s">
+      <c r="C16" s="70"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="F16" s="69"/>
-      <c r="G16" s="69"/>
-      <c r="H16" s="71"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="70"/>
+      <c r="H16" s="73"/>
       <c r="I16" s="44" t="s">
         <v>6</v>
       </c>
@@ -2935,14 +2941,14 @@
       <c r="B17" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="70"/>
-      <c r="D17" s="70"/>
-      <c r="E17" s="70" t="s">
+      <c r="C17" s="69"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="F17" s="70"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="70"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="69"/>
+      <c r="H17" s="69"/>
       <c r="I17" s="43" t="s">
         <v>7</v>
       </c>
@@ -2955,12 +2961,12 @@
         <v>1</v>
       </c>
       <c r="B18" s="34"/>
-      <c r="C18" s="69"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="69"/>
-      <c r="G18" s="69"/>
-      <c r="H18" s="71"/>
+      <c r="C18" s="70"/>
+      <c r="D18" s="70"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="70"/>
+      <c r="G18" s="70"/>
+      <c r="H18" s="73"/>
       <c r="I18" s="44"/>
       <c r="J18" s="10"/>
       <c r="K18" s="36"/>
@@ -2971,12 +2977,12 @@
         <v>2</v>
       </c>
       <c r="B19" s="27"/>
-      <c r="C19" s="70"/>
-      <c r="D19" s="70"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="70"/>
-      <c r="H19" s="70"/>
+      <c r="C19" s="69"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="69"/>
+      <c r="H19" s="69"/>
       <c r="I19" s="46"/>
       <c r="J19" s="20"/>
       <c r="K19" s="35"/>
@@ -2987,12 +2993,12 @@
         <v>1</v>
       </c>
       <c r="B20" s="34"/>
-      <c r="C20" s="69"/>
-      <c r="D20" s="69"/>
-      <c r="E20" s="69"/>
-      <c r="F20" s="69"/>
-      <c r="G20" s="69"/>
-      <c r="H20" s="71"/>
+      <c r="C20" s="70"/>
+      <c r="D20" s="70"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="70"/>
+      <c r="G20" s="70"/>
+      <c r="H20" s="73"/>
       <c r="I20" s="44"/>
       <c r="J20" s="10" t="s">
         <v>32</v>
@@ -3005,12 +3011,12 @@
         <v>2</v>
       </c>
       <c r="B21" s="27"/>
-      <c r="C21" s="70"/>
-      <c r="D21" s="70"/>
-      <c r="E21" s="70"/>
-      <c r="F21" s="70"/>
-      <c r="G21" s="70"/>
-      <c r="H21" s="70"/>
+      <c r="C21" s="69"/>
+      <c r="D21" s="69"/>
+      <c r="E21" s="69"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="69"/>
+      <c r="H21" s="69"/>
       <c r="I21" s="43"/>
       <c r="J21" s="10"/>
       <c r="K21" s="36"/>
@@ -3021,12 +3027,12 @@
         <v>1</v>
       </c>
       <c r="B22" s="34"/>
-      <c r="C22" s="69"/>
-      <c r="D22" s="69"/>
-      <c r="E22" s="69"/>
-      <c r="F22" s="69"/>
-      <c r="G22" s="69"/>
-      <c r="H22" s="71"/>
+      <c r="C22" s="70"/>
+      <c r="D22" s="70"/>
+      <c r="E22" s="70"/>
+      <c r="F22" s="70"/>
+      <c r="G22" s="70"/>
+      <c r="H22" s="73"/>
       <c r="I22" s="44"/>
       <c r="J22" s="10"/>
       <c r="K22" s="36"/>
@@ -3037,12 +3043,12 @@
         <v>2</v>
       </c>
       <c r="B23" s="27"/>
-      <c r="C23" s="70"/>
-      <c r="D23" s="70"/>
-      <c r="E23" s="70"/>
-      <c r="F23" s="70"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="70"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="69"/>
+      <c r="H23" s="69"/>
       <c r="I23" s="43"/>
       <c r="J23" s="10"/>
       <c r="K23" s="36"/>
@@ -3055,14 +3061,14 @@
       <c r="B24" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="69"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="69" t="s">
+      <c r="C24" s="70"/>
+      <c r="D24" s="70"/>
+      <c r="E24" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="69"/>
-      <c r="G24" s="69"/>
-      <c r="H24" s="71"/>
+      <c r="F24" s="70"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="73"/>
       <c r="I24" s="44" t="s">
         <v>8</v>
       </c>
@@ -3077,14 +3083,14 @@
       <c r="B25" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="70"/>
-      <c r="D25" s="70"/>
-      <c r="E25" s="70" t="s">
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="F25" s="70"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="70"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="69"/>
+      <c r="H25" s="69"/>
       <c r="I25" s="43" t="s">
         <v>9</v>
       </c>
@@ -3097,12 +3103,12 @@
         <v>1</v>
       </c>
       <c r="B26" s="34"/>
-      <c r="C26" s="69"/>
-      <c r="D26" s="69"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="69"/>
-      <c r="G26" s="69"/>
-      <c r="H26" s="71"/>
+      <c r="C26" s="70"/>
+      <c r="D26" s="70"/>
+      <c r="E26" s="70"/>
+      <c r="F26" s="70"/>
+      <c r="G26" s="70"/>
+      <c r="H26" s="73"/>
       <c r="I26" s="44"/>
       <c r="J26" s="10" t="s">
         <v>33</v>
@@ -3115,12 +3121,12 @@
         <v>2</v>
       </c>
       <c r="B27" s="27"/>
-      <c r="C27" s="70"/>
-      <c r="D27" s="70"/>
-      <c r="E27" s="70"/>
-      <c r="F27" s="70"/>
-      <c r="G27" s="70"/>
-      <c r="H27" s="70"/>
+      <c r="C27" s="69"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="69"/>
+      <c r="F27" s="69"/>
+      <c r="G27" s="69"/>
+      <c r="H27" s="69"/>
       <c r="I27" s="43"/>
       <c r="J27" s="10"/>
       <c r="K27" s="36"/>
@@ -3131,16 +3137,16 @@
         <v>1</v>
       </c>
       <c r="B28" s="34"/>
-      <c r="C28" s="69" t="s">
+      <c r="C28" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="D28" s="69"/>
-      <c r="E28" s="69"/>
-      <c r="F28" s="69"/>
-      <c r="G28" s="69" t="s">
+      <c r="D28" s="70"/>
+      <c r="E28" s="70"/>
+      <c r="F28" s="70"/>
+      <c r="G28" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="H28" s="71"/>
+      <c r="H28" s="73"/>
       <c r="I28" s="44"/>
       <c r="J28" s="10"/>
       <c r="K28" s="36"/>
@@ -3151,16 +3157,16 @@
         <v>2</v>
       </c>
       <c r="B29" s="27"/>
-      <c r="C29" s="70" t="s">
+      <c r="C29" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="70"/>
-      <c r="E29" s="70"/>
-      <c r="F29" s="70"/>
-      <c r="G29" s="70" t="s">
+      <c r="D29" s="69"/>
+      <c r="E29" s="69"/>
+      <c r="F29" s="69"/>
+      <c r="G29" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="H29" s="70"/>
+      <c r="H29" s="69"/>
       <c r="I29" s="43"/>
       <c r="J29" s="10"/>
       <c r="K29" s="36"/>
@@ -3171,12 +3177,12 @@
         <v>1</v>
       </c>
       <c r="B30" s="34"/>
-      <c r="C30" s="73"/>
-      <c r="D30" s="73"/>
-      <c r="E30" s="73"/>
-      <c r="F30" s="73"/>
-      <c r="G30" s="73"/>
-      <c r="H30" s="73"/>
+      <c r="C30" s="72"/>
+      <c r="D30" s="72"/>
+      <c r="E30" s="72"/>
+      <c r="F30" s="72"/>
+      <c r="G30" s="72"/>
+      <c r="H30" s="72"/>
       <c r="I30" s="44"/>
       <c r="J30" s="10"/>
       <c r="K30" s="36"/>
@@ -3187,12 +3193,12 @@
         <v>2</v>
       </c>
       <c r="B31" s="28"/>
-      <c r="C31" s="72"/>
-      <c r="D31" s="72"/>
-      <c r="E31" s="72"/>
-      <c r="F31" s="72"/>
-      <c r="G31" s="72"/>
-      <c r="H31" s="72"/>
+      <c r="C31" s="71"/>
+      <c r="D31" s="71"/>
+      <c r="E31" s="71"/>
+      <c r="F31" s="71"/>
+      <c r="G31" s="71"/>
+      <c r="H31" s="71"/>
       <c r="I31" s="29"/>
       <c r="J31" s="15"/>
       <c r="K31" s="42"/>
@@ -3201,27 +3207,32 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="63">
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E15:F15"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C20:D20"/>
@@ -3238,66 +3249,61 @@
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E12:F12"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C3:H3">
-    <cfRule type="expression" dxfId="85" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="102" priority="9" stopIfTrue="1">
       <formula>DAY(C3)&gt;8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:I8">
-    <cfRule type="expression" dxfId="84" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="101" priority="8" stopIfTrue="1">
       <formula>AND(DAY(C7)&gt;=1,DAY(C7)&lt;=15)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:I8">
-    <cfRule type="expression" dxfId="83" priority="20">
+    <cfRule type="expression" dxfId="100" priority="20">
       <formula>VLOOKUP(DAY(C3),AssignmentDays,1,FALSE)=DAY(C3)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:I12 B14:I14 B16:I16 B18:I18 B20:I20 B22:I22 B24:I24 B26:I26 B28:I28 B30:I30">
-    <cfRule type="expression" dxfId="82" priority="6">
+    <cfRule type="expression" dxfId="99" priority="6">
       <formula>B12&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:I13 B15:I15 B17:I17 B19:I19 B21:I21 B23:I23 B25:I25 B27:I27 B29:I29 B31:I31">
-    <cfRule type="expression" dxfId="81" priority="4">
+    <cfRule type="expression" dxfId="98" priority="4">
       <formula>B13&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:I13 B15:I15 B17:I17 B19:I19 B21:I21 B23:I23 B25:I25 B27:I27 B29:I29">
-    <cfRule type="expression" dxfId="80" priority="3">
+    <cfRule type="expression" dxfId="97" priority="3">
       <formula>COLUMN(B12)&gt;=2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:I31">
-    <cfRule type="expression" dxfId="79" priority="1">
+    <cfRule type="expression" dxfId="96" priority="1">
       <formula>COLUMN(B11)&gt;2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3694,14 +3700,14 @@
       <c r="B13" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70" t="s">
+      <c r="C13" s="69"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="69"/>
       <c r="I13" s="30" t="s">
         <v>5</v>
       </c>
@@ -3736,16 +3742,16 @@
         <v>2</v>
       </c>
       <c r="B15" s="27"/>
-      <c r="C15" s="70" t="s">
+      <c r="C15" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="70" t="s">
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="70"/>
+      <c r="H15" s="69"/>
       <c r="I15" s="30"/>
       <c r="J15" s="10"/>
       <c r="K15" s="36"/>
@@ -3780,14 +3786,14 @@
       <c r="B17" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="70"/>
-      <c r="D17" s="70"/>
-      <c r="E17" s="70" t="s">
+      <c r="C17" s="69"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="F17" s="70"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="70"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="69"/>
+      <c r="H17" s="69"/>
       <c r="I17" s="30" t="s">
         <v>7</v>
       </c>
@@ -3816,12 +3822,12 @@
         <v>2</v>
       </c>
       <c r="B19" s="27"/>
-      <c r="C19" s="70"/>
-      <c r="D19" s="70"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="70"/>
-      <c r="H19" s="70"/>
+      <c r="C19" s="69"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="69"/>
+      <c r="H19" s="69"/>
       <c r="I19" s="47"/>
       <c r="J19" s="20"/>
       <c r="K19" s="35"/>
@@ -3850,12 +3856,12 @@
         <v>2</v>
       </c>
       <c r="B21" s="27"/>
-      <c r="C21" s="70"/>
-      <c r="D21" s="70"/>
-      <c r="E21" s="70"/>
-      <c r="F21" s="70"/>
-      <c r="G21" s="70"/>
-      <c r="H21" s="70"/>
+      <c r="C21" s="69"/>
+      <c r="D21" s="69"/>
+      <c r="E21" s="69"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="69"/>
+      <c r="H21" s="69"/>
       <c r="I21" s="30"/>
       <c r="J21" s="10"/>
       <c r="K21" s="36"/>
@@ -3882,12 +3888,12 @@
         <v>2</v>
       </c>
       <c r="B23" s="27"/>
-      <c r="C23" s="70"/>
-      <c r="D23" s="70"/>
-      <c r="E23" s="70"/>
-      <c r="F23" s="70"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="70"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="69"/>
+      <c r="H23" s="69"/>
       <c r="I23" s="30"/>
       <c r="J23" s="10"/>
       <c r="K23" s="36"/>
@@ -3922,14 +3928,14 @@
       <c r="B25" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="70"/>
-      <c r="D25" s="70"/>
-      <c r="E25" s="70" t="s">
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="F25" s="70"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="70"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="69"/>
+      <c r="H25" s="69"/>
       <c r="I25" s="30" t="s">
         <v>9</v>
       </c>
@@ -3960,12 +3966,12 @@
         <v>2</v>
       </c>
       <c r="B27" s="27"/>
-      <c r="C27" s="70"/>
-      <c r="D27" s="70"/>
-      <c r="E27" s="70"/>
-      <c r="F27" s="70"/>
-      <c r="G27" s="70"/>
-      <c r="H27" s="70"/>
+      <c r="C27" s="69"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="69"/>
+      <c r="F27" s="69"/>
+      <c r="G27" s="69"/>
+      <c r="H27" s="69"/>
       <c r="I27" s="30"/>
       <c r="J27" s="10"/>
       <c r="K27" s="36"/>
@@ -3996,16 +4002,16 @@
         <v>2</v>
       </c>
       <c r="B29" s="27"/>
-      <c r="C29" s="70" t="s">
+      <c r="C29" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="70"/>
-      <c r="E29" s="70"/>
-      <c r="F29" s="70"/>
-      <c r="G29" s="70" t="s">
+      <c r="D29" s="69"/>
+      <c r="E29" s="69"/>
+      <c r="F29" s="69"/>
+      <c r="G29" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="H29" s="70"/>
+      <c r="H29" s="69"/>
       <c r="I29" s="30"/>
       <c r="J29" s="10"/>
       <c r="K29" s="36"/>
@@ -4032,12 +4038,12 @@
         <v>2</v>
       </c>
       <c r="B31" s="28"/>
-      <c r="C31" s="72"/>
-      <c r="D31" s="72"/>
-      <c r="E31" s="72"/>
-      <c r="F31" s="72"/>
-      <c r="G31" s="72"/>
-      <c r="H31" s="72"/>
+      <c r="C31" s="71"/>
+      <c r="D31" s="71"/>
+      <c r="E31" s="71"/>
+      <c r="F31" s="71"/>
+      <c r="G31" s="71"/>
+      <c r="H31" s="71"/>
       <c r="I31" s="40"/>
       <c r="J31" s="10"/>
       <c r="K31" s="42"/>
@@ -4045,6 +4051,60 @@
     </row>
   </sheetData>
   <mergeCells count="63">
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="G31:H31"/>
@@ -4054,101 +4114,47 @@
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="G30:H30"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:H3">
-    <cfRule type="expression" dxfId="22" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="8" stopIfTrue="1">
       <formula>DAY(C3)&gt;8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:I8">
-    <cfRule type="expression" dxfId="21" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="7" stopIfTrue="1">
       <formula>AND(DAY(C7)&gt;=1,DAY(C7)&lt;=15)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:I8">
-    <cfRule type="expression" dxfId="20" priority="9">
+    <cfRule type="expression" dxfId="23" priority="9">
       <formula>VLOOKUP(DAY(C3),AssignmentDays,1,FALSE)=DAY(C3)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:I13 B15:I15 B17:I17 B19:I19 B21:I21 B23:I23 B25:I25 B27:I27 B29:I29 B31:I31">
-    <cfRule type="expression" dxfId="19" priority="6">
+    <cfRule type="expression" dxfId="22" priority="6">
       <formula>B13&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:I12 B14:I14 B16:I16 B18:I18 B20:I20 B22:I22 B24:I24 B26:I26 B28:I28 B30:I30">
-    <cfRule type="expression" dxfId="18" priority="5">
+    <cfRule type="expression" dxfId="21" priority="5">
       <formula>B12&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:I13 B15:I15 B17:I17 B19:I19 B21:I21 B23:I23 B25:I25 B27:I27 B29:I29">
-    <cfRule type="expression" dxfId="17" priority="2">
+    <cfRule type="expression" dxfId="20" priority="2">
       <formula>COLUMN(B13)&gt;=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="4">
+    <cfRule type="expression" dxfId="19" priority="4">
       <formula>COLUMN(B11)&gt;2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31:I31">
-    <cfRule type="expression" dxfId="15" priority="3">
+    <cfRule type="expression" dxfId="18" priority="3">
       <formula>COLUMN(B12)&gt;2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:I31">
-    <cfRule type="expression" dxfId="14" priority="1">
+    <cfRule type="expression" dxfId="17" priority="1">
       <formula>COLUMN(B12)&gt;2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4518,14 +4524,14 @@
       <c r="B12" s="21">
         <v>0.33333333333333331</v>
       </c>
-      <c r="C12" s="76"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="76">
+      <c r="C12" s="74"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="74">
         <v>0.33333333333333331</v>
       </c>
-      <c r="F12" s="76"/>
-      <c r="G12" s="76"/>
-      <c r="H12" s="76"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="74"/>
       <c r="I12" s="22">
         <v>0.33333333333333331</v>
       </c>
@@ -4540,14 +4546,14 @@
       <c r="B13" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70" t="s">
+      <c r="C13" s="69"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="69"/>
       <c r="I13" s="30" t="s">
         <v>5</v>
       </c>
@@ -4560,16 +4566,16 @@
         <v>1</v>
       </c>
       <c r="B14" s="21"/>
-      <c r="C14" s="76">
+      <c r="C14" s="74">
         <v>0.375</v>
       </c>
-      <c r="D14" s="76"/>
-      <c r="E14" s="76"/>
-      <c r="F14" s="76"/>
-      <c r="G14" s="76">
+      <c r="D14" s="74"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="74">
         <v>0.375</v>
       </c>
-      <c r="H14" s="76"/>
+      <c r="H14" s="74"/>
       <c r="I14" s="22"/>
       <c r="J14" s="10" t="s">
         <v>31</v>
@@ -4582,16 +4588,16 @@
         <v>2</v>
       </c>
       <c r="B15" s="27"/>
-      <c r="C15" s="70" t="s">
+      <c r="C15" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="70" t="s">
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="70"/>
+      <c r="H15" s="69"/>
       <c r="I15" s="30"/>
       <c r="J15" s="10"/>
       <c r="K15" s="36"/>
@@ -4604,14 +4610,14 @@
       <c r="B16" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="76"/>
-      <c r="D16" s="76"/>
-      <c r="E16" s="76" t="s">
+      <c r="C16" s="74"/>
+      <c r="D16" s="74"/>
+      <c r="E16" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="F16" s="76"/>
-      <c r="G16" s="76"/>
-      <c r="H16" s="76"/>
+      <c r="F16" s="74"/>
+      <c r="G16" s="74"/>
+      <c r="H16" s="74"/>
       <c r="I16" s="24" t="s">
         <v>6</v>
       </c>
@@ -4626,14 +4632,14 @@
       <c r="B17" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="70"/>
-      <c r="D17" s="70"/>
-      <c r="E17" s="70" t="s">
+      <c r="C17" s="69"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="F17" s="70"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="70"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="69"/>
+      <c r="H17" s="69"/>
       <c r="I17" s="30" t="s">
         <v>7</v>
       </c>
@@ -4646,12 +4652,12 @@
         <v>1</v>
       </c>
       <c r="B18" s="21"/>
-      <c r="C18" s="76"/>
-      <c r="D18" s="76"/>
-      <c r="E18" s="76"/>
-      <c r="F18" s="76"/>
-      <c r="G18" s="76"/>
-      <c r="H18" s="76"/>
+      <c r="C18" s="74"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="74"/>
+      <c r="G18" s="74"/>
+      <c r="H18" s="74"/>
       <c r="I18" s="22"/>
       <c r="J18" s="10"/>
       <c r="K18" s="36"/>
@@ -4662,12 +4668,12 @@
         <v>2</v>
       </c>
       <c r="B19" s="27"/>
-      <c r="C19" s="70"/>
-      <c r="D19" s="70"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="70"/>
-      <c r="H19" s="70"/>
+      <c r="C19" s="69"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="69"/>
+      <c r="H19" s="69"/>
       <c r="I19" s="47"/>
       <c r="J19" s="20"/>
       <c r="K19" s="35"/>
@@ -4678,12 +4684,12 @@
         <v>1</v>
       </c>
       <c r="B20" s="21"/>
-      <c r="C20" s="76"/>
-      <c r="D20" s="76"/>
-      <c r="E20" s="76"/>
-      <c r="F20" s="76"/>
-      <c r="G20" s="76"/>
-      <c r="H20" s="76"/>
+      <c r="C20" s="74"/>
+      <c r="D20" s="74"/>
+      <c r="E20" s="74"/>
+      <c r="F20" s="74"/>
+      <c r="G20" s="74"/>
+      <c r="H20" s="74"/>
       <c r="I20" s="22"/>
       <c r="J20" s="10" t="s">
         <v>32</v>
@@ -4696,12 +4702,12 @@
         <v>2</v>
       </c>
       <c r="B21" s="27"/>
-      <c r="C21" s="70"/>
-      <c r="D21" s="70"/>
-      <c r="E21" s="70"/>
-      <c r="F21" s="70"/>
-      <c r="G21" s="70"/>
-      <c r="H21" s="70"/>
+      <c r="C21" s="69"/>
+      <c r="D21" s="69"/>
+      <c r="E21" s="69"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="69"/>
+      <c r="H21" s="69"/>
       <c r="I21" s="30"/>
       <c r="J21" s="10"/>
       <c r="K21" s="36"/>
@@ -4712,12 +4718,12 @@
         <v>1</v>
       </c>
       <c r="B22" s="21"/>
-      <c r="C22" s="76"/>
-      <c r="D22" s="76"/>
-      <c r="E22" s="76"/>
-      <c r="F22" s="76"/>
-      <c r="G22" s="76"/>
-      <c r="H22" s="76"/>
+      <c r="C22" s="74"/>
+      <c r="D22" s="74"/>
+      <c r="E22" s="74"/>
+      <c r="F22" s="74"/>
+      <c r="G22" s="74"/>
+      <c r="H22" s="74"/>
       <c r="I22" s="22"/>
       <c r="J22" s="10"/>
       <c r="K22" s="36"/>
@@ -4728,12 +4734,12 @@
         <v>2</v>
       </c>
       <c r="B23" s="27"/>
-      <c r="C23" s="70"/>
-      <c r="D23" s="70"/>
-      <c r="E23" s="70"/>
-      <c r="F23" s="70"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="70"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="69"/>
+      <c r="H23" s="69"/>
       <c r="I23" s="30"/>
       <c r="J23" s="10"/>
       <c r="K23" s="36"/>
@@ -4746,14 +4752,14 @@
       <c r="B24" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="76"/>
-      <c r="D24" s="76"/>
-      <c r="E24" s="76" t="s">
+      <c r="C24" s="74"/>
+      <c r="D24" s="74"/>
+      <c r="E24" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="76"/>
-      <c r="G24" s="76"/>
-      <c r="H24" s="76"/>
+      <c r="F24" s="74"/>
+      <c r="G24" s="74"/>
+      <c r="H24" s="74"/>
       <c r="I24" s="22" t="s">
         <v>8</v>
       </c>
@@ -4768,14 +4774,14 @@
       <c r="B25" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="70"/>
-      <c r="D25" s="70"/>
-      <c r="E25" s="70" t="s">
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="F25" s="70"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="70"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="69"/>
+      <c r="H25" s="69"/>
       <c r="I25" s="30" t="s">
         <v>9</v>
       </c>
@@ -4788,12 +4794,12 @@
         <v>1</v>
       </c>
       <c r="B26" s="21"/>
-      <c r="C26" s="76"/>
-      <c r="D26" s="76"/>
-      <c r="E26" s="76"/>
-      <c r="F26" s="76"/>
-      <c r="G26" s="76"/>
-      <c r="H26" s="76"/>
+      <c r="C26" s="74"/>
+      <c r="D26" s="74"/>
+      <c r="E26" s="74"/>
+      <c r="F26" s="74"/>
+      <c r="G26" s="74"/>
+      <c r="H26" s="74"/>
       <c r="I26" s="22"/>
       <c r="J26" s="10" t="s">
         <v>33</v>
@@ -4806,12 +4812,12 @@
         <v>2</v>
       </c>
       <c r="B27" s="27"/>
-      <c r="C27" s="70"/>
-      <c r="D27" s="70"/>
-      <c r="E27" s="70"/>
-      <c r="F27" s="70"/>
-      <c r="G27" s="70"/>
-      <c r="H27" s="70"/>
+      <c r="C27" s="69"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="69"/>
+      <c r="F27" s="69"/>
+      <c r="G27" s="69"/>
+      <c r="H27" s="69"/>
       <c r="I27" s="30"/>
       <c r="J27" s="10"/>
       <c r="K27" s="36"/>
@@ -4822,16 +4828,16 @@
         <v>1</v>
       </c>
       <c r="B28" s="21"/>
-      <c r="C28" s="76" t="s">
+      <c r="C28" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="D28" s="76"/>
-      <c r="E28" s="76"/>
-      <c r="F28" s="76"/>
-      <c r="G28" s="76" t="s">
+      <c r="D28" s="74"/>
+      <c r="E28" s="74"/>
+      <c r="F28" s="74"/>
+      <c r="G28" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="H28" s="76"/>
+      <c r="H28" s="74"/>
       <c r="I28" s="22"/>
       <c r="J28" s="10"/>
       <c r="K28" s="36"/>
@@ -4842,16 +4848,16 @@
         <v>2</v>
       </c>
       <c r="B29" s="27"/>
-      <c r="C29" s="70" t="s">
+      <c r="C29" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="70"/>
-      <c r="E29" s="70"/>
-      <c r="F29" s="70"/>
-      <c r="G29" s="70" t="s">
+      <c r="D29" s="69"/>
+      <c r="E29" s="69"/>
+      <c r="F29" s="69"/>
+      <c r="G29" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="H29" s="70"/>
+      <c r="H29" s="69"/>
       <c r="I29" s="30"/>
       <c r="J29" s="10"/>
       <c r="K29" s="36"/>
@@ -4862,12 +4868,12 @@
         <v>1</v>
       </c>
       <c r="B30" s="21"/>
-      <c r="C30" s="76"/>
-      <c r="D30" s="76"/>
-      <c r="E30" s="76"/>
-      <c r="F30" s="76"/>
-      <c r="G30" s="76"/>
-      <c r="H30" s="76"/>
+      <c r="C30" s="74"/>
+      <c r="D30" s="74"/>
+      <c r="E30" s="74"/>
+      <c r="F30" s="74"/>
+      <c r="G30" s="74"/>
+      <c r="H30" s="74"/>
       <c r="I30" s="22"/>
       <c r="J30" s="10"/>
       <c r="K30" s="36"/>
@@ -4878,12 +4884,12 @@
         <v>2</v>
       </c>
       <c r="B31" s="28"/>
-      <c r="C31" s="72"/>
-      <c r="D31" s="72"/>
-      <c r="E31" s="72"/>
-      <c r="F31" s="72"/>
-      <c r="G31" s="72"/>
-      <c r="H31" s="72"/>
+      <c r="C31" s="71"/>
+      <c r="D31" s="71"/>
+      <c r="E31" s="71"/>
+      <c r="F31" s="71"/>
+      <c r="G31" s="71"/>
+      <c r="H31" s="71"/>
       <c r="I31" s="40"/>
       <c r="J31" s="10"/>
       <c r="K31" s="42"/>
@@ -4891,6 +4897,60 @@
     </row>
   </sheetData>
   <mergeCells count="63">
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="G31:H31"/>
@@ -4900,93 +4960,39 @@
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="G30:H30"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:H3">
-    <cfRule type="expression" dxfId="13" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="6" stopIfTrue="1">
       <formula>DAY(C3)&gt;8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:I8">
-    <cfRule type="expression" dxfId="12" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="5" stopIfTrue="1">
       <formula>AND(DAY(C7)&gt;=1,DAY(C7)&lt;=15)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:I8">
-    <cfRule type="expression" dxfId="11" priority="7">
+    <cfRule type="expression" dxfId="13" priority="7">
       <formula>VLOOKUP(DAY(C3),AssignmentDays,1,FALSE)=DAY(C3)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:I13 B15:I15 B17:I17 B19:I19 B21:I21 B23:I23 B25:I25 B27:I27 B29:I29 B31:I31">
-    <cfRule type="expression" dxfId="10" priority="4">
+    <cfRule type="expression" dxfId="12" priority="4">
       <formula>B13&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:I12 B14:I14 B16:I16 B18:I18 B20:I20 B22:I22 B24:I24 B26:I26 B28:I28 B30:I30">
-    <cfRule type="expression" dxfId="9" priority="3">
+    <cfRule type="expression" dxfId="11" priority="3">
       <formula>B12&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:I13 B15:I15 B17:I17 B19:I19 B21:I21 B23:I23 B25:I25 B27:I27 B29:I29">
-    <cfRule type="expression" dxfId="8" priority="2">
+    <cfRule type="expression" dxfId="10" priority="2">
       <formula>COLUMN(B13)&gt;=2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:I31">
-    <cfRule type="expression" dxfId="7" priority="1">
+    <cfRule type="expression" dxfId="9" priority="1">
       <formula>COLUMN(B12)&gt;2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5356,14 +5362,14 @@
       <c r="B12" s="21">
         <v>0.33333333333333331</v>
       </c>
-      <c r="C12" s="76"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="76">
+      <c r="C12" s="74"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="74">
         <v>0.33333333333333331</v>
       </c>
-      <c r="F12" s="76"/>
-      <c r="G12" s="76"/>
-      <c r="H12" s="76"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="74"/>
       <c r="I12" s="22">
         <v>0.33333333333333331</v>
       </c>
@@ -5378,14 +5384,14 @@
       <c r="B13" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70" t="s">
+      <c r="C13" s="69"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="69"/>
       <c r="I13" s="30" t="s">
         <v>5</v>
       </c>
@@ -5398,16 +5404,16 @@
         <v>1</v>
       </c>
       <c r="B14" s="21"/>
-      <c r="C14" s="76">
+      <c r="C14" s="74">
         <v>0.375</v>
       </c>
-      <c r="D14" s="76"/>
-      <c r="E14" s="76"/>
-      <c r="F14" s="76"/>
-      <c r="G14" s="76">
+      <c r="D14" s="74"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="74">
         <v>0.375</v>
       </c>
-      <c r="H14" s="76"/>
+      <c r="H14" s="74"/>
       <c r="I14" s="22"/>
       <c r="J14" s="10" t="s">
         <v>31</v>
@@ -5420,16 +5426,16 @@
         <v>2</v>
       </c>
       <c r="B15" s="27"/>
-      <c r="C15" s="70" t="s">
+      <c r="C15" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="70" t="s">
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="70"/>
+      <c r="H15" s="69"/>
       <c r="I15" s="30"/>
       <c r="J15" s="10"/>
       <c r="K15" s="36"/>
@@ -5442,14 +5448,14 @@
       <c r="B16" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="76"/>
-      <c r="D16" s="76"/>
-      <c r="E16" s="76" t="s">
+      <c r="C16" s="74"/>
+      <c r="D16" s="74"/>
+      <c r="E16" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="F16" s="76"/>
-      <c r="G16" s="76"/>
-      <c r="H16" s="76"/>
+      <c r="F16" s="74"/>
+      <c r="G16" s="74"/>
+      <c r="H16" s="74"/>
       <c r="I16" s="24" t="s">
         <v>6</v>
       </c>
@@ -5464,14 +5470,14 @@
       <c r="B17" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="70"/>
-      <c r="D17" s="70"/>
-      <c r="E17" s="70" t="s">
+      <c r="C17" s="69"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="F17" s="70"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="70"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="69"/>
+      <c r="H17" s="69"/>
       <c r="I17" s="30" t="s">
         <v>7</v>
       </c>
@@ -5484,12 +5490,12 @@
         <v>1</v>
       </c>
       <c r="B18" s="21"/>
-      <c r="C18" s="76"/>
-      <c r="D18" s="76"/>
-      <c r="E18" s="76"/>
-      <c r="F18" s="76"/>
-      <c r="G18" s="76"/>
-      <c r="H18" s="76"/>
+      <c r="C18" s="74"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="74"/>
+      <c r="G18" s="74"/>
+      <c r="H18" s="74"/>
       <c r="I18" s="22"/>
       <c r="J18" s="10"/>
       <c r="K18" s="36"/>
@@ -5500,12 +5506,12 @@
         <v>2</v>
       </c>
       <c r="B19" s="27"/>
-      <c r="C19" s="70"/>
-      <c r="D19" s="70"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="70"/>
-      <c r="H19" s="70"/>
+      <c r="C19" s="69"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="69"/>
+      <c r="H19" s="69"/>
       <c r="I19" s="47"/>
       <c r="J19" s="20"/>
       <c r="K19" s="35"/>
@@ -5516,12 +5522,12 @@
         <v>1</v>
       </c>
       <c r="B20" s="21"/>
-      <c r="C20" s="76"/>
-      <c r="D20" s="76"/>
-      <c r="E20" s="76"/>
-      <c r="F20" s="76"/>
-      <c r="G20" s="76"/>
-      <c r="H20" s="76"/>
+      <c r="C20" s="74"/>
+      <c r="D20" s="74"/>
+      <c r="E20" s="74"/>
+      <c r="F20" s="74"/>
+      <c r="G20" s="74"/>
+      <c r="H20" s="74"/>
       <c r="I20" s="22"/>
       <c r="J20" s="10" t="s">
         <v>32</v>
@@ -5534,12 +5540,12 @@
         <v>2</v>
       </c>
       <c r="B21" s="27"/>
-      <c r="C21" s="70"/>
-      <c r="D21" s="70"/>
-      <c r="E21" s="70"/>
-      <c r="F21" s="70"/>
-      <c r="G21" s="70"/>
-      <c r="H21" s="70"/>
+      <c r="C21" s="69"/>
+      <c r="D21" s="69"/>
+      <c r="E21" s="69"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="69"/>
+      <c r="H21" s="69"/>
       <c r="I21" s="30"/>
       <c r="J21" s="10"/>
       <c r="K21" s="36"/>
@@ -5550,12 +5556,12 @@
         <v>1</v>
       </c>
       <c r="B22" s="21"/>
-      <c r="C22" s="76"/>
-      <c r="D22" s="76"/>
-      <c r="E22" s="76"/>
-      <c r="F22" s="76"/>
-      <c r="G22" s="76"/>
-      <c r="H22" s="76"/>
+      <c r="C22" s="74"/>
+      <c r="D22" s="74"/>
+      <c r="E22" s="74"/>
+      <c r="F22" s="74"/>
+      <c r="G22" s="74"/>
+      <c r="H22" s="74"/>
       <c r="I22" s="22"/>
       <c r="J22" s="10"/>
       <c r="K22" s="36"/>
@@ -5566,12 +5572,12 @@
         <v>2</v>
       </c>
       <c r="B23" s="27"/>
-      <c r="C23" s="70"/>
-      <c r="D23" s="70"/>
-      <c r="E23" s="70"/>
-      <c r="F23" s="70"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="70"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="69"/>
+      <c r="H23" s="69"/>
       <c r="I23" s="30"/>
       <c r="J23" s="10"/>
       <c r="K23" s="36"/>
@@ -5584,14 +5590,14 @@
       <c r="B24" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="76"/>
-      <c r="D24" s="76"/>
-      <c r="E24" s="76" t="s">
+      <c r="C24" s="74"/>
+      <c r="D24" s="74"/>
+      <c r="E24" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="76"/>
-      <c r="G24" s="76"/>
-      <c r="H24" s="76"/>
+      <c r="F24" s="74"/>
+      <c r="G24" s="74"/>
+      <c r="H24" s="74"/>
       <c r="I24" s="22" t="s">
         <v>8</v>
       </c>
@@ -5606,14 +5612,14 @@
       <c r="B25" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="70"/>
-      <c r="D25" s="70"/>
-      <c r="E25" s="70" t="s">
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="F25" s="70"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="70"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="69"/>
+      <c r="H25" s="69"/>
       <c r="I25" s="30" t="s">
         <v>9</v>
       </c>
@@ -5626,12 +5632,12 @@
         <v>1</v>
       </c>
       <c r="B26" s="21"/>
-      <c r="C26" s="76"/>
-      <c r="D26" s="76"/>
-      <c r="E26" s="76"/>
-      <c r="F26" s="76"/>
-      <c r="G26" s="76"/>
-      <c r="H26" s="76"/>
+      <c r="C26" s="74"/>
+      <c r="D26" s="74"/>
+      <c r="E26" s="74"/>
+      <c r="F26" s="74"/>
+      <c r="G26" s="74"/>
+      <c r="H26" s="74"/>
       <c r="I26" s="22"/>
       <c r="J26" s="32" t="s">
         <v>33</v>
@@ -5644,12 +5650,12 @@
         <v>2</v>
       </c>
       <c r="B27" s="27"/>
-      <c r="C27" s="70"/>
-      <c r="D27" s="70"/>
-      <c r="E27" s="70"/>
-      <c r="F27" s="70"/>
-      <c r="G27" s="70"/>
-      <c r="H27" s="70"/>
+      <c r="C27" s="69"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="69"/>
+      <c r="F27" s="69"/>
+      <c r="G27" s="69"/>
+      <c r="H27" s="69"/>
       <c r="I27" s="30"/>
       <c r="J27" s="45"/>
       <c r="K27" s="42"/>
@@ -5660,16 +5666,16 @@
         <v>1</v>
       </c>
       <c r="B28" s="21"/>
-      <c r="C28" s="76" t="s">
+      <c r="C28" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="D28" s="76"/>
-      <c r="E28" s="76"/>
-      <c r="F28" s="76"/>
-      <c r="G28" s="76" t="s">
+      <c r="D28" s="74"/>
+      <c r="E28" s="74"/>
+      <c r="F28" s="74"/>
+      <c r="G28" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="H28" s="76"/>
+      <c r="H28" s="74"/>
       <c r="I28" s="22"/>
       <c r="J28" s="45"/>
       <c r="K28" s="42"/>
@@ -5680,16 +5686,16 @@
         <v>2</v>
       </c>
       <c r="B29" s="27"/>
-      <c r="C29" s="70" t="s">
+      <c r="C29" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="70"/>
-      <c r="E29" s="70"/>
-      <c r="F29" s="70"/>
-      <c r="G29" s="70" t="s">
+      <c r="D29" s="69"/>
+      <c r="E29" s="69"/>
+      <c r="F29" s="69"/>
+      <c r="G29" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="H29" s="70"/>
+      <c r="H29" s="69"/>
       <c r="I29" s="30"/>
       <c r="J29" s="45"/>
       <c r="K29" s="42"/>
@@ -5700,12 +5706,12 @@
         <v>1</v>
       </c>
       <c r="B30" s="21"/>
-      <c r="C30" s="76"/>
-      <c r="D30" s="76"/>
-      <c r="E30" s="76"/>
-      <c r="F30" s="76"/>
-      <c r="G30" s="76"/>
-      <c r="H30" s="76"/>
+      <c r="C30" s="74"/>
+      <c r="D30" s="74"/>
+      <c r="E30" s="74"/>
+      <c r="F30" s="74"/>
+      <c r="G30" s="74"/>
+      <c r="H30" s="74"/>
       <c r="I30" s="22"/>
       <c r="J30" s="45"/>
       <c r="K30" s="42"/>
@@ -5716,12 +5722,12 @@
         <v>2</v>
       </c>
       <c r="B31" s="28"/>
-      <c r="C31" s="72"/>
-      <c r="D31" s="72"/>
-      <c r="E31" s="72"/>
-      <c r="F31" s="72"/>
-      <c r="G31" s="72"/>
-      <c r="H31" s="72"/>
+      <c r="C31" s="71"/>
+      <c r="D31" s="71"/>
+      <c r="E31" s="71"/>
+      <c r="F31" s="71"/>
+      <c r="G31" s="71"/>
+      <c r="H31" s="71"/>
       <c r="I31" s="29"/>
       <c r="J31" s="45"/>
       <c r="K31" s="42"/>
@@ -5729,6 +5735,60 @@
     </row>
   </sheetData>
   <mergeCells count="63">
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="G31:H31"/>
@@ -5738,93 +5798,39 @@
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="G30:H30"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:H3">
-    <cfRule type="expression" dxfId="6" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="6" stopIfTrue="1">
       <formula>DAY(C3)&gt;8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:I8">
-    <cfRule type="expression" dxfId="5" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="5" stopIfTrue="1">
       <formula>AND(DAY(C7)&gt;=1,DAY(C7)&lt;=15)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:I8">
-    <cfRule type="expression" dxfId="4" priority="7">
+    <cfRule type="expression" dxfId="5" priority="7">
       <formula>VLOOKUP(DAY(C3),AssignmentDays,1,FALSE)=DAY(C3)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:I13 B15:I15 B17:I17 B19:I19 B21:I21 B23:I23 B25:I25 B27:I27 B29:I29 B31:I31">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="4" priority="4">
       <formula>B13&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:I12 B14:I14 B16:I16 B18:I18 B20:I20 B22:I22 B24:I24 B26:I26 B28:I28 B30:I30">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>B12&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:I13 B15:I15 B17:I17 B19:I19 B21:I21 B23:I23 B25:I25 B27:I27 B29:I29">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>COLUMN(B13)&gt;=2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:I31">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>COLUMN(B12)&gt;2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6194,14 +6200,14 @@
       <c r="B12" s="21">
         <v>0.33333333333333331</v>
       </c>
-      <c r="C12" s="76"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="76">
+      <c r="C12" s="74"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="74">
         <v>0.33333333333333331</v>
       </c>
-      <c r="F12" s="76"/>
-      <c r="G12" s="76"/>
-      <c r="H12" s="76"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="74"/>
       <c r="I12" s="22">
         <v>0.33333333333333331</v>
       </c>
@@ -6216,14 +6222,14 @@
       <c r="B13" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70" t="s">
+      <c r="C13" s="69"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="69"/>
       <c r="I13" s="30" t="s">
         <v>5</v>
       </c>
@@ -6258,16 +6264,16 @@
         <v>2</v>
       </c>
       <c r="B15" s="27"/>
-      <c r="C15" s="70" t="s">
+      <c r="C15" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="70" t="s">
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="70"/>
+      <c r="H15" s="69"/>
       <c r="I15" s="30"/>
       <c r="J15" s="10"/>
       <c r="K15" s="36"/>
@@ -6302,14 +6308,14 @@
       <c r="B17" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="70"/>
-      <c r="D17" s="70"/>
-      <c r="E17" s="70" t="s">
+      <c r="C17" s="69"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="F17" s="70"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="70"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="69"/>
+      <c r="H17" s="69"/>
       <c r="I17" s="30" t="s">
         <v>7</v>
       </c>
@@ -6338,12 +6344,12 @@
         <v>2</v>
       </c>
       <c r="B19" s="27"/>
-      <c r="C19" s="70"/>
-      <c r="D19" s="70"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="70"/>
-      <c r="H19" s="70"/>
+      <c r="C19" s="69"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="69"/>
+      <c r="H19" s="69"/>
       <c r="I19" s="47"/>
       <c r="J19" s="20"/>
       <c r="K19" s="35"/>
@@ -6372,12 +6378,12 @@
         <v>2</v>
       </c>
       <c r="B21" s="27"/>
-      <c r="C21" s="70"/>
-      <c r="D21" s="70"/>
-      <c r="E21" s="70"/>
-      <c r="F21" s="70"/>
-      <c r="G21" s="70"/>
-      <c r="H21" s="70"/>
+      <c r="C21" s="69"/>
+      <c r="D21" s="69"/>
+      <c r="E21" s="69"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="69"/>
+      <c r="H21" s="69"/>
       <c r="I21" s="30"/>
       <c r="J21" s="10"/>
       <c r="K21" s="36"/>
@@ -6404,12 +6410,12 @@
         <v>2</v>
       </c>
       <c r="B23" s="27"/>
-      <c r="C23" s="70"/>
-      <c r="D23" s="70"/>
-      <c r="E23" s="70"/>
-      <c r="F23" s="70"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="70"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="69"/>
+      <c r="H23" s="69"/>
       <c r="I23" s="30"/>
       <c r="J23" s="10"/>
       <c r="K23" s="36"/>
@@ -6444,14 +6450,14 @@
       <c r="B25" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="70"/>
-      <c r="D25" s="70"/>
-      <c r="E25" s="70" t="s">
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="F25" s="70"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="70"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="69"/>
+      <c r="H25" s="69"/>
       <c r="I25" s="30" t="s">
         <v>9</v>
       </c>
@@ -6482,12 +6488,12 @@
         <v>2</v>
       </c>
       <c r="B27" s="27"/>
-      <c r="C27" s="70"/>
-      <c r="D27" s="70"/>
-      <c r="E27" s="70"/>
-      <c r="F27" s="70"/>
-      <c r="G27" s="70"/>
-      <c r="H27" s="70"/>
+      <c r="C27" s="69"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="69"/>
+      <c r="F27" s="69"/>
+      <c r="G27" s="69"/>
+      <c r="H27" s="69"/>
       <c r="I27" s="30"/>
       <c r="J27" s="10"/>
       <c r="K27" s="36"/>
@@ -6518,16 +6524,16 @@
         <v>2</v>
       </c>
       <c r="B29" s="27"/>
-      <c r="C29" s="70" t="s">
+      <c r="C29" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="70"/>
-      <c r="E29" s="70"/>
-      <c r="F29" s="70"/>
-      <c r="G29" s="70" t="s">
+      <c r="D29" s="69"/>
+      <c r="E29" s="69"/>
+      <c r="F29" s="69"/>
+      <c r="G29" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="H29" s="70"/>
+      <c r="H29" s="69"/>
       <c r="I29" s="30"/>
       <c r="J29" s="10"/>
       <c r="K29" s="36"/>
@@ -6554,12 +6560,12 @@
         <v>2</v>
       </c>
       <c r="B31" s="31"/>
-      <c r="C31" s="74"/>
-      <c r="D31" s="74"/>
-      <c r="E31" s="74"/>
-      <c r="F31" s="74"/>
-      <c r="G31" s="74"/>
-      <c r="H31" s="74"/>
+      <c r="C31" s="76"/>
+      <c r="D31" s="76"/>
+      <c r="E31" s="76"/>
+      <c r="F31" s="76"/>
+      <c r="G31" s="76"/>
+      <c r="H31" s="76"/>
       <c r="I31" s="29"/>
       <c r="J31" s="10"/>
       <c r="K31" s="42"/>
@@ -6567,12 +6573,51 @@
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="G13:H13"/>
@@ -6585,84 +6630,45 @@
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="G15:H15"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:H3">
-    <cfRule type="expression" dxfId="78" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="94" priority="9" stopIfTrue="1">
       <formula>DAY(C3)&gt;8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:I8">
-    <cfRule type="expression" dxfId="77" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="93" priority="8" stopIfTrue="1">
       <formula>AND(DAY(C7)&gt;=1,DAY(C7)&lt;=15)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:I8">
-    <cfRule type="expression" dxfId="76" priority="10">
+    <cfRule type="expression" dxfId="92" priority="10">
       <formula>VLOOKUP(DAY(C3),AssignmentDays,1,FALSE)=DAY(C3)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:I13 B15:I15 B17:I17 B19:I19 B21:I21 B23:I23 B25:I25 B27:I27 B29:I29 B31:I31">
-    <cfRule type="expression" dxfId="75" priority="7">
+    <cfRule type="expression" dxfId="91" priority="7">
       <formula>B13&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:I12 B14:I14 B16:I16 B18:I18 B20:I20 B22:I22 B24:I24 B26:I26 B28:I28 B30:I30">
-    <cfRule type="expression" dxfId="74" priority="6">
+    <cfRule type="expression" dxfId="90" priority="6">
       <formula>B12&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:I13 B15:I15 B17:I17 B19:I19 B21:I21 B23:I23 B25:I25 B27:I27 B29:I29">
-    <cfRule type="expression" dxfId="73" priority="4">
+    <cfRule type="expression" dxfId="89" priority="4">
       <formula>COLUMN(B12)&gt;=2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:I31">
-    <cfRule type="expression" dxfId="72" priority="1">
+    <cfRule type="expression" dxfId="88" priority="1">
       <formula>COLUMN(B12)&gt;2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7051,12 +7057,12 @@
         <v>1</v>
       </c>
       <c r="B12" s="21"/>
-      <c r="C12" s="76"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="76"/>
-      <c r="F12" s="76"/>
-      <c r="G12" s="76"/>
-      <c r="H12" s="76"/>
+      <c r="C12" s="74"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="74"/>
       <c r="I12" s="22"/>
       <c r="J12" s="10"/>
       <c r="K12" s="36"/>
@@ -7067,12 +7073,12 @@
         <v>2</v>
       </c>
       <c r="B13" s="27"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="69"/>
       <c r="I13" s="30"/>
       <c r="J13" s="20"/>
       <c r="K13" s="35"/>
@@ -7083,12 +7089,12 @@
         <v>1</v>
       </c>
       <c r="B14" s="21"/>
-      <c r="C14" s="76"/>
-      <c r="D14" s="76"/>
-      <c r="E14" s="76"/>
-      <c r="F14" s="76"/>
-      <c r="G14" s="76"/>
-      <c r="H14" s="76"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="74"/>
+      <c r="H14" s="74"/>
       <c r="I14" s="22">
         <v>0.76041666666666663</v>
       </c>
@@ -7103,12 +7109,12 @@
         <v>2</v>
       </c>
       <c r="B15" s="27"/>
-      <c r="C15" s="70"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="70"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="69"/>
       <c r="I15" s="27" t="s">
         <v>38</v>
       </c>
@@ -7121,12 +7127,12 @@
         <v>1</v>
       </c>
       <c r="B16" s="21"/>
-      <c r="C16" s="76"/>
-      <c r="D16" s="76"/>
-      <c r="E16" s="76"/>
-      <c r="F16" s="76"/>
-      <c r="G16" s="76"/>
-      <c r="H16" s="76"/>
+      <c r="C16" s="74"/>
+      <c r="D16" s="74"/>
+      <c r="E16" s="74"/>
+      <c r="F16" s="74"/>
+      <c r="G16" s="74"/>
+      <c r="H16" s="74"/>
       <c r="I16" s="24">
         <v>0.82291666666666663</v>
       </c>
@@ -7139,12 +7145,12 @@
         <v>2</v>
       </c>
       <c r="B17" s="27"/>
-      <c r="C17" s="70"/>
-      <c r="D17" s="70"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="70"/>
+      <c r="C17" s="69"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="69"/>
+      <c r="H17" s="69"/>
       <c r="I17" s="27" t="s">
         <v>41</v>
       </c>
@@ -7157,14 +7163,14 @@
         <v>1</v>
       </c>
       <c r="B18" s="21"/>
-      <c r="C18" s="76">
+      <c r="C18" s="74">
         <v>0.82986111111111116</v>
       </c>
-      <c r="D18" s="76"/>
-      <c r="E18" s="76"/>
-      <c r="F18" s="76"/>
-      <c r="G18" s="76"/>
-      <c r="H18" s="76"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="74"/>
+      <c r="G18" s="74"/>
+      <c r="H18" s="74"/>
       <c r="I18" s="22"/>
       <c r="J18" s="10"/>
       <c r="K18" s="36"/>
@@ -7175,14 +7181,14 @@
         <v>2</v>
       </c>
       <c r="B19" s="27"/>
-      <c r="C19" s="77" t="s">
+      <c r="C19" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="70"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="70"/>
-      <c r="H19" s="70"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="69"/>
+      <c r="H19" s="69"/>
       <c r="I19" s="47"/>
       <c r="J19" s="20"/>
       <c r="K19" s="35"/>
@@ -7193,14 +7199,14 @@
         <v>1</v>
       </c>
       <c r="B20" s="21"/>
-      <c r="C20" s="76">
+      <c r="C20" s="74">
         <v>0.875</v>
       </c>
-      <c r="D20" s="76"/>
-      <c r="E20" s="76"/>
-      <c r="F20" s="76"/>
-      <c r="G20" s="76"/>
-      <c r="H20" s="76"/>
+      <c r="D20" s="74"/>
+      <c r="E20" s="74"/>
+      <c r="F20" s="74"/>
+      <c r="G20" s="74"/>
+      <c r="H20" s="74"/>
       <c r="I20" s="22"/>
       <c r="J20" s="10" t="s">
         <v>32</v>
@@ -7217,14 +7223,14 @@
         <v>2</v>
       </c>
       <c r="B21" s="27"/>
-      <c r="C21" s="77" t="s">
+      <c r="C21" s="78" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="70"/>
-      <c r="E21" s="70"/>
-      <c r="F21" s="70"/>
-      <c r="G21" s="70"/>
-      <c r="H21" s="70"/>
+      <c r="D21" s="69"/>
+      <c r="E21" s="69"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="69"/>
+      <c r="H21" s="69"/>
       <c r="I21" s="30"/>
       <c r="J21" s="10"/>
       <c r="K21" s="36"/>
@@ -7235,14 +7241,14 @@
         <v>1</v>
       </c>
       <c r="B22" s="21"/>
-      <c r="C22" s="76" t="s">
+      <c r="C22" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="76"/>
-      <c r="E22" s="76"/>
-      <c r="F22" s="76"/>
-      <c r="G22" s="76"/>
-      <c r="H22" s="76"/>
+      <c r="D22" s="74"/>
+      <c r="E22" s="74"/>
+      <c r="F22" s="74"/>
+      <c r="G22" s="74"/>
+      <c r="H22" s="74"/>
       <c r="I22" s="22"/>
       <c r="J22" s="10"/>
       <c r="K22" s="36"/>
@@ -7253,14 +7259,14 @@
         <v>2</v>
       </c>
       <c r="B23" s="27"/>
-      <c r="C23" s="78">
+      <c r="C23" s="77">
         <v>0.96180555555555547</v>
       </c>
-      <c r="D23" s="70"/>
-      <c r="E23" s="70"/>
-      <c r="F23" s="70"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="70"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="69"/>
+      <c r="H23" s="69"/>
       <c r="I23" s="30"/>
       <c r="J23" s="10"/>
       <c r="K23" s="36"/>
@@ -7271,12 +7277,12 @@
         <v>1</v>
       </c>
       <c r="B24" s="21"/>
-      <c r="C24" s="76"/>
-      <c r="D24" s="76"/>
-      <c r="E24" s="76"/>
-      <c r="F24" s="76"/>
-      <c r="G24" s="76"/>
-      <c r="H24" s="76"/>
+      <c r="C24" s="74"/>
+      <c r="D24" s="74"/>
+      <c r="E24" s="74"/>
+      <c r="F24" s="74"/>
+      <c r="G24" s="74"/>
+      <c r="H24" s="74"/>
       <c r="I24" s="22"/>
       <c r="J24" s="10"/>
       <c r="K24" s="36"/>
@@ -7287,12 +7293,12 @@
         <v>2</v>
       </c>
       <c r="B25" s="27"/>
-      <c r="C25" s="70"/>
-      <c r="D25" s="70"/>
-      <c r="E25" s="70"/>
-      <c r="F25" s="70"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="70"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="69"/>
+      <c r="H25" s="69"/>
       <c r="I25" s="30"/>
       <c r="J25" s="20"/>
       <c r="K25" s="35"/>
@@ -7303,12 +7309,12 @@
         <v>1</v>
       </c>
       <c r="B26" s="21"/>
-      <c r="C26" s="76"/>
-      <c r="D26" s="76"/>
-      <c r="E26" s="76"/>
-      <c r="F26" s="76"/>
-      <c r="G26" s="76"/>
-      <c r="H26" s="76"/>
+      <c r="C26" s="74"/>
+      <c r="D26" s="74"/>
+      <c r="E26" s="74"/>
+      <c r="F26" s="74"/>
+      <c r="G26" s="74"/>
+      <c r="H26" s="74"/>
       <c r="I26" s="22"/>
       <c r="J26" s="10" t="s">
         <v>33</v>
@@ -7325,12 +7331,12 @@
         <v>2</v>
       </c>
       <c r="B27" s="27"/>
-      <c r="C27" s="70"/>
-      <c r="D27" s="70"/>
-      <c r="E27" s="70"/>
-      <c r="F27" s="70"/>
-      <c r="G27" s="70"/>
-      <c r="H27" s="70"/>
+      <c r="C27" s="69"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="69"/>
+      <c r="F27" s="69"/>
+      <c r="G27" s="69"/>
+      <c r="H27" s="69"/>
       <c r="I27" s="30"/>
       <c r="J27" s="10"/>
       <c r="K27" s="36">
@@ -7345,12 +7351,12 @@
         <v>1</v>
       </c>
       <c r="B28" s="21"/>
-      <c r="C28" s="76"/>
-      <c r="D28" s="76"/>
-      <c r="E28" s="76"/>
-      <c r="F28" s="76"/>
-      <c r="G28" s="76"/>
-      <c r="H28" s="76"/>
+      <c r="C28" s="74"/>
+      <c r="D28" s="74"/>
+      <c r="E28" s="74"/>
+      <c r="F28" s="74"/>
+      <c r="G28" s="74"/>
+      <c r="H28" s="74"/>
       <c r="I28" s="22"/>
       <c r="J28" s="10"/>
       <c r="K28" s="36"/>
@@ -7361,12 +7367,12 @@
         <v>2</v>
       </c>
       <c r="B29" s="27"/>
-      <c r="C29" s="70"/>
-      <c r="D29" s="70"/>
-      <c r="E29" s="70"/>
-      <c r="F29" s="70"/>
-      <c r="G29" s="70"/>
-      <c r="H29" s="70"/>
+      <c r="C29" s="69"/>
+      <c r="D29" s="69"/>
+      <c r="E29" s="69"/>
+      <c r="F29" s="69"/>
+      <c r="G29" s="69"/>
+      <c r="H29" s="69"/>
       <c r="I29" s="30"/>
       <c r="J29" s="10"/>
       <c r="K29" s="36"/>
@@ -7377,12 +7383,12 @@
         <v>1</v>
       </c>
       <c r="B30" s="21"/>
-      <c r="C30" s="76"/>
-      <c r="D30" s="76"/>
-      <c r="E30" s="76"/>
-      <c r="F30" s="76"/>
-      <c r="G30" s="76"/>
-      <c r="H30" s="76"/>
+      <c r="C30" s="74"/>
+      <c r="D30" s="74"/>
+      <c r="E30" s="74"/>
+      <c r="F30" s="74"/>
+      <c r="G30" s="74"/>
+      <c r="H30" s="74"/>
       <c r="I30" s="22"/>
       <c r="J30" s="10"/>
       <c r="K30" s="36"/>
@@ -7393,12 +7399,12 @@
         <v>2</v>
       </c>
       <c r="B31" s="28"/>
-      <c r="C31" s="72"/>
-      <c r="D31" s="72"/>
-      <c r="E31" s="72"/>
-      <c r="F31" s="72"/>
-      <c r="G31" s="72"/>
-      <c r="H31" s="72"/>
+      <c r="C31" s="71"/>
+      <c r="D31" s="71"/>
+      <c r="E31" s="71"/>
+      <c r="F31" s="71"/>
+      <c r="G31" s="71"/>
+      <c r="H31" s="71"/>
       <c r="I31" s="29"/>
       <c r="J31" s="10"/>
       <c r="K31" s="42"/>
@@ -7406,6 +7412,60 @@
     </row>
   </sheetData>
   <mergeCells count="63">
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="G31:H31"/>
@@ -7415,93 +7475,39 @@
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="G30:H30"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:H3">
-    <cfRule type="expression" dxfId="71" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="86" priority="6" stopIfTrue="1">
       <formula>DAY(C3)&gt;8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:I8">
-    <cfRule type="expression" dxfId="70" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="85" priority="5" stopIfTrue="1">
       <formula>AND(DAY(C7)&gt;=1,DAY(C7)&lt;=15)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:I8">
-    <cfRule type="expression" dxfId="69" priority="7">
+    <cfRule type="expression" dxfId="84" priority="7">
       <formula>VLOOKUP(DAY(C3),AssignmentDays,1,FALSE)=DAY(C3)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:I13 B15:I15 B17:I17 B19:I19 B21:I21 B23:I23 B25:I25 B27:I27 B29:I29 B31:I31">
-    <cfRule type="expression" dxfId="68" priority="4">
+    <cfRule type="expression" dxfId="83" priority="4">
       <formula>B13&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:I12 B14:I14 B16:I16 B18:I18 B20:I20 B22:I22 B24:I24 B26:I26 B28:I28 B30:I30">
-    <cfRule type="expression" dxfId="67" priority="3">
+    <cfRule type="expression" dxfId="82" priority="3">
       <formula>B12&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:I13 B15:I15 B17:I17 B19:I19 B21:I21 B23:I23 B25:I25 B27:I27 B29:I29">
-    <cfRule type="expression" dxfId="66" priority="2">
+    <cfRule type="expression" dxfId="81" priority="2">
       <formula>COLUMN(B12)&gt;=2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:I31">
-    <cfRule type="expression" dxfId="65" priority="1">
+    <cfRule type="expression" dxfId="80" priority="1">
       <formula>COLUMN(B12)&gt;2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7895,12 +7901,12 @@
         <v>1</v>
       </c>
       <c r="B12" s="56"/>
-      <c r="C12" s="76"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="76"/>
-      <c r="F12" s="76"/>
-      <c r="G12" s="76"/>
-      <c r="H12" s="76"/>
+      <c r="C12" s="74"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="74"/>
       <c r="I12" s="22"/>
       <c r="K12" s="36"/>
       <c r="L12" s="49"/>
@@ -7910,12 +7916,12 @@
         <v>2</v>
       </c>
       <c r="B13" s="27"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="69"/>
       <c r="I13" s="54"/>
       <c r="J13" s="20"/>
       <c r="K13" s="35"/>
@@ -7926,12 +7932,12 @@
         <v>1</v>
       </c>
       <c r="B14" s="56"/>
-      <c r="C14" s="76"/>
-      <c r="D14" s="76"/>
-      <c r="E14" s="76"/>
-      <c r="F14" s="76"/>
-      <c r="G14" s="76"/>
-      <c r="H14" s="76"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="74"/>
+      <c r="H14" s="74"/>
       <c r="I14" s="22">
         <v>0.76041666666666663</v>
       </c>
@@ -7946,12 +7952,12 @@
         <v>2</v>
       </c>
       <c r="B15" s="27"/>
-      <c r="C15" s="70"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="70"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="69"/>
       <c r="I15" s="27" t="s">
         <v>38</v>
       </c>
@@ -7963,12 +7969,12 @@
         <v>1</v>
       </c>
       <c r="B16" s="56"/>
-      <c r="C16" s="76"/>
-      <c r="D16" s="76"/>
-      <c r="E16" s="76"/>
-      <c r="F16" s="76"/>
-      <c r="G16" s="76"/>
-      <c r="H16" s="76"/>
+      <c r="C16" s="74"/>
+      <c r="D16" s="74"/>
+      <c r="E16" s="74"/>
+      <c r="F16" s="74"/>
+      <c r="G16" s="74"/>
+      <c r="H16" s="74"/>
       <c r="I16" s="24">
         <v>0.82291666666666663</v>
       </c>
@@ -7980,12 +7986,12 @@
         <v>2</v>
       </c>
       <c r="B17" s="27"/>
-      <c r="C17" s="70"/>
-      <c r="D17" s="70"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="70"/>
+      <c r="C17" s="69"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="69"/>
+      <c r="H17" s="69"/>
       <c r="I17" s="27" t="s">
         <v>41</v>
       </c>
@@ -7997,14 +8003,14 @@
         <v>1</v>
       </c>
       <c r="B18" s="56"/>
-      <c r="C18" s="76">
+      <c r="C18" s="74">
         <v>0.82986111111111116</v>
       </c>
-      <c r="D18" s="76"/>
-      <c r="E18" s="76"/>
-      <c r="F18" s="76"/>
-      <c r="G18" s="76"/>
-      <c r="H18" s="76"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="74"/>
+      <c r="G18" s="74"/>
+      <c r="H18" s="74"/>
       <c r="I18" s="22"/>
       <c r="K18" s="36"/>
       <c r="L18" s="49"/>
@@ -8014,14 +8020,14 @@
         <v>2</v>
       </c>
       <c r="B19" s="27"/>
-      <c r="C19" s="77" t="s">
+      <c r="C19" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="70"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="70"/>
-      <c r="H19" s="70"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="69"/>
+      <c r="H19" s="69"/>
       <c r="I19" s="47"/>
       <c r="J19" s="20"/>
       <c r="K19" s="35"/>
@@ -8032,14 +8038,14 @@
         <v>1</v>
       </c>
       <c r="B20" s="56"/>
-      <c r="C20" s="76">
+      <c r="C20" s="74">
         <v>0.875</v>
       </c>
-      <c r="D20" s="76"/>
-      <c r="E20" s="76"/>
-      <c r="F20" s="76"/>
-      <c r="G20" s="76"/>
-      <c r="H20" s="76"/>
+      <c r="D20" s="74"/>
+      <c r="E20" s="74"/>
+      <c r="F20" s="74"/>
+      <c r="G20" s="74"/>
+      <c r="H20" s="74"/>
       <c r="I20" s="22"/>
       <c r="J20" s="10" t="s">
         <v>32</v>
@@ -8056,14 +8062,14 @@
         <v>2</v>
       </c>
       <c r="B21" s="27"/>
-      <c r="C21" s="77" t="s">
+      <c r="C21" s="78" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="70"/>
-      <c r="E21" s="70"/>
-      <c r="F21" s="70"/>
-      <c r="G21" s="70"/>
-      <c r="H21" s="70"/>
+      <c r="D21" s="69"/>
+      <c r="E21" s="69"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="69"/>
+      <c r="H21" s="69"/>
       <c r="I21" s="54"/>
       <c r="K21" s="36"/>
       <c r="L21" s="49"/>
@@ -8073,14 +8079,14 @@
         <v>1</v>
       </c>
       <c r="B22" s="56"/>
-      <c r="C22" s="76" t="s">
+      <c r="C22" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="76"/>
-      <c r="E22" s="76"/>
-      <c r="F22" s="76"/>
-      <c r="G22" s="76"/>
-      <c r="H22" s="76"/>
+      <c r="D22" s="74"/>
+      <c r="E22" s="74"/>
+      <c r="F22" s="74"/>
+      <c r="G22" s="74"/>
+      <c r="H22" s="74"/>
       <c r="I22" s="22"/>
       <c r="K22" s="36"/>
       <c r="L22" s="49"/>
@@ -8090,14 +8096,14 @@
         <v>2</v>
       </c>
       <c r="B23" s="27"/>
-      <c r="C23" s="78">
+      <c r="C23" s="77">
         <v>0.96180555555555547</v>
       </c>
-      <c r="D23" s="70"/>
-      <c r="E23" s="70"/>
-      <c r="F23" s="70"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="70"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="69"/>
+      <c r="H23" s="69"/>
       <c r="I23" s="54"/>
       <c r="K23" s="36"/>
       <c r="L23" s="49"/>
@@ -8107,12 +8113,12 @@
         <v>1</v>
       </c>
       <c r="B24" s="56"/>
-      <c r="C24" s="76"/>
-      <c r="D24" s="76"/>
-      <c r="E24" s="76"/>
-      <c r="F24" s="76"/>
-      <c r="G24" s="76"/>
-      <c r="H24" s="76"/>
+      <c r="C24" s="74"/>
+      <c r="D24" s="74"/>
+      <c r="E24" s="74"/>
+      <c r="F24" s="74"/>
+      <c r="G24" s="74"/>
+      <c r="H24" s="74"/>
       <c r="I24" s="22"/>
       <c r="K24" s="36"/>
       <c r="L24" s="49"/>
@@ -8122,12 +8128,12 @@
         <v>2</v>
       </c>
       <c r="B25" s="27"/>
-      <c r="C25" s="70"/>
-      <c r="D25" s="70"/>
-      <c r="E25" s="70"/>
-      <c r="F25" s="70"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="70"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="69"/>
+      <c r="H25" s="69"/>
       <c r="I25" s="54"/>
       <c r="J25" s="20"/>
       <c r="K25" s="35"/>
@@ -8138,12 +8144,12 @@
         <v>1</v>
       </c>
       <c r="B26" s="56"/>
-      <c r="C26" s="76"/>
-      <c r="D26" s="76"/>
-      <c r="E26" s="76"/>
-      <c r="F26" s="76"/>
-      <c r="G26" s="76"/>
-      <c r="H26" s="76"/>
+      <c r="C26" s="74"/>
+      <c r="D26" s="74"/>
+      <c r="E26" s="74"/>
+      <c r="F26" s="74"/>
+      <c r="G26" s="74"/>
+      <c r="H26" s="74"/>
       <c r="I26" s="22"/>
       <c r="J26" s="10" t="s">
         <v>33</v>
@@ -8160,12 +8166,12 @@
         <v>2</v>
       </c>
       <c r="B27" s="27"/>
-      <c r="C27" s="70"/>
-      <c r="D27" s="70"/>
-      <c r="E27" s="70"/>
-      <c r="F27" s="70"/>
-      <c r="G27" s="70"/>
-      <c r="H27" s="70"/>
+      <c r="C27" s="69"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="69"/>
+      <c r="F27" s="69"/>
+      <c r="G27" s="69"/>
+      <c r="H27" s="69"/>
       <c r="I27" s="54"/>
       <c r="K27" s="36">
         <v>13</v>
@@ -8179,12 +8185,12 @@
         <v>1</v>
       </c>
       <c r="B28" s="56"/>
-      <c r="C28" s="76"/>
-      <c r="D28" s="76"/>
-      <c r="E28" s="76"/>
-      <c r="F28" s="76"/>
-      <c r="G28" s="76"/>
-      <c r="H28" s="76"/>
+      <c r="C28" s="74"/>
+      <c r="D28" s="74"/>
+      <c r="E28" s="74"/>
+      <c r="F28" s="74"/>
+      <c r="G28" s="74"/>
+      <c r="H28" s="74"/>
       <c r="I28" s="22"/>
       <c r="K28" s="36">
         <v>20</v>
@@ -8198,12 +8204,12 @@
         <v>2</v>
       </c>
       <c r="B29" s="27"/>
-      <c r="C29" s="70"/>
-      <c r="D29" s="70"/>
-      <c r="E29" s="70"/>
-      <c r="F29" s="70"/>
-      <c r="G29" s="70"/>
-      <c r="H29" s="70"/>
+      <c r="C29" s="69"/>
+      <c r="D29" s="69"/>
+      <c r="E29" s="69"/>
+      <c r="F29" s="69"/>
+      <c r="G29" s="69"/>
+      <c r="H29" s="69"/>
       <c r="I29" s="54"/>
       <c r="K29" s="36">
         <v>27</v>
@@ -8217,12 +8223,12 @@
         <v>1</v>
       </c>
       <c r="B30" s="56"/>
-      <c r="C30" s="76"/>
-      <c r="D30" s="76"/>
-      <c r="E30" s="76"/>
-      <c r="F30" s="76"/>
-      <c r="G30" s="76"/>
-      <c r="H30" s="76"/>
+      <c r="C30" s="74"/>
+      <c r="D30" s="74"/>
+      <c r="E30" s="74"/>
+      <c r="F30" s="74"/>
+      <c r="G30" s="74"/>
+      <c r="H30" s="74"/>
       <c r="I30" s="22"/>
       <c r="K30" s="36"/>
       <c r="L30" s="49"/>
@@ -8232,18 +8238,72 @@
         <v>2</v>
       </c>
       <c r="B31" s="28"/>
-      <c r="C31" s="72"/>
-      <c r="D31" s="72"/>
-      <c r="E31" s="72"/>
-      <c r="F31" s="72"/>
-      <c r="G31" s="72"/>
-      <c r="H31" s="72"/>
+      <c r="C31" s="71"/>
+      <c r="D31" s="71"/>
+      <c r="E31" s="71"/>
+      <c r="F31" s="71"/>
+      <c r="G31" s="71"/>
+      <c r="H31" s="71"/>
       <c r="I31" s="55"/>
       <c r="K31" s="42"/>
       <c r="L31" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="63">
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="G31:H31"/>
@@ -8253,93 +8313,39 @@
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="G30:H30"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:H3">
-    <cfRule type="expression" dxfId="64" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="77" priority="10" stopIfTrue="1">
       <formula>DAY(C3)&gt;8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:I8">
-    <cfRule type="expression" dxfId="63" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="76" priority="9" stopIfTrue="1">
       <formula>AND(DAY(C7)&gt;=1,DAY(C7)&lt;=15)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:I8">
-    <cfRule type="expression" dxfId="62" priority="11">
+    <cfRule type="expression" dxfId="75" priority="11">
       <formula>VLOOKUP(DAY(C3),AssignmentDays,1,FALSE)=DAY(C3)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:I13 B15:I15 B17:I17 B19:I19 B21:I21 B23:I23 B25:I25 B27:I27 B29:I29 B31:I31">
-    <cfRule type="expression" dxfId="61" priority="4">
+    <cfRule type="expression" dxfId="74" priority="4">
       <formula>B13&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:I12 B14:I14 B16:I16 B18:I18 B20:I20 B22:I22 B24:I24 B26:I26 B28:I28 B30:I30">
-    <cfRule type="expression" dxfId="60" priority="3">
+    <cfRule type="expression" dxfId="73" priority="3">
       <formula>B12&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:I13 B15:I15 B17:I17 B19:I19 B21:I21 B23:I23 B25:I25 B27:I27 B29:I29">
-    <cfRule type="expression" dxfId="59" priority="2">
+    <cfRule type="expression" dxfId="72" priority="2">
       <formula>COLUMN(B12)&gt;=2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:I31">
-    <cfRule type="expression" dxfId="58" priority="1">
+    <cfRule type="expression" dxfId="71" priority="1">
       <formula>COLUMN(B12)&gt;2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8736,12 +8742,12 @@
         <v>1</v>
       </c>
       <c r="B12" s="56"/>
-      <c r="C12" s="76"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="76"/>
-      <c r="F12" s="76"/>
-      <c r="G12" s="76"/>
-      <c r="H12" s="76"/>
+      <c r="C12" s="74"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="74"/>
       <c r="I12" s="22"/>
       <c r="J12" s="10"/>
       <c r="K12" s="36">
@@ -8756,12 +8762,12 @@
         <v>2</v>
       </c>
       <c r="B13" s="27"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="69"/>
       <c r="I13" s="54"/>
       <c r="J13" s="20"/>
       <c r="K13" s="35"/>
@@ -8772,12 +8778,12 @@
         <v>1</v>
       </c>
       <c r="B14" s="56"/>
-      <c r="C14" s="76"/>
-      <c r="D14" s="76"/>
-      <c r="E14" s="76"/>
-      <c r="F14" s="76"/>
-      <c r="G14" s="76"/>
-      <c r="H14" s="76"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="74"/>
+      <c r="H14" s="74"/>
       <c r="I14" s="22">
         <v>0.76041666666666663</v>
       </c>
@@ -8796,12 +8802,12 @@
         <v>2</v>
       </c>
       <c r="B15" s="27"/>
-      <c r="C15" s="70"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="70"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="69"/>
       <c r="I15" s="27" t="s">
         <v>38</v>
       </c>
@@ -8814,12 +8820,12 @@
         <v>1</v>
       </c>
       <c r="B16" s="56"/>
-      <c r="C16" s="76"/>
-      <c r="D16" s="76"/>
-      <c r="E16" s="76"/>
-      <c r="F16" s="76"/>
-      <c r="G16" s="76"/>
-      <c r="H16" s="76"/>
+      <c r="C16" s="74"/>
+      <c r="D16" s="74"/>
+      <c r="E16" s="74"/>
+      <c r="F16" s="74"/>
+      <c r="G16" s="74"/>
+      <c r="H16" s="74"/>
       <c r="I16" s="24">
         <v>0.82291666666666663</v>
       </c>
@@ -8832,12 +8838,12 @@
         <v>2</v>
       </c>
       <c r="B17" s="27"/>
-      <c r="C17" s="70"/>
-      <c r="D17" s="70"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="70"/>
+      <c r="C17" s="69"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="69"/>
+      <c r="H17" s="69"/>
       <c r="I17" s="27" t="s">
         <v>41</v>
       </c>
@@ -8850,14 +8856,14 @@
         <v>1</v>
       </c>
       <c r="B18" s="56"/>
-      <c r="C18" s="76">
+      <c r="C18" s="74">
         <v>0.82986111111111116</v>
       </c>
-      <c r="D18" s="76"/>
-      <c r="E18" s="76"/>
-      <c r="F18" s="76"/>
-      <c r="G18" s="76"/>
-      <c r="H18" s="76"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="74"/>
+      <c r="G18" s="74"/>
+      <c r="H18" s="74"/>
       <c r="I18" s="22"/>
       <c r="J18" s="10"/>
       <c r="K18" s="36"/>
@@ -8868,14 +8874,14 @@
         <v>2</v>
       </c>
       <c r="B19" s="27"/>
-      <c r="C19" s="77" t="s">
+      <c r="C19" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="70"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="70"/>
-      <c r="H19" s="70"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="69"/>
+      <c r="H19" s="69"/>
       <c r="I19" s="47"/>
       <c r="J19" s="20"/>
       <c r="K19" s="35"/>
@@ -8886,14 +8892,14 @@
         <v>1</v>
       </c>
       <c r="B20" s="56"/>
-      <c r="C20" s="76">
+      <c r="C20" s="74">
         <v>0.875</v>
       </c>
-      <c r="D20" s="76"/>
-      <c r="E20" s="76"/>
-      <c r="F20" s="76"/>
-      <c r="G20" s="76"/>
-      <c r="H20" s="76"/>
+      <c r="D20" s="74"/>
+      <c r="E20" s="74"/>
+      <c r="F20" s="74"/>
+      <c r="G20" s="74"/>
+      <c r="H20" s="74"/>
       <c r="I20" s="22"/>
       <c r="J20" s="10" t="s">
         <v>32</v>
@@ -8906,14 +8912,14 @@
         <v>2</v>
       </c>
       <c r="B21" s="27"/>
-      <c r="C21" s="77" t="s">
+      <c r="C21" s="78" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="70"/>
-      <c r="E21" s="70"/>
-      <c r="F21" s="70"/>
-      <c r="G21" s="70"/>
-      <c r="H21" s="70"/>
+      <c r="D21" s="69"/>
+      <c r="E21" s="69"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="69"/>
+      <c r="H21" s="69"/>
       <c r="I21" s="54"/>
       <c r="J21" s="10"/>
       <c r="K21" s="36"/>
@@ -8924,14 +8930,14 @@
         <v>1</v>
       </c>
       <c r="B22" s="56"/>
-      <c r="C22" s="76" t="s">
+      <c r="C22" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="76"/>
-      <c r="E22" s="76"/>
-      <c r="F22" s="76"/>
-      <c r="G22" s="76"/>
-      <c r="H22" s="76"/>
+      <c r="D22" s="74"/>
+      <c r="E22" s="74"/>
+      <c r="F22" s="74"/>
+      <c r="G22" s="74"/>
+      <c r="H22" s="74"/>
       <c r="I22" s="22"/>
       <c r="J22" s="10"/>
       <c r="K22" s="36"/>
@@ -8942,14 +8948,14 @@
         <v>2</v>
       </c>
       <c r="B23" s="27"/>
-      <c r="C23" s="78">
+      <c r="C23" s="77">
         <v>0.96180555555555547</v>
       </c>
-      <c r="D23" s="70"/>
-      <c r="E23" s="70"/>
-      <c r="F23" s="70"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="70"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="69"/>
+      <c r="H23" s="69"/>
       <c r="I23" s="54"/>
       <c r="J23" s="10"/>
       <c r="K23" s="36"/>
@@ -8960,12 +8966,12 @@
         <v>1</v>
       </c>
       <c r="B24" s="56"/>
-      <c r="C24" s="76"/>
-      <c r="D24" s="76"/>
-      <c r="E24" s="76"/>
-      <c r="F24" s="76"/>
-      <c r="G24" s="76"/>
-      <c r="H24" s="76"/>
+      <c r="C24" s="74"/>
+      <c r="D24" s="74"/>
+      <c r="E24" s="74"/>
+      <c r="F24" s="74"/>
+      <c r="G24" s="74"/>
+      <c r="H24" s="74"/>
       <c r="I24" s="22"/>
       <c r="J24" s="10"/>
       <c r="K24" s="36"/>
@@ -8976,12 +8982,12 @@
         <v>2</v>
       </c>
       <c r="B25" s="27"/>
-      <c r="C25" s="70"/>
-      <c r="D25" s="70"/>
-      <c r="E25" s="70"/>
-      <c r="F25" s="70"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="70"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="69"/>
+      <c r="H25" s="69"/>
       <c r="I25" s="54"/>
       <c r="J25" s="20"/>
       <c r="K25" s="35"/>
@@ -8992,12 +8998,12 @@
         <v>1</v>
       </c>
       <c r="B26" s="56"/>
-      <c r="C26" s="76"/>
-      <c r="D26" s="76"/>
-      <c r="E26" s="76"/>
-      <c r="F26" s="76"/>
-      <c r="G26" s="76"/>
-      <c r="H26" s="76"/>
+      <c r="C26" s="74"/>
+      <c r="D26" s="74"/>
+      <c r="E26" s="74"/>
+      <c r="F26" s="74"/>
+      <c r="G26" s="74"/>
+      <c r="H26" s="74"/>
       <c r="I26" s="22"/>
       <c r="J26" s="10" t="s">
         <v>33</v>
@@ -9014,12 +9020,12 @@
         <v>2</v>
       </c>
       <c r="B27" s="27"/>
-      <c r="C27" s="70"/>
-      <c r="D27" s="70"/>
-      <c r="E27" s="70"/>
-      <c r="F27" s="70"/>
-      <c r="G27" s="70"/>
-      <c r="H27" s="70"/>
+      <c r="C27" s="69"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="69"/>
+      <c r="F27" s="69"/>
+      <c r="G27" s="69"/>
+      <c r="H27" s="69"/>
       <c r="I27" s="54"/>
       <c r="J27" s="10"/>
       <c r="K27" s="36">
@@ -9034,12 +9040,12 @@
         <v>1</v>
       </c>
       <c r="B28" s="56"/>
-      <c r="C28" s="76"/>
-      <c r="D28" s="76"/>
-      <c r="E28" s="76"/>
-      <c r="F28" s="76"/>
-      <c r="G28" s="76"/>
-      <c r="H28" s="76"/>
+      <c r="C28" s="74"/>
+      <c r="D28" s="74"/>
+      <c r="E28" s="74"/>
+      <c r="F28" s="74"/>
+      <c r="G28" s="74"/>
+      <c r="H28" s="74"/>
       <c r="I28" s="22"/>
       <c r="J28" s="10"/>
       <c r="K28" s="36">
@@ -9054,12 +9060,12 @@
         <v>2</v>
       </c>
       <c r="B29" s="27"/>
-      <c r="C29" s="70"/>
-      <c r="D29" s="70"/>
-      <c r="E29" s="70"/>
-      <c r="F29" s="70"/>
-      <c r="G29" s="70"/>
-      <c r="H29" s="70"/>
+      <c r="C29" s="69"/>
+      <c r="D29" s="69"/>
+      <c r="E29" s="69"/>
+      <c r="F29" s="69"/>
+      <c r="G29" s="69"/>
+      <c r="H29" s="69"/>
       <c r="I29" s="54"/>
       <c r="J29" s="10"/>
       <c r="K29" s="36">
@@ -9074,12 +9080,12 @@
         <v>1</v>
       </c>
       <c r="B30" s="56"/>
-      <c r="C30" s="76"/>
-      <c r="D30" s="76"/>
-      <c r="E30" s="76"/>
-      <c r="F30" s="76"/>
-      <c r="G30" s="76"/>
-      <c r="H30" s="76"/>
+      <c r="C30" s="74"/>
+      <c r="D30" s="74"/>
+      <c r="E30" s="74"/>
+      <c r="F30" s="74"/>
+      <c r="G30" s="74"/>
+      <c r="H30" s="74"/>
       <c r="I30" s="22"/>
       <c r="J30" s="10"/>
       <c r="K30" s="36"/>
@@ -9090,12 +9096,12 @@
         <v>2</v>
       </c>
       <c r="B31" s="28"/>
-      <c r="C31" s="72"/>
-      <c r="D31" s="72"/>
-      <c r="E31" s="72"/>
-      <c r="F31" s="72"/>
-      <c r="G31" s="72"/>
-      <c r="H31" s="72"/>
+      <c r="C31" s="71"/>
+      <c r="D31" s="71"/>
+      <c r="E31" s="71"/>
+      <c r="F31" s="71"/>
+      <c r="G31" s="71"/>
+      <c r="H31" s="71"/>
       <c r="I31" s="55"/>
       <c r="J31" s="45"/>
       <c r="K31" s="42"/>
@@ -9103,6 +9109,60 @@
     </row>
   </sheetData>
   <mergeCells count="63">
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="G31:H31"/>
@@ -9112,93 +9172,39 @@
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="G30:H30"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:H3">
-    <cfRule type="expression" dxfId="57" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="68" priority="12" stopIfTrue="1">
       <formula>DAY(C3)&gt;8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:I8">
-    <cfRule type="expression" dxfId="56" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="67" priority="11" stopIfTrue="1">
       <formula>AND(DAY(C7)&gt;=1,DAY(C7)&lt;=15)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:I8">
-    <cfRule type="expression" dxfId="55" priority="13">
+    <cfRule type="expression" dxfId="66" priority="13">
       <formula>VLOOKUP(DAY(C3),AssignmentDays,1,FALSE)=DAY(C3)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:I13 B15:I15 B17:I17 B19:I19 B21:I21 B23:I23 B25:I25 B27:I27 B29:I29 B31:I31">
-    <cfRule type="expression" dxfId="54" priority="4">
+    <cfRule type="expression" dxfId="65" priority="4">
       <formula>B13&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:I12 B14:I14 B16:I16 B18:I18 B20:I20 B22:I22 B24:I24 B26:I26 B28:I28 B30:I30">
-    <cfRule type="expression" dxfId="53" priority="3">
+    <cfRule type="expression" dxfId="64" priority="3">
       <formula>B12&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:I13 B15:I15 B17:I17 B19:I19 B21:I21 B23:I23 B25:I25 B27:I27 B29:I29">
-    <cfRule type="expression" dxfId="52" priority="2">
+    <cfRule type="expression" dxfId="63" priority="2">
       <formula>COLUMN(B12)&gt;=2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:I31">
-    <cfRule type="expression" dxfId="51" priority="1">
+    <cfRule type="expression" dxfId="62" priority="1">
       <formula>COLUMN(B12)&gt;2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9238,7 +9244,7 @@
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="84" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9516,7 +9522,7 @@
         <v>5</v>
       </c>
       <c r="L8" s="49" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -9579,7 +9585,7 @@
         <v>26</v>
       </c>
       <c r="L11" s="49" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -9587,12 +9593,12 @@
         <v>1</v>
       </c>
       <c r="B12" s="56"/>
-      <c r="C12" s="76"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="76"/>
-      <c r="F12" s="76"/>
-      <c r="G12" s="76"/>
-      <c r="H12" s="76"/>
+      <c r="C12" s="74"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="74"/>
       <c r="I12" s="22"/>
       <c r="J12" s="10"/>
       <c r="K12" s="36"/>
@@ -9603,12 +9609,12 @@
         <v>2</v>
       </c>
       <c r="B13" s="27"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="69"/>
       <c r="I13" s="54"/>
       <c r="J13" s="20"/>
       <c r="K13" s="35"/>
@@ -9619,12 +9625,12 @@
         <v>1</v>
       </c>
       <c r="B14" s="56"/>
-      <c r="C14" s="76"/>
-      <c r="D14" s="76"/>
-      <c r="E14" s="76"/>
-      <c r="F14" s="76"/>
-      <c r="G14" s="76"/>
-      <c r="H14" s="76"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="74"/>
+      <c r="H14" s="74"/>
       <c r="I14" s="22">
         <v>0.76041666666666663</v>
       </c>
@@ -9639,12 +9645,12 @@
         <v>2</v>
       </c>
       <c r="B15" s="27"/>
-      <c r="C15" s="70"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="70"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="69"/>
       <c r="I15" s="27" t="s">
         <v>38</v>
       </c>
@@ -9657,12 +9663,12 @@
         <v>1</v>
       </c>
       <c r="B16" s="56"/>
-      <c r="C16" s="76"/>
-      <c r="D16" s="76"/>
-      <c r="E16" s="76"/>
-      <c r="F16" s="76"/>
-      <c r="G16" s="76"/>
-      <c r="H16" s="76"/>
+      <c r="C16" s="74"/>
+      <c r="D16" s="74"/>
+      <c r="E16" s="74"/>
+      <c r="F16" s="74"/>
+      <c r="G16" s="74"/>
+      <c r="H16" s="74"/>
       <c r="I16" s="24">
         <v>0.82291666666666663</v>
       </c>
@@ -9679,12 +9685,12 @@
         <v>2</v>
       </c>
       <c r="B17" s="27"/>
-      <c r="C17" s="70"/>
-      <c r="D17" s="70"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="70"/>
+      <c r="C17" s="69"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="69"/>
+      <c r="H17" s="69"/>
       <c r="I17" s="27" t="s">
         <v>41</v>
       </c>
@@ -9697,14 +9703,14 @@
         <v>1</v>
       </c>
       <c r="B18" s="56"/>
-      <c r="C18" s="76">
+      <c r="C18" s="74">
         <v>0.82986111111111116</v>
       </c>
-      <c r="D18" s="76"/>
-      <c r="E18" s="76"/>
-      <c r="F18" s="76"/>
-      <c r="G18" s="76"/>
-      <c r="H18" s="76"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="74"/>
+      <c r="G18" s="74"/>
+      <c r="H18" s="74"/>
       <c r="I18" s="22"/>
       <c r="J18" s="10"/>
       <c r="K18" s="36"/>
@@ -9715,14 +9721,14 @@
         <v>2</v>
       </c>
       <c r="B19" s="27"/>
-      <c r="C19" s="77" t="s">
+      <c r="C19" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="70"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="70"/>
-      <c r="H19" s="70"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="69"/>
+      <c r="H19" s="69"/>
       <c r="I19" s="47"/>
       <c r="J19" s="20"/>
       <c r="K19" s="35"/>
@@ -9733,14 +9739,14 @@
         <v>1</v>
       </c>
       <c r="B20" s="56"/>
-      <c r="C20" s="76">
+      <c r="C20" s="74">
         <v>0.875</v>
       </c>
-      <c r="D20" s="76"/>
-      <c r="E20" s="76"/>
-      <c r="F20" s="76"/>
-      <c r="G20" s="76"/>
-      <c r="H20" s="76"/>
+      <c r="D20" s="74"/>
+      <c r="E20" s="74"/>
+      <c r="F20" s="74"/>
+      <c r="G20" s="74"/>
+      <c r="H20" s="74"/>
       <c r="I20" s="22"/>
       <c r="J20" s="10" t="s">
         <v>32</v>
@@ -9753,14 +9759,14 @@
         <v>2</v>
       </c>
       <c r="B21" s="27"/>
-      <c r="C21" s="77" t="s">
+      <c r="C21" s="78" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="70"/>
-      <c r="E21" s="70"/>
-      <c r="F21" s="70"/>
-      <c r="G21" s="70"/>
-      <c r="H21" s="70"/>
+      <c r="D21" s="69"/>
+      <c r="E21" s="69"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="69"/>
+      <c r="H21" s="69"/>
       <c r="I21" s="54"/>
       <c r="J21" s="10"/>
       <c r="K21" s="36"/>
@@ -9771,14 +9777,14 @@
         <v>1</v>
       </c>
       <c r="B22" s="56"/>
-      <c r="C22" s="76" t="s">
+      <c r="C22" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="76"/>
-      <c r="E22" s="76"/>
-      <c r="F22" s="76"/>
-      <c r="G22" s="76"/>
-      <c r="H22" s="76"/>
+      <c r="D22" s="74"/>
+      <c r="E22" s="74"/>
+      <c r="F22" s="74"/>
+      <c r="G22" s="74"/>
+      <c r="H22" s="74"/>
       <c r="I22" s="22"/>
       <c r="J22" s="10"/>
       <c r="K22" s="36"/>
@@ -9789,14 +9795,14 @@
         <v>2</v>
       </c>
       <c r="B23" s="27"/>
-      <c r="C23" s="78">
+      <c r="C23" s="77">
         <v>0.96180555555555547</v>
       </c>
-      <c r="D23" s="70"/>
-      <c r="E23" s="70"/>
-      <c r="F23" s="70"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="70"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="69"/>
+      <c r="H23" s="69"/>
       <c r="I23" s="54"/>
       <c r="J23" s="10"/>
       <c r="K23" s="36"/>
@@ -9807,12 +9813,12 @@
         <v>1</v>
       </c>
       <c r="B24" s="56"/>
-      <c r="C24" s="76"/>
-      <c r="D24" s="76"/>
-      <c r="E24" s="76"/>
-      <c r="F24" s="76"/>
-      <c r="G24" s="76"/>
-      <c r="H24" s="76"/>
+      <c r="C24" s="74"/>
+      <c r="D24" s="74"/>
+      <c r="E24" s="74"/>
+      <c r="F24" s="74"/>
+      <c r="G24" s="74"/>
+      <c r="H24" s="74"/>
       <c r="I24" s="22"/>
       <c r="J24" s="10"/>
       <c r="K24" s="36"/>
@@ -9823,12 +9829,12 @@
         <v>2</v>
       </c>
       <c r="B25" s="27"/>
-      <c r="C25" s="70"/>
-      <c r="D25" s="70"/>
-      <c r="E25" s="70"/>
-      <c r="F25" s="70"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="70"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="69"/>
+      <c r="H25" s="69"/>
       <c r="I25" s="54"/>
       <c r="J25" s="20"/>
       <c r="K25" s="35"/>
@@ -9839,46 +9845,54 @@
         <v>1</v>
       </c>
       <c r="B26" s="56"/>
-      <c r="C26" s="76"/>
-      <c r="D26" s="76"/>
-      <c r="E26" s="76"/>
-      <c r="F26" s="76"/>
-      <c r="G26" s="76"/>
-      <c r="H26" s="76"/>
+      <c r="C26" s="74"/>
+      <c r="D26" s="74"/>
+      <c r="E26" s="74"/>
+      <c r="F26" s="74"/>
+      <c r="G26" s="74"/>
+      <c r="H26" s="74"/>
       <c r="I26" s="22"/>
       <c r="J26" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="K26" s="65"/>
-      <c r="L26" s="66"/>
+      <c r="K26" s="65">
+        <v>1</v>
+      </c>
+      <c r="L26" s="66" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="27" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="26" t="s">
         <v>2</v>
       </c>
       <c r="B27" s="27"/>
-      <c r="C27" s="70"/>
-      <c r="D27" s="70"/>
-      <c r="E27" s="70"/>
-      <c r="F27" s="70"/>
-      <c r="G27" s="70"/>
-      <c r="H27" s="70"/>
+      <c r="C27" s="69"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="69"/>
+      <c r="F27" s="69"/>
+      <c r="G27" s="69"/>
+      <c r="H27" s="69"/>
       <c r="I27" s="54"/>
       <c r="J27" s="10"/>
-      <c r="K27" s="36"/>
-      <c r="L27" s="49"/>
+      <c r="K27" s="36">
+        <v>8</v>
+      </c>
+      <c r="L27" s="49" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="28" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="26" t="s">
         <v>1</v>
       </c>
       <c r="B28" s="56"/>
-      <c r="C28" s="76"/>
-      <c r="D28" s="76"/>
-      <c r="E28" s="76"/>
-      <c r="F28" s="76"/>
-      <c r="G28" s="76"/>
-      <c r="H28" s="76"/>
+      <c r="C28" s="74"/>
+      <c r="D28" s="74"/>
+      <c r="E28" s="74"/>
+      <c r="F28" s="74"/>
+      <c r="G28" s="74"/>
+      <c r="H28" s="74"/>
       <c r="I28" s="22"/>
       <c r="J28" s="10"/>
       <c r="K28" s="36"/>
@@ -9889,12 +9903,12 @@
         <v>2</v>
       </c>
       <c r="B29" s="27"/>
-      <c r="C29" s="70"/>
-      <c r="D29" s="70"/>
-      <c r="E29" s="70"/>
-      <c r="F29" s="70"/>
-      <c r="G29" s="70"/>
-      <c r="H29" s="70"/>
+      <c r="C29" s="69"/>
+      <c r="D29" s="69"/>
+      <c r="E29" s="69"/>
+      <c r="F29" s="69"/>
+      <c r="G29" s="69"/>
+      <c r="H29" s="69"/>
       <c r="I29" s="54"/>
       <c r="J29" s="10"/>
       <c r="K29" s="36"/>
@@ -9905,12 +9919,12 @@
         <v>1</v>
       </c>
       <c r="B30" s="56"/>
-      <c r="C30" s="76"/>
-      <c r="D30" s="76"/>
-      <c r="E30" s="76"/>
-      <c r="F30" s="76"/>
-      <c r="G30" s="76"/>
-      <c r="H30" s="76"/>
+      <c r="C30" s="74"/>
+      <c r="D30" s="74"/>
+      <c r="E30" s="74"/>
+      <c r="F30" s="74"/>
+      <c r="G30" s="74"/>
+      <c r="H30" s="74"/>
       <c r="I30" s="22"/>
       <c r="J30" s="10"/>
       <c r="K30" s="36">
@@ -9925,12 +9939,12 @@
         <v>2</v>
       </c>
       <c r="B31" s="28"/>
-      <c r="C31" s="72"/>
-      <c r="D31" s="72"/>
-      <c r="E31" s="72"/>
-      <c r="F31" s="72"/>
-      <c r="G31" s="72"/>
-      <c r="H31" s="72"/>
+      <c r="C31" s="71"/>
+      <c r="D31" s="71"/>
+      <c r="E31" s="71"/>
+      <c r="F31" s="71"/>
+      <c r="G31" s="71"/>
+      <c r="H31" s="71"/>
       <c r="I31" s="55"/>
       <c r="J31" s="10"/>
       <c r="K31" s="42"/>
@@ -9938,6 +9952,60 @@
     </row>
   </sheetData>
   <mergeCells count="63">
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="G31:H31"/>
@@ -9947,93 +10015,39 @@
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="G30:H30"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:H3">
-    <cfRule type="expression" dxfId="50" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="59" priority="10" stopIfTrue="1">
       <formula>DAY(C3)&gt;8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:I8">
-    <cfRule type="expression" dxfId="49" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="58" priority="9" stopIfTrue="1">
       <formula>AND(DAY(C7)&gt;=1,DAY(C7)&lt;=15)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:I8">
-    <cfRule type="expression" dxfId="48" priority="11">
+    <cfRule type="expression" dxfId="57" priority="11">
       <formula>VLOOKUP(DAY(C3),AssignmentDays,1,FALSE)=DAY(C3)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:I13 B15:I15 B17:I17 B19:I19 B21:I21 B23:I23 B25:I25 B27:I27 B29:I29 B31:I31">
-    <cfRule type="expression" dxfId="47" priority="4">
+    <cfRule type="expression" dxfId="56" priority="4">
       <formula>B13&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:I12 B14:I14 B16:I16 B18:I18 B20:I20 B22:I22 B24:I24 B26:I26 B28:I28 B30:I30">
-    <cfRule type="expression" dxfId="46" priority="3">
+    <cfRule type="expression" dxfId="55" priority="3">
       <formula>B12&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:I13 B15:I15 B17:I17 B19:I19 B21:I21 B23:I23 B25:I25 B27:I27 B29:I29">
-    <cfRule type="expression" dxfId="45" priority="2">
+    <cfRule type="expression" dxfId="54" priority="2">
       <formula>COLUMN(B12)&gt;=2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:I31">
-    <cfRule type="expression" dxfId="44" priority="1">
+    <cfRule type="expression" dxfId="53" priority="1">
       <formula>COLUMN(B12)&gt;2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10410,12 +10424,12 @@
         <v>1</v>
       </c>
       <c r="B12" s="56"/>
-      <c r="C12" s="76"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="76"/>
-      <c r="F12" s="76"/>
-      <c r="G12" s="76"/>
-      <c r="H12" s="76"/>
+      <c r="C12" s="74"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="74"/>
       <c r="I12" s="22"/>
       <c r="J12" s="10"/>
       <c r="K12" s="36"/>
@@ -10426,12 +10440,12 @@
         <v>2</v>
       </c>
       <c r="B13" s="27"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="69"/>
       <c r="I13" s="54"/>
       <c r="J13" s="20"/>
       <c r="K13" s="35"/>
@@ -10442,12 +10456,12 @@
         <v>1</v>
       </c>
       <c r="B14" s="56"/>
-      <c r="C14" s="76"/>
-      <c r="D14" s="76"/>
-      <c r="E14" s="76"/>
-      <c r="F14" s="76"/>
-      <c r="G14" s="76"/>
-      <c r="H14" s="76"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="74"/>
+      <c r="H14" s="74"/>
       <c r="I14" s="22">
         <v>0.76041666666666663</v>
       </c>
@@ -10462,12 +10476,12 @@
         <v>2</v>
       </c>
       <c r="B15" s="27"/>
-      <c r="C15" s="70"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="70"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="69"/>
       <c r="I15" s="27" t="s">
         <v>38</v>
       </c>
@@ -10480,12 +10494,12 @@
         <v>1</v>
       </c>
       <c r="B16" s="56"/>
-      <c r="C16" s="76"/>
-      <c r="D16" s="76"/>
-      <c r="E16" s="76"/>
-      <c r="F16" s="76"/>
-      <c r="G16" s="76"/>
-      <c r="H16" s="76"/>
+      <c r="C16" s="74"/>
+      <c r="D16" s="74"/>
+      <c r="E16" s="74"/>
+      <c r="F16" s="74"/>
+      <c r="G16" s="74"/>
+      <c r="H16" s="74"/>
       <c r="I16" s="24">
         <v>0.82291666666666663</v>
       </c>
@@ -10498,12 +10512,12 @@
         <v>2</v>
       </c>
       <c r="B17" s="27"/>
-      <c r="C17" s="70"/>
-      <c r="D17" s="70"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="70"/>
+      <c r="C17" s="69"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="69"/>
+      <c r="H17" s="69"/>
       <c r="I17" s="27" t="s">
         <v>41</v>
       </c>
@@ -10516,14 +10530,14 @@
         <v>1</v>
       </c>
       <c r="B18" s="56"/>
-      <c r="C18" s="76">
+      <c r="C18" s="74">
         <v>0.82986111111111116</v>
       </c>
-      <c r="D18" s="76"/>
-      <c r="E18" s="76"/>
-      <c r="F18" s="76"/>
-      <c r="G18" s="76"/>
-      <c r="H18" s="76"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="74"/>
+      <c r="G18" s="74"/>
+      <c r="H18" s="74"/>
       <c r="I18" s="22"/>
       <c r="J18" s="10"/>
       <c r="K18" s="36"/>
@@ -10534,14 +10548,14 @@
         <v>2</v>
       </c>
       <c r="B19" s="27"/>
-      <c r="C19" s="77" t="s">
+      <c r="C19" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="70"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="70"/>
-      <c r="H19" s="70"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="69"/>
+      <c r="H19" s="69"/>
       <c r="I19" s="47"/>
       <c r="J19" s="20"/>
       <c r="K19" s="35"/>
@@ -10552,14 +10566,14 @@
         <v>1</v>
       </c>
       <c r="B20" s="56"/>
-      <c r="C20" s="76">
+      <c r="C20" s="74">
         <v>0.875</v>
       </c>
-      <c r="D20" s="76"/>
-      <c r="E20" s="76"/>
-      <c r="F20" s="76"/>
-      <c r="G20" s="76"/>
-      <c r="H20" s="76"/>
+      <c r="D20" s="74"/>
+      <c r="E20" s="74"/>
+      <c r="F20" s="74"/>
+      <c r="G20" s="74"/>
+      <c r="H20" s="74"/>
       <c r="I20" s="22"/>
       <c r="J20" s="10" t="s">
         <v>32</v>
@@ -10572,14 +10586,14 @@
         <v>2</v>
       </c>
       <c r="B21" s="27"/>
-      <c r="C21" s="77" t="s">
+      <c r="C21" s="78" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="70"/>
-      <c r="E21" s="70"/>
-      <c r="F21" s="70"/>
-      <c r="G21" s="70"/>
-      <c r="H21" s="70"/>
+      <c r="D21" s="69"/>
+      <c r="E21" s="69"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="69"/>
+      <c r="H21" s="69"/>
       <c r="I21" s="54"/>
       <c r="J21" s="10"/>
       <c r="K21" s="36"/>
@@ -10590,14 +10604,14 @@
         <v>1</v>
       </c>
       <c r="B22" s="56"/>
-      <c r="C22" s="76" t="s">
+      <c r="C22" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="76"/>
-      <c r="E22" s="76"/>
-      <c r="F22" s="76"/>
-      <c r="G22" s="76"/>
-      <c r="H22" s="76"/>
+      <c r="D22" s="74"/>
+      <c r="E22" s="74"/>
+      <c r="F22" s="74"/>
+      <c r="G22" s="74"/>
+      <c r="H22" s="74"/>
       <c r="I22" s="22"/>
       <c r="J22" s="10"/>
       <c r="K22" s="36"/>
@@ -10608,14 +10622,14 @@
         <v>2</v>
       </c>
       <c r="B23" s="27"/>
-      <c r="C23" s="78">
+      <c r="C23" s="77">
         <v>0.96180555555555547</v>
       </c>
-      <c r="D23" s="70"/>
-      <c r="E23" s="70"/>
-      <c r="F23" s="70"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="70"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="69"/>
+      <c r="H23" s="69"/>
       <c r="I23" s="54"/>
       <c r="J23" s="10"/>
       <c r="K23" s="36"/>
@@ -10626,12 +10640,12 @@
         <v>1</v>
       </c>
       <c r="B24" s="56"/>
-      <c r="C24" s="76"/>
-      <c r="D24" s="76"/>
-      <c r="E24" s="76"/>
-      <c r="F24" s="76"/>
-      <c r="G24" s="76"/>
-      <c r="H24" s="76"/>
+      <c r="C24" s="74"/>
+      <c r="D24" s="74"/>
+      <c r="E24" s="74"/>
+      <c r="F24" s="74"/>
+      <c r="G24" s="74"/>
+      <c r="H24" s="74"/>
       <c r="I24" s="22"/>
       <c r="J24" s="10"/>
       <c r="K24" s="36"/>
@@ -10642,12 +10656,12 @@
         <v>2</v>
       </c>
       <c r="B25" s="27"/>
-      <c r="C25" s="70"/>
-      <c r="D25" s="70"/>
-      <c r="E25" s="70"/>
-      <c r="F25" s="70"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="70"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="69"/>
+      <c r="H25" s="69"/>
       <c r="I25" s="54"/>
       <c r="J25" s="20"/>
       <c r="K25" s="35"/>
@@ -10658,12 +10672,12 @@
         <v>1</v>
       </c>
       <c r="B26" s="56"/>
-      <c r="C26" s="76"/>
-      <c r="D26" s="76"/>
-      <c r="E26" s="76"/>
-      <c r="F26" s="76"/>
-      <c r="G26" s="76"/>
-      <c r="H26" s="76"/>
+      <c r="C26" s="74"/>
+      <c r="D26" s="74"/>
+      <c r="E26" s="74"/>
+      <c r="F26" s="74"/>
+      <c r="G26" s="74"/>
+      <c r="H26" s="74"/>
       <c r="I26" s="22"/>
       <c r="J26" s="10" t="s">
         <v>33</v>
@@ -10676,12 +10690,12 @@
         <v>2</v>
       </c>
       <c r="B27" s="27"/>
-      <c r="C27" s="70"/>
-      <c r="D27" s="70"/>
-      <c r="E27" s="70"/>
-      <c r="F27" s="70"/>
-      <c r="G27" s="70"/>
-      <c r="H27" s="70"/>
+      <c r="C27" s="69"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="69"/>
+      <c r="F27" s="69"/>
+      <c r="G27" s="69"/>
+      <c r="H27" s="69"/>
       <c r="I27" s="54"/>
       <c r="J27" s="10"/>
       <c r="K27" s="36"/>
@@ -10692,12 +10706,12 @@
         <v>1</v>
       </c>
       <c r="B28" s="56"/>
-      <c r="C28" s="76"/>
-      <c r="D28" s="76"/>
-      <c r="E28" s="76"/>
-      <c r="F28" s="76"/>
-      <c r="G28" s="76"/>
-      <c r="H28" s="76"/>
+      <c r="C28" s="74"/>
+      <c r="D28" s="74"/>
+      <c r="E28" s="74"/>
+      <c r="F28" s="74"/>
+      <c r="G28" s="74"/>
+      <c r="H28" s="74"/>
       <c r="I28" s="22"/>
       <c r="J28" s="10"/>
       <c r="K28" s="36"/>
@@ -10708,12 +10722,12 @@
         <v>2</v>
       </c>
       <c r="B29" s="27"/>
-      <c r="C29" s="70"/>
-      <c r="D29" s="70"/>
-      <c r="E29" s="70"/>
-      <c r="F29" s="70"/>
-      <c r="G29" s="70"/>
-      <c r="H29" s="70"/>
+      <c r="C29" s="69"/>
+      <c r="D29" s="69"/>
+      <c r="E29" s="69"/>
+      <c r="F29" s="69"/>
+      <c r="G29" s="69"/>
+      <c r="H29" s="69"/>
       <c r="I29" s="54"/>
       <c r="J29" s="10"/>
       <c r="K29" s="36"/>
@@ -10724,12 +10738,12 @@
         <v>1</v>
       </c>
       <c r="B30" s="56"/>
-      <c r="C30" s="76"/>
-      <c r="D30" s="76"/>
-      <c r="E30" s="76"/>
-      <c r="F30" s="76"/>
-      <c r="G30" s="76"/>
-      <c r="H30" s="76"/>
+      <c r="C30" s="74"/>
+      <c r="D30" s="74"/>
+      <c r="E30" s="74"/>
+      <c r="F30" s="74"/>
+      <c r="G30" s="74"/>
+      <c r="H30" s="74"/>
       <c r="I30" s="22"/>
       <c r="J30" s="10"/>
       <c r="K30" s="36"/>
@@ -10740,12 +10754,12 @@
         <v>2</v>
       </c>
       <c r="B31" s="28"/>
-      <c r="C31" s="72"/>
-      <c r="D31" s="72"/>
-      <c r="E31" s="72"/>
-      <c r="F31" s="72"/>
-      <c r="G31" s="72"/>
-      <c r="H31" s="72"/>
+      <c r="C31" s="71"/>
+      <c r="D31" s="71"/>
+      <c r="E31" s="71"/>
+      <c r="F31" s="71"/>
+      <c r="G31" s="71"/>
+      <c r="H31" s="71"/>
       <c r="I31" s="55"/>
       <c r="J31" s="10"/>
       <c r="K31" s="42"/>
@@ -10753,6 +10767,60 @@
     </row>
   </sheetData>
   <mergeCells count="63">
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="G31:H31"/>
@@ -10762,93 +10830,39 @@
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="G30:H30"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:H3">
-    <cfRule type="expression" dxfId="43" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="10" stopIfTrue="1">
       <formula>DAY(C3)&gt;8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:I8">
-    <cfRule type="expression" dxfId="42" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="9" stopIfTrue="1">
       <formula>AND(DAY(C7)&gt;=1,DAY(C7)&lt;=15)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:I8">
-    <cfRule type="expression" dxfId="41" priority="11">
+    <cfRule type="expression" dxfId="48" priority="11">
       <formula>VLOOKUP(DAY(C3),AssignmentDays,1,FALSE)=DAY(C3)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:I13 B15:I15 B17:I17 B19:I19 B21:I21 B23:I23 B25:I25 B27:I27 B29:I29 B31:I31">
-    <cfRule type="expression" dxfId="40" priority="4">
+    <cfRule type="expression" dxfId="47" priority="4">
       <formula>B13&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:I12 B14:I14 B16:I16 B18:I18 B20:I20 B22:I22 B24:I24 B26:I26 B28:I28 B30:I30">
-    <cfRule type="expression" dxfId="39" priority="3">
+    <cfRule type="expression" dxfId="46" priority="3">
       <formula>B12&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:I13 B15:I15 B17:I17 B19:I19 B21:I21 B23:I23 B25:I25 B27:I27 B29:I29">
-    <cfRule type="expression" dxfId="38" priority="2">
+    <cfRule type="expression" dxfId="45" priority="2">
       <formula>COLUMN(B12)&gt;=2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:I31">
-    <cfRule type="expression" dxfId="37" priority="1">
+    <cfRule type="expression" dxfId="44" priority="1">
       <formula>COLUMN(B12)&gt;2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11218,14 +11232,14 @@
       <c r="B12" s="21">
         <v>0.33333333333333331</v>
       </c>
-      <c r="C12" s="76"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="76">
+      <c r="C12" s="74"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="74">
         <v>0.33333333333333331</v>
       </c>
-      <c r="F12" s="76"/>
-      <c r="G12" s="76"/>
-      <c r="H12" s="76"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="74"/>
       <c r="I12" s="22">
         <v>0.33333333333333331</v>
       </c>
@@ -11240,14 +11254,14 @@
       <c r="B13" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70" t="s">
+      <c r="C13" s="69"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="69"/>
       <c r="I13" s="30" t="s">
         <v>5</v>
       </c>
@@ -11260,16 +11274,16 @@
         <v>1</v>
       </c>
       <c r="B14" s="21"/>
-      <c r="C14" s="76">
+      <c r="C14" s="74">
         <v>0.375</v>
       </c>
-      <c r="D14" s="76"/>
-      <c r="E14" s="76"/>
-      <c r="F14" s="76"/>
-      <c r="G14" s="76">
+      <c r="D14" s="74"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="74">
         <v>0.375</v>
       </c>
-      <c r="H14" s="76"/>
+      <c r="H14" s="74"/>
       <c r="I14" s="22"/>
       <c r="J14" s="10" t="s">
         <v>31</v>
@@ -11282,16 +11296,16 @@
         <v>2</v>
       </c>
       <c r="B15" s="27"/>
-      <c r="C15" s="70" t="s">
+      <c r="C15" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="70" t="s">
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="70"/>
+      <c r="H15" s="69"/>
       <c r="I15" s="30"/>
       <c r="J15" s="10"/>
       <c r="K15" s="36"/>
@@ -11304,14 +11318,14 @@
       <c r="B16" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="76"/>
-      <c r="D16" s="76"/>
-      <c r="E16" s="76" t="s">
+      <c r="C16" s="74"/>
+      <c r="D16" s="74"/>
+      <c r="E16" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="F16" s="76"/>
-      <c r="G16" s="76"/>
-      <c r="H16" s="76"/>
+      <c r="F16" s="74"/>
+      <c r="G16" s="74"/>
+      <c r="H16" s="74"/>
       <c r="I16" s="24" t="s">
         <v>6</v>
       </c>
@@ -11326,14 +11340,14 @@
       <c r="B17" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="70"/>
-      <c r="D17" s="70"/>
-      <c r="E17" s="70" t="s">
+      <c r="C17" s="69"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="F17" s="70"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="70"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="69"/>
+      <c r="H17" s="69"/>
       <c r="I17" s="30" t="s">
         <v>7</v>
       </c>
@@ -11346,12 +11360,12 @@
         <v>1</v>
       </c>
       <c r="B18" s="21"/>
-      <c r="C18" s="76"/>
-      <c r="D18" s="76"/>
-      <c r="E18" s="76"/>
-      <c r="F18" s="76"/>
-      <c r="G18" s="76"/>
-      <c r="H18" s="76"/>
+      <c r="C18" s="74"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="74"/>
+      <c r="G18" s="74"/>
+      <c r="H18" s="74"/>
       <c r="I18" s="22"/>
       <c r="J18" s="10"/>
       <c r="K18" s="36"/>
@@ -11362,12 +11376,12 @@
         <v>2</v>
       </c>
       <c r="B19" s="27"/>
-      <c r="C19" s="70"/>
-      <c r="D19" s="70"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="70"/>
-      <c r="H19" s="70"/>
+      <c r="C19" s="69"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="69"/>
+      <c r="H19" s="69"/>
       <c r="I19" s="47"/>
       <c r="J19" s="20"/>
       <c r="K19" s="35"/>
@@ -11378,12 +11392,12 @@
         <v>1</v>
       </c>
       <c r="B20" s="21"/>
-      <c r="C20" s="76"/>
-      <c r="D20" s="76"/>
-      <c r="E20" s="76"/>
-      <c r="F20" s="76"/>
-      <c r="G20" s="76"/>
-      <c r="H20" s="76"/>
+      <c r="C20" s="74"/>
+      <c r="D20" s="74"/>
+      <c r="E20" s="74"/>
+      <c r="F20" s="74"/>
+      <c r="G20" s="74"/>
+      <c r="H20" s="74"/>
       <c r="I20" s="22"/>
       <c r="J20" s="10" t="s">
         <v>32</v>
@@ -11396,12 +11410,12 @@
         <v>2</v>
       </c>
       <c r="B21" s="27"/>
-      <c r="C21" s="70"/>
-      <c r="D21" s="70"/>
-      <c r="E21" s="70"/>
-      <c r="F21" s="70"/>
-      <c r="G21" s="70"/>
-      <c r="H21" s="70"/>
+      <c r="C21" s="69"/>
+      <c r="D21" s="69"/>
+      <c r="E21" s="69"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="69"/>
+      <c r="H21" s="69"/>
       <c r="I21" s="30"/>
       <c r="J21" s="10"/>
       <c r="K21" s="36"/>
@@ -11412,12 +11426,12 @@
         <v>1</v>
       </c>
       <c r="B22" s="21"/>
-      <c r="C22" s="76"/>
-      <c r="D22" s="76"/>
-      <c r="E22" s="76"/>
-      <c r="F22" s="76"/>
-      <c r="G22" s="76"/>
-      <c r="H22" s="76"/>
+      <c r="C22" s="74"/>
+      <c r="D22" s="74"/>
+      <c r="E22" s="74"/>
+      <c r="F22" s="74"/>
+      <c r="G22" s="74"/>
+      <c r="H22" s="74"/>
       <c r="I22" s="22"/>
       <c r="J22" s="10"/>
       <c r="K22" s="36"/>
@@ -11428,12 +11442,12 @@
         <v>2</v>
       </c>
       <c r="B23" s="27"/>
-      <c r="C23" s="70"/>
-      <c r="D23" s="70"/>
-      <c r="E23" s="70"/>
-      <c r="F23" s="70"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="70"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="69"/>
+      <c r="H23" s="69"/>
       <c r="I23" s="30"/>
       <c r="J23" s="10"/>
       <c r="K23" s="36"/>
@@ -11446,14 +11460,14 @@
       <c r="B24" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="76"/>
-      <c r="D24" s="76"/>
-      <c r="E24" s="76" t="s">
+      <c r="C24" s="74"/>
+      <c r="D24" s="74"/>
+      <c r="E24" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="76"/>
-      <c r="G24" s="76"/>
-      <c r="H24" s="76"/>
+      <c r="F24" s="74"/>
+      <c r="G24" s="74"/>
+      <c r="H24" s="74"/>
       <c r="I24" s="22" t="s">
         <v>8</v>
       </c>
@@ -11468,14 +11482,14 @@
       <c r="B25" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="70"/>
-      <c r="D25" s="70"/>
-      <c r="E25" s="70" t="s">
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="F25" s="70"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="70"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="69"/>
+      <c r="H25" s="69"/>
       <c r="I25" s="30" t="s">
         <v>9</v>
       </c>
@@ -11488,12 +11502,12 @@
         <v>1</v>
       </c>
       <c r="B26" s="21"/>
-      <c r="C26" s="76"/>
-      <c r="D26" s="76"/>
-      <c r="E26" s="76"/>
-      <c r="F26" s="76"/>
-      <c r="G26" s="76"/>
-      <c r="H26" s="76"/>
+      <c r="C26" s="74"/>
+      <c r="D26" s="74"/>
+      <c r="E26" s="74"/>
+      <c r="F26" s="74"/>
+      <c r="G26" s="74"/>
+      <c r="H26" s="74"/>
       <c r="I26" s="22"/>
       <c r="J26" s="10" t="s">
         <v>33</v>
@@ -11506,12 +11520,12 @@
         <v>2</v>
       </c>
       <c r="B27" s="27"/>
-      <c r="C27" s="70"/>
-      <c r="D27" s="70"/>
-      <c r="E27" s="70"/>
-      <c r="F27" s="70"/>
-      <c r="G27" s="70"/>
-      <c r="H27" s="70"/>
+      <c r="C27" s="69"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="69"/>
+      <c r="F27" s="69"/>
+      <c r="G27" s="69"/>
+      <c r="H27" s="69"/>
       <c r="I27" s="30"/>
       <c r="J27" s="10"/>
       <c r="K27" s="36"/>
@@ -11522,16 +11536,16 @@
         <v>1</v>
       </c>
       <c r="B28" s="21"/>
-      <c r="C28" s="76" t="s">
+      <c r="C28" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="D28" s="76"/>
-      <c r="E28" s="76"/>
-      <c r="F28" s="76"/>
-      <c r="G28" s="76" t="s">
+      <c r="D28" s="74"/>
+      <c r="E28" s="74"/>
+      <c r="F28" s="74"/>
+      <c r="G28" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="H28" s="76"/>
+      <c r="H28" s="74"/>
       <c r="I28" s="22"/>
       <c r="J28" s="10"/>
       <c r="K28" s="36"/>
@@ -11542,16 +11556,16 @@
         <v>2</v>
       </c>
       <c r="B29" s="27"/>
-      <c r="C29" s="70" t="s">
+      <c r="C29" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="70"/>
-      <c r="E29" s="70"/>
-      <c r="F29" s="70"/>
-      <c r="G29" s="70" t="s">
+      <c r="D29" s="69"/>
+      <c r="E29" s="69"/>
+      <c r="F29" s="69"/>
+      <c r="G29" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="H29" s="70"/>
+      <c r="H29" s="69"/>
       <c r="I29" s="30"/>
       <c r="J29" s="10"/>
       <c r="K29" s="36"/>
@@ -11562,12 +11576,12 @@
         <v>1</v>
       </c>
       <c r="B30" s="21"/>
-      <c r="C30" s="76"/>
-      <c r="D30" s="76"/>
-      <c r="E30" s="76"/>
-      <c r="F30" s="76"/>
-      <c r="G30" s="76"/>
-      <c r="H30" s="76"/>
+      <c r="C30" s="74"/>
+      <c r="D30" s="74"/>
+      <c r="E30" s="74"/>
+      <c r="F30" s="74"/>
+      <c r="G30" s="74"/>
+      <c r="H30" s="74"/>
       <c r="I30" s="22"/>
       <c r="J30" s="10"/>
       <c r="K30" s="36"/>
@@ -11578,12 +11592,12 @@
         <v>2</v>
       </c>
       <c r="B31" s="28"/>
-      <c r="C31" s="72"/>
-      <c r="D31" s="72"/>
-      <c r="E31" s="72"/>
-      <c r="F31" s="72"/>
-      <c r="G31" s="72"/>
-      <c r="H31" s="72"/>
+      <c r="C31" s="71"/>
+      <c r="D31" s="71"/>
+      <c r="E31" s="71"/>
+      <c r="F31" s="71"/>
+      <c r="G31" s="71"/>
+      <c r="H31" s="71"/>
       <c r="I31" s="40"/>
       <c r="J31" s="10"/>
       <c r="K31" s="42"/>
@@ -11591,6 +11605,60 @@
     </row>
   </sheetData>
   <mergeCells count="63">
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="G31:H31"/>
@@ -11600,93 +11668,39 @@
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="G30:H30"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:H3">
-    <cfRule type="expression" dxfId="36" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="6" stopIfTrue="1">
       <formula>DAY(C3)&gt;8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:I8">
-    <cfRule type="expression" dxfId="35" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="5" stopIfTrue="1">
       <formula>AND(DAY(C7)&gt;=1,DAY(C7)&lt;=15)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:I8">
-    <cfRule type="expression" dxfId="34" priority="7">
+    <cfRule type="expression" dxfId="39" priority="7">
       <formula>VLOOKUP(DAY(C3),AssignmentDays,1,FALSE)=DAY(C3)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:I12 B14:I14 B16:I16 B18:I18 B20:I20 B22:I22 B24:I24 B26:I26 B28:I28 B30:I30">
-    <cfRule type="expression" dxfId="33" priority="4">
+    <cfRule type="expression" dxfId="38" priority="4">
       <formula>B12&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:I13 B15:I15 B17:I17 B19:I19 B21:I21 B23:I23 B25:I25 B27:I27 B29:I29 B31:I31">
-    <cfRule type="expression" dxfId="32" priority="3">
+    <cfRule type="expression" dxfId="37" priority="3">
       <formula>B12&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:I13 B15:I15 B17:I17 B19:I19 B21:I21 B23:I23 B25:I25 B27:I27 B29:I29">
-    <cfRule type="expression" dxfId="31" priority="2">
+    <cfRule type="expression" dxfId="36" priority="2">
       <formula>COLUMN(B13)&gt;=2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:I31">
-    <cfRule type="expression" dxfId="30" priority="1">
+    <cfRule type="expression" dxfId="35" priority="1">
       <formula>COLUMN(B12)&gt;2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12056,14 +12070,14 @@
       <c r="B12" s="21">
         <v>0.33333333333333331</v>
       </c>
-      <c r="C12" s="76"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="76">
+      <c r="C12" s="74"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="74">
         <v>0.33333333333333331</v>
       </c>
-      <c r="F12" s="76"/>
-      <c r="G12" s="76"/>
-      <c r="H12" s="76"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="74"/>
       <c r="I12" s="22">
         <v>0.33333333333333331</v>
       </c>
@@ -12078,14 +12092,14 @@
       <c r="B13" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70" t="s">
+      <c r="C13" s="69"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="69"/>
       <c r="I13" s="30" t="s">
         <v>5</v>
       </c>
@@ -12098,16 +12112,16 @@
         <v>1</v>
       </c>
       <c r="B14" s="21"/>
-      <c r="C14" s="76">
+      <c r="C14" s="74">
         <v>0.375</v>
       </c>
-      <c r="D14" s="76"/>
-      <c r="E14" s="76"/>
-      <c r="F14" s="76"/>
-      <c r="G14" s="76">
+      <c r="D14" s="74"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="74">
         <v>0.375</v>
       </c>
-      <c r="H14" s="76"/>
+      <c r="H14" s="74"/>
       <c r="I14" s="22"/>
       <c r="J14" s="10" t="s">
         <v>31</v>
@@ -12120,16 +12134,16 @@
         <v>2</v>
       </c>
       <c r="B15" s="27"/>
-      <c r="C15" s="70" t="s">
+      <c r="C15" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="70" t="s">
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="70"/>
+      <c r="H15" s="69"/>
       <c r="I15" s="30"/>
       <c r="J15" s="10"/>
       <c r="K15" s="36"/>
@@ -12142,14 +12156,14 @@
       <c r="B16" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="76"/>
-      <c r="D16" s="76"/>
-      <c r="E16" s="76" t="s">
+      <c r="C16" s="74"/>
+      <c r="D16" s="74"/>
+      <c r="E16" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="F16" s="76"/>
-      <c r="G16" s="76"/>
-      <c r="H16" s="76"/>
+      <c r="F16" s="74"/>
+      <c r="G16" s="74"/>
+      <c r="H16" s="74"/>
       <c r="I16" s="24" t="s">
         <v>6</v>
       </c>
@@ -12164,14 +12178,14 @@
       <c r="B17" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="70"/>
-      <c r="D17" s="70"/>
-      <c r="E17" s="70" t="s">
+      <c r="C17" s="69"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="F17" s="70"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="70"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="69"/>
+      <c r="H17" s="69"/>
       <c r="I17" s="30" t="s">
         <v>7</v>
       </c>
@@ -12184,12 +12198,12 @@
         <v>1</v>
       </c>
       <c r="B18" s="21"/>
-      <c r="C18" s="76"/>
-      <c r="D18" s="76"/>
-      <c r="E18" s="76"/>
-      <c r="F18" s="76"/>
-      <c r="G18" s="76"/>
-      <c r="H18" s="76"/>
+      <c r="C18" s="74"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="74"/>
+      <c r="G18" s="74"/>
+      <c r="H18" s="74"/>
       <c r="I18" s="22"/>
       <c r="J18" s="10"/>
       <c r="K18" s="36"/>
@@ -12200,12 +12214,12 @@
         <v>2</v>
       </c>
       <c r="B19" s="27"/>
-      <c r="C19" s="70"/>
-      <c r="D19" s="70"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="70"/>
-      <c r="H19" s="70"/>
+      <c r="C19" s="69"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="69"/>
+      <c r="H19" s="69"/>
       <c r="I19" s="47"/>
       <c r="J19" s="20"/>
       <c r="K19" s="35"/>
@@ -12216,12 +12230,12 @@
         <v>1</v>
       </c>
       <c r="B20" s="21"/>
-      <c r="C20" s="76"/>
-      <c r="D20" s="76"/>
-      <c r="E20" s="76"/>
-      <c r="F20" s="76"/>
-      <c r="G20" s="76"/>
-      <c r="H20" s="76"/>
+      <c r="C20" s="74"/>
+      <c r="D20" s="74"/>
+      <c r="E20" s="74"/>
+      <c r="F20" s="74"/>
+      <c r="G20" s="74"/>
+      <c r="H20" s="74"/>
       <c r="I20" s="22"/>
       <c r="J20" s="10" t="s">
         <v>32</v>
@@ -12234,12 +12248,12 @@
         <v>2</v>
       </c>
       <c r="B21" s="27"/>
-      <c r="C21" s="70"/>
-      <c r="D21" s="70"/>
-      <c r="E21" s="70"/>
-      <c r="F21" s="70"/>
-      <c r="G21" s="70"/>
-      <c r="H21" s="70"/>
+      <c r="C21" s="69"/>
+      <c r="D21" s="69"/>
+      <c r="E21" s="69"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="69"/>
+      <c r="H21" s="69"/>
       <c r="I21" s="30"/>
       <c r="J21" s="10"/>
       <c r="K21" s="36"/>
@@ -12250,12 +12264,12 @@
         <v>1</v>
       </c>
       <c r="B22" s="21"/>
-      <c r="C22" s="76"/>
-      <c r="D22" s="76"/>
-      <c r="E22" s="76"/>
-      <c r="F22" s="76"/>
-      <c r="G22" s="76"/>
-      <c r="H22" s="76"/>
+      <c r="C22" s="74"/>
+      <c r="D22" s="74"/>
+      <c r="E22" s="74"/>
+      <c r="F22" s="74"/>
+      <c r="G22" s="74"/>
+      <c r="H22" s="74"/>
       <c r="I22" s="22"/>
       <c r="J22" s="10"/>
       <c r="K22" s="36"/>
@@ -12266,12 +12280,12 @@
         <v>2</v>
       </c>
       <c r="B23" s="27"/>
-      <c r="C23" s="70"/>
-      <c r="D23" s="70"/>
-      <c r="E23" s="70"/>
-      <c r="F23" s="70"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="70"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="69"/>
+      <c r="H23" s="69"/>
       <c r="I23" s="30"/>
       <c r="J23" s="10"/>
       <c r="K23" s="36"/>
@@ -12284,14 +12298,14 @@
       <c r="B24" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="76"/>
-      <c r="D24" s="76"/>
-      <c r="E24" s="76" t="s">
+      <c r="C24" s="74"/>
+      <c r="D24" s="74"/>
+      <c r="E24" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="76"/>
-      <c r="G24" s="76"/>
-      <c r="H24" s="76"/>
+      <c r="F24" s="74"/>
+      <c r="G24" s="74"/>
+      <c r="H24" s="74"/>
       <c r="I24" s="22" t="s">
         <v>8</v>
       </c>
@@ -12306,14 +12320,14 @@
       <c r="B25" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="70"/>
-      <c r="D25" s="70"/>
-      <c r="E25" s="70" t="s">
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="F25" s="70"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="70"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="69"/>
+      <c r="H25" s="69"/>
       <c r="I25" s="30" t="s">
         <v>9</v>
       </c>
@@ -12326,12 +12340,12 @@
         <v>1</v>
       </c>
       <c r="B26" s="21"/>
-      <c r="C26" s="76"/>
-      <c r="D26" s="76"/>
-      <c r="E26" s="76"/>
-      <c r="F26" s="76"/>
-      <c r="G26" s="76"/>
-      <c r="H26" s="76"/>
+      <c r="C26" s="74"/>
+      <c r="D26" s="74"/>
+      <c r="E26" s="74"/>
+      <c r="F26" s="74"/>
+      <c r="G26" s="74"/>
+      <c r="H26" s="74"/>
       <c r="I26" s="22"/>
       <c r="J26" s="10" t="s">
         <v>33</v>
@@ -12344,12 +12358,12 @@
         <v>2</v>
       </c>
       <c r="B27" s="27"/>
-      <c r="C27" s="70"/>
-      <c r="D27" s="70"/>
-      <c r="E27" s="70"/>
-      <c r="F27" s="70"/>
-      <c r="G27" s="70"/>
-      <c r="H27" s="70"/>
+      <c r="C27" s="69"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="69"/>
+      <c r="F27" s="69"/>
+      <c r="G27" s="69"/>
+      <c r="H27" s="69"/>
       <c r="I27" s="30"/>
       <c r="J27" s="10"/>
       <c r="K27" s="36"/>
@@ -12360,16 +12374,16 @@
         <v>1</v>
       </c>
       <c r="B28" s="21"/>
-      <c r="C28" s="76" t="s">
+      <c r="C28" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="D28" s="76"/>
-      <c r="E28" s="76"/>
-      <c r="F28" s="76"/>
-      <c r="G28" s="76" t="s">
+      <c r="D28" s="74"/>
+      <c r="E28" s="74"/>
+      <c r="F28" s="74"/>
+      <c r="G28" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="H28" s="76"/>
+      <c r="H28" s="74"/>
       <c r="I28" s="22"/>
       <c r="J28" s="10"/>
       <c r="K28" s="36"/>
@@ -12380,16 +12394,16 @@
         <v>2</v>
       </c>
       <c r="B29" s="27"/>
-      <c r="C29" s="70" t="s">
+      <c r="C29" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="70"/>
-      <c r="E29" s="70"/>
-      <c r="F29" s="70"/>
-      <c r="G29" s="70" t="s">
+      <c r="D29" s="69"/>
+      <c r="E29" s="69"/>
+      <c r="F29" s="69"/>
+      <c r="G29" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="H29" s="70"/>
+      <c r="H29" s="69"/>
       <c r="I29" s="30"/>
       <c r="J29" s="10"/>
       <c r="K29" s="36"/>
@@ -12400,12 +12414,12 @@
         <v>1</v>
       </c>
       <c r="B30" s="21"/>
-      <c r="C30" s="76"/>
-      <c r="D30" s="76"/>
-      <c r="E30" s="76"/>
-      <c r="F30" s="76"/>
-      <c r="G30" s="76"/>
-      <c r="H30" s="76"/>
+      <c r="C30" s="74"/>
+      <c r="D30" s="74"/>
+      <c r="E30" s="74"/>
+      <c r="F30" s="74"/>
+      <c r="G30" s="74"/>
+      <c r="H30" s="74"/>
       <c r="I30" s="22"/>
       <c r="J30" s="10"/>
       <c r="K30" s="36"/>
@@ -12416,12 +12430,12 @@
         <v>2</v>
       </c>
       <c r="B31" s="28"/>
-      <c r="C31" s="72"/>
-      <c r="D31" s="72"/>
-      <c r="E31" s="72"/>
-      <c r="F31" s="72"/>
-      <c r="G31" s="72"/>
-      <c r="H31" s="72"/>
+      <c r="C31" s="71"/>
+      <c r="D31" s="71"/>
+      <c r="E31" s="71"/>
+      <c r="F31" s="71"/>
+      <c r="G31" s="71"/>
+      <c r="H31" s="71"/>
       <c r="I31" s="40"/>
       <c r="J31" s="10"/>
       <c r="K31" s="42"/>
@@ -12429,6 +12443,60 @@
     </row>
   </sheetData>
   <mergeCells count="63">
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="G31:H31"/>
@@ -12438,93 +12506,39 @@
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="G30:H30"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:H3">
-    <cfRule type="expression" dxfId="29" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="6" stopIfTrue="1">
       <formula>DAY(C3)&gt;8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:I8">
-    <cfRule type="expression" dxfId="28" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="5" stopIfTrue="1">
       <formula>AND(DAY(C7)&gt;=1,DAY(C7)&lt;=15)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:I8">
-    <cfRule type="expression" dxfId="27" priority="7">
+    <cfRule type="expression" dxfId="31" priority="7">
       <formula>VLOOKUP(DAY(C3),AssignmentDays,1,FALSE)=DAY(C3)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:I13 B15:I15 B17:I17 B19:I19 B21:I21 B23:I23 B25:I25 B27:I27 B29:I29 B31:I31">
-    <cfRule type="expression" dxfId="26" priority="4">
+    <cfRule type="expression" dxfId="30" priority="4">
       <formula>B13&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:I12 B14:I14 B16:I16 B18:I18 B20:I20 B22:I22 B24:I24 B26:I26 B28:I28 B30:I30">
-    <cfRule type="expression" dxfId="25" priority="3">
+    <cfRule type="expression" dxfId="29" priority="3">
       <formula>B12&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:I13 B15:I15 B17:I17 B19:I19 B21:I21 B23:I23 B25:I25 B27:I27 B29:I29">
-    <cfRule type="expression" dxfId="24" priority="2">
+    <cfRule type="expression" dxfId="28" priority="2">
       <formula>COLUMN(B13)&gt;=2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:I31">
-    <cfRule type="expression" dxfId="23" priority="1">
+    <cfRule type="expression" dxfId="27" priority="1">
       <formula>COLUMN(B12)&gt;2</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Produccion Propia/Cronogramas/Cronograma_Actividades_Grupales.xlsx
+++ b/Produccion Propia/Cronogramas/Cronograma_Actividades_Grupales.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Facu\4º año\Ingenieria de Software (ISW)\Repositorio_Ingenieria_de_Software\Produccion Propia\Cronogramas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D6D92C8-C438-4738-B168-95F12E3BDD89}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CC4B51B-9F04-4949-8D4C-705CCC605BCC}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9510" tabRatio="741" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9510" tabRatio="741" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ene" sheetId="1" state="hidden" r:id="rId1"/>
@@ -111,7 +111,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="81">
   <si>
     <t>Día de la semana</t>
   </si>
@@ -270,9 +270,6 @@
     <t xml:space="preserve">2º Parcial Teorico-Practico  </t>
   </si>
   <si>
-    <t>Fin del 1º Cuatrimertre - Fin Cursado Ing. De Software</t>
-  </si>
-  <si>
     <t>TAREAS - Comentarios</t>
   </si>
   <si>
@@ -340,6 +337,24 @@
   </si>
   <si>
     <t>Clase Teorica de Scrum segunda parte -Consultas antes del parcial</t>
+  </si>
+  <si>
+    <t>Clase Teorica de Introduccion a Sistemas Complejos. Review de la materia</t>
+  </si>
+  <si>
+    <t>Entregar Poster</t>
+  </si>
+  <si>
+    <t>Entregar de Informe Tecnico- Fin del 1º Cuatrimertre - Fin Cursado Ing. De Software-</t>
+  </si>
+  <si>
+    <t>Clase Practica, Realizacion de TP11 en clases, Llevar materiales</t>
+  </si>
+  <si>
+    <t>Fecha del 5to turno de Ingenieria de Software</t>
+  </si>
+  <si>
+    <t>Fecha del 6to turno de Ingenieria de Software</t>
   </si>
 </sst>
 </file>
@@ -885,10 +900,13 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="12" applyBorder="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="20" fontId="13" fillId="2" borderId="10" xfId="21" applyNumberFormat="1" applyBorder="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="19" applyFont="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="20" fontId="13" fillId="2" borderId="10" xfId="21" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="20" fontId="13" fillId="2" borderId="3" xfId="21" applyNumberFormat="1" applyBorder="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="19" applyFont="1" applyBorder="1">
@@ -897,22 +915,19 @@
     <xf numFmtId="20" fontId="13" fillId="2" borderId="0" xfId="21" applyNumberFormat="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="20" fontId="13" fillId="2" borderId="3" xfId="21" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="19" applyBorder="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="13" fillId="2" borderId="0" xfId="21">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="20" fontId="13" fillId="2" borderId="10" xfId="21" applyBorder="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="20" fontId="13" fillId="2" borderId="0" xfId="21">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="19" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="19" applyFont="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
     <xf numFmtId="20" fontId="1" fillId="2" borderId="0" xfId="19" applyNumberFormat="1" applyFont="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="19" applyFont="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
   </cellXfs>
@@ -2833,14 +2848,14 @@
       <c r="B12" s="41">
         <v>0.33333333333333331</v>
       </c>
-      <c r="C12" s="70"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="70">
+      <c r="C12" s="69"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="69">
         <v>0.33333333333333331</v>
       </c>
-      <c r="F12" s="70"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="70"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="69"/>
+      <c r="H12" s="69"/>
       <c r="I12" s="44">
         <v>0.33333333333333331</v>
       </c>
@@ -2855,14 +2870,14 @@
       <c r="B13" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="69"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="69" t="s">
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="F13" s="69"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="69"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
       <c r="I13" s="43" t="s">
         <v>5</v>
       </c>
@@ -2875,16 +2890,16 @@
         <v>1</v>
       </c>
       <c r="B14" s="34"/>
-      <c r="C14" s="70">
+      <c r="C14" s="69">
         <v>0.375</v>
       </c>
-      <c r="D14" s="70"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="70">
+      <c r="D14" s="69"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="69">
         <v>0.375</v>
       </c>
-      <c r="H14" s="73"/>
+      <c r="H14" s="71"/>
       <c r="I14" s="44"/>
       <c r="J14" s="10" t="s">
         <v>31</v>
@@ -2897,16 +2912,16 @@
         <v>2</v>
       </c>
       <c r="B15" s="27"/>
-      <c r="C15" s="69" t="s">
+      <c r="C15" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="69"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="69" t="s">
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="69"/>
+      <c r="H15" s="70"/>
       <c r="I15" s="43"/>
       <c r="J15" s="10"/>
       <c r="K15" s="36"/>
@@ -2919,14 +2934,14 @@
       <c r="B16" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="70"/>
-      <c r="D16" s="70"/>
-      <c r="E16" s="70" t="s">
+      <c r="C16" s="69"/>
+      <c r="D16" s="69"/>
+      <c r="E16" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="F16" s="70"/>
-      <c r="G16" s="70"/>
-      <c r="H16" s="73"/>
+      <c r="F16" s="69"/>
+      <c r="G16" s="69"/>
+      <c r="H16" s="71"/>
       <c r="I16" s="44" t="s">
         <v>6</v>
       </c>
@@ -2941,14 +2956,14 @@
       <c r="B17" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="69"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="69" t="s">
+      <c r="C17" s="70"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="F17" s="69"/>
-      <c r="G17" s="69"/>
-      <c r="H17" s="69"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="70"/>
       <c r="I17" s="43" t="s">
         <v>7</v>
       </c>
@@ -2961,12 +2976,12 @@
         <v>1</v>
       </c>
       <c r="B18" s="34"/>
-      <c r="C18" s="70"/>
-      <c r="D18" s="70"/>
-      <c r="E18" s="70"/>
-      <c r="F18" s="70"/>
-      <c r="G18" s="70"/>
-      <c r="H18" s="73"/>
+      <c r="C18" s="69"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="69"/>
+      <c r="H18" s="71"/>
       <c r="I18" s="44"/>
       <c r="J18" s="10"/>
       <c r="K18" s="36"/>
@@ -2977,12 +2992,12 @@
         <v>2</v>
       </c>
       <c r="B19" s="27"/>
-      <c r="C19" s="69"/>
-      <c r="D19" s="69"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="69"/>
-      <c r="H19" s="69"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="70"/>
       <c r="I19" s="46"/>
       <c r="J19" s="20"/>
       <c r="K19" s="35"/>
@@ -2993,12 +3008,12 @@
         <v>1</v>
       </c>
       <c r="B20" s="34"/>
-      <c r="C20" s="70"/>
-      <c r="D20" s="70"/>
-      <c r="E20" s="70"/>
-      <c r="F20" s="70"/>
-      <c r="G20" s="70"/>
-      <c r="H20" s="73"/>
+      <c r="C20" s="69"/>
+      <c r="D20" s="69"/>
+      <c r="E20" s="69"/>
+      <c r="F20" s="69"/>
+      <c r="G20" s="69"/>
+      <c r="H20" s="71"/>
       <c r="I20" s="44"/>
       <c r="J20" s="10" t="s">
         <v>32</v>
@@ -3011,12 +3026,12 @@
         <v>2</v>
       </c>
       <c r="B21" s="27"/>
-      <c r="C21" s="69"/>
-      <c r="D21" s="69"/>
-      <c r="E21" s="69"/>
-      <c r="F21" s="69"/>
-      <c r="G21" s="69"/>
-      <c r="H21" s="69"/>
+      <c r="C21" s="70"/>
+      <c r="D21" s="70"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="70"/>
+      <c r="G21" s="70"/>
+      <c r="H21" s="70"/>
       <c r="I21" s="43"/>
       <c r="J21" s="10"/>
       <c r="K21" s="36"/>
@@ -3027,12 +3042,12 @@
         <v>1</v>
       </c>
       <c r="B22" s="34"/>
-      <c r="C22" s="70"/>
-      <c r="D22" s="70"/>
-      <c r="E22" s="70"/>
-      <c r="F22" s="70"/>
-      <c r="G22" s="70"/>
-      <c r="H22" s="73"/>
+      <c r="C22" s="69"/>
+      <c r="D22" s="69"/>
+      <c r="E22" s="69"/>
+      <c r="F22" s="69"/>
+      <c r="G22" s="69"/>
+      <c r="H22" s="71"/>
       <c r="I22" s="44"/>
       <c r="J22" s="10"/>
       <c r="K22" s="36"/>
@@ -3043,12 +3058,12 @@
         <v>2</v>
       </c>
       <c r="B23" s="27"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="69"/>
-      <c r="H23" s="69"/>
+      <c r="C23" s="70"/>
+      <c r="D23" s="70"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="70"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="70"/>
       <c r="I23" s="43"/>
       <c r="J23" s="10"/>
       <c r="K23" s="36"/>
@@ -3061,14 +3076,14 @@
       <c r="B24" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="70"/>
-      <c r="D24" s="70"/>
-      <c r="E24" s="70" t="s">
+      <c r="C24" s="69"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="70"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="73"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="69"/>
+      <c r="H24" s="71"/>
       <c r="I24" s="44" t="s">
         <v>8</v>
       </c>
@@ -3083,14 +3098,14 @@
       <c r="B25" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="69"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69" t="s">
+      <c r="C25" s="70"/>
+      <c r="D25" s="70"/>
+      <c r="E25" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="F25" s="69"/>
-      <c r="G25" s="69"/>
-      <c r="H25" s="69"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="70"/>
       <c r="I25" s="43" t="s">
         <v>9</v>
       </c>
@@ -3103,12 +3118,12 @@
         <v>1</v>
       </c>
       <c r="B26" s="34"/>
-      <c r="C26" s="70"/>
-      <c r="D26" s="70"/>
-      <c r="E26" s="70"/>
-      <c r="F26" s="70"/>
-      <c r="G26" s="70"/>
-      <c r="H26" s="73"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="69"/>
+      <c r="G26" s="69"/>
+      <c r="H26" s="71"/>
       <c r="I26" s="44"/>
       <c r="J26" s="10" t="s">
         <v>33</v>
@@ -3121,12 +3136,12 @@
         <v>2</v>
       </c>
       <c r="B27" s="27"/>
-      <c r="C27" s="69"/>
-      <c r="D27" s="69"/>
-      <c r="E27" s="69"/>
-      <c r="F27" s="69"/>
-      <c r="G27" s="69"/>
-      <c r="H27" s="69"/>
+      <c r="C27" s="70"/>
+      <c r="D27" s="70"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="70"/>
       <c r="I27" s="43"/>
       <c r="J27" s="10"/>
       <c r="K27" s="36"/>
@@ -3137,16 +3152,16 @@
         <v>1</v>
       </c>
       <c r="B28" s="34"/>
-      <c r="C28" s="70" t="s">
+      <c r="C28" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="D28" s="70"/>
-      <c r="E28" s="70"/>
-      <c r="F28" s="70"/>
-      <c r="G28" s="70" t="s">
+      <c r="D28" s="69"/>
+      <c r="E28" s="69"/>
+      <c r="F28" s="69"/>
+      <c r="G28" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="H28" s="73"/>
+      <c r="H28" s="71"/>
       <c r="I28" s="44"/>
       <c r="J28" s="10"/>
       <c r="K28" s="36"/>
@@ -3157,16 +3172,16 @@
         <v>2</v>
       </c>
       <c r="B29" s="27"/>
-      <c r="C29" s="69" t="s">
+      <c r="C29" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="69"/>
-      <c r="E29" s="69"/>
-      <c r="F29" s="69"/>
-      <c r="G29" s="69" t="s">
+      <c r="D29" s="70"/>
+      <c r="E29" s="70"/>
+      <c r="F29" s="70"/>
+      <c r="G29" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="H29" s="69"/>
+      <c r="H29" s="70"/>
       <c r="I29" s="43"/>
       <c r="J29" s="10"/>
       <c r="K29" s="36"/>
@@ -3177,12 +3192,12 @@
         <v>1</v>
       </c>
       <c r="B30" s="34"/>
-      <c r="C30" s="72"/>
-      <c r="D30" s="72"/>
-      <c r="E30" s="72"/>
-      <c r="F30" s="72"/>
-      <c r="G30" s="72"/>
-      <c r="H30" s="72"/>
+      <c r="C30" s="73"/>
+      <c r="D30" s="73"/>
+      <c r="E30" s="73"/>
+      <c r="F30" s="73"/>
+      <c r="G30" s="73"/>
+      <c r="H30" s="73"/>
       <c r="I30" s="44"/>
       <c r="J30" s="10"/>
       <c r="K30" s="36"/>
@@ -3193,12 +3208,12 @@
         <v>2</v>
       </c>
       <c r="B31" s="28"/>
-      <c r="C31" s="71"/>
-      <c r="D31" s="71"/>
-      <c r="E31" s="71"/>
-      <c r="F31" s="71"/>
-      <c r="G31" s="71"/>
-      <c r="H31" s="71"/>
+      <c r="C31" s="72"/>
+      <c r="D31" s="72"/>
+      <c r="E31" s="72"/>
+      <c r="F31" s="72"/>
+      <c r="G31" s="72"/>
+      <c r="H31" s="72"/>
       <c r="I31" s="29"/>
       <c r="J31" s="15"/>
       <c r="K31" s="42"/>
@@ -3207,32 +3222,27 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="63">
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C20:D20"/>
@@ -3249,27 +3259,32 @@
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="E20:F20"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C3:H3">
@@ -3700,14 +3715,14 @@
       <c r="B13" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="69"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="69" t="s">
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="F13" s="69"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="69"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
       <c r="I13" s="30" t="s">
         <v>5</v>
       </c>
@@ -3742,16 +3757,16 @@
         <v>2</v>
       </c>
       <c r="B15" s="27"/>
-      <c r="C15" s="69" t="s">
+      <c r="C15" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="69"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="69" t="s">
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="69"/>
+      <c r="H15" s="70"/>
       <c r="I15" s="30"/>
       <c r="J15" s="10"/>
       <c r="K15" s="36"/>
@@ -3786,14 +3801,14 @@
       <c r="B17" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="69"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="69" t="s">
+      <c r="C17" s="70"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="F17" s="69"/>
-      <c r="G17" s="69"/>
-      <c r="H17" s="69"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="70"/>
       <c r="I17" s="30" t="s">
         <v>7</v>
       </c>
@@ -3822,12 +3837,12 @@
         <v>2</v>
       </c>
       <c r="B19" s="27"/>
-      <c r="C19" s="69"/>
-      <c r="D19" s="69"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="69"/>
-      <c r="H19" s="69"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="70"/>
       <c r="I19" s="47"/>
       <c r="J19" s="20"/>
       <c r="K19" s="35"/>
@@ -3856,12 +3871,12 @@
         <v>2</v>
       </c>
       <c r="B21" s="27"/>
-      <c r="C21" s="69"/>
-      <c r="D21" s="69"/>
-      <c r="E21" s="69"/>
-      <c r="F21" s="69"/>
-      <c r="G21" s="69"/>
-      <c r="H21" s="69"/>
+      <c r="C21" s="70"/>
+      <c r="D21" s="70"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="70"/>
+      <c r="G21" s="70"/>
+      <c r="H21" s="70"/>
       <c r="I21" s="30"/>
       <c r="J21" s="10"/>
       <c r="K21" s="36"/>
@@ -3888,12 +3903,12 @@
         <v>2</v>
       </c>
       <c r="B23" s="27"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="69"/>
-      <c r="H23" s="69"/>
+      <c r="C23" s="70"/>
+      <c r="D23" s="70"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="70"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="70"/>
       <c r="I23" s="30"/>
       <c r="J23" s="10"/>
       <c r="K23" s="36"/>
@@ -3928,14 +3943,14 @@
       <c r="B25" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="69"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69" t="s">
+      <c r="C25" s="70"/>
+      <c r="D25" s="70"/>
+      <c r="E25" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="F25" s="69"/>
-      <c r="G25" s="69"/>
-      <c r="H25" s="69"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="70"/>
       <c r="I25" s="30" t="s">
         <v>9</v>
       </c>
@@ -3966,12 +3981,12 @@
         <v>2</v>
       </c>
       <c r="B27" s="27"/>
-      <c r="C27" s="69"/>
-      <c r="D27" s="69"/>
-      <c r="E27" s="69"/>
-      <c r="F27" s="69"/>
-      <c r="G27" s="69"/>
-      <c r="H27" s="69"/>
+      <c r="C27" s="70"/>
+      <c r="D27" s="70"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="70"/>
       <c r="I27" s="30"/>
       <c r="J27" s="10"/>
       <c r="K27" s="36"/>
@@ -4002,16 +4017,16 @@
         <v>2</v>
       </c>
       <c r="B29" s="27"/>
-      <c r="C29" s="69" t="s">
+      <c r="C29" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="69"/>
-      <c r="E29" s="69"/>
-      <c r="F29" s="69"/>
-      <c r="G29" s="69" t="s">
+      <c r="D29" s="70"/>
+      <c r="E29" s="70"/>
+      <c r="F29" s="70"/>
+      <c r="G29" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="H29" s="69"/>
+      <c r="H29" s="70"/>
       <c r="I29" s="30"/>
       <c r="J29" s="10"/>
       <c r="K29" s="36"/>
@@ -4038,12 +4053,12 @@
         <v>2</v>
       </c>
       <c r="B31" s="28"/>
-      <c r="C31" s="71"/>
-      <c r="D31" s="71"/>
-      <c r="E31" s="71"/>
-      <c r="F31" s="71"/>
-      <c r="G31" s="71"/>
-      <c r="H31" s="71"/>
+      <c r="C31" s="72"/>
+      <c r="D31" s="72"/>
+      <c r="E31" s="72"/>
+      <c r="F31" s="72"/>
+      <c r="G31" s="72"/>
+      <c r="H31" s="72"/>
       <c r="I31" s="40"/>
       <c r="J31" s="10"/>
       <c r="K31" s="42"/>
@@ -4051,60 +4066,6 @@
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="G31:H31"/>
@@ -4114,6 +4075,60 @@
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="G30:H30"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:H3">
     <cfRule type="expression" dxfId="25" priority="8" stopIfTrue="1">
@@ -4524,14 +4539,14 @@
       <c r="B12" s="21">
         <v>0.33333333333333331</v>
       </c>
-      <c r="C12" s="74"/>
-      <c r="D12" s="74"/>
-      <c r="E12" s="74">
+      <c r="C12" s="76"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="76">
         <v>0.33333333333333331</v>
       </c>
-      <c r="F12" s="74"/>
-      <c r="G12" s="74"/>
-      <c r="H12" s="74"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="76"/>
       <c r="I12" s="22">
         <v>0.33333333333333331</v>
       </c>
@@ -4546,14 +4561,14 @@
       <c r="B13" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="69"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="69" t="s">
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="F13" s="69"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="69"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
       <c r="I13" s="30" t="s">
         <v>5</v>
       </c>
@@ -4566,16 +4581,16 @@
         <v>1</v>
       </c>
       <c r="B14" s="21"/>
-      <c r="C14" s="74">
+      <c r="C14" s="76">
         <v>0.375</v>
       </c>
-      <c r="D14" s="74"/>
-      <c r="E14" s="74"/>
-      <c r="F14" s="74"/>
-      <c r="G14" s="74">
+      <c r="D14" s="76"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="76">
         <v>0.375</v>
       </c>
-      <c r="H14" s="74"/>
+      <c r="H14" s="76"/>
       <c r="I14" s="22"/>
       <c r="J14" s="10" t="s">
         <v>31</v>
@@ -4588,16 +4603,16 @@
         <v>2</v>
       </c>
       <c r="B15" s="27"/>
-      <c r="C15" s="69" t="s">
+      <c r="C15" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="69"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="69" t="s">
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="69"/>
+      <c r="H15" s="70"/>
       <c r="I15" s="30"/>
       <c r="J15" s="10"/>
       <c r="K15" s="36"/>
@@ -4610,14 +4625,14 @@
       <c r="B16" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="74"/>
-      <c r="D16" s="74"/>
-      <c r="E16" s="74" t="s">
+      <c r="C16" s="76"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="F16" s="74"/>
-      <c r="G16" s="74"/>
-      <c r="H16" s="74"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="76"/>
       <c r="I16" s="24" t="s">
         <v>6</v>
       </c>
@@ -4632,14 +4647,14 @@
       <c r="B17" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="69"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="69" t="s">
+      <c r="C17" s="70"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="F17" s="69"/>
-      <c r="G17" s="69"/>
-      <c r="H17" s="69"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="70"/>
       <c r="I17" s="30" t="s">
         <v>7</v>
       </c>
@@ -4652,12 +4667,12 @@
         <v>1</v>
       </c>
       <c r="B18" s="21"/>
-      <c r="C18" s="74"/>
-      <c r="D18" s="74"/>
-      <c r="E18" s="74"/>
-      <c r="F18" s="74"/>
-      <c r="G18" s="74"/>
-      <c r="H18" s="74"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="76"/>
+      <c r="H18" s="76"/>
       <c r="I18" s="22"/>
       <c r="J18" s="10"/>
       <c r="K18" s="36"/>
@@ -4668,12 +4683,12 @@
         <v>2</v>
       </c>
       <c r="B19" s="27"/>
-      <c r="C19" s="69"/>
-      <c r="D19" s="69"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="69"/>
-      <c r="H19" s="69"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="70"/>
       <c r="I19" s="47"/>
       <c r="J19" s="20"/>
       <c r="K19" s="35"/>
@@ -4684,12 +4699,12 @@
         <v>1</v>
       </c>
       <c r="B20" s="21"/>
-      <c r="C20" s="74"/>
-      <c r="D20" s="74"/>
-      <c r="E20" s="74"/>
-      <c r="F20" s="74"/>
-      <c r="G20" s="74"/>
-      <c r="H20" s="74"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="76"/>
       <c r="I20" s="22"/>
       <c r="J20" s="10" t="s">
         <v>32</v>
@@ -4702,12 +4717,12 @@
         <v>2</v>
       </c>
       <c r="B21" s="27"/>
-      <c r="C21" s="69"/>
-      <c r="D21" s="69"/>
-      <c r="E21" s="69"/>
-      <c r="F21" s="69"/>
-      <c r="G21" s="69"/>
-      <c r="H21" s="69"/>
+      <c r="C21" s="70"/>
+      <c r="D21" s="70"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="70"/>
+      <c r="G21" s="70"/>
+      <c r="H21" s="70"/>
       <c r="I21" s="30"/>
       <c r="J21" s="10"/>
       <c r="K21" s="36"/>
@@ -4718,12 +4733,12 @@
         <v>1</v>
       </c>
       <c r="B22" s="21"/>
-      <c r="C22" s="74"/>
-      <c r="D22" s="74"/>
-      <c r="E22" s="74"/>
-      <c r="F22" s="74"/>
-      <c r="G22" s="74"/>
-      <c r="H22" s="74"/>
+      <c r="C22" s="76"/>
+      <c r="D22" s="76"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="76"/>
+      <c r="G22" s="76"/>
+      <c r="H22" s="76"/>
       <c r="I22" s="22"/>
       <c r="J22" s="10"/>
       <c r="K22" s="36"/>
@@ -4734,12 +4749,12 @@
         <v>2</v>
       </c>
       <c r="B23" s="27"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="69"/>
-      <c r="H23" s="69"/>
+      <c r="C23" s="70"/>
+      <c r="D23" s="70"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="70"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="70"/>
       <c r="I23" s="30"/>
       <c r="J23" s="10"/>
       <c r="K23" s="36"/>
@@ -4752,14 +4767,14 @@
       <c r="B24" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="74"/>
-      <c r="D24" s="74"/>
-      <c r="E24" s="74" t="s">
+      <c r="C24" s="76"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="74"/>
-      <c r="G24" s="74"/>
-      <c r="H24" s="74"/>
+      <c r="F24" s="76"/>
+      <c r="G24" s="76"/>
+      <c r="H24" s="76"/>
       <c r="I24" s="22" t="s">
         <v>8</v>
       </c>
@@ -4774,14 +4789,14 @@
       <c r="B25" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="69"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69" t="s">
+      <c r="C25" s="70"/>
+      <c r="D25" s="70"/>
+      <c r="E25" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="F25" s="69"/>
-      <c r="G25" s="69"/>
-      <c r="H25" s="69"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="70"/>
       <c r="I25" s="30" t="s">
         <v>9</v>
       </c>
@@ -4794,12 +4809,12 @@
         <v>1</v>
       </c>
       <c r="B26" s="21"/>
-      <c r="C26" s="74"/>
-      <c r="D26" s="74"/>
-      <c r="E26" s="74"/>
-      <c r="F26" s="74"/>
-      <c r="G26" s="74"/>
-      <c r="H26" s="74"/>
+      <c r="C26" s="76"/>
+      <c r="D26" s="76"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="76"/>
+      <c r="H26" s="76"/>
       <c r="I26" s="22"/>
       <c r="J26" s="10" t="s">
         <v>33</v>
@@ -4812,12 +4827,12 @@
         <v>2</v>
       </c>
       <c r="B27" s="27"/>
-      <c r="C27" s="69"/>
-      <c r="D27" s="69"/>
-      <c r="E27" s="69"/>
-      <c r="F27" s="69"/>
-      <c r="G27" s="69"/>
-      <c r="H27" s="69"/>
+      <c r="C27" s="70"/>
+      <c r="D27" s="70"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="70"/>
       <c r="I27" s="30"/>
       <c r="J27" s="10"/>
       <c r="K27" s="36"/>
@@ -4828,16 +4843,16 @@
         <v>1</v>
       </c>
       <c r="B28" s="21"/>
-      <c r="C28" s="74" t="s">
+      <c r="C28" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="D28" s="74"/>
-      <c r="E28" s="74"/>
-      <c r="F28" s="74"/>
-      <c r="G28" s="74" t="s">
+      <c r="D28" s="76"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="76"/>
+      <c r="G28" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="H28" s="74"/>
+      <c r="H28" s="76"/>
       <c r="I28" s="22"/>
       <c r="J28" s="10"/>
       <c r="K28" s="36"/>
@@ -4848,16 +4863,16 @@
         <v>2</v>
       </c>
       <c r="B29" s="27"/>
-      <c r="C29" s="69" t="s">
+      <c r="C29" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="69"/>
-      <c r="E29" s="69"/>
-      <c r="F29" s="69"/>
-      <c r="G29" s="69" t="s">
+      <c r="D29" s="70"/>
+      <c r="E29" s="70"/>
+      <c r="F29" s="70"/>
+      <c r="G29" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="H29" s="69"/>
+      <c r="H29" s="70"/>
       <c r="I29" s="30"/>
       <c r="J29" s="10"/>
       <c r="K29" s="36"/>
@@ -4868,12 +4883,12 @@
         <v>1</v>
       </c>
       <c r="B30" s="21"/>
-      <c r="C30" s="74"/>
-      <c r="D30" s="74"/>
-      <c r="E30" s="74"/>
-      <c r="F30" s="74"/>
-      <c r="G30" s="74"/>
-      <c r="H30" s="74"/>
+      <c r="C30" s="76"/>
+      <c r="D30" s="76"/>
+      <c r="E30" s="76"/>
+      <c r="F30" s="76"/>
+      <c r="G30" s="76"/>
+      <c r="H30" s="76"/>
       <c r="I30" s="22"/>
       <c r="J30" s="10"/>
       <c r="K30" s="36"/>
@@ -4884,12 +4899,12 @@
         <v>2</v>
       </c>
       <c r="B31" s="28"/>
-      <c r="C31" s="71"/>
-      <c r="D31" s="71"/>
-      <c r="E31" s="71"/>
-      <c r="F31" s="71"/>
-      <c r="G31" s="71"/>
-      <c r="H31" s="71"/>
+      <c r="C31" s="72"/>
+      <c r="D31" s="72"/>
+      <c r="E31" s="72"/>
+      <c r="F31" s="72"/>
+      <c r="G31" s="72"/>
+      <c r="H31" s="72"/>
       <c r="I31" s="40"/>
       <c r="J31" s="10"/>
       <c r="K31" s="42"/>
@@ -4897,60 +4912,6 @@
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="G31:H31"/>
@@ -4960,6 +4921,60 @@
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="G30:H30"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:H3">
     <cfRule type="expression" dxfId="15" priority="6" stopIfTrue="1">
@@ -5362,14 +5377,14 @@
       <c r="B12" s="21">
         <v>0.33333333333333331</v>
       </c>
-      <c r="C12" s="74"/>
-      <c r="D12" s="74"/>
-      <c r="E12" s="74">
+      <c r="C12" s="76"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="76">
         <v>0.33333333333333331</v>
       </c>
-      <c r="F12" s="74"/>
-      <c r="G12" s="74"/>
-      <c r="H12" s="74"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="76"/>
       <c r="I12" s="22">
         <v>0.33333333333333331</v>
       </c>
@@ -5384,14 +5399,14 @@
       <c r="B13" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="69"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="69" t="s">
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="F13" s="69"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="69"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
       <c r="I13" s="30" t="s">
         <v>5</v>
       </c>
@@ -5404,16 +5419,16 @@
         <v>1</v>
       </c>
       <c r="B14" s="21"/>
-      <c r="C14" s="74">
+      <c r="C14" s="76">
         <v>0.375</v>
       </c>
-      <c r="D14" s="74"/>
-      <c r="E14" s="74"/>
-      <c r="F14" s="74"/>
-      <c r="G14" s="74">
+      <c r="D14" s="76"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="76">
         <v>0.375</v>
       </c>
-      <c r="H14" s="74"/>
+      <c r="H14" s="76"/>
       <c r="I14" s="22"/>
       <c r="J14" s="10" t="s">
         <v>31</v>
@@ -5426,16 +5441,16 @@
         <v>2</v>
       </c>
       <c r="B15" s="27"/>
-      <c r="C15" s="69" t="s">
+      <c r="C15" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="69"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="69" t="s">
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="69"/>
+      <c r="H15" s="70"/>
       <c r="I15" s="30"/>
       <c r="J15" s="10"/>
       <c r="K15" s="36"/>
@@ -5448,14 +5463,14 @@
       <c r="B16" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="74"/>
-      <c r="D16" s="74"/>
-      <c r="E16" s="74" t="s">
+      <c r="C16" s="76"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="F16" s="74"/>
-      <c r="G16" s="74"/>
-      <c r="H16" s="74"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="76"/>
       <c r="I16" s="24" t="s">
         <v>6</v>
       </c>
@@ -5470,14 +5485,14 @@
       <c r="B17" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="69"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="69" t="s">
+      <c r="C17" s="70"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="F17" s="69"/>
-      <c r="G17" s="69"/>
-      <c r="H17" s="69"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="70"/>
       <c r="I17" s="30" t="s">
         <v>7</v>
       </c>
@@ -5490,12 +5505,12 @@
         <v>1</v>
       </c>
       <c r="B18" s="21"/>
-      <c r="C18" s="74"/>
-      <c r="D18" s="74"/>
-      <c r="E18" s="74"/>
-      <c r="F18" s="74"/>
-      <c r="G18" s="74"/>
-      <c r="H18" s="74"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="76"/>
+      <c r="H18" s="76"/>
       <c r="I18" s="22"/>
       <c r="J18" s="10"/>
       <c r="K18" s="36"/>
@@ -5506,12 +5521,12 @@
         <v>2</v>
       </c>
       <c r="B19" s="27"/>
-      <c r="C19" s="69"/>
-      <c r="D19" s="69"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="69"/>
-      <c r="H19" s="69"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="70"/>
       <c r="I19" s="47"/>
       <c r="J19" s="20"/>
       <c r="K19" s="35"/>
@@ -5522,12 +5537,12 @@
         <v>1</v>
       </c>
       <c r="B20" s="21"/>
-      <c r="C20" s="74"/>
-      <c r="D20" s="74"/>
-      <c r="E20" s="74"/>
-      <c r="F20" s="74"/>
-      <c r="G20" s="74"/>
-      <c r="H20" s="74"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="76"/>
       <c r="I20" s="22"/>
       <c r="J20" s="10" t="s">
         <v>32</v>
@@ -5540,12 +5555,12 @@
         <v>2</v>
       </c>
       <c r="B21" s="27"/>
-      <c r="C21" s="69"/>
-      <c r="D21" s="69"/>
-      <c r="E21" s="69"/>
-      <c r="F21" s="69"/>
-      <c r="G21" s="69"/>
-      <c r="H21" s="69"/>
+      <c r="C21" s="70"/>
+      <c r="D21" s="70"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="70"/>
+      <c r="G21" s="70"/>
+      <c r="H21" s="70"/>
       <c r="I21" s="30"/>
       <c r="J21" s="10"/>
       <c r="K21" s="36"/>
@@ -5556,12 +5571,12 @@
         <v>1</v>
       </c>
       <c r="B22" s="21"/>
-      <c r="C22" s="74"/>
-      <c r="D22" s="74"/>
-      <c r="E22" s="74"/>
-      <c r="F22" s="74"/>
-      <c r="G22" s="74"/>
-      <c r="H22" s="74"/>
+      <c r="C22" s="76"/>
+      <c r="D22" s="76"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="76"/>
+      <c r="G22" s="76"/>
+      <c r="H22" s="76"/>
       <c r="I22" s="22"/>
       <c r="J22" s="10"/>
       <c r="K22" s="36"/>
@@ -5572,12 +5587,12 @@
         <v>2</v>
       </c>
       <c r="B23" s="27"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="69"/>
-      <c r="H23" s="69"/>
+      <c r="C23" s="70"/>
+      <c r="D23" s="70"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="70"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="70"/>
       <c r="I23" s="30"/>
       <c r="J23" s="10"/>
       <c r="K23" s="36"/>
@@ -5590,14 +5605,14 @@
       <c r="B24" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="74"/>
-      <c r="D24" s="74"/>
-      <c r="E24" s="74" t="s">
+      <c r="C24" s="76"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="74"/>
-      <c r="G24" s="74"/>
-      <c r="H24" s="74"/>
+      <c r="F24" s="76"/>
+      <c r="G24" s="76"/>
+      <c r="H24" s="76"/>
       <c r="I24" s="22" t="s">
         <v>8</v>
       </c>
@@ -5612,14 +5627,14 @@
       <c r="B25" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="69"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69" t="s">
+      <c r="C25" s="70"/>
+      <c r="D25" s="70"/>
+      <c r="E25" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="F25" s="69"/>
-      <c r="G25" s="69"/>
-      <c r="H25" s="69"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="70"/>
       <c r="I25" s="30" t="s">
         <v>9</v>
       </c>
@@ -5632,12 +5647,12 @@
         <v>1</v>
       </c>
       <c r="B26" s="21"/>
-      <c r="C26" s="74"/>
-      <c r="D26" s="74"/>
-      <c r="E26" s="74"/>
-      <c r="F26" s="74"/>
-      <c r="G26" s="74"/>
-      <c r="H26" s="74"/>
+      <c r="C26" s="76"/>
+      <c r="D26" s="76"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="76"/>
+      <c r="H26" s="76"/>
       <c r="I26" s="22"/>
       <c r="J26" s="32" t="s">
         <v>33</v>
@@ -5650,12 +5665,12 @@
         <v>2</v>
       </c>
       <c r="B27" s="27"/>
-      <c r="C27" s="69"/>
-      <c r="D27" s="69"/>
-      <c r="E27" s="69"/>
-      <c r="F27" s="69"/>
-      <c r="G27" s="69"/>
-      <c r="H27" s="69"/>
+      <c r="C27" s="70"/>
+      <c r="D27" s="70"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="70"/>
       <c r="I27" s="30"/>
       <c r="J27" s="45"/>
       <c r="K27" s="42"/>
@@ -5666,16 +5681,16 @@
         <v>1</v>
       </c>
       <c r="B28" s="21"/>
-      <c r="C28" s="74" t="s">
+      <c r="C28" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="D28" s="74"/>
-      <c r="E28" s="74"/>
-      <c r="F28" s="74"/>
-      <c r="G28" s="74" t="s">
+      <c r="D28" s="76"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="76"/>
+      <c r="G28" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="H28" s="74"/>
+      <c r="H28" s="76"/>
       <c r="I28" s="22"/>
       <c r="J28" s="45"/>
       <c r="K28" s="42"/>
@@ -5686,16 +5701,16 @@
         <v>2</v>
       </c>
       <c r="B29" s="27"/>
-      <c r="C29" s="69" t="s">
+      <c r="C29" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="69"/>
-      <c r="E29" s="69"/>
-      <c r="F29" s="69"/>
-      <c r="G29" s="69" t="s">
+      <c r="D29" s="70"/>
+      <c r="E29" s="70"/>
+      <c r="F29" s="70"/>
+      <c r="G29" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="H29" s="69"/>
+      <c r="H29" s="70"/>
       <c r="I29" s="30"/>
       <c r="J29" s="45"/>
       <c r="K29" s="42"/>
@@ -5706,12 +5721,12 @@
         <v>1</v>
       </c>
       <c r="B30" s="21"/>
-      <c r="C30" s="74"/>
-      <c r="D30" s="74"/>
-      <c r="E30" s="74"/>
-      <c r="F30" s="74"/>
-      <c r="G30" s="74"/>
-      <c r="H30" s="74"/>
+      <c r="C30" s="76"/>
+      <c r="D30" s="76"/>
+      <c r="E30" s="76"/>
+      <c r="F30" s="76"/>
+      <c r="G30" s="76"/>
+      <c r="H30" s="76"/>
       <c r="I30" s="22"/>
       <c r="J30" s="45"/>
       <c r="K30" s="42"/>
@@ -5722,12 +5737,12 @@
         <v>2</v>
       </c>
       <c r="B31" s="28"/>
-      <c r="C31" s="71"/>
-      <c r="D31" s="71"/>
-      <c r="E31" s="71"/>
-      <c r="F31" s="71"/>
-      <c r="G31" s="71"/>
-      <c r="H31" s="71"/>
+      <c r="C31" s="72"/>
+      <c r="D31" s="72"/>
+      <c r="E31" s="72"/>
+      <c r="F31" s="72"/>
+      <c r="G31" s="72"/>
+      <c r="H31" s="72"/>
       <c r="I31" s="29"/>
       <c r="J31" s="45"/>
       <c r="K31" s="42"/>
@@ -5735,60 +5750,6 @@
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="G31:H31"/>
@@ -5798,6 +5759,60 @@
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="G30:H30"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:H3">
     <cfRule type="expression" dxfId="7" priority="6" stopIfTrue="1">
@@ -6200,14 +6215,14 @@
       <c r="B12" s="21">
         <v>0.33333333333333331</v>
       </c>
-      <c r="C12" s="74"/>
-      <c r="D12" s="74"/>
-      <c r="E12" s="74">
+      <c r="C12" s="76"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="76">
         <v>0.33333333333333331</v>
       </c>
-      <c r="F12" s="74"/>
-      <c r="G12" s="74"/>
-      <c r="H12" s="74"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="76"/>
       <c r="I12" s="22">
         <v>0.33333333333333331</v>
       </c>
@@ -6222,14 +6237,14 @@
       <c r="B13" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="69"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="69" t="s">
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="F13" s="69"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="69"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
       <c r="I13" s="30" t="s">
         <v>5</v>
       </c>
@@ -6264,16 +6279,16 @@
         <v>2</v>
       </c>
       <c r="B15" s="27"/>
-      <c r="C15" s="69" t="s">
+      <c r="C15" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="69"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="69" t="s">
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="69"/>
+      <c r="H15" s="70"/>
       <c r="I15" s="30"/>
       <c r="J15" s="10"/>
       <c r="K15" s="36"/>
@@ -6308,14 +6323,14 @@
       <c r="B17" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="69"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="69" t="s">
+      <c r="C17" s="70"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="F17" s="69"/>
-      <c r="G17" s="69"/>
-      <c r="H17" s="69"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="70"/>
       <c r="I17" s="30" t="s">
         <v>7</v>
       </c>
@@ -6344,12 +6359,12 @@
         <v>2</v>
       </c>
       <c r="B19" s="27"/>
-      <c r="C19" s="69"/>
-      <c r="D19" s="69"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="69"/>
-      <c r="H19" s="69"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="70"/>
       <c r="I19" s="47"/>
       <c r="J19" s="20"/>
       <c r="K19" s="35"/>
@@ -6378,12 +6393,12 @@
         <v>2</v>
       </c>
       <c r="B21" s="27"/>
-      <c r="C21" s="69"/>
-      <c r="D21" s="69"/>
-      <c r="E21" s="69"/>
-      <c r="F21" s="69"/>
-      <c r="G21" s="69"/>
-      <c r="H21" s="69"/>
+      <c r="C21" s="70"/>
+      <c r="D21" s="70"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="70"/>
+      <c r="G21" s="70"/>
+      <c r="H21" s="70"/>
       <c r="I21" s="30"/>
       <c r="J21" s="10"/>
       <c r="K21" s="36"/>
@@ -6410,12 +6425,12 @@
         <v>2</v>
       </c>
       <c r="B23" s="27"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="69"/>
-      <c r="H23" s="69"/>
+      <c r="C23" s="70"/>
+      <c r="D23" s="70"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="70"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="70"/>
       <c r="I23" s="30"/>
       <c r="J23" s="10"/>
       <c r="K23" s="36"/>
@@ -6450,14 +6465,14 @@
       <c r="B25" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="69"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69" t="s">
+      <c r="C25" s="70"/>
+      <c r="D25" s="70"/>
+      <c r="E25" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="F25" s="69"/>
-      <c r="G25" s="69"/>
-      <c r="H25" s="69"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="70"/>
       <c r="I25" s="30" t="s">
         <v>9</v>
       </c>
@@ -6488,12 +6503,12 @@
         <v>2</v>
       </c>
       <c r="B27" s="27"/>
-      <c r="C27" s="69"/>
-      <c r="D27" s="69"/>
-      <c r="E27" s="69"/>
-      <c r="F27" s="69"/>
-      <c r="G27" s="69"/>
-      <c r="H27" s="69"/>
+      <c r="C27" s="70"/>
+      <c r="D27" s="70"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="70"/>
       <c r="I27" s="30"/>
       <c r="J27" s="10"/>
       <c r="K27" s="36"/>
@@ -6524,16 +6539,16 @@
         <v>2</v>
       </c>
       <c r="B29" s="27"/>
-      <c r="C29" s="69" t="s">
+      <c r="C29" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="69"/>
-      <c r="E29" s="69"/>
-      <c r="F29" s="69"/>
-      <c r="G29" s="69" t="s">
+      <c r="D29" s="70"/>
+      <c r="E29" s="70"/>
+      <c r="F29" s="70"/>
+      <c r="G29" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="H29" s="69"/>
+      <c r="H29" s="70"/>
       <c r="I29" s="30"/>
       <c r="J29" s="10"/>
       <c r="K29" s="36"/>
@@ -6560,12 +6575,12 @@
         <v>2</v>
       </c>
       <c r="B31" s="31"/>
-      <c r="C31" s="76"/>
-      <c r="D31" s="76"/>
-      <c r="E31" s="76"/>
-      <c r="F31" s="76"/>
-      <c r="G31" s="76"/>
-      <c r="H31" s="76"/>
+      <c r="C31" s="74"/>
+      <c r="D31" s="74"/>
+      <c r="E31" s="74"/>
+      <c r="F31" s="74"/>
+      <c r="G31" s="74"/>
+      <c r="H31" s="74"/>
       <c r="I31" s="29"/>
       <c r="J31" s="10"/>
       <c r="K31" s="42"/>
@@ -6573,51 +6588,12 @@
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="G13:H13"/>
@@ -6630,12 +6606,51 @@
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="G15:H15"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:H30"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:H3">
     <cfRule type="expression" dxfId="94" priority="9" stopIfTrue="1">
@@ -6743,7 +6758,7 @@
         <v>14</v>
       </c>
       <c r="L1" s="63" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -7057,12 +7072,12 @@
         <v>1</v>
       </c>
       <c r="B12" s="21"/>
-      <c r="C12" s="74"/>
-      <c r="D12" s="74"/>
-      <c r="E12" s="74"/>
-      <c r="F12" s="74"/>
-      <c r="G12" s="74"/>
-      <c r="H12" s="74"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="76"/>
       <c r="I12" s="22"/>
       <c r="J12" s="10"/>
       <c r="K12" s="36"/>
@@ -7073,12 +7088,12 @@
         <v>2</v>
       </c>
       <c r="B13" s="27"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="69"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
       <c r="I13" s="30"/>
       <c r="J13" s="20"/>
       <c r="K13" s="35"/>
@@ -7089,12 +7104,12 @@
         <v>1</v>
       </c>
       <c r="B14" s="21"/>
-      <c r="C14" s="74"/>
-      <c r="D14" s="74"/>
-      <c r="E14" s="74"/>
-      <c r="F14" s="74"/>
-      <c r="G14" s="74"/>
-      <c r="H14" s="74"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="76"/>
+      <c r="H14" s="76"/>
       <c r="I14" s="22">
         <v>0.76041666666666663</v>
       </c>
@@ -7109,12 +7124,12 @@
         <v>2</v>
       </c>
       <c r="B15" s="27"/>
-      <c r="C15" s="69"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="69"/>
-      <c r="H15" s="69"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="70"/>
       <c r="I15" s="27" t="s">
         <v>38</v>
       </c>
@@ -7127,12 +7142,12 @@
         <v>1</v>
       </c>
       <c r="B16" s="21"/>
-      <c r="C16" s="74"/>
-      <c r="D16" s="74"/>
-      <c r="E16" s="74"/>
-      <c r="F16" s="74"/>
-      <c r="G16" s="74"/>
-      <c r="H16" s="74"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="76"/>
       <c r="I16" s="24">
         <v>0.82291666666666663</v>
       </c>
@@ -7145,12 +7160,12 @@
         <v>2</v>
       </c>
       <c r="B17" s="27"/>
-      <c r="C17" s="69"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="69"/>
-      <c r="G17" s="69"/>
-      <c r="H17" s="69"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="70"/>
       <c r="I17" s="27" t="s">
         <v>41</v>
       </c>
@@ -7163,14 +7178,14 @@
         <v>1</v>
       </c>
       <c r="B18" s="21"/>
-      <c r="C18" s="74">
+      <c r="C18" s="76">
         <v>0.82986111111111116</v>
       </c>
-      <c r="D18" s="74"/>
-      <c r="E18" s="74"/>
-      <c r="F18" s="74"/>
-      <c r="G18" s="74"/>
-      <c r="H18" s="74"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="76"/>
+      <c r="H18" s="76"/>
       <c r="I18" s="22"/>
       <c r="J18" s="10"/>
       <c r="K18" s="36"/>
@@ -7181,14 +7196,14 @@
         <v>2</v>
       </c>
       <c r="B19" s="27"/>
-      <c r="C19" s="78" t="s">
+      <c r="C19" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="69"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="69"/>
-      <c r="H19" s="69"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="70"/>
       <c r="I19" s="47"/>
       <c r="J19" s="20"/>
       <c r="K19" s="35"/>
@@ -7199,14 +7214,14 @@
         <v>1</v>
       </c>
       <c r="B20" s="21"/>
-      <c r="C20" s="74">
+      <c r="C20" s="76">
         <v>0.875</v>
       </c>
-      <c r="D20" s="74"/>
-      <c r="E20" s="74"/>
-      <c r="F20" s="74"/>
-      <c r="G20" s="74"/>
-      <c r="H20" s="74"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="76"/>
       <c r="I20" s="22"/>
       <c r="J20" s="10" t="s">
         <v>32</v>
@@ -7223,14 +7238,14 @@
         <v>2</v>
       </c>
       <c r="B21" s="27"/>
-      <c r="C21" s="78" t="s">
+      <c r="C21" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="69"/>
-      <c r="E21" s="69"/>
-      <c r="F21" s="69"/>
-      <c r="G21" s="69"/>
-      <c r="H21" s="69"/>
+      <c r="D21" s="70"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="70"/>
+      <c r="G21" s="70"/>
+      <c r="H21" s="70"/>
       <c r="I21" s="30"/>
       <c r="J21" s="10"/>
       <c r="K21" s="36"/>
@@ -7241,14 +7256,14 @@
         <v>1</v>
       </c>
       <c r="B22" s="21"/>
-      <c r="C22" s="74" t="s">
+      <c r="C22" s="76" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="74"/>
-      <c r="E22" s="74"/>
-      <c r="F22" s="74"/>
-      <c r="G22" s="74"/>
-      <c r="H22" s="74"/>
+      <c r="D22" s="76"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="76"/>
+      <c r="G22" s="76"/>
+      <c r="H22" s="76"/>
       <c r="I22" s="22"/>
       <c r="J22" s="10"/>
       <c r="K22" s="36"/>
@@ -7259,14 +7274,14 @@
         <v>2</v>
       </c>
       <c r="B23" s="27"/>
-      <c r="C23" s="77">
+      <c r="C23" s="78">
         <v>0.96180555555555547</v>
       </c>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="69"/>
-      <c r="H23" s="69"/>
+      <c r="D23" s="70"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="70"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="70"/>
       <c r="I23" s="30"/>
       <c r="J23" s="10"/>
       <c r="K23" s="36"/>
@@ -7277,12 +7292,12 @@
         <v>1</v>
       </c>
       <c r="B24" s="21"/>
-      <c r="C24" s="74"/>
-      <c r="D24" s="74"/>
-      <c r="E24" s="74"/>
-      <c r="F24" s="74"/>
-      <c r="G24" s="74"/>
-      <c r="H24" s="74"/>
+      <c r="C24" s="76"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="76"/>
+      <c r="F24" s="76"/>
+      <c r="G24" s="76"/>
+      <c r="H24" s="76"/>
       <c r="I24" s="22"/>
       <c r="J24" s="10"/>
       <c r="K24" s="36"/>
@@ -7293,12 +7308,12 @@
         <v>2</v>
       </c>
       <c r="B25" s="27"/>
-      <c r="C25" s="69"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="69"/>
-      <c r="H25" s="69"/>
+      <c r="C25" s="70"/>
+      <c r="D25" s="70"/>
+      <c r="E25" s="70"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="70"/>
       <c r="I25" s="30"/>
       <c r="J25" s="20"/>
       <c r="K25" s="35"/>
@@ -7309,12 +7324,12 @@
         <v>1</v>
       </c>
       <c r="B26" s="21"/>
-      <c r="C26" s="74"/>
-      <c r="D26" s="74"/>
-      <c r="E26" s="74"/>
-      <c r="F26" s="74"/>
-      <c r="G26" s="74"/>
-      <c r="H26" s="74"/>
+      <c r="C26" s="76"/>
+      <c r="D26" s="76"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="76"/>
+      <c r="H26" s="76"/>
       <c r="I26" s="22"/>
       <c r="J26" s="10" t="s">
         <v>33</v>
@@ -7331,12 +7346,12 @@
         <v>2</v>
       </c>
       <c r="B27" s="27"/>
-      <c r="C27" s="69"/>
-      <c r="D27" s="69"/>
-      <c r="E27" s="69"/>
-      <c r="F27" s="69"/>
-      <c r="G27" s="69"/>
-      <c r="H27" s="69"/>
+      <c r="C27" s="70"/>
+      <c r="D27" s="70"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="70"/>
       <c r="I27" s="30"/>
       <c r="J27" s="10"/>
       <c r="K27" s="36">
@@ -7351,12 +7366,12 @@
         <v>1</v>
       </c>
       <c r="B28" s="21"/>
-      <c r="C28" s="74"/>
-      <c r="D28" s="74"/>
-      <c r="E28" s="74"/>
-      <c r="F28" s="74"/>
-      <c r="G28" s="74"/>
-      <c r="H28" s="74"/>
+      <c r="C28" s="76"/>
+      <c r="D28" s="76"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="76"/>
+      <c r="G28" s="76"/>
+      <c r="H28" s="76"/>
       <c r="I28" s="22"/>
       <c r="J28" s="10"/>
       <c r="K28" s="36"/>
@@ -7367,12 +7382,12 @@
         <v>2</v>
       </c>
       <c r="B29" s="27"/>
-      <c r="C29" s="69"/>
-      <c r="D29" s="69"/>
-      <c r="E29" s="69"/>
-      <c r="F29" s="69"/>
-      <c r="G29" s="69"/>
-      <c r="H29" s="69"/>
+      <c r="C29" s="70"/>
+      <c r="D29" s="70"/>
+      <c r="E29" s="70"/>
+      <c r="F29" s="70"/>
+      <c r="G29" s="70"/>
+      <c r="H29" s="70"/>
       <c r="I29" s="30"/>
       <c r="J29" s="10"/>
       <c r="K29" s="36"/>
@@ -7383,12 +7398,12 @@
         <v>1</v>
       </c>
       <c r="B30" s="21"/>
-      <c r="C30" s="74"/>
-      <c r="D30" s="74"/>
-      <c r="E30" s="74"/>
-      <c r="F30" s="74"/>
-      <c r="G30" s="74"/>
-      <c r="H30" s="74"/>
+      <c r="C30" s="76"/>
+      <c r="D30" s="76"/>
+      <c r="E30" s="76"/>
+      <c r="F30" s="76"/>
+      <c r="G30" s="76"/>
+      <c r="H30" s="76"/>
       <c r="I30" s="22"/>
       <c r="J30" s="10"/>
       <c r="K30" s="36"/>
@@ -7399,12 +7414,12 @@
         <v>2</v>
       </c>
       <c r="B31" s="28"/>
-      <c r="C31" s="71"/>
-      <c r="D31" s="71"/>
-      <c r="E31" s="71"/>
-      <c r="F31" s="71"/>
-      <c r="G31" s="71"/>
-      <c r="H31" s="71"/>
+      <c r="C31" s="72"/>
+      <c r="D31" s="72"/>
+      <c r="E31" s="72"/>
+      <c r="F31" s="72"/>
+      <c r="G31" s="72"/>
+      <c r="H31" s="72"/>
       <c r="I31" s="29"/>
       <c r="J31" s="10"/>
       <c r="K31" s="42"/>
@@ -7412,60 +7427,6 @@
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="G31:H31"/>
@@ -7475,6 +7436,60 @@
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="G30:H30"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:H3">
     <cfRule type="expression" dxfId="86" priority="6" stopIfTrue="1">
@@ -7582,7 +7597,7 @@
         <v>14</v>
       </c>
       <c r="L1" s="63" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -7829,7 +7844,7 @@
         <v>3</v>
       </c>
       <c r="L8" s="49" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -7845,7 +7860,7 @@
         <v>10</v>
       </c>
       <c r="L9" s="49" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -7864,7 +7879,7 @@
         <v>17</v>
       </c>
       <c r="L10" s="49" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -7893,7 +7908,7 @@
         <v>24</v>
       </c>
       <c r="L11" s="49" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -7901,12 +7916,12 @@
         <v>1</v>
       </c>
       <c r="B12" s="56"/>
-      <c r="C12" s="74"/>
-      <c r="D12" s="74"/>
-      <c r="E12" s="74"/>
-      <c r="F12" s="74"/>
-      <c r="G12" s="74"/>
-      <c r="H12" s="74"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="76"/>
       <c r="I12" s="22"/>
       <c r="K12" s="36"/>
       <c r="L12" s="49"/>
@@ -7916,12 +7931,12 @@
         <v>2</v>
       </c>
       <c r="B13" s="27"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="69"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
       <c r="I13" s="54"/>
       <c r="J13" s="20"/>
       <c r="K13" s="35"/>
@@ -7932,12 +7947,12 @@
         <v>1</v>
       </c>
       <c r="B14" s="56"/>
-      <c r="C14" s="74"/>
-      <c r="D14" s="74"/>
-      <c r="E14" s="74"/>
-      <c r="F14" s="74"/>
-      <c r="G14" s="74"/>
-      <c r="H14" s="74"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="76"/>
+      <c r="H14" s="76"/>
       <c r="I14" s="22">
         <v>0.76041666666666663</v>
       </c>
@@ -7952,12 +7967,12 @@
         <v>2</v>
       </c>
       <c r="B15" s="27"/>
-      <c r="C15" s="69"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="69"/>
-      <c r="H15" s="69"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="70"/>
       <c r="I15" s="27" t="s">
         <v>38</v>
       </c>
@@ -7969,12 +7984,12 @@
         <v>1</v>
       </c>
       <c r="B16" s="56"/>
-      <c r="C16" s="74"/>
-      <c r="D16" s="74"/>
-      <c r="E16" s="74"/>
-      <c r="F16" s="74"/>
-      <c r="G16" s="74"/>
-      <c r="H16" s="74"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="76"/>
       <c r="I16" s="24">
         <v>0.82291666666666663</v>
       </c>
@@ -7986,12 +8001,12 @@
         <v>2</v>
       </c>
       <c r="B17" s="27"/>
-      <c r="C17" s="69"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="69"/>
-      <c r="G17" s="69"/>
-      <c r="H17" s="69"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="70"/>
       <c r="I17" s="27" t="s">
         <v>41</v>
       </c>
@@ -8003,14 +8018,14 @@
         <v>1</v>
       </c>
       <c r="B18" s="56"/>
-      <c r="C18" s="74">
+      <c r="C18" s="76">
         <v>0.82986111111111116</v>
       </c>
-      <c r="D18" s="74"/>
-      <c r="E18" s="74"/>
-      <c r="F18" s="74"/>
-      <c r="G18" s="74"/>
-      <c r="H18" s="74"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="76"/>
+      <c r="H18" s="76"/>
       <c r="I18" s="22"/>
       <c r="K18" s="36"/>
       <c r="L18" s="49"/>
@@ -8020,14 +8035,14 @@
         <v>2</v>
       </c>
       <c r="B19" s="27"/>
-      <c r="C19" s="78" t="s">
+      <c r="C19" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="69"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="69"/>
-      <c r="H19" s="69"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="70"/>
       <c r="I19" s="47"/>
       <c r="J19" s="20"/>
       <c r="K19" s="35"/>
@@ -8038,14 +8053,14 @@
         <v>1</v>
       </c>
       <c r="B20" s="56"/>
-      <c r="C20" s="74">
+      <c r="C20" s="76">
         <v>0.875</v>
       </c>
-      <c r="D20" s="74"/>
-      <c r="E20" s="74"/>
-      <c r="F20" s="74"/>
-      <c r="G20" s="74"/>
-      <c r="H20" s="74"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="76"/>
       <c r="I20" s="22"/>
       <c r="J20" s="10" t="s">
         <v>32</v>
@@ -8054,7 +8069,7 @@
         <v>26</v>
       </c>
       <c r="L20" s="49" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -8062,14 +8077,14 @@
         <v>2</v>
       </c>
       <c r="B21" s="27"/>
-      <c r="C21" s="78" t="s">
+      <c r="C21" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="69"/>
-      <c r="E21" s="69"/>
-      <c r="F21" s="69"/>
-      <c r="G21" s="69"/>
-      <c r="H21" s="69"/>
+      <c r="D21" s="70"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="70"/>
+      <c r="G21" s="70"/>
+      <c r="H21" s="70"/>
       <c r="I21" s="54"/>
       <c r="K21" s="36"/>
       <c r="L21" s="49"/>
@@ -8079,14 +8094,14 @@
         <v>1</v>
       </c>
       <c r="B22" s="56"/>
-      <c r="C22" s="74" t="s">
+      <c r="C22" s="76" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="74"/>
-      <c r="E22" s="74"/>
-      <c r="F22" s="74"/>
-      <c r="G22" s="74"/>
-      <c r="H22" s="74"/>
+      <c r="D22" s="76"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="76"/>
+      <c r="G22" s="76"/>
+      <c r="H22" s="76"/>
       <c r="I22" s="22"/>
       <c r="K22" s="36"/>
       <c r="L22" s="49"/>
@@ -8096,14 +8111,14 @@
         <v>2</v>
       </c>
       <c r="B23" s="27"/>
-      <c r="C23" s="77">
+      <c r="C23" s="78">
         <v>0.96180555555555547</v>
       </c>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="69"/>
-      <c r="H23" s="69"/>
+      <c r="D23" s="70"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="70"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="70"/>
       <c r="I23" s="54"/>
       <c r="K23" s="36"/>
       <c r="L23" s="49"/>
@@ -8113,12 +8128,12 @@
         <v>1</v>
       </c>
       <c r="B24" s="56"/>
-      <c r="C24" s="74"/>
-      <c r="D24" s="74"/>
-      <c r="E24" s="74"/>
-      <c r="F24" s="74"/>
-      <c r="G24" s="74"/>
-      <c r="H24" s="74"/>
+      <c r="C24" s="76"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="76"/>
+      <c r="F24" s="76"/>
+      <c r="G24" s="76"/>
+      <c r="H24" s="76"/>
       <c r="I24" s="22"/>
       <c r="K24" s="36"/>
       <c r="L24" s="49"/>
@@ -8128,12 +8143,12 @@
         <v>2</v>
       </c>
       <c r="B25" s="27"/>
-      <c r="C25" s="69"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="69"/>
-      <c r="H25" s="69"/>
+      <c r="C25" s="70"/>
+      <c r="D25" s="70"/>
+      <c r="E25" s="70"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="70"/>
       <c r="I25" s="54"/>
       <c r="J25" s="20"/>
       <c r="K25" s="35"/>
@@ -8144,12 +8159,12 @@
         <v>1</v>
       </c>
       <c r="B26" s="56"/>
-      <c r="C26" s="74"/>
-      <c r="D26" s="74"/>
-      <c r="E26" s="74"/>
-      <c r="F26" s="74"/>
-      <c r="G26" s="74"/>
-      <c r="H26" s="74"/>
+      <c r="C26" s="76"/>
+      <c r="D26" s="76"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="76"/>
+      <c r="H26" s="76"/>
       <c r="I26" s="22"/>
       <c r="J26" s="10" t="s">
         <v>33</v>
@@ -8158,7 +8173,7 @@
         <v>6</v>
       </c>
       <c r="L26" s="49" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -8166,18 +8181,18 @@
         <v>2</v>
       </c>
       <c r="B27" s="27"/>
-      <c r="C27" s="69"/>
-      <c r="D27" s="69"/>
-      <c r="E27" s="69"/>
-      <c r="F27" s="69"/>
-      <c r="G27" s="69"/>
-      <c r="H27" s="69"/>
+      <c r="C27" s="70"/>
+      <c r="D27" s="70"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="70"/>
       <c r="I27" s="54"/>
       <c r="K27" s="36">
         <v>13</v>
       </c>
       <c r="L27" s="49" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -8185,18 +8200,18 @@
         <v>1</v>
       </c>
       <c r="B28" s="56"/>
-      <c r="C28" s="74"/>
-      <c r="D28" s="74"/>
-      <c r="E28" s="74"/>
-      <c r="F28" s="74"/>
-      <c r="G28" s="74"/>
-      <c r="H28" s="74"/>
+      <c r="C28" s="76"/>
+      <c r="D28" s="76"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="76"/>
+      <c r="G28" s="76"/>
+      <c r="H28" s="76"/>
       <c r="I28" s="22"/>
       <c r="K28" s="36">
         <v>20</v>
       </c>
       <c r="L28" s="49" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8204,18 +8219,18 @@
         <v>2</v>
       </c>
       <c r="B29" s="27"/>
-      <c r="C29" s="69"/>
-      <c r="D29" s="69"/>
-      <c r="E29" s="69"/>
-      <c r="F29" s="69"/>
-      <c r="G29" s="69"/>
-      <c r="H29" s="69"/>
+      <c r="C29" s="70"/>
+      <c r="D29" s="70"/>
+      <c r="E29" s="70"/>
+      <c r="F29" s="70"/>
+      <c r="G29" s="70"/>
+      <c r="H29" s="70"/>
       <c r="I29" s="54"/>
       <c r="K29" s="36">
         <v>27</v>
       </c>
       <c r="L29" s="49" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -8223,12 +8238,12 @@
         <v>1</v>
       </c>
       <c r="B30" s="56"/>
-      <c r="C30" s="74"/>
-      <c r="D30" s="74"/>
-      <c r="E30" s="74"/>
-      <c r="F30" s="74"/>
-      <c r="G30" s="74"/>
-      <c r="H30" s="74"/>
+      <c r="C30" s="76"/>
+      <c r="D30" s="76"/>
+      <c r="E30" s="76"/>
+      <c r="F30" s="76"/>
+      <c r="G30" s="76"/>
+      <c r="H30" s="76"/>
       <c r="I30" s="22"/>
       <c r="K30" s="36"/>
       <c r="L30" s="49"/>
@@ -8238,72 +8253,18 @@
         <v>2</v>
       </c>
       <c r="B31" s="28"/>
-      <c r="C31" s="71"/>
-      <c r="D31" s="71"/>
-      <c r="E31" s="71"/>
-      <c r="F31" s="71"/>
-      <c r="G31" s="71"/>
-      <c r="H31" s="71"/>
+      <c r="C31" s="72"/>
+      <c r="D31" s="72"/>
+      <c r="E31" s="72"/>
+      <c r="F31" s="72"/>
+      <c r="G31" s="72"/>
+      <c r="H31" s="72"/>
       <c r="I31" s="55"/>
       <c r="K31" s="42"/>
       <c r="L31" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="G31:H31"/>
@@ -8313,6 +8274,60 @@
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="G30:H30"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:H3">
     <cfRule type="expression" dxfId="77" priority="10" stopIfTrue="1">
@@ -8420,7 +8435,7 @@
         <v>14</v>
       </c>
       <c r="L1" s="63" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -8524,7 +8539,7 @@
         <v>14</v>
       </c>
       <c r="L4" s="49" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -8684,7 +8699,7 @@
         <v>8</v>
       </c>
       <c r="L9" s="49" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -8704,7 +8719,7 @@
         <v>15</v>
       </c>
       <c r="L10" s="49" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -8734,7 +8749,7 @@
         <v>22</v>
       </c>
       <c r="L11" s="49" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -8742,19 +8757,19 @@
         <v>1</v>
       </c>
       <c r="B12" s="56"/>
-      <c r="C12" s="74"/>
-      <c r="D12" s="74"/>
-      <c r="E12" s="74"/>
-      <c r="F12" s="74"/>
-      <c r="G12" s="74"/>
-      <c r="H12" s="74"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="76"/>
       <c r="I12" s="22"/>
       <c r="J12" s="10"/>
       <c r="K12" s="36">
         <v>29</v>
       </c>
       <c r="L12" s="49" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -8762,12 +8777,12 @@
         <v>2</v>
       </c>
       <c r="B13" s="27"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="69"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
       <c r="I13" s="54"/>
       <c r="J13" s="20"/>
       <c r="K13" s="35"/>
@@ -8778,12 +8793,12 @@
         <v>1</v>
       </c>
       <c r="B14" s="56"/>
-      <c r="C14" s="74"/>
-      <c r="D14" s="74"/>
-      <c r="E14" s="74"/>
-      <c r="F14" s="74"/>
-      <c r="G14" s="74"/>
-      <c r="H14" s="74"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="76"/>
+      <c r="H14" s="76"/>
       <c r="I14" s="22">
         <v>0.76041666666666663</v>
       </c>
@@ -8794,7 +8809,7 @@
         <v>2</v>
       </c>
       <c r="L14" s="49" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -8802,12 +8817,12 @@
         <v>2</v>
       </c>
       <c r="B15" s="27"/>
-      <c r="C15" s="69"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="69"/>
-      <c r="H15" s="69"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="70"/>
       <c r="I15" s="27" t="s">
         <v>38</v>
       </c>
@@ -8820,12 +8835,12 @@
         <v>1</v>
       </c>
       <c r="B16" s="56"/>
-      <c r="C16" s="74"/>
-      <c r="D16" s="74"/>
-      <c r="E16" s="74"/>
-      <c r="F16" s="74"/>
-      <c r="G16" s="74"/>
-      <c r="H16" s="74"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="76"/>
       <c r="I16" s="24">
         <v>0.82291666666666663</v>
       </c>
@@ -8838,12 +8853,12 @@
         <v>2</v>
       </c>
       <c r="B17" s="27"/>
-      <c r="C17" s="69"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="69"/>
-      <c r="G17" s="69"/>
-      <c r="H17" s="69"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="70"/>
       <c r="I17" s="27" t="s">
         <v>41</v>
       </c>
@@ -8856,14 +8871,14 @@
         <v>1</v>
       </c>
       <c r="B18" s="56"/>
-      <c r="C18" s="74">
+      <c r="C18" s="76">
         <v>0.82986111111111116</v>
       </c>
-      <c r="D18" s="74"/>
-      <c r="E18" s="74"/>
-      <c r="F18" s="74"/>
-      <c r="G18" s="74"/>
-      <c r="H18" s="74"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="76"/>
+      <c r="H18" s="76"/>
       <c r="I18" s="22"/>
       <c r="J18" s="10"/>
       <c r="K18" s="36"/>
@@ -8874,14 +8889,14 @@
         <v>2</v>
       </c>
       <c r="B19" s="27"/>
-      <c r="C19" s="78" t="s">
+      <c r="C19" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="69"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="69"/>
-      <c r="H19" s="69"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="70"/>
       <c r="I19" s="47"/>
       <c r="J19" s="20"/>
       <c r="K19" s="35"/>
@@ -8892,14 +8907,14 @@
         <v>1</v>
       </c>
       <c r="B20" s="56"/>
-      <c r="C20" s="74">
+      <c r="C20" s="76">
         <v>0.875</v>
       </c>
-      <c r="D20" s="74"/>
-      <c r="E20" s="74"/>
-      <c r="F20" s="74"/>
-      <c r="G20" s="74"/>
-      <c r="H20" s="74"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="76"/>
       <c r="I20" s="22"/>
       <c r="J20" s="10" t="s">
         <v>32</v>
@@ -8912,14 +8927,14 @@
         <v>2</v>
       </c>
       <c r="B21" s="27"/>
-      <c r="C21" s="78" t="s">
+      <c r="C21" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="69"/>
-      <c r="E21" s="69"/>
-      <c r="F21" s="69"/>
-      <c r="G21" s="69"/>
-      <c r="H21" s="69"/>
+      <c r="D21" s="70"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="70"/>
+      <c r="G21" s="70"/>
+      <c r="H21" s="70"/>
       <c r="I21" s="54"/>
       <c r="J21" s="10"/>
       <c r="K21" s="36"/>
@@ -8930,14 +8945,14 @@
         <v>1</v>
       </c>
       <c r="B22" s="56"/>
-      <c r="C22" s="74" t="s">
+      <c r="C22" s="76" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="74"/>
-      <c r="E22" s="74"/>
-      <c r="F22" s="74"/>
-      <c r="G22" s="74"/>
-      <c r="H22" s="74"/>
+      <c r="D22" s="76"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="76"/>
+      <c r="G22" s="76"/>
+      <c r="H22" s="76"/>
       <c r="I22" s="22"/>
       <c r="J22" s="10"/>
       <c r="K22" s="36"/>
@@ -8948,14 +8963,14 @@
         <v>2</v>
       </c>
       <c r="B23" s="27"/>
-      <c r="C23" s="77">
+      <c r="C23" s="78">
         <v>0.96180555555555547</v>
       </c>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="69"/>
-      <c r="H23" s="69"/>
+      <c r="D23" s="70"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="70"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="70"/>
       <c r="I23" s="54"/>
       <c r="J23" s="10"/>
       <c r="K23" s="36"/>
@@ -8966,12 +8981,12 @@
         <v>1</v>
       </c>
       <c r="B24" s="56"/>
-      <c r="C24" s="74"/>
-      <c r="D24" s="74"/>
-      <c r="E24" s="74"/>
-      <c r="F24" s="74"/>
-      <c r="G24" s="74"/>
-      <c r="H24" s="74"/>
+      <c r="C24" s="76"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="76"/>
+      <c r="F24" s="76"/>
+      <c r="G24" s="76"/>
+      <c r="H24" s="76"/>
       <c r="I24" s="22"/>
       <c r="J24" s="10"/>
       <c r="K24" s="36"/>
@@ -8982,12 +8997,12 @@
         <v>2</v>
       </c>
       <c r="B25" s="27"/>
-      <c r="C25" s="69"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="69"/>
-      <c r="H25" s="69"/>
+      <c r="C25" s="70"/>
+      <c r="D25" s="70"/>
+      <c r="E25" s="70"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="70"/>
       <c r="I25" s="54"/>
       <c r="J25" s="20"/>
       <c r="K25" s="35"/>
@@ -8998,12 +9013,12 @@
         <v>1</v>
       </c>
       <c r="B26" s="56"/>
-      <c r="C26" s="74"/>
-      <c r="D26" s="74"/>
-      <c r="E26" s="74"/>
-      <c r="F26" s="74"/>
-      <c r="G26" s="74"/>
-      <c r="H26" s="74"/>
+      <c r="C26" s="76"/>
+      <c r="D26" s="76"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="76"/>
+      <c r="H26" s="76"/>
       <c r="I26" s="22"/>
       <c r="J26" s="10" t="s">
         <v>33</v>
@@ -9012,7 +9027,7 @@
         <v>4</v>
       </c>
       <c r="L26" s="49" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -9020,19 +9035,19 @@
         <v>2</v>
       </c>
       <c r="B27" s="27"/>
-      <c r="C27" s="69"/>
-      <c r="D27" s="69"/>
-      <c r="E27" s="69"/>
-      <c r="F27" s="69"/>
-      <c r="G27" s="69"/>
-      <c r="H27" s="69"/>
+      <c r="C27" s="70"/>
+      <c r="D27" s="70"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="70"/>
       <c r="I27" s="54"/>
       <c r="J27" s="10"/>
       <c r="K27" s="36">
         <v>11</v>
       </c>
       <c r="L27" s="49" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -9040,19 +9055,19 @@
         <v>1</v>
       </c>
       <c r="B28" s="56"/>
-      <c r="C28" s="74"/>
-      <c r="D28" s="74"/>
-      <c r="E28" s="74"/>
-      <c r="F28" s="74"/>
-      <c r="G28" s="74"/>
-      <c r="H28" s="74"/>
+      <c r="C28" s="76"/>
+      <c r="D28" s="76"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="76"/>
+      <c r="G28" s="76"/>
+      <c r="H28" s="76"/>
       <c r="I28" s="22"/>
       <c r="J28" s="10"/>
       <c r="K28" s="36">
         <v>18</v>
       </c>
       <c r="L28" s="49" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -9060,12 +9075,12 @@
         <v>2</v>
       </c>
       <c r="B29" s="27"/>
-      <c r="C29" s="69"/>
-      <c r="D29" s="69"/>
-      <c r="E29" s="69"/>
-      <c r="F29" s="69"/>
-      <c r="G29" s="69"/>
-      <c r="H29" s="69"/>
+      <c r="C29" s="70"/>
+      <c r="D29" s="70"/>
+      <c r="E29" s="70"/>
+      <c r="F29" s="70"/>
+      <c r="G29" s="70"/>
+      <c r="H29" s="70"/>
       <c r="I29" s="54"/>
       <c r="J29" s="10"/>
       <c r="K29" s="36">
@@ -9080,12 +9095,12 @@
         <v>1</v>
       </c>
       <c r="B30" s="56"/>
-      <c r="C30" s="74"/>
-      <c r="D30" s="74"/>
-      <c r="E30" s="74"/>
-      <c r="F30" s="74"/>
-      <c r="G30" s="74"/>
-      <c r="H30" s="74"/>
+      <c r="C30" s="76"/>
+      <c r="D30" s="76"/>
+      <c r="E30" s="76"/>
+      <c r="F30" s="76"/>
+      <c r="G30" s="76"/>
+      <c r="H30" s="76"/>
       <c r="I30" s="22"/>
       <c r="J30" s="10"/>
       <c r="K30" s="36"/>
@@ -9096,12 +9111,12 @@
         <v>2</v>
       </c>
       <c r="B31" s="28"/>
-      <c r="C31" s="71"/>
-      <c r="D31" s="71"/>
-      <c r="E31" s="71"/>
-      <c r="F31" s="71"/>
-      <c r="G31" s="71"/>
-      <c r="H31" s="71"/>
+      <c r="C31" s="72"/>
+      <c r="D31" s="72"/>
+      <c r="E31" s="72"/>
+      <c r="F31" s="72"/>
+      <c r="G31" s="72"/>
+      <c r="H31" s="72"/>
       <c r="I31" s="55"/>
       <c r="J31" s="45"/>
       <c r="K31" s="42"/>
@@ -9109,60 +9124,6 @@
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="G31:H31"/>
@@ -9172,6 +9133,60 @@
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="G30:H30"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:H3">
     <cfRule type="expression" dxfId="68" priority="12" stopIfTrue="1">
@@ -9243,8 +9258,8 @@
   </sheetPr>
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="84" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="84" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9279,7 +9294,7 @@
         <v>14</v>
       </c>
       <c r="L1" s="63" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -9522,7 +9537,7 @@
         <v>5</v>
       </c>
       <c r="L8" s="49" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -9555,8 +9570,12 @@
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
       <c r="J10" s="10"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="49"/>
+      <c r="K10" s="36">
+        <v>19</v>
+      </c>
+      <c r="L10" s="49" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="11" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
@@ -9585,7 +9604,7 @@
         <v>26</v>
       </c>
       <c r="L11" s="49" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -9593,12 +9612,12 @@
         <v>1</v>
       </c>
       <c r="B12" s="56"/>
-      <c r="C12" s="74"/>
-      <c r="D12" s="74"/>
-      <c r="E12" s="74"/>
-      <c r="F12" s="74"/>
-      <c r="G12" s="74"/>
-      <c r="H12" s="74"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="76"/>
       <c r="I12" s="22"/>
       <c r="J12" s="10"/>
       <c r="K12" s="36"/>
@@ -9609,12 +9628,12 @@
         <v>2</v>
       </c>
       <c r="B13" s="27"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="69"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
       <c r="I13" s="54"/>
       <c r="J13" s="20"/>
       <c r="K13" s="35"/>
@@ -9625,12 +9644,12 @@
         <v>1</v>
       </c>
       <c r="B14" s="56"/>
-      <c r="C14" s="74"/>
-      <c r="D14" s="74"/>
-      <c r="E14" s="74"/>
-      <c r="F14" s="74"/>
-      <c r="G14" s="74"/>
-      <c r="H14" s="74"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="76"/>
+      <c r="H14" s="76"/>
       <c r="I14" s="22">
         <v>0.76041666666666663</v>
       </c>
@@ -9645,12 +9664,12 @@
         <v>2</v>
       </c>
       <c r="B15" s="27"/>
-      <c r="C15" s="69"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="69"/>
-      <c r="H15" s="69"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="70"/>
       <c r="I15" s="27" t="s">
         <v>38</v>
       </c>
@@ -9663,12 +9682,12 @@
         <v>1</v>
       </c>
       <c r="B16" s="56"/>
-      <c r="C16" s="74"/>
-      <c r="D16" s="74"/>
-      <c r="E16" s="74"/>
-      <c r="F16" s="74"/>
-      <c r="G16" s="74"/>
-      <c r="H16" s="74"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="76"/>
       <c r="I16" s="24">
         <v>0.82291666666666663</v>
       </c>
@@ -9685,12 +9704,12 @@
         <v>2</v>
       </c>
       <c r="B17" s="27"/>
-      <c r="C17" s="69"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="69"/>
-      <c r="G17" s="69"/>
-      <c r="H17" s="69"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="70"/>
       <c r="I17" s="27" t="s">
         <v>41</v>
       </c>
@@ -9703,14 +9722,14 @@
         <v>1</v>
       </c>
       <c r="B18" s="56"/>
-      <c r="C18" s="74">
+      <c r="C18" s="76">
         <v>0.82986111111111116</v>
       </c>
-      <c r="D18" s="74"/>
-      <c r="E18" s="74"/>
-      <c r="F18" s="74"/>
-      <c r="G18" s="74"/>
-      <c r="H18" s="74"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="76"/>
+      <c r="H18" s="76"/>
       <c r="I18" s="22"/>
       <c r="J18" s="10"/>
       <c r="K18" s="36"/>
@@ -9721,14 +9740,14 @@
         <v>2</v>
       </c>
       <c r="B19" s="27"/>
-      <c r="C19" s="78" t="s">
+      <c r="C19" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="69"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="69"/>
-      <c r="H19" s="69"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="70"/>
       <c r="I19" s="47"/>
       <c r="J19" s="20"/>
       <c r="K19" s="35"/>
@@ -9739,14 +9758,14 @@
         <v>1</v>
       </c>
       <c r="B20" s="56"/>
-      <c r="C20" s="74">
+      <c r="C20" s="76">
         <v>0.875</v>
       </c>
-      <c r="D20" s="74"/>
-      <c r="E20" s="74"/>
-      <c r="F20" s="74"/>
-      <c r="G20" s="74"/>
-      <c r="H20" s="74"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="76"/>
       <c r="I20" s="22"/>
       <c r="J20" s="10" t="s">
         <v>32</v>
@@ -9759,14 +9778,14 @@
         <v>2</v>
       </c>
       <c r="B21" s="27"/>
-      <c r="C21" s="78" t="s">
+      <c r="C21" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="69"/>
-      <c r="E21" s="69"/>
-      <c r="F21" s="69"/>
-      <c r="G21" s="69"/>
-      <c r="H21" s="69"/>
+      <c r="D21" s="70"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="70"/>
+      <c r="G21" s="70"/>
+      <c r="H21" s="70"/>
       <c r="I21" s="54"/>
       <c r="J21" s="10"/>
       <c r="K21" s="36"/>
@@ -9777,14 +9796,14 @@
         <v>1</v>
       </c>
       <c r="B22" s="56"/>
-      <c r="C22" s="74" t="s">
+      <c r="C22" s="76" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="74"/>
-      <c r="E22" s="74"/>
-      <c r="F22" s="74"/>
-      <c r="G22" s="74"/>
-      <c r="H22" s="74"/>
+      <c r="D22" s="76"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="76"/>
+      <c r="G22" s="76"/>
+      <c r="H22" s="76"/>
       <c r="I22" s="22"/>
       <c r="J22" s="10"/>
       <c r="K22" s="36"/>
@@ -9795,14 +9814,14 @@
         <v>2</v>
       </c>
       <c r="B23" s="27"/>
-      <c r="C23" s="77">
+      <c r="C23" s="78">
         <v>0.96180555555555547</v>
       </c>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="69"/>
-      <c r="H23" s="69"/>
+      <c r="D23" s="70"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="70"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="70"/>
       <c r="I23" s="54"/>
       <c r="J23" s="10"/>
       <c r="K23" s="36"/>
@@ -9813,12 +9832,12 @@
         <v>1</v>
       </c>
       <c r="B24" s="56"/>
-      <c r="C24" s="74"/>
-      <c r="D24" s="74"/>
-      <c r="E24" s="74"/>
-      <c r="F24" s="74"/>
-      <c r="G24" s="74"/>
-      <c r="H24" s="74"/>
+      <c r="C24" s="76"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="76"/>
+      <c r="F24" s="76"/>
+      <c r="G24" s="76"/>
+      <c r="H24" s="76"/>
       <c r="I24" s="22"/>
       <c r="J24" s="10"/>
       <c r="K24" s="36"/>
@@ -9829,12 +9848,12 @@
         <v>2</v>
       </c>
       <c r="B25" s="27"/>
-      <c r="C25" s="69"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="69"/>
-      <c r="H25" s="69"/>
+      <c r="C25" s="70"/>
+      <c r="D25" s="70"/>
+      <c r="E25" s="70"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="70"/>
       <c r="I25" s="54"/>
       <c r="J25" s="20"/>
       <c r="K25" s="35"/>
@@ -9845,12 +9864,12 @@
         <v>1</v>
       </c>
       <c r="B26" s="56"/>
-      <c r="C26" s="74"/>
-      <c r="D26" s="74"/>
-      <c r="E26" s="74"/>
-      <c r="F26" s="74"/>
-      <c r="G26" s="74"/>
-      <c r="H26" s="74"/>
+      <c r="C26" s="76"/>
+      <c r="D26" s="76"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="76"/>
+      <c r="H26" s="76"/>
       <c r="I26" s="22"/>
       <c r="J26" s="10" t="s">
         <v>33</v>
@@ -9859,7 +9878,7 @@
         <v>1</v>
       </c>
       <c r="L26" s="66" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -9867,19 +9886,19 @@
         <v>2</v>
       </c>
       <c r="B27" s="27"/>
-      <c r="C27" s="69"/>
-      <c r="D27" s="69"/>
-      <c r="E27" s="69"/>
-      <c r="F27" s="69"/>
-      <c r="G27" s="69"/>
-      <c r="H27" s="69"/>
+      <c r="C27" s="70"/>
+      <c r="D27" s="70"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="70"/>
       <c r="I27" s="54"/>
       <c r="J27" s="10"/>
       <c r="K27" s="36">
         <v>8</v>
       </c>
       <c r="L27" s="49" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -9887,51 +9906,59 @@
         <v>1</v>
       </c>
       <c r="B28" s="56"/>
-      <c r="C28" s="74"/>
-      <c r="D28" s="74"/>
-      <c r="E28" s="74"/>
-      <c r="F28" s="74"/>
-      <c r="G28" s="74"/>
-      <c r="H28" s="74"/>
+      <c r="C28" s="76"/>
+      <c r="D28" s="76"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="76"/>
+      <c r="G28" s="76"/>
+      <c r="H28" s="76"/>
       <c r="I28" s="22"/>
       <c r="J28" s="10"/>
-      <c r="K28" s="36"/>
-      <c r="L28" s="49"/>
+      <c r="K28" s="36">
+        <v>15</v>
+      </c>
+      <c r="L28" s="49" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="29" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="26" t="s">
         <v>2</v>
       </c>
       <c r="B29" s="27"/>
-      <c r="C29" s="69"/>
-      <c r="D29" s="69"/>
-      <c r="E29" s="69"/>
-      <c r="F29" s="69"/>
-      <c r="G29" s="69"/>
-      <c r="H29" s="69"/>
+      <c r="C29" s="70"/>
+      <c r="D29" s="70"/>
+      <c r="E29" s="70"/>
+      <c r="F29" s="70"/>
+      <c r="G29" s="70"/>
+      <c r="H29" s="70"/>
       <c r="I29" s="54"/>
       <c r="J29" s="10"/>
-      <c r="K29" s="36"/>
-      <c r="L29" s="49"/>
+      <c r="K29" s="36">
+        <v>22</v>
+      </c>
+      <c r="L29" s="49" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="30" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="26" t="s">
         <v>1</v>
       </c>
       <c r="B30" s="56"/>
-      <c r="C30" s="74"/>
-      <c r="D30" s="74"/>
-      <c r="E30" s="74"/>
-      <c r="F30" s="74"/>
-      <c r="G30" s="74"/>
-      <c r="H30" s="74"/>
+      <c r="C30" s="76"/>
+      <c r="D30" s="76"/>
+      <c r="E30" s="76"/>
+      <c r="F30" s="76"/>
+      <c r="G30" s="76"/>
+      <c r="H30" s="76"/>
       <c r="I30" s="22"/>
       <c r="J30" s="10"/>
       <c r="K30" s="36">
         <v>29</v>
       </c>
       <c r="L30" s="49" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -9939,12 +9966,12 @@
         <v>2</v>
       </c>
       <c r="B31" s="28"/>
-      <c r="C31" s="71"/>
-      <c r="D31" s="71"/>
-      <c r="E31" s="71"/>
-      <c r="F31" s="71"/>
-      <c r="G31" s="71"/>
-      <c r="H31" s="71"/>
+      <c r="C31" s="72"/>
+      <c r="D31" s="72"/>
+      <c r="E31" s="72"/>
+      <c r="F31" s="72"/>
+      <c r="G31" s="72"/>
+      <c r="H31" s="72"/>
       <c r="I31" s="55"/>
       <c r="J31" s="10"/>
       <c r="K31" s="42"/>
@@ -9952,60 +9979,6 @@
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="G31:H31"/>
@@ -10015,6 +9988,60 @@
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="G30:H30"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:H3">
     <cfRule type="expression" dxfId="59" priority="10" stopIfTrue="1">
@@ -10086,8 +10113,8 @@
   </sheetPr>
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="84" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="84" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10122,7 +10149,7 @@
         <v>14</v>
       </c>
       <c r="L1" s="63" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -10424,12 +10451,12 @@
         <v>1</v>
       </c>
       <c r="B12" s="56"/>
-      <c r="C12" s="74"/>
-      <c r="D12" s="74"/>
-      <c r="E12" s="74"/>
-      <c r="F12" s="74"/>
-      <c r="G12" s="74"/>
-      <c r="H12" s="74"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="76"/>
       <c r="I12" s="22"/>
       <c r="J12" s="10"/>
       <c r="K12" s="36"/>
@@ -10440,12 +10467,12 @@
         <v>2</v>
       </c>
       <c r="B13" s="27"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="69"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
       <c r="I13" s="54"/>
       <c r="J13" s="20"/>
       <c r="K13" s="35"/>
@@ -10456,32 +10483,36 @@
         <v>1</v>
       </c>
       <c r="B14" s="56"/>
-      <c r="C14" s="74"/>
-      <c r="D14" s="74"/>
-      <c r="E14" s="74"/>
-      <c r="F14" s="74"/>
-      <c r="G14" s="74"/>
-      <c r="H14" s="74"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="76"/>
+      <c r="H14" s="76"/>
       <c r="I14" s="22">
         <v>0.76041666666666663</v>
       </c>
       <c r="J14" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="K14" s="37"/>
-      <c r="L14" s="49"/>
+      <c r="K14" s="37">
+        <v>4</v>
+      </c>
+      <c r="L14" s="49" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="15" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
         <v>2</v>
       </c>
       <c r="B15" s="27"/>
-      <c r="C15" s="69"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="69"/>
-      <c r="H15" s="69"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="70"/>
       <c r="I15" s="27" t="s">
         <v>38</v>
       </c>
@@ -10494,12 +10525,12 @@
         <v>1</v>
       </c>
       <c r="B16" s="56"/>
-      <c r="C16" s="74"/>
-      <c r="D16" s="74"/>
-      <c r="E16" s="74"/>
-      <c r="F16" s="74"/>
-      <c r="G16" s="74"/>
-      <c r="H16" s="74"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="76"/>
       <c r="I16" s="24">
         <v>0.82291666666666663</v>
       </c>
@@ -10512,32 +10543,36 @@
         <v>2</v>
       </c>
       <c r="B17" s="27"/>
-      <c r="C17" s="69"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="69"/>
-      <c r="G17" s="69"/>
-      <c r="H17" s="69"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="70"/>
       <c r="I17" s="27" t="s">
         <v>41</v>
       </c>
       <c r="J17" s="10"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="49"/>
+      <c r="K17" s="36">
+        <v>25</v>
+      </c>
+      <c r="L17" s="49" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
         <v>1</v>
       </c>
       <c r="B18" s="56"/>
-      <c r="C18" s="74">
+      <c r="C18" s="76">
         <v>0.82986111111111116</v>
       </c>
-      <c r="D18" s="74"/>
-      <c r="E18" s="74"/>
-      <c r="F18" s="74"/>
-      <c r="G18" s="74"/>
-      <c r="H18" s="74"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="76"/>
+      <c r="H18" s="76"/>
       <c r="I18" s="22"/>
       <c r="J18" s="10"/>
       <c r="K18" s="36"/>
@@ -10548,14 +10583,14 @@
         <v>2</v>
       </c>
       <c r="B19" s="27"/>
-      <c r="C19" s="78" t="s">
+      <c r="C19" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="69"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="69"/>
-      <c r="H19" s="69"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="70"/>
       <c r="I19" s="47"/>
       <c r="J19" s="20"/>
       <c r="K19" s="35"/>
@@ -10566,14 +10601,14 @@
         <v>1</v>
       </c>
       <c r="B20" s="56"/>
-      <c r="C20" s="74">
+      <c r="C20" s="76">
         <v>0.875</v>
       </c>
-      <c r="D20" s="74"/>
-      <c r="E20" s="74"/>
-      <c r="F20" s="74"/>
-      <c r="G20" s="74"/>
-      <c r="H20" s="74"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="76"/>
       <c r="I20" s="22"/>
       <c r="J20" s="10" t="s">
         <v>32</v>
@@ -10586,14 +10621,14 @@
         <v>2</v>
       </c>
       <c r="B21" s="27"/>
-      <c r="C21" s="78" t="s">
+      <c r="C21" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="69"/>
-      <c r="E21" s="69"/>
-      <c r="F21" s="69"/>
-      <c r="G21" s="69"/>
-      <c r="H21" s="69"/>
+      <c r="D21" s="70"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="70"/>
+      <c r="G21" s="70"/>
+      <c r="H21" s="70"/>
       <c r="I21" s="54"/>
       <c r="J21" s="10"/>
       <c r="K21" s="36"/>
@@ -10604,14 +10639,14 @@
         <v>1</v>
       </c>
       <c r="B22" s="56"/>
-      <c r="C22" s="74" t="s">
+      <c r="C22" s="76" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="74"/>
-      <c r="E22" s="74"/>
-      <c r="F22" s="74"/>
-      <c r="G22" s="74"/>
-      <c r="H22" s="74"/>
+      <c r="D22" s="76"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="76"/>
+      <c r="G22" s="76"/>
+      <c r="H22" s="76"/>
       <c r="I22" s="22"/>
       <c r="J22" s="10"/>
       <c r="K22" s="36"/>
@@ -10622,14 +10657,14 @@
         <v>2</v>
       </c>
       <c r="B23" s="27"/>
-      <c r="C23" s="77">
+      <c r="C23" s="78">
         <v>0.96180555555555547</v>
       </c>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="69"/>
-      <c r="H23" s="69"/>
+      <c r="D23" s="70"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="70"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="70"/>
       <c r="I23" s="54"/>
       <c r="J23" s="10"/>
       <c r="K23" s="36"/>
@@ -10640,12 +10675,12 @@
         <v>1</v>
       </c>
       <c r="B24" s="56"/>
-      <c r="C24" s="74"/>
-      <c r="D24" s="74"/>
-      <c r="E24" s="74"/>
-      <c r="F24" s="74"/>
-      <c r="G24" s="74"/>
-      <c r="H24" s="74"/>
+      <c r="C24" s="76"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="76"/>
+      <c r="F24" s="76"/>
+      <c r="G24" s="76"/>
+      <c r="H24" s="76"/>
       <c r="I24" s="22"/>
       <c r="J24" s="10"/>
       <c r="K24" s="36"/>
@@ -10656,12 +10691,12 @@
         <v>2</v>
       </c>
       <c r="B25" s="27"/>
-      <c r="C25" s="69"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="69"/>
-      <c r="H25" s="69"/>
+      <c r="C25" s="70"/>
+      <c r="D25" s="70"/>
+      <c r="E25" s="70"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="70"/>
       <c r="I25" s="54"/>
       <c r="J25" s="20"/>
       <c r="K25" s="35"/>
@@ -10672,12 +10707,12 @@
         <v>1</v>
       </c>
       <c r="B26" s="56"/>
-      <c r="C26" s="74"/>
-      <c r="D26" s="74"/>
-      <c r="E26" s="74"/>
-      <c r="F26" s="74"/>
-      <c r="G26" s="74"/>
-      <c r="H26" s="74"/>
+      <c r="C26" s="76"/>
+      <c r="D26" s="76"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="76"/>
+      <c r="H26" s="76"/>
       <c r="I26" s="22"/>
       <c r="J26" s="10" t="s">
         <v>33</v>
@@ -10690,12 +10725,12 @@
         <v>2</v>
       </c>
       <c r="B27" s="27"/>
-      <c r="C27" s="69"/>
-      <c r="D27" s="69"/>
-      <c r="E27" s="69"/>
-      <c r="F27" s="69"/>
-      <c r="G27" s="69"/>
-      <c r="H27" s="69"/>
+      <c r="C27" s="70"/>
+      <c r="D27" s="70"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="70"/>
       <c r="I27" s="54"/>
       <c r="J27" s="10"/>
       <c r="K27" s="36"/>
@@ -10706,12 +10741,12 @@
         <v>1</v>
       </c>
       <c r="B28" s="56"/>
-      <c r="C28" s="74"/>
-      <c r="D28" s="74"/>
-      <c r="E28" s="74"/>
-      <c r="F28" s="74"/>
-      <c r="G28" s="74"/>
-      <c r="H28" s="74"/>
+      <c r="C28" s="76"/>
+      <c r="D28" s="76"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="76"/>
+      <c r="G28" s="76"/>
+      <c r="H28" s="76"/>
       <c r="I28" s="22"/>
       <c r="J28" s="10"/>
       <c r="K28" s="36"/>
@@ -10722,12 +10757,12 @@
         <v>2</v>
       </c>
       <c r="B29" s="27"/>
-      <c r="C29" s="69"/>
-      <c r="D29" s="69"/>
-      <c r="E29" s="69"/>
-      <c r="F29" s="69"/>
-      <c r="G29" s="69"/>
-      <c r="H29" s="69"/>
+      <c r="C29" s="70"/>
+      <c r="D29" s="70"/>
+      <c r="E29" s="70"/>
+      <c r="F29" s="70"/>
+      <c r="G29" s="70"/>
+      <c r="H29" s="70"/>
       <c r="I29" s="54"/>
       <c r="J29" s="10"/>
       <c r="K29" s="36"/>
@@ -10738,12 +10773,12 @@
         <v>1</v>
       </c>
       <c r="B30" s="56"/>
-      <c r="C30" s="74"/>
-      <c r="D30" s="74"/>
-      <c r="E30" s="74"/>
-      <c r="F30" s="74"/>
-      <c r="G30" s="74"/>
-      <c r="H30" s="74"/>
+      <c r="C30" s="76"/>
+      <c r="D30" s="76"/>
+      <c r="E30" s="76"/>
+      <c r="F30" s="76"/>
+      <c r="G30" s="76"/>
+      <c r="H30" s="76"/>
       <c r="I30" s="22"/>
       <c r="J30" s="10"/>
       <c r="K30" s="36"/>
@@ -10754,12 +10789,12 @@
         <v>2</v>
       </c>
       <c r="B31" s="28"/>
-      <c r="C31" s="71"/>
-      <c r="D31" s="71"/>
-      <c r="E31" s="71"/>
-      <c r="F31" s="71"/>
-      <c r="G31" s="71"/>
-      <c r="H31" s="71"/>
+      <c r="C31" s="72"/>
+      <c r="D31" s="72"/>
+      <c r="E31" s="72"/>
+      <c r="F31" s="72"/>
+      <c r="G31" s="72"/>
+      <c r="H31" s="72"/>
       <c r="I31" s="55"/>
       <c r="J31" s="10"/>
       <c r="K31" s="42"/>
@@ -10767,60 +10802,6 @@
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="G31:H31"/>
@@ -10830,6 +10811,60 @@
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="G30:H30"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:H3">
     <cfRule type="expression" dxfId="50" priority="10" stopIfTrue="1">
@@ -11232,14 +11267,14 @@
       <c r="B12" s="21">
         <v>0.33333333333333331</v>
       </c>
-      <c r="C12" s="74"/>
-      <c r="D12" s="74"/>
-      <c r="E12" s="74">
+      <c r="C12" s="76"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="76">
         <v>0.33333333333333331</v>
       </c>
-      <c r="F12" s="74"/>
-      <c r="G12" s="74"/>
-      <c r="H12" s="74"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="76"/>
       <c r="I12" s="22">
         <v>0.33333333333333331</v>
       </c>
@@ -11254,14 +11289,14 @@
       <c r="B13" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="69"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="69" t="s">
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="F13" s="69"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="69"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
       <c r="I13" s="30" t="s">
         <v>5</v>
       </c>
@@ -11274,16 +11309,16 @@
         <v>1</v>
       </c>
       <c r="B14" s="21"/>
-      <c r="C14" s="74">
+      <c r="C14" s="76">
         <v>0.375</v>
       </c>
-      <c r="D14" s="74"/>
-      <c r="E14" s="74"/>
-      <c r="F14" s="74"/>
-      <c r="G14" s="74">
+      <c r="D14" s="76"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="76">
         <v>0.375</v>
       </c>
-      <c r="H14" s="74"/>
+      <c r="H14" s="76"/>
       <c r="I14" s="22"/>
       <c r="J14" s="10" t="s">
         <v>31</v>
@@ -11296,16 +11331,16 @@
         <v>2</v>
       </c>
       <c r="B15" s="27"/>
-      <c r="C15" s="69" t="s">
+      <c r="C15" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="69"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="69" t="s">
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="69"/>
+      <c r="H15" s="70"/>
       <c r="I15" s="30"/>
       <c r="J15" s="10"/>
       <c r="K15" s="36"/>
@@ -11318,14 +11353,14 @@
       <c r="B16" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="74"/>
-      <c r="D16" s="74"/>
-      <c r="E16" s="74" t="s">
+      <c r="C16" s="76"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="F16" s="74"/>
-      <c r="G16" s="74"/>
-      <c r="H16" s="74"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="76"/>
       <c r="I16" s="24" t="s">
         <v>6</v>
       </c>
@@ -11340,14 +11375,14 @@
       <c r="B17" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="69"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="69" t="s">
+      <c r="C17" s="70"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="F17" s="69"/>
-      <c r="G17" s="69"/>
-      <c r="H17" s="69"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="70"/>
       <c r="I17" s="30" t="s">
         <v>7</v>
       </c>
@@ -11360,12 +11395,12 @@
         <v>1</v>
       </c>
       <c r="B18" s="21"/>
-      <c r="C18" s="74"/>
-      <c r="D18" s="74"/>
-      <c r="E18" s="74"/>
-      <c r="F18" s="74"/>
-      <c r="G18" s="74"/>
-      <c r="H18" s="74"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="76"/>
+      <c r="H18" s="76"/>
       <c r="I18" s="22"/>
       <c r="J18" s="10"/>
       <c r="K18" s="36"/>
@@ -11376,12 +11411,12 @@
         <v>2</v>
       </c>
       <c r="B19" s="27"/>
-      <c r="C19" s="69"/>
-      <c r="D19" s="69"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="69"/>
-      <c r="H19" s="69"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="70"/>
       <c r="I19" s="47"/>
       <c r="J19" s="20"/>
       <c r="K19" s="35"/>
@@ -11392,12 +11427,12 @@
         <v>1</v>
       </c>
       <c r="B20" s="21"/>
-      <c r="C20" s="74"/>
-      <c r="D20" s="74"/>
-      <c r="E20" s="74"/>
-      <c r="F20" s="74"/>
-      <c r="G20" s="74"/>
-      <c r="H20" s="74"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="76"/>
       <c r="I20" s="22"/>
       <c r="J20" s="10" t="s">
         <v>32</v>
@@ -11410,12 +11445,12 @@
         <v>2</v>
       </c>
       <c r="B21" s="27"/>
-      <c r="C21" s="69"/>
-      <c r="D21" s="69"/>
-      <c r="E21" s="69"/>
-      <c r="F21" s="69"/>
-      <c r="G21" s="69"/>
-      <c r="H21" s="69"/>
+      <c r="C21" s="70"/>
+      <c r="D21" s="70"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="70"/>
+      <c r="G21" s="70"/>
+      <c r="H21" s="70"/>
       <c r="I21" s="30"/>
       <c r="J21" s="10"/>
       <c r="K21" s="36"/>
@@ -11426,12 +11461,12 @@
         <v>1</v>
       </c>
       <c r="B22" s="21"/>
-      <c r="C22" s="74"/>
-      <c r="D22" s="74"/>
-      <c r="E22" s="74"/>
-      <c r="F22" s="74"/>
-      <c r="G22" s="74"/>
-      <c r="H22" s="74"/>
+      <c r="C22" s="76"/>
+      <c r="D22" s="76"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="76"/>
+      <c r="G22" s="76"/>
+      <c r="H22" s="76"/>
       <c r="I22" s="22"/>
       <c r="J22" s="10"/>
       <c r="K22" s="36"/>
@@ -11442,12 +11477,12 @@
         <v>2</v>
       </c>
       <c r="B23" s="27"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="69"/>
-      <c r="H23" s="69"/>
+      <c r="C23" s="70"/>
+      <c r="D23" s="70"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="70"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="70"/>
       <c r="I23" s="30"/>
       <c r="J23" s="10"/>
       <c r="K23" s="36"/>
@@ -11460,14 +11495,14 @@
       <c r="B24" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="74"/>
-      <c r="D24" s="74"/>
-      <c r="E24" s="74" t="s">
+      <c r="C24" s="76"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="74"/>
-      <c r="G24" s="74"/>
-      <c r="H24" s="74"/>
+      <c r="F24" s="76"/>
+      <c r="G24" s="76"/>
+      <c r="H24" s="76"/>
       <c r="I24" s="22" t="s">
         <v>8</v>
       </c>
@@ -11482,14 +11517,14 @@
       <c r="B25" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="69"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69" t="s">
+      <c r="C25" s="70"/>
+      <c r="D25" s="70"/>
+      <c r="E25" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="F25" s="69"/>
-      <c r="G25" s="69"/>
-      <c r="H25" s="69"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="70"/>
       <c r="I25" s="30" t="s">
         <v>9</v>
       </c>
@@ -11502,12 +11537,12 @@
         <v>1</v>
       </c>
       <c r="B26" s="21"/>
-      <c r="C26" s="74"/>
-      <c r="D26" s="74"/>
-      <c r="E26" s="74"/>
-      <c r="F26" s="74"/>
-      <c r="G26" s="74"/>
-      <c r="H26" s="74"/>
+      <c r="C26" s="76"/>
+      <c r="D26" s="76"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="76"/>
+      <c r="H26" s="76"/>
       <c r="I26" s="22"/>
       <c r="J26" s="10" t="s">
         <v>33</v>
@@ -11520,12 +11555,12 @@
         <v>2</v>
       </c>
       <c r="B27" s="27"/>
-      <c r="C27" s="69"/>
-      <c r="D27" s="69"/>
-      <c r="E27" s="69"/>
-      <c r="F27" s="69"/>
-      <c r="G27" s="69"/>
-      <c r="H27" s="69"/>
+      <c r="C27" s="70"/>
+      <c r="D27" s="70"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="70"/>
       <c r="I27" s="30"/>
       <c r="J27" s="10"/>
       <c r="K27" s="36"/>
@@ -11536,16 +11571,16 @@
         <v>1</v>
       </c>
       <c r="B28" s="21"/>
-      <c r="C28" s="74" t="s">
+      <c r="C28" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="D28" s="74"/>
-      <c r="E28" s="74"/>
-      <c r="F28" s="74"/>
-      <c r="G28" s="74" t="s">
+      <c r="D28" s="76"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="76"/>
+      <c r="G28" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="H28" s="74"/>
+      <c r="H28" s="76"/>
       <c r="I28" s="22"/>
       <c r="J28" s="10"/>
       <c r="K28" s="36"/>
@@ -11556,16 +11591,16 @@
         <v>2</v>
       </c>
       <c r="B29" s="27"/>
-      <c r="C29" s="69" t="s">
+      <c r="C29" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="69"/>
-      <c r="E29" s="69"/>
-      <c r="F29" s="69"/>
-      <c r="G29" s="69" t="s">
+      <c r="D29" s="70"/>
+      <c r="E29" s="70"/>
+      <c r="F29" s="70"/>
+      <c r="G29" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="H29" s="69"/>
+      <c r="H29" s="70"/>
       <c r="I29" s="30"/>
       <c r="J29" s="10"/>
       <c r="K29" s="36"/>
@@ -11576,12 +11611,12 @@
         <v>1</v>
       </c>
       <c r="B30" s="21"/>
-      <c r="C30" s="74"/>
-      <c r="D30" s="74"/>
-      <c r="E30" s="74"/>
-      <c r="F30" s="74"/>
-      <c r="G30" s="74"/>
-      <c r="H30" s="74"/>
+      <c r="C30" s="76"/>
+      <c r="D30" s="76"/>
+      <c r="E30" s="76"/>
+      <c r="F30" s="76"/>
+      <c r="G30" s="76"/>
+      <c r="H30" s="76"/>
       <c r="I30" s="22"/>
       <c r="J30" s="10"/>
       <c r="K30" s="36"/>
@@ -11592,12 +11627,12 @@
         <v>2</v>
       </c>
       <c r="B31" s="28"/>
-      <c r="C31" s="71"/>
-      <c r="D31" s="71"/>
-      <c r="E31" s="71"/>
-      <c r="F31" s="71"/>
-      <c r="G31" s="71"/>
-      <c r="H31" s="71"/>
+      <c r="C31" s="72"/>
+      <c r="D31" s="72"/>
+      <c r="E31" s="72"/>
+      <c r="F31" s="72"/>
+      <c r="G31" s="72"/>
+      <c r="H31" s="72"/>
       <c r="I31" s="40"/>
       <c r="J31" s="10"/>
       <c r="K31" s="42"/>
@@ -11605,60 +11640,6 @@
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="G31:H31"/>
@@ -11668,6 +11649,60 @@
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="G30:H30"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:H3">
     <cfRule type="expression" dxfId="41" priority="6" stopIfTrue="1">
@@ -12070,14 +12105,14 @@
       <c r="B12" s="21">
         <v>0.33333333333333331</v>
       </c>
-      <c r="C12" s="74"/>
-      <c r="D12" s="74"/>
-      <c r="E12" s="74">
+      <c r="C12" s="76"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="76">
         <v>0.33333333333333331</v>
       </c>
-      <c r="F12" s="74"/>
-      <c r="G12" s="74"/>
-      <c r="H12" s="74"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="76"/>
       <c r="I12" s="22">
         <v>0.33333333333333331</v>
       </c>
@@ -12092,14 +12127,14 @@
       <c r="B13" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="69"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="69" t="s">
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="F13" s="69"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="69"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
       <c r="I13" s="30" t="s">
         <v>5</v>
       </c>
@@ -12112,16 +12147,16 @@
         <v>1</v>
       </c>
       <c r="B14" s="21"/>
-      <c r="C14" s="74">
+      <c r="C14" s="76">
         <v>0.375</v>
       </c>
-      <c r="D14" s="74"/>
-      <c r="E14" s="74"/>
-      <c r="F14" s="74"/>
-      <c r="G14" s="74">
+      <c r="D14" s="76"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="76">
         <v>0.375</v>
       </c>
-      <c r="H14" s="74"/>
+      <c r="H14" s="76"/>
       <c r="I14" s="22"/>
       <c r="J14" s="10" t="s">
         <v>31</v>
@@ -12134,16 +12169,16 @@
         <v>2</v>
       </c>
       <c r="B15" s="27"/>
-      <c r="C15" s="69" t="s">
+      <c r="C15" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="69"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="69" t="s">
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="69"/>
+      <c r="H15" s="70"/>
       <c r="I15" s="30"/>
       <c r="J15" s="10"/>
       <c r="K15" s="36"/>
@@ -12156,14 +12191,14 @@
       <c r="B16" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="74"/>
-      <c r="D16" s="74"/>
-      <c r="E16" s="74" t="s">
+      <c r="C16" s="76"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="F16" s="74"/>
-      <c r="G16" s="74"/>
-      <c r="H16" s="74"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="76"/>
       <c r="I16" s="24" t="s">
         <v>6</v>
       </c>
@@ -12178,14 +12213,14 @@
       <c r="B17" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="69"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="69" t="s">
+      <c r="C17" s="70"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="F17" s="69"/>
-      <c r="G17" s="69"/>
-      <c r="H17" s="69"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="70"/>
       <c r="I17" s="30" t="s">
         <v>7</v>
       </c>
@@ -12198,12 +12233,12 @@
         <v>1</v>
       </c>
       <c r="B18" s="21"/>
-      <c r="C18" s="74"/>
-      <c r="D18" s="74"/>
-      <c r="E18" s="74"/>
-      <c r="F18" s="74"/>
-      <c r="G18" s="74"/>
-      <c r="H18" s="74"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="76"/>
+      <c r="H18" s="76"/>
       <c r="I18" s="22"/>
       <c r="J18" s="10"/>
       <c r="K18" s="36"/>
@@ -12214,12 +12249,12 @@
         <v>2</v>
       </c>
       <c r="B19" s="27"/>
-      <c r="C19" s="69"/>
-      <c r="D19" s="69"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="69"/>
-      <c r="H19" s="69"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="70"/>
       <c r="I19" s="47"/>
       <c r="J19" s="20"/>
       <c r="K19" s="35"/>
@@ -12230,12 +12265,12 @@
         <v>1</v>
       </c>
       <c r="B20" s="21"/>
-      <c r="C20" s="74"/>
-      <c r="D20" s="74"/>
-      <c r="E20" s="74"/>
-      <c r="F20" s="74"/>
-      <c r="G20" s="74"/>
-      <c r="H20" s="74"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="76"/>
       <c r="I20" s="22"/>
       <c r="J20" s="10" t="s">
         <v>32</v>
@@ -12248,12 +12283,12 @@
         <v>2</v>
       </c>
       <c r="B21" s="27"/>
-      <c r="C21" s="69"/>
-      <c r="D21" s="69"/>
-      <c r="E21" s="69"/>
-      <c r="F21" s="69"/>
-      <c r="G21" s="69"/>
-      <c r="H21" s="69"/>
+      <c r="C21" s="70"/>
+      <c r="D21" s="70"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="70"/>
+      <c r="G21" s="70"/>
+      <c r="H21" s="70"/>
       <c r="I21" s="30"/>
       <c r="J21" s="10"/>
       <c r="K21" s="36"/>
@@ -12264,12 +12299,12 @@
         <v>1</v>
       </c>
       <c r="B22" s="21"/>
-      <c r="C22" s="74"/>
-      <c r="D22" s="74"/>
-      <c r="E22" s="74"/>
-      <c r="F22" s="74"/>
-      <c r="G22" s="74"/>
-      <c r="H22" s="74"/>
+      <c r="C22" s="76"/>
+      <c r="D22" s="76"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="76"/>
+      <c r="G22" s="76"/>
+      <c r="H22" s="76"/>
       <c r="I22" s="22"/>
       <c r="J22" s="10"/>
       <c r="K22" s="36"/>
@@ -12280,12 +12315,12 @@
         <v>2</v>
       </c>
       <c r="B23" s="27"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="69"/>
-      <c r="H23" s="69"/>
+      <c r="C23" s="70"/>
+      <c r="D23" s="70"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="70"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="70"/>
       <c r="I23" s="30"/>
       <c r="J23" s="10"/>
       <c r="K23" s="36"/>
@@ -12298,14 +12333,14 @@
       <c r="B24" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="74"/>
-      <c r="D24" s="74"/>
-      <c r="E24" s="74" t="s">
+      <c r="C24" s="76"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="74"/>
-      <c r="G24" s="74"/>
-      <c r="H24" s="74"/>
+      <c r="F24" s="76"/>
+      <c r="G24" s="76"/>
+      <c r="H24" s="76"/>
       <c r="I24" s="22" t="s">
         <v>8</v>
       </c>
@@ -12320,14 +12355,14 @@
       <c r="B25" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="69"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69" t="s">
+      <c r="C25" s="70"/>
+      <c r="D25" s="70"/>
+      <c r="E25" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="F25" s="69"/>
-      <c r="G25" s="69"/>
-      <c r="H25" s="69"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="70"/>
       <c r="I25" s="30" t="s">
         <v>9</v>
       </c>
@@ -12340,12 +12375,12 @@
         <v>1</v>
       </c>
       <c r="B26" s="21"/>
-      <c r="C26" s="74"/>
-      <c r="D26" s="74"/>
-      <c r="E26" s="74"/>
-      <c r="F26" s="74"/>
-      <c r="G26" s="74"/>
-      <c r="H26" s="74"/>
+      <c r="C26" s="76"/>
+      <c r="D26" s="76"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="76"/>
+      <c r="H26" s="76"/>
       <c r="I26" s="22"/>
       <c r="J26" s="10" t="s">
         <v>33</v>
@@ -12358,12 +12393,12 @@
         <v>2</v>
       </c>
       <c r="B27" s="27"/>
-      <c r="C27" s="69"/>
-      <c r="D27" s="69"/>
-      <c r="E27" s="69"/>
-      <c r="F27" s="69"/>
-      <c r="G27" s="69"/>
-      <c r="H27" s="69"/>
+      <c r="C27" s="70"/>
+      <c r="D27" s="70"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="70"/>
       <c r="I27" s="30"/>
       <c r="J27" s="10"/>
       <c r="K27" s="36"/>
@@ -12374,16 +12409,16 @@
         <v>1</v>
       </c>
       <c r="B28" s="21"/>
-      <c r="C28" s="74" t="s">
+      <c r="C28" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="D28" s="74"/>
-      <c r="E28" s="74"/>
-      <c r="F28" s="74"/>
-      <c r="G28" s="74" t="s">
+      <c r="D28" s="76"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="76"/>
+      <c r="G28" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="H28" s="74"/>
+      <c r="H28" s="76"/>
       <c r="I28" s="22"/>
       <c r="J28" s="10"/>
       <c r="K28" s="36"/>
@@ -12394,16 +12429,16 @@
         <v>2</v>
       </c>
       <c r="B29" s="27"/>
-      <c r="C29" s="69" t="s">
+      <c r="C29" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="69"/>
-      <c r="E29" s="69"/>
-      <c r="F29" s="69"/>
-      <c r="G29" s="69" t="s">
+      <c r="D29" s="70"/>
+      <c r="E29" s="70"/>
+      <c r="F29" s="70"/>
+      <c r="G29" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="H29" s="69"/>
+      <c r="H29" s="70"/>
       <c r="I29" s="30"/>
       <c r="J29" s="10"/>
       <c r="K29" s="36"/>
@@ -12414,12 +12449,12 @@
         <v>1</v>
       </c>
       <c r="B30" s="21"/>
-      <c r="C30" s="74"/>
-      <c r="D30" s="74"/>
-      <c r="E30" s="74"/>
-      <c r="F30" s="74"/>
-      <c r="G30" s="74"/>
-      <c r="H30" s="74"/>
+      <c r="C30" s="76"/>
+      <c r="D30" s="76"/>
+      <c r="E30" s="76"/>
+      <c r="F30" s="76"/>
+      <c r="G30" s="76"/>
+      <c r="H30" s="76"/>
       <c r="I30" s="22"/>
       <c r="J30" s="10"/>
       <c r="K30" s="36"/>
@@ -12430,12 +12465,12 @@
         <v>2</v>
       </c>
       <c r="B31" s="28"/>
-      <c r="C31" s="71"/>
-      <c r="D31" s="71"/>
-      <c r="E31" s="71"/>
-      <c r="F31" s="71"/>
-      <c r="G31" s="71"/>
-      <c r="H31" s="71"/>
+      <c r="C31" s="72"/>
+      <c r="D31" s="72"/>
+      <c r="E31" s="72"/>
+      <c r="F31" s="72"/>
+      <c r="G31" s="72"/>
+      <c r="H31" s="72"/>
       <c r="I31" s="40"/>
       <c r="J31" s="10"/>
       <c r="K31" s="42"/>
@@ -12443,60 +12478,6 @@
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="G31:H31"/>
@@ -12506,6 +12487,60 @@
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="G30:H30"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:H3">
     <cfRule type="expression" dxfId="33" priority="6" stopIfTrue="1">
